--- a/Snake/Documents/Helper.xlsx
+++ b/Snake/Documents/Helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Visual Studio Projects\Visual Studio 2019\Projetcs\Snake\Snake\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA1C81-52EE-46AD-9AE4-19A7756267F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F24266-D8C6-4453-8C5E-9D09388BB279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
   </bookViews>
@@ -1161,12 +1161,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1191,6 +1185,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13667,8 +13667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C1CA8-4445-4A42-837E-08649278B969}">
   <dimension ref="A8:BS163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="BF122" sqref="BF122"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="N105" sqref="N105:O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -15844,33 +15844,33 @@
         <f t="shared" ref="AD67" si="29">AC67+1</f>
         <v>5</v>
       </c>
-      <c r="AM67" s="109"/>
-      <c r="AN67" s="110">
+      <c r="AM67" s="107"/>
+      <c r="AN67" s="108">
         <v>1</v>
       </c>
-      <c r="AO67" s="110">
+      <c r="AO67" s="108">
         <f>AN67+1</f>
         <v>2</v>
       </c>
-      <c r="AP67" s="110">
+      <c r="AP67" s="108">
         <f>AO67+1</f>
         <v>3</v>
       </c>
-      <c r="AQ67" s="110">
+      <c r="AQ67" s="108">
         <f>AP67+1</f>
         <v>4</v>
       </c>
-      <c r="AR67" s="110">
+      <c r="AR67" s="108">
         <f>AQ67+1</f>
         <v>5</v>
       </c>
-      <c r="AS67" s="110">
+      <c r="AS67" s="108">
         <f>AR67+1</f>
         <v>6</v>
       </c>
-      <c r="AT67" s="111"/>
-      <c r="AU67" s="111"/>
-      <c r="AV67" s="112"/>
+      <c r="AT67" s="109"/>
+      <c r="AU67" s="109"/>
+      <c r="AV67" s="110"/>
     </row>
     <row r="68" spans="25:65">
       <c r="Y68" s="1">
@@ -15891,7 +15891,7 @@
       <c r="AD68" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AM68" s="113">
+      <c r="AM68" s="111">
         <v>1</v>
       </c>
       <c r="AN68" s="16" t="s">
@@ -15945,7 +15945,7 @@
       <c r="AD69" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AM69" s="113">
+      <c r="AM69" s="111">
         <f>AM68+1</f>
         <v>2</v>
       </c>
@@ -16000,7 +16000,7 @@
       <c r="AD70" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AM70" s="113">
+      <c r="AM70" s="111">
         <f>AM69+1</f>
         <v>3</v>
       </c>
@@ -16046,7 +16046,7 @@
       <c r="AD71" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AM71" s="113">
+      <c r="AM71" s="111">
         <f>AM70+1</f>
         <v>4</v>
       </c>
@@ -16123,7 +16123,7 @@
         <f t="shared" ref="AD74" si="32">AC74+1</f>
         <v>5</v>
       </c>
-      <c r="AM74" s="114"/>
+      <c r="AM74" s="112"/>
       <c r="AN74" s="5">
         <v>1</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="AD75" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AM75" s="113">
+      <c r="AM75" s="111">
         <v>1</v>
       </c>
       <c r="AN75" s="15" t="s">
@@ -16215,7 +16215,7 @@
       <c r="AD76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AM76" s="113">
+      <c r="AM76" s="111">
         <f>AM75+1</f>
         <v>2</v>
       </c>
@@ -16261,7 +16261,7 @@
       <c r="AD77" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AM77" s="113">
+      <c r="AM77" s="111">
         <f>AM76+1</f>
         <v>3</v>
       </c>
@@ -16307,7 +16307,7 @@
       <c r="AD78" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AM78" s="113">
+      <c r="AM78" s="111">
         <f>AM77+1</f>
         <v>4</v>
       </c>
@@ -16374,7 +16374,7 @@
       <c r="AV81" s="89"/>
     </row>
     <row r="82" spans="39:48">
-      <c r="AM82" s="114"/>
+      <c r="AM82" s="112"/>
       <c r="AN82" s="2"/>
       <c r="AO82" s="2"/>
       <c r="AP82" s="2"/>
@@ -16383,7 +16383,7 @@
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
-      <c r="AV82" s="115"/>
+      <c r="AV82" s="113"/>
     </row>
     <row r="84" spans="39:48">
       <c r="AN84" t="s">
@@ -16623,27 +16623,27 @@
       <c r="Y103" t="s">
         <v>128</v>
       </c>
-      <c r="AQ103" s="123"/>
-      <c r="AR103" s="124"/>
-      <c r="AS103" s="124"/>
-      <c r="AT103" s="124"/>
-      <c r="AU103" s="124"/>
-      <c r="AV103" s="124"/>
-      <c r="AW103" s="124"/>
-      <c r="AX103" s="124"/>
-      <c r="AY103" s="124"/>
-      <c r="AZ103" s="124"/>
-      <c r="BA103" s="124"/>
-      <c r="BB103" s="124"/>
-      <c r="BC103" s="124"/>
-      <c r="BD103" s="124"/>
-      <c r="BE103" s="124"/>
-      <c r="BF103" s="124"/>
-      <c r="BG103" s="124"/>
-      <c r="BH103" s="124"/>
-      <c r="BI103" s="124"/>
-      <c r="BJ103" s="124"/>
-      <c r="BK103" s="124"/>
+      <c r="AQ103" s="121"/>
+      <c r="AR103" s="122"/>
+      <c r="AS103" s="122"/>
+      <c r="AT103" s="122"/>
+      <c r="AU103" s="122"/>
+      <c r="AV103" s="122"/>
+      <c r="AW103" s="122"/>
+      <c r="AX103" s="122"/>
+      <c r="AY103" s="122"/>
+      <c r="AZ103" s="122"/>
+      <c r="BA103" s="122"/>
+      <c r="BB103" s="122"/>
+      <c r="BC103" s="122"/>
+      <c r="BD103" s="122"/>
+      <c r="BE103" s="122"/>
+      <c r="BF103" s="122"/>
+      <c r="BG103" s="122"/>
+      <c r="BH103" s="122"/>
+      <c r="BI103" s="122"/>
+      <c r="BJ103" s="122"/>
+      <c r="BK103" s="122"/>
       <c r="BL103" s="13"/>
     </row>
     <row r="104" spans="3:71" ht="15" thickBot="1">
@@ -16707,19 +16707,19 @@
       <c r="Z104" s="5">
         <v>1</v>
       </c>
-      <c r="AA104" s="119">
+      <c r="AA104" s="117">
         <f>Z104+1</f>
         <v>2</v>
       </c>
-      <c r="AB104" s="120">
+      <c r="AB104" s="118">
         <f>AA104+1</f>
         <v>3</v>
       </c>
-      <c r="AC104" s="119">
+      <c r="AC104" s="117">
         <f>AB104+1</f>
         <v>4</v>
       </c>
-      <c r="AD104" s="120">
+      <c r="AD104" s="118">
         <f>AC104+1</f>
         <v>5</v>
       </c>
@@ -16732,27 +16732,27 @@
         <v>1</v>
       </c>
       <c r="AI104" s="5">
-        <f>AH104+1</f>
+        <f t="shared" ref="AI104:AN104" si="35">AH104+1</f>
         <v>2</v>
       </c>
       <c r="AJ104" s="5">
-        <f>AI104+1</f>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="AK104" s="5">
-        <f>AJ104+1</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="AL104" s="5">
-        <f>AK104+1</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="AM104" s="5">
-        <f>AL104+1</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="AN104" s="5">
-        <f>AM104+1</f>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="AQ104" s="20"/>
@@ -16786,7 +16786,7 @@
       <c r="BI104" s="21"/>
       <c r="BJ104" s="21"/>
       <c r="BK104" s="21"/>
-      <c r="BL104" s="125">
+      <c r="BL104" s="123">
         <f>BE104+1</f>
         <v>4</v>
       </c>
@@ -16852,16 +16852,16 @@
       <c r="Z105" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA105" s="121" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB105" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC105" s="121" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD105" s="122" t="s">
+      <c r="AA105" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB105" s="120" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC105" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD105" s="120" t="s">
         <v>13</v>
       </c>
       <c r="AE105" s="9" t="s">
@@ -16924,7 +16924,7 @@
       <c r="BI105" s="21"/>
       <c r="BJ105" s="21"/>
       <c r="BK105" s="21"/>
-      <c r="BL105" s="122" t="s">
+      <c r="BL105" s="120" t="s">
         <v>13</v>
       </c>
       <c r="BP105" t="s">
@@ -16934,7 +16934,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="3:71">
+    <row r="106" spans="3:71" ht="15" thickBot="1">
       <c r="C106" s="1">
         <f>C105+1</f>
         <v>2</v>
@@ -16965,10 +16965,10 @@
       <c r="M106" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N106" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="O106" s="116" t="s">
+      <c r="N106" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="O106" s="126" t="s">
         <v>15</v>
       </c>
       <c r="P106" s="8" t="s">
@@ -17003,13 +17003,13 @@
       <c r="AA106" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AB106" s="116" t="s">
+      <c r="AB106" s="114" t="s">
         <v>15</v>
       </c>
       <c r="AC106" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AD106" s="116" t="s">
+      <c r="AD106" s="114" t="s">
         <v>15</v>
       </c>
       <c r="AE106" s="8" t="s">
@@ -17060,7 +17060,7 @@
       <c r="BD106" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="BE106" s="116" t="s">
+      <c r="BE106" s="114" t="s">
         <v>15</v>
       </c>
       <c r="BF106" s="21"/>
@@ -17069,7 +17069,7 @@
       <c r="BI106" s="21"/>
       <c r="BJ106" s="21"/>
       <c r="BK106" s="21"/>
-      <c r="BL106" s="126" t="s">
+      <c r="BL106" s="124" t="s">
         <v>16</v>
       </c>
       <c r="BN106" t="s">
@@ -17113,10 +17113,10 @@
       <c r="M107" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N107" s="117" t="s">
+      <c r="N107" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="O107" s="118" t="s">
+      <c r="O107" s="116" t="s">
         <v>17</v>
       </c>
       <c r="P107" s="8" t="s">
@@ -17148,16 +17148,16 @@
       <c r="Z107" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA107" s="117" t="s">
+      <c r="AA107" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AB107" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC107" s="117" t="s">
+      <c r="AB107" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC107" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AD107" s="118" t="s">
+      <c r="AD107" s="116" t="s">
         <v>17</v>
       </c>
       <c r="AE107" s="8" t="s">
@@ -17205,10 +17205,10 @@
       <c r="BA107" s="21"/>
       <c r="BB107" s="21"/>
       <c r="BC107" s="21"/>
-      <c r="BD107" s="117" t="s">
+      <c r="BD107" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="BE107" s="118" t="s">
+      <c r="BE107" s="116" t="s">
         <v>17</v>
       </c>
       <c r="BF107" s="21"/>
@@ -17217,7 +17217,7 @@
       <c r="BI107" s="21"/>
       <c r="BJ107" s="21"/>
       <c r="BK107" s="21"/>
-      <c r="BL107" s="126" t="s">
+      <c r="BL107" s="124" t="s">
         <v>16</v>
       </c>
     </row>
@@ -17535,10 +17535,10 @@
       <c r="M116" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N116" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="O116" s="128" t="s">
+      <c r="N116" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="O116" s="126" t="s">
         <v>15</v>
       </c>
       <c r="P116" s="8" t="s">
@@ -17551,16 +17551,16 @@
       <c r="Z116" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA116" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB116" s="128" t="s">
+      <c r="AA116" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB116" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AC116" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD116" s="128" t="s">
+      <c r="AC116" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD116" s="126" t="s">
         <v>15</v>
       </c>
       <c r="AE116" s="8" t="s">
@@ -17585,10 +17585,10 @@
       <c r="M117" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N117" s="131" t="s">
+      <c r="N117" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="O117" s="132" t="s">
+      <c r="O117" s="130" t="s">
         <v>15</v>
       </c>
       <c r="P117" s="8" t="s">
@@ -17601,16 +17601,16 @@
       <c r="Z117" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA117" s="131" t="s">
+      <c r="AA117" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AB117" s="132" t="s">
+      <c r="AB117" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="AC117" s="131" t="s">
+      <c r="AC117" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AD117" s="132" t="s">
+      <c r="AD117" s="130" t="s">
         <v>15</v>
       </c>
       <c r="AE117" s="8" t="s">
@@ -17645,10 +17645,10 @@
       <c r="M118" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N118" s="117" t="s">
+      <c r="N118" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="O118" s="128" t="s">
+      <c r="O118" s="126" t="s">
         <v>15</v>
       </c>
       <c r="P118" s="8" t="s">
@@ -17661,16 +17661,16 @@
       <c r="Z118" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA118" s="117" t="s">
+      <c r="AA118" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AB118" s="128" t="s">
+      <c r="AB118" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="AC118" s="117" t="s">
+      <c r="AC118" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="AD118" s="128" t="s">
+      <c r="AD118" s="126" t="s">
         <v>15</v>
       </c>
       <c r="AE118" s="8" t="s">
@@ -17707,10 +17707,10 @@
       <c r="M119" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N119" s="129" t="s">
+      <c r="N119" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="O119" s="130" t="s">
+      <c r="O119" s="128" t="s">
         <v>17</v>
       </c>
       <c r="P119" s="8" t="s">
@@ -17723,16 +17723,16 @@
       <c r="Z119" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA119" s="129" t="s">
+      <c r="AA119" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="AB119" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC119" s="129" t="s">
+      <c r="AB119" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC119" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="AD119" s="130" t="s">
+      <c r="AD119" s="128" t="s">
         <v>17</v>
       </c>
       <c r="AE119" s="8" t="s">
@@ -17784,65 +17784,65 @@
     </row>
     <row r="133" spans="2:61" ht="15" thickBot="1"/>
     <row r="134" spans="2:61">
-      <c r="B134" s="123"/>
-      <c r="C134" s="124"/>
-      <c r="D134" s="124"/>
-      <c r="E134" s="124"/>
-      <c r="F134" s="124"/>
-      <c r="G134" s="124"/>
-      <c r="H134" s="124"/>
-      <c r="I134" s="124"/>
-      <c r="J134" s="124"/>
-      <c r="K134" s="124"/>
-      <c r="L134" s="124"/>
-      <c r="M134" s="124"/>
-      <c r="N134" s="124"/>
-      <c r="O134" s="124"/>
-      <c r="P134" s="124"/>
-      <c r="Q134" s="124"/>
-      <c r="R134" s="124"/>
-      <c r="S134" s="124"/>
-      <c r="T134" s="124"/>
-      <c r="U134" s="124"/>
-      <c r="V134" s="124"/>
-      <c r="W134" s="124"/>
-      <c r="X134" s="124"/>
-      <c r="Y134" s="124"/>
-      <c r="Z134" s="124"/>
-      <c r="AA134" s="124"/>
-      <c r="AB134" s="124"/>
-      <c r="AC134" s="124"/>
-      <c r="AD134" s="124"/>
-      <c r="AE134" s="124"/>
-      <c r="AF134" s="124"/>
-      <c r="AG134" s="124"/>
-      <c r="AH134" s="124"/>
-      <c r="AI134" s="124"/>
-      <c r="AJ134" s="124"/>
-      <c r="AK134" s="124"/>
-      <c r="AL134" s="124"/>
-      <c r="AM134" s="124"/>
-      <c r="AN134" s="124"/>
-      <c r="AO134" s="124"/>
-      <c r="AP134" s="124"/>
-      <c r="AQ134" s="124"/>
-      <c r="AR134" s="124"/>
-      <c r="AS134" s="124"/>
-      <c r="AT134" s="124"/>
-      <c r="AU134" s="124"/>
-      <c r="AV134" s="124"/>
-      <c r="AW134" s="124"/>
-      <c r="AX134" s="124"/>
-      <c r="AY134" s="124"/>
-      <c r="AZ134" s="124"/>
-      <c r="BA134" s="124"/>
-      <c r="BB134" s="124"/>
-      <c r="BC134" s="124"/>
-      <c r="BD134" s="124"/>
-      <c r="BE134" s="124"/>
-      <c r="BF134" s="124"/>
-      <c r="BG134" s="124"/>
-      <c r="BH134" s="124"/>
+      <c r="B134" s="121"/>
+      <c r="C134" s="122"/>
+      <c r="D134" s="122"/>
+      <c r="E134" s="122"/>
+      <c r="F134" s="122"/>
+      <c r="G134" s="122"/>
+      <c r="H134" s="122"/>
+      <c r="I134" s="122"/>
+      <c r="J134" s="122"/>
+      <c r="K134" s="122"/>
+      <c r="L134" s="122"/>
+      <c r="M134" s="122"/>
+      <c r="N134" s="122"/>
+      <c r="O134" s="122"/>
+      <c r="P134" s="122"/>
+      <c r="Q134" s="122"/>
+      <c r="R134" s="122"/>
+      <c r="S134" s="122"/>
+      <c r="T134" s="122"/>
+      <c r="U134" s="122"/>
+      <c r="V134" s="122"/>
+      <c r="W134" s="122"/>
+      <c r="X134" s="122"/>
+      <c r="Y134" s="122"/>
+      <c r="Z134" s="122"/>
+      <c r="AA134" s="122"/>
+      <c r="AB134" s="122"/>
+      <c r="AC134" s="122"/>
+      <c r="AD134" s="122"/>
+      <c r="AE134" s="122"/>
+      <c r="AF134" s="122"/>
+      <c r="AG134" s="122"/>
+      <c r="AH134" s="122"/>
+      <c r="AI134" s="122"/>
+      <c r="AJ134" s="122"/>
+      <c r="AK134" s="122"/>
+      <c r="AL134" s="122"/>
+      <c r="AM134" s="122"/>
+      <c r="AN134" s="122"/>
+      <c r="AO134" s="122"/>
+      <c r="AP134" s="122"/>
+      <c r="AQ134" s="122"/>
+      <c r="AR134" s="122"/>
+      <c r="AS134" s="122"/>
+      <c r="AT134" s="122"/>
+      <c r="AU134" s="122"/>
+      <c r="AV134" s="122"/>
+      <c r="AW134" s="122"/>
+      <c r="AX134" s="122"/>
+      <c r="AY134" s="122"/>
+      <c r="AZ134" s="122"/>
+      <c r="BA134" s="122"/>
+      <c r="BB134" s="122"/>
+      <c r="BC134" s="122"/>
+      <c r="BD134" s="122"/>
+      <c r="BE134" s="122"/>
+      <c r="BF134" s="122"/>
+      <c r="BG134" s="122"/>
+      <c r="BH134" s="122"/>
       <c r="BI134" s="13"/>
     </row>
     <row r="135" spans="2:61">
@@ -20235,25 +20235,25 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
       <c r="V10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="131" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="26"/>
@@ -20301,7 +20301,7 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="107"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="28">
         <v>0</v>
       </c>
@@ -20340,7 +20340,7 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="107"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="28">
         <f t="shared" ref="B13:B18" si="2">B12+1</f>
         <v>1</v>
@@ -20377,7 +20377,7 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="107"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -20417,7 +20417,7 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="107"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -20457,7 +20457,7 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="107"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -20497,7 +20497,7 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="107"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -20534,7 +20534,7 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="107"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -20574,7 +20574,7 @@
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="107"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="28">
         <f t="shared" ref="B19:B21" si="3">B18+1</f>
         <v>7</v>
@@ -20614,7 +20614,7 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="107"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="28">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -20651,7 +20651,7 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="107"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="28">
         <f t="shared" si="3"/>
         <v>9</v>

--- a/Snake/Documents/Helper.xlsx
+++ b/Snake/Documents/Helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Visual Studio Projects\Visual Studio 2019\Projetcs\Snake\Snake\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DDCC70-7914-45C7-BD02-EE2777063B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11654847-0B30-4840-9037-5A478E50ECE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="164">
   <si>
     <t>Hoehe</t>
   </si>
@@ -509,12 +509,36 @@
   <si>
     <t>Short cut path</t>
   </si>
+  <si>
+    <t xml:space="preserve">in dem rot markierten Bereich duerfen </t>
+  </si>
+  <si>
+    <t>maximal soviele "snake elemente</t>
+  </si>
+  <si>
+    <t>(body and tail) sein, wie es schritte bis</t>
+  </si>
+  <si>
+    <t>zum apfel gibt</t>
+  </si>
+  <si>
+    <t>Blau hat 5 oder 6 moves</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>snake gets longer!</t>
+  </si>
+  <si>
+    <t>does not worK!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +577,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -650,7 +681,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -992,12 +1023,295 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1248,6 +1562,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1269,6 +1637,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>2119</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CB3082-2D25-4B31-AEE5-5D79F8975B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="5972175"/>
+          <a:ext cx="4819048" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>172811</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978E4EF6-2A14-479F-890F-783EC56CE00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="6972300"/>
+          <a:ext cx="2011136" cy="1255939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9801,18 +10284,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C7CDE-FA09-4542-9DD9-60A1EEECAB2D}">
-  <dimension ref="B2:Y29"/>
+  <dimension ref="A2:AV132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="AD124" sqref="AD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="55" width="3" customWidth="1"/>
+    <col min="1" max="93" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:28">
       <c r="B2" s="69"/>
       <c r="D2" t="s">
         <v>71</v>
@@ -9822,13 +10305,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:28">
       <c r="B3" s="138"/>
       <c r="D3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="2:25">
+    <row r="5" spans="2:28">
       <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
@@ -9836,22 +10319,22 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:28">
       <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:25">
+    <row r="7" spans="2:28">
       <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:25">
+    <row r="8" spans="2:28">
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:25">
+    <row r="10" spans="2:28">
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -9871,86 +10354,107 @@
         <f>G10+1</f>
         <v>4</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="I10" s="2">
+        <f>H10+1</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <f>I10+1</f>
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
         <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f>L10+1</f>
-        <v>1</v>
       </c>
       <c r="N10" s="2">
         <f>M10+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <f>N10+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="2">
         <f>O10+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>P10+1</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="R10" s="2">
+        <f>Q10+1</f>
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
+        <f>R10+1</f>
+        <v>6</v>
+      </c>
+      <c r="V10" s="2">
         <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <f>T10+1</f>
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <f>U10+1</f>
-        <v>2</v>
       </c>
       <c r="W10" s="2">
         <f>V10+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2">
         <f>W10+1</f>
+        <v>2</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>X10+1</f>
+        <v>3</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>Y10+1</f>
         <v>4</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25">
+      <c r="AA10" s="2">
+        <f>Z10+1</f>
+        <v>5</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>AA10+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28">
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="139"/>
-      <c r="K11">
+      <c r="J11" s="110"/>
+      <c r="L11">
         <v>0</v>
       </c>
-      <c r="L11" s="139"/>
-      <c r="S11">
+      <c r="M11" s="139"/>
+      <c r="S11" s="110"/>
+      <c r="U11">
         <v>0</v>
       </c>
-      <c r="T11" s="139"/>
-    </row>
-    <row r="12" spans="2:25">
+      <c r="V11" s="139"/>
+      <c r="AB11" s="110"/>
+    </row>
+    <row r="12" spans="2:28">
       <c r="C12">
         <f>C11+1</f>
         <v>1</v>
       </c>
       <c r="D12" s="140"/>
-      <c r="K12">
-        <f>K11+1</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="140"/>
-      <c r="S12">
-        <f>S11+1</f>
-        <v>1</v>
-      </c>
-      <c r="T12" s="140"/>
-    </row>
-    <row r="13" spans="2:25">
+      <c r="J12" s="89"/>
+      <c r="L12">
+        <f>L11+1</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="140"/>
+      <c r="S12" s="89"/>
+      <c r="U12">
+        <f>U11+1</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="140"/>
+      <c r="AB12" s="89"/>
+    </row>
+    <row r="13" spans="2:28">
       <c r="C13">
         <f>C12+1</f>
         <v>2</v>
@@ -9967,41 +10471,53 @@
       <c r="I13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K13">
-        <f>K12+1</f>
+      <c r="J13" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <f>L12+1</f>
         <v>2</v>
       </c>
-      <c r="L13" s="140"/>
-      <c r="M13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="69"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="P13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S13">
-        <f>S12+1</f>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13">
+        <f>U12+1</f>
         <v>2</v>
       </c>
-      <c r="T13" s="140"/>
-      <c r="U13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="V13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="69"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="Y13" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:25">
+      <c r="Z13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="69"/>
+    </row>
+    <row r="14" spans="2:28">
       <c r="C14">
         <f>C13+1</f>
         <v>3</v>
@@ -10010,39 +10526,63 @@
       <c r="E14" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" s="141"/>
-      <c r="K14">
-        <f>K13+1</f>
+      <c r="I14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <f>L13+1</f>
         <v>3</v>
       </c>
-      <c r="L14" s="140"/>
-      <c r="M14" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="M14" s="140"/>
       <c r="N14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="141"/>
+      <c r="O14" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="P14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S14">
-        <f>S13+1</f>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14">
+        <f>U13+1</f>
         <v>3</v>
       </c>
-      <c r="T14" s="140"/>
-      <c r="U14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W14" s="141"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="X14" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:25">
+      <c r="Y14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB14" s="143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
       <c r="C15">
         <f>C14+1</f>
         <v>4</v>
@@ -10051,27 +10591,63 @@
       <c r="E15" s="19" t="s">
         <v>16</v>
       </c>
+      <c r="F15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="141"/>
-      <c r="K15">
-        <f>K14+1</f>
+      <c r="I15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <f>L14+1</f>
         <v>4</v>
       </c>
-      <c r="L15" s="140"/>
-      <c r="M15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="141"/>
-      <c r="S15">
-        <f>S14+1</f>
+      <c r="M15" s="140"/>
+      <c r="N15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <f>U14+1</f>
         <v>4</v>
       </c>
-      <c r="T15" s="140"/>
-      <c r="U15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="W15" s="141"/>
-    </row>
-    <row r="16" spans="2:25">
+      <c r="V15" s="140"/>
+      <c r="W15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
       <c r="C16">
         <f>C15+1</f>
         <v>5</v>
@@ -10080,27 +10656,63 @@
       <c r="E16" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="F16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="141"/>
-      <c r="K16">
-        <f>K15+1</f>
+      <c r="I16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <f>L15+1</f>
         <v>5</v>
       </c>
-      <c r="L16" s="140"/>
-      <c r="M16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="141"/>
-      <c r="S16">
-        <f>S15+1</f>
+      <c r="M16" s="140"/>
+      <c r="N16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <f>U15+1</f>
         <v>5</v>
       </c>
-      <c r="T16" s="140"/>
-      <c r="U16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16" s="141"/>
-    </row>
-    <row r="17" spans="3:23">
+      <c r="V16" s="140"/>
+      <c r="W16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB16" s="143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28">
       <c r="C17">
         <f>C16+1</f>
         <v>6</v>
@@ -10109,41 +10721,80 @@
       <c r="E17" s="19" t="s">
         <v>16</v>
       </c>
+      <c r="F17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="138"/>
-      <c r="K17">
-        <f>K16+1</f>
+      <c r="I17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <f>L16+1</f>
         <v>6</v>
       </c>
-      <c r="L17" s="140"/>
-      <c r="M17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="138"/>
-      <c r="S17">
-        <f>S16+1</f>
+      <c r="M17" s="140"/>
+      <c r="N17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17">
+        <f>U16+1</f>
         <v>6</v>
       </c>
-      <c r="T17" s="140"/>
-      <c r="U17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="W17" s="138"/>
-    </row>
-    <row r="18" spans="3:23">
+      <c r="V17" s="140"/>
+      <c r="W17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="138"/>
+      <c r="AA17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28">
       <c r="C18" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="140"/>
-      <c r="K18" t="s">
+      <c r="J18" s="89"/>
+      <c r="L18" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="140"/>
-      <c r="S18" t="s">
+      <c r="M18" s="140"/>
+      <c r="S18" s="89"/>
+      <c r="U18" t="s">
         <v>80</v>
       </c>
-      <c r="T18" s="140"/>
-    </row>
-    <row r="21" spans="3:23">
+      <c r="V18" s="140"/>
+      <c r="AB18" s="89"/>
+    </row>
+    <row r="21" spans="3:28">
       <c r="D21" s="2">
         <v>0</v>
       </c>
@@ -10166,21 +10817,83 @@
       <c r="I21" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="3:23">
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <f>L21+1</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <f>M21+1</f>
+        <v>2</v>
+      </c>
+      <c r="O21" s="2">
+        <f>N21+1</f>
+        <v>3</v>
+      </c>
+      <c r="P21" s="2">
+        <f>O21+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <f>T21+1</f>
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <f>U21+1</f>
+        <v>2</v>
+      </c>
+      <c r="W21" s="2">
+        <f>V21+1</f>
+        <v>3</v>
+      </c>
+      <c r="X21" s="2">
+        <f>W21+1</f>
+        <v>4</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28">
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="139"/>
-    </row>
-    <row r="23" spans="3:23">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="139"/>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="139"/>
+    </row>
+    <row r="23" spans="3:28">
       <c r="C23">
         <f>C22+1</f>
         <v>1</v>
       </c>
       <c r="D23" s="140"/>
-    </row>
-    <row r="24" spans="3:23">
+      <c r="K23">
+        <f>K22+1</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="140"/>
+      <c r="S23">
+        <f>S22+1</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="140"/>
+    </row>
+    <row r="24" spans="3:28">
       <c r="C24">
         <f>C23+1</f>
         <v>2</v>
@@ -10193,44 +10906,4199 @@
       <c r="G24" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="3:23">
+      <c r="H24" s="141"/>
+      <c r="I24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24">
+        <f>K23+1</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="140"/>
+      <c r="M24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="69"/>
+      <c r="P24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24">
+        <f>S23+1</f>
+        <v>2</v>
+      </c>
+      <c r="T24" s="140"/>
+      <c r="U24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28">
       <c r="C25">
         <f>C24+1</f>
         <v>3</v>
       </c>
       <c r="D25" s="140"/>
-    </row>
-    <row r="26" spans="3:23">
+      <c r="E25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="141"/>
+      <c r="K25">
+        <f>K24+1</f>
+        <v>3</v>
+      </c>
+      <c r="L25" s="140"/>
+      <c r="M25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="141"/>
+      <c r="P25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25">
+        <f>S24+1</f>
+        <v>3</v>
+      </c>
+      <c r="T25" s="140"/>
+      <c r="U25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W25" s="141"/>
+      <c r="X25" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28">
       <c r="C26">
         <f>C25+1</f>
         <v>4</v>
       </c>
       <c r="D26" s="140"/>
-    </row>
-    <row r="27" spans="3:23">
+      <c r="E26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="141"/>
+      <c r="K26" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L26" s="140"/>
+      <c r="M26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="141"/>
+      <c r="S26" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T26" s="140"/>
+      <c r="U26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26" s="141"/>
+    </row>
+    <row r="27" spans="3:28">
       <c r="C27">
         <f>C26+1</f>
         <v>5</v>
       </c>
       <c r="D27" s="140"/>
-    </row>
-    <row r="28" spans="3:23">
-      <c r="C28">
-        <f>C27+1</f>
-        <v>6</v>
-      </c>
-      <c r="D28" s="140"/>
-      <c r="G28" s="138"/>
-    </row>
-    <row r="29" spans="3:23">
+      <c r="E27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="138"/>
+      <c r="I27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="e">
+        <f>K26+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" s="140"/>
+      <c r="M27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="138"/>
+      <c r="P27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" t="e">
+        <f>S26+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T27" s="140"/>
+      <c r="U27" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W27" s="138"/>
+      <c r="X27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28">
       <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="140"/>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="140"/>
+      <c r="S29" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29" s="140"/>
+    </row>
+    <row r="42" spans="35:47">
+      <c r="AJ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="2">
+        <f>AJ42+1</f>
+        <v>1</v>
+      </c>
+      <c r="AL42" s="2">
+        <f>AK42+1</f>
+        <v>2</v>
+      </c>
+      <c r="AM42" s="2">
+        <f>AL42+1</f>
+        <v>3</v>
+      </c>
+      <c r="AN42" s="2">
+        <f>AM42+1</f>
+        <v>4</v>
+      </c>
+      <c r="AO42" s="2">
+        <f>AN42+1</f>
+        <v>5</v>
+      </c>
+      <c r="AP42" s="2">
+        <f>AO42+1</f>
+        <v>6</v>
+      </c>
+      <c r="AQ42" s="2">
+        <f>AP42+1</f>
+        <v>7</v>
+      </c>
+      <c r="AR42" s="2">
+        <f>AQ42+1</f>
+        <v>8</v>
+      </c>
+      <c r="AS42" s="2">
+        <f>AR42+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="35:47">
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="144"/>
+      <c r="AK43" s="147"/>
+      <c r="AL43" s="147"/>
+      <c r="AM43" s="147"/>
+      <c r="AN43" s="147"/>
+      <c r="AO43" s="147"/>
+      <c r="AP43" s="147"/>
+      <c r="AQ43" s="147"/>
+      <c r="AR43" s="147"/>
+      <c r="AS43" s="148"/>
+    </row>
+    <row r="44" spans="35:47">
+      <c r="AI44">
+        <f>AI43+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="145"/>
+      <c r="AK44" s="149"/>
+      <c r="AL44" s="149"/>
+      <c r="AM44" s="149"/>
+      <c r="AN44" s="149"/>
+      <c r="AO44" s="149"/>
+      <c r="AP44" s="149"/>
+      <c r="AQ44" s="149"/>
+      <c r="AR44" s="149"/>
+      <c r="AS44" s="150"/>
+    </row>
+    <row r="45" spans="35:47" ht="15" thickBot="1">
+      <c r="AI45">
+        <f>AI44+1</f>
+        <v>2</v>
+      </c>
+      <c r="AJ45" s="145"/>
+      <c r="AK45" s="149"/>
+      <c r="AL45" s="149"/>
+      <c r="AM45" s="149"/>
+      <c r="AN45" s="149"/>
+      <c r="AO45" s="149"/>
+      <c r="AP45" s="149"/>
+      <c r="AQ45" s="149"/>
+      <c r="AR45" s="149"/>
+      <c r="AS45" s="175">
+        <v>42</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="35:47" ht="15" thickTop="1">
+      <c r="AI46">
+        <f>AI45+1</f>
+        <v>3</v>
+      </c>
+      <c r="AJ46" s="154"/>
+      <c r="AK46" s="166">
+        <v>6</v>
+      </c>
+      <c r="AL46" s="167"/>
+      <c r="AM46" s="168"/>
+      <c r="AN46" s="168"/>
+      <c r="AO46" s="168"/>
+      <c r="AP46" s="168"/>
+      <c r="AQ46" s="168"/>
+      <c r="AR46" s="168"/>
+      <c r="AS46" s="169">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="35:47">
+      <c r="AI47">
+        <f>AI46+1</f>
+        <v>4</v>
+      </c>
+      <c r="AJ47" s="154"/>
+      <c r="AK47" s="170">
+        <v>5</v>
+      </c>
+      <c r="AL47" s="37">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="149">
+        <v>10</v>
+      </c>
+      <c r="AN47" s="149">
+        <v>11</v>
+      </c>
+      <c r="AO47" s="149">
+        <v>20</v>
+      </c>
+      <c r="AP47" s="149">
+        <v>21</v>
+      </c>
+      <c r="AQ47" s="149">
+        <v>30</v>
+      </c>
+      <c r="AR47" s="149">
+        <v>31</v>
+      </c>
+      <c r="AS47" s="171">
+        <v>40</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="35:47">
+      <c r="AI48">
+        <f>AI47+1</f>
+        <v>5</v>
+      </c>
+      <c r="AJ48" s="154"/>
+      <c r="AK48" s="170">
+        <v>4</v>
+      </c>
+      <c r="AL48" s="149">
+        <v>2</v>
+      </c>
+      <c r="AM48" s="149"/>
+      <c r="AN48" s="149"/>
+      <c r="AO48" s="149"/>
+      <c r="AP48" s="149"/>
+      <c r="AQ48" s="149"/>
+      <c r="AR48" s="149"/>
+      <c r="AS48" s="171"/>
+      <c r="AU48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="35:47">
+      <c r="AI49">
+        <f>AI48+1</f>
+        <v>6</v>
+      </c>
+      <c r="AJ49" s="154"/>
+      <c r="AK49" s="170">
+        <v>3</v>
+      </c>
+      <c r="AL49" s="149">
+        <v>3</v>
+      </c>
+      <c r="AM49" s="149"/>
+      <c r="AN49" s="149"/>
+      <c r="AO49" s="149"/>
+      <c r="AP49" s="149"/>
+      <c r="AQ49" s="149"/>
+      <c r="AR49" s="149"/>
+      <c r="AS49" s="171"/>
+      <c r="AU49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="35:47">
+      <c r="AI50">
+        <f>AI49+1</f>
+        <v>7</v>
+      </c>
+      <c r="AJ50" s="154"/>
+      <c r="AK50" s="170">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="149">
+        <v>4</v>
+      </c>
+      <c r="AM50" s="149"/>
+      <c r="AN50" s="149"/>
+      <c r="AO50" s="149"/>
+      <c r="AP50" s="149"/>
+      <c r="AQ50" s="149"/>
+      <c r="AR50" s="149"/>
+      <c r="AS50" s="171"/>
+      <c r="AU50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="35:47" ht="15" thickBot="1">
+      <c r="AI51">
+        <f>AI50+1</f>
+        <v>8</v>
+      </c>
+      <c r="AJ51" s="154"/>
+      <c r="AK51" s="172">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="173">
+        <v>5</v>
+      </c>
+      <c r="AM51" s="173">
+        <v>6</v>
+      </c>
+      <c r="AN51" s="173">
+        <v>15</v>
+      </c>
+      <c r="AO51" s="173">
+        <v>16</v>
+      </c>
+      <c r="AP51" s="173">
+        <v>25</v>
+      </c>
+      <c r="AQ51" s="173">
+        <v>26</v>
+      </c>
+      <c r="AR51" s="173">
+        <v>35</v>
+      </c>
+      <c r="AS51" s="174">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="35:47" ht="15" thickTop="1">
+      <c r="AI52">
+        <f>AI51+1</f>
+        <v>9</v>
+      </c>
+      <c r="AJ52" s="146"/>
+      <c r="AK52" s="151"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="113"/>
+    </row>
+    <row r="55" spans="35:47">
+      <c r="AJ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="2">
+        <f>AJ55+1</f>
+        <v>1</v>
+      </c>
+      <c r="AL55" s="2">
+        <f>AK55+1</f>
+        <v>2</v>
+      </c>
+      <c r="AM55" s="2">
+        <f>AL55+1</f>
+        <v>3</v>
+      </c>
+      <c r="AN55" s="2">
+        <f>AM55+1</f>
+        <v>4</v>
+      </c>
+      <c r="AO55" s="2">
+        <f>AN55+1</f>
+        <v>5</v>
+      </c>
+      <c r="AP55" s="2">
+        <f>AO55+1</f>
+        <v>6</v>
+      </c>
+      <c r="AQ55" s="2">
+        <f>AP55+1</f>
+        <v>7</v>
+      </c>
+      <c r="AR55" s="2">
+        <f>AQ55+1</f>
+        <v>8</v>
+      </c>
+      <c r="AS55" s="2">
+        <f>AR55+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="35:47">
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="144"/>
+      <c r="AK56" s="147"/>
+      <c r="AL56" s="147"/>
+      <c r="AM56" s="147"/>
+      <c r="AN56" s="147"/>
+      <c r="AO56" s="147"/>
+      <c r="AP56" s="147"/>
+      <c r="AQ56" s="147"/>
+      <c r="AR56" s="147"/>
+      <c r="AS56" s="148"/>
+    </row>
+    <row r="57" spans="35:47">
+      <c r="AI57">
+        <f>AI56+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="145"/>
+      <c r="AK57" s="149"/>
+      <c r="AL57" s="149"/>
+      <c r="AM57" s="149"/>
+      <c r="AN57" s="149"/>
+      <c r="AO57" s="149"/>
+      <c r="AP57" s="149"/>
+      <c r="AQ57" s="149"/>
+      <c r="AR57" s="149"/>
+      <c r="AS57" s="150"/>
+    </row>
+    <row r="58" spans="35:47">
+      <c r="AI58">
+        <f>AI57+1</f>
+        <v>2</v>
+      </c>
+      <c r="AJ58" s="145"/>
+      <c r="AK58" s="149"/>
+      <c r="AL58" s="149"/>
+      <c r="AM58" s="149"/>
+      <c r="AN58" s="149"/>
+      <c r="AO58" s="149">
+        <v>8</v>
+      </c>
+      <c r="AP58" s="21"/>
+      <c r="AQ58" s="21"/>
+      <c r="AR58" s="21"/>
+      <c r="AS58" s="89"/>
+    </row>
+    <row r="59" spans="35:47">
+      <c r="AI59">
+        <f>AI58+1</f>
+        <v>3</v>
+      </c>
+      <c r="AJ59" s="154"/>
+      <c r="AK59" s="155">
+        <v>6</v>
+      </c>
+      <c r="AL59" s="156"/>
+      <c r="AM59" s="157"/>
+      <c r="AN59" s="157"/>
+      <c r="AO59" s="158">
+        <v>7</v>
+      </c>
+      <c r="AP59" s="157"/>
+      <c r="AQ59" s="157"/>
+      <c r="AR59" s="157"/>
+      <c r="AS59" s="159"/>
+    </row>
+    <row r="60" spans="35:47">
+      <c r="AI60">
+        <f>AI59+1</f>
+        <v>4</v>
+      </c>
+      <c r="AJ60" s="154"/>
+      <c r="AK60" s="160">
+        <v>5</v>
+      </c>
+      <c r="AL60" s="21"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="149">
+        <v>6</v>
+      </c>
+      <c r="AP60" s="21"/>
+      <c r="AQ60" s="21"/>
+      <c r="AR60" s="21"/>
+      <c r="AS60" s="161"/>
+    </row>
+    <row r="61" spans="35:47">
+      <c r="AI61">
+        <f>AI60+1</f>
+        <v>5</v>
+      </c>
+      <c r="AJ61" s="154"/>
+      <c r="AK61" s="160">
+        <v>4</v>
+      </c>
+      <c r="AL61" s="21"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="149">
+        <v>5</v>
+      </c>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="21"/>
+      <c r="AR61" s="21"/>
+      <c r="AS61" s="161"/>
+    </row>
+    <row r="62" spans="35:47">
+      <c r="AI62">
+        <f>AI61+1</f>
+        <v>6</v>
+      </c>
+      <c r="AJ62" s="154"/>
+      <c r="AK62" s="160">
+        <v>3</v>
+      </c>
+      <c r="AL62" s="21"/>
+      <c r="AM62" s="21"/>
+      <c r="AN62" s="21"/>
+      <c r="AO62" s="149">
+        <v>4</v>
+      </c>
+      <c r="AP62" s="21"/>
+      <c r="AQ62" s="21"/>
+      <c r="AR62" s="21"/>
+      <c r="AS62" s="161"/>
+    </row>
+    <row r="63" spans="35:47">
+      <c r="AI63">
+        <f>AI62+1</f>
+        <v>7</v>
+      </c>
+      <c r="AJ63" s="154"/>
+      <c r="AK63" s="160">
+        <v>2</v>
+      </c>
+      <c r="AL63" s="21"/>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
+      <c r="AO63" s="149">
+        <v>3</v>
+      </c>
+      <c r="AP63" s="21"/>
+      <c r="AQ63" s="21"/>
+      <c r="AR63" s="21"/>
+      <c r="AS63" s="161"/>
+    </row>
+    <row r="64" spans="35:47">
+      <c r="AI64">
+        <f>AI63+1</f>
+        <v>8</v>
+      </c>
+      <c r="AJ64" s="154"/>
+      <c r="AK64" s="162">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="163"/>
+      <c r="AM64" s="163"/>
+      <c r="AN64" s="164">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="153">
+        <v>2</v>
+      </c>
+      <c r="AP64" s="163"/>
+      <c r="AQ64" s="163"/>
+      <c r="AR64" s="163"/>
+      <c r="AS64" s="165"/>
+    </row>
+    <row r="65" spans="2:48">
+      <c r="AI65">
+        <f>AI64+1</f>
+        <v>9</v>
+      </c>
+      <c r="AJ65" s="146"/>
+      <c r="AK65" s="151"/>
+      <c r="AL65" s="2"/>
+      <c r="AM65" s="2"/>
+      <c r="AN65" s="2"/>
+      <c r="AO65" s="2"/>
+      <c r="AP65" s="2"/>
+      <c r="AQ65" s="2"/>
+      <c r="AR65" s="2"/>
+      <c r="AS65" s="113"/>
+    </row>
+    <row r="69" spans="2:48">
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <f>C69+1</f>
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <f>D69+1</f>
+        <v>2</v>
+      </c>
+      <c r="F69" s="2">
+        <f>E69+1</f>
+        <v>3</v>
+      </c>
+      <c r="G69" s="2">
+        <f>F69+1</f>
+        <v>4</v>
+      </c>
+      <c r="H69" s="2">
+        <f>G69+1</f>
+        <v>5</v>
+      </c>
+      <c r="I69" s="2">
+        <f>H69+1</f>
+        <v>6</v>
+      </c>
+      <c r="J69" s="2">
+        <f>I69+1</f>
+        <v>7</v>
+      </c>
+      <c r="K69" s="2">
+        <f>J69+1</f>
+        <v>8</v>
+      </c>
+      <c r="L69" s="2">
+        <f>K69+1</f>
+        <v>9</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <f>O69+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q69" s="2">
+        <f>P69+1</f>
+        <v>2</v>
+      </c>
+      <c r="R69" s="2">
+        <f>Q69+1</f>
+        <v>3</v>
+      </c>
+      <c r="S69" s="2">
+        <f>R69+1</f>
+        <v>4</v>
+      </c>
+      <c r="T69" s="2">
+        <f>S69+1</f>
+        <v>5</v>
+      </c>
+      <c r="U69" s="2">
+        <f>T69+1</f>
+        <v>6</v>
+      </c>
+      <c r="V69" s="2">
+        <f>U69+1</f>
+        <v>7</v>
+      </c>
+      <c r="W69" s="2">
+        <f>V69+1</f>
+        <v>8</v>
+      </c>
+      <c r="X69" s="2">
+        <f>W69+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="2">
+        <f>AA69+1</f>
+        <v>1</v>
+      </c>
+      <c r="AC69" s="2">
+        <f>AB69+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD69" s="2">
+        <f>AC69+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE69" s="2">
+        <f>AD69+1</f>
+        <v>4</v>
+      </c>
+      <c r="AF69" s="2">
+        <f>AE69+1</f>
+        <v>5</v>
+      </c>
+      <c r="AG69" s="2">
+        <f>AF69+1</f>
+        <v>6</v>
+      </c>
+      <c r="AH69" s="2">
+        <f>AG69+1</f>
+        <v>7</v>
+      </c>
+      <c r="AI69" s="2">
+        <f>AH69+1</f>
+        <v>8</v>
+      </c>
+      <c r="AJ69" s="2">
+        <f>AI69+1</f>
+        <v>9</v>
+      </c>
+      <c r="AM69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="2">
+        <f>AM69+1</f>
+        <v>1</v>
+      </c>
+      <c r="AO69" s="2">
+        <f>AN69+1</f>
+        <v>2</v>
+      </c>
+      <c r="AP69" s="2">
+        <f>AO69+1</f>
+        <v>3</v>
+      </c>
+      <c r="AQ69" s="2">
+        <f>AP69+1</f>
+        <v>4</v>
+      </c>
+      <c r="AR69" s="2">
+        <f>AQ69+1</f>
+        <v>5</v>
+      </c>
+      <c r="AS69" s="2">
+        <f>AR69+1</f>
+        <v>6</v>
+      </c>
+      <c r="AT69" s="2">
+        <f>AS69+1</f>
+        <v>7</v>
+      </c>
+      <c r="AU69" s="2">
+        <f>AT69+1</f>
+        <v>8</v>
+      </c>
+      <c r="AV69" s="2">
+        <f>AU69+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:48">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" s="144"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="147"/>
+      <c r="F70" s="147"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="148"/>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" s="144"/>
+      <c r="P70" s="147"/>
+      <c r="Q70" s="147"/>
+      <c r="R70" s="147"/>
+      <c r="S70" s="147"/>
+      <c r="T70" s="147"/>
+      <c r="U70" s="147"/>
+      <c r="V70" s="147"/>
+      <c r="W70" s="147"/>
+      <c r="X70" s="148"/>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="144"/>
+      <c r="AB70" s="147"/>
+      <c r="AC70" s="147"/>
+      <c r="AD70" s="147"/>
+      <c r="AE70" s="147"/>
+      <c r="AF70" s="147"/>
+      <c r="AG70" s="147"/>
+      <c r="AH70" s="147"/>
+      <c r="AI70" s="147"/>
+      <c r="AJ70" s="148"/>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="144"/>
+      <c r="AN70" s="147"/>
+      <c r="AO70" s="147"/>
+      <c r="AP70" s="147"/>
+      <c r="AQ70" s="147"/>
+      <c r="AR70" s="147"/>
+      <c r="AS70" s="147"/>
+      <c r="AT70" s="147"/>
+      <c r="AU70" s="147"/>
+      <c r="AV70" s="148"/>
+    </row>
+    <row r="71" spans="2:48">
+      <c r="B71">
+        <f>B70+1</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="145"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="150"/>
+      <c r="N71">
+        <f>N70+1</f>
+        <v>1</v>
+      </c>
+      <c r="O71" s="145"/>
+      <c r="P71" s="149"/>
+      <c r="Q71" s="149"/>
+      <c r="R71" s="149"/>
+      <c r="S71" s="149"/>
+      <c r="T71" s="149"/>
+      <c r="U71" s="149"/>
+      <c r="V71" s="149"/>
+      <c r="W71" s="149"/>
+      <c r="X71" s="150"/>
+      <c r="Z71">
+        <f>Z70+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA71" s="145"/>
+      <c r="AB71" s="149"/>
+      <c r="AC71" s="149"/>
+      <c r="AD71" s="149"/>
+      <c r="AE71" s="149"/>
+      <c r="AF71" s="149"/>
+      <c r="AG71" s="149"/>
+      <c r="AH71" s="149"/>
+      <c r="AI71" s="149"/>
+      <c r="AJ71" s="150"/>
+      <c r="AL71">
+        <f>AL70+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM71" s="145"/>
+      <c r="AN71" s="149"/>
+      <c r="AO71" s="149"/>
+      <c r="AP71" s="149"/>
+      <c r="AQ71" s="149"/>
+      <c r="AR71" s="149"/>
+      <c r="AS71" s="149"/>
+      <c r="AT71" s="149"/>
+      <c r="AU71" s="149"/>
+      <c r="AV71" s="150"/>
+    </row>
+    <row r="72" spans="2:48">
+      <c r="B72">
+        <f>B71+1</f>
+        <v>2</v>
+      </c>
+      <c r="C72" s="145"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="149"/>
+      <c r="F72" s="149"/>
+      <c r="G72" s="149"/>
+      <c r="H72" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="89"/>
+      <c r="N72">
+        <f>N71+1</f>
+        <v>2</v>
+      </c>
+      <c r="O72" s="145"/>
+      <c r="P72" s="149"/>
+      <c r="Q72" s="149"/>
+      <c r="R72" s="149"/>
+      <c r="S72" s="149"/>
+      <c r="T72" s="149">
+        <v>9</v>
+      </c>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="89"/>
+      <c r="Z72">
+        <f>Z71+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA72" s="145"/>
+      <c r="AB72" s="149"/>
+      <c r="AC72" s="149"/>
+      <c r="AD72" s="149"/>
+      <c r="AE72" s="149">
+        <v>9</v>
+      </c>
+      <c r="AF72" s="149">
+        <v>8</v>
+      </c>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="21"/>
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="89"/>
+      <c r="AL72">
+        <f>AL71+1</f>
+        <v>2</v>
+      </c>
+      <c r="AM72" s="145"/>
+      <c r="AN72" s="149"/>
+      <c r="AO72" s="149"/>
+      <c r="AP72" s="149">
+        <v>9</v>
+      </c>
+      <c r="AQ72" s="149">
+        <v>8</v>
+      </c>
+      <c r="AR72" s="149">
+        <v>7</v>
+      </c>
+      <c r="AS72" s="21"/>
+      <c r="AT72" s="21"/>
+      <c r="AU72" s="21"/>
+      <c r="AV72" s="89"/>
+    </row>
+    <row r="73" spans="2:48">
+      <c r="B73">
+        <f>B72+1</f>
+        <v>3</v>
+      </c>
+      <c r="C73" s="154"/>
+      <c r="D73" s="155">
+        <v>6</v>
+      </c>
+      <c r="E73" s="156">
+        <v>7</v>
+      </c>
+      <c r="F73" s="157">
+        <v>8</v>
+      </c>
+      <c r="G73" s="157">
+        <v>9</v>
+      </c>
+      <c r="H73" s="158">
+        <v>9</v>
+      </c>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="159"/>
+      <c r="N73">
+        <f>N72+1</f>
+        <v>3</v>
+      </c>
+      <c r="O73" s="154"/>
+      <c r="P73" s="155">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="156">
+        <v>6</v>
+      </c>
+      <c r="R73" s="157">
+        <v>7</v>
+      </c>
+      <c r="S73" s="157">
+        <v>8</v>
+      </c>
+      <c r="T73" s="158">
+        <v>8</v>
+      </c>
+      <c r="U73" s="157"/>
+      <c r="V73" s="157"/>
+      <c r="W73" s="157"/>
+      <c r="X73" s="159"/>
+      <c r="Z73">
+        <f>Z72+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA73" s="154"/>
+      <c r="AB73" s="155">
+        <v>4</v>
+      </c>
+      <c r="AC73" s="156">
+        <v>5</v>
+      </c>
+      <c r="AD73" s="157">
+        <v>6</v>
+      </c>
+      <c r="AE73" s="157">
+        <v>7</v>
+      </c>
+      <c r="AF73" s="158">
+        <v>7</v>
+      </c>
+      <c r="AG73" s="157"/>
+      <c r="AH73" s="157"/>
+      <c r="AI73" s="157"/>
+      <c r="AJ73" s="159"/>
+      <c r="AL73">
+        <f>AL72+1</f>
+        <v>3</v>
+      </c>
+      <c r="AM73" s="154"/>
+      <c r="AN73" s="155">
+        <v>3</v>
+      </c>
+      <c r="AO73" s="156">
+        <v>4</v>
+      </c>
+      <c r="AP73" s="157">
+        <v>5</v>
+      </c>
+      <c r="AQ73" s="157">
+        <v>6</v>
+      </c>
+      <c r="AR73" s="158">
+        <v>6</v>
+      </c>
+      <c r="AS73" s="157"/>
+      <c r="AT73" s="157"/>
+      <c r="AU73" s="157"/>
+      <c r="AV73" s="159"/>
+    </row>
+    <row r="74" spans="2:48">
+      <c r="B74">
+        <f>B73+1</f>
+        <v>4</v>
+      </c>
+      <c r="C74" s="154"/>
+      <c r="D74" s="160">
+        <v>5</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="149">
+        <v>8</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="161"/>
+      <c r="N74">
+        <f>N73+1</f>
+        <v>4</v>
+      </c>
+      <c r="O74" s="154"/>
+      <c r="P74" s="160">
+        <v>4</v>
+      </c>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="149">
+        <v>7</v>
+      </c>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="161"/>
+      <c r="Z74">
+        <f>Z73+1</f>
+        <v>4</v>
+      </c>
+      <c r="AA74" s="154"/>
+      <c r="AB74" s="160">
+        <v>3</v>
+      </c>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="149">
+        <v>6</v>
+      </c>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="161"/>
+      <c r="AL74">
+        <f>AL73+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM74" s="154"/>
+      <c r="AN74" s="160">
+        <v>2</v>
+      </c>
+      <c r="AO74" s="21"/>
+      <c r="AP74" s="21"/>
+      <c r="AQ74" s="21"/>
+      <c r="AR74" s="149">
+        <v>5</v>
+      </c>
+      <c r="AS74" s="21"/>
+      <c r="AT74" s="21"/>
+      <c r="AU74" s="21"/>
+      <c r="AV74" s="161"/>
+    </row>
+    <row r="75" spans="2:48">
+      <c r="B75">
+        <f>B74+1</f>
+        <v>5</v>
+      </c>
+      <c r="C75" s="154"/>
+      <c r="D75" s="160">
+        <v>4</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="149">
+        <v>7</v>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="161"/>
+      <c r="N75">
+        <f>N74+1</f>
+        <v>5</v>
+      </c>
+      <c r="O75" s="154"/>
+      <c r="P75" s="160">
+        <v>3</v>
+      </c>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="149">
+        <v>6</v>
+      </c>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="161"/>
+      <c r="Z75">
+        <f>Z74+1</f>
+        <v>5</v>
+      </c>
+      <c r="AA75" s="177"/>
+      <c r="AB75" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="149">
+        <v>5</v>
+      </c>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="161"/>
+      <c r="AL75">
+        <f>AL74+1</f>
+        <v>5</v>
+      </c>
+      <c r="AM75" s="154"/>
+      <c r="AN75" s="160">
+        <v>1</v>
+      </c>
+      <c r="AO75" s="21"/>
+      <c r="AP75" s="21"/>
+      <c r="AQ75" s="21"/>
+      <c r="AR75" s="149">
+        <v>4</v>
+      </c>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="161"/>
+    </row>
+    <row r="76" spans="2:48">
+      <c r="B76">
+        <f>B75+1</f>
+        <v>6</v>
+      </c>
+      <c r="C76" s="154"/>
+      <c r="D76" s="160">
+        <v>3</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="37">
+        <v>1</v>
+      </c>
+      <c r="H76" s="149">
+        <v>6</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="161"/>
+      <c r="N76">
+        <f>N75+1</f>
+        <v>6</v>
+      </c>
+      <c r="O76" s="154"/>
+      <c r="P76" s="160">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="149">
+        <v>5</v>
+      </c>
+      <c r="U76" s="21"/>
+      <c r="V76" s="21"/>
+      <c r="W76" s="21"/>
+      <c r="X76" s="161"/>
+      <c r="Z76">
+        <f>Z75+1</f>
+        <v>6</v>
+      </c>
+      <c r="AA76" s="177"/>
+      <c r="AB76" s="21">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="21"/>
+      <c r="AD76" s="21"/>
+      <c r="AE76" s="21"/>
+      <c r="AF76" s="149">
+        <v>4</v>
+      </c>
+      <c r="AG76" s="21"/>
+      <c r="AH76" s="21"/>
+      <c r="AI76" s="21"/>
+      <c r="AJ76" s="161"/>
+      <c r="AL76">
+        <f>AL75+1</f>
+        <v>6</v>
+      </c>
+      <c r="AM76" s="154"/>
+      <c r="AN76" s="151"/>
+      <c r="AO76" s="21"/>
+      <c r="AP76" s="21"/>
+      <c r="AQ76" s="21"/>
+      <c r="AR76" s="149">
+        <v>3</v>
+      </c>
+      <c r="AS76" s="21"/>
+      <c r="AT76" s="21"/>
+      <c r="AU76" s="21"/>
+      <c r="AV76" s="161"/>
+    </row>
+    <row r="77" spans="2:48">
+      <c r="B77">
+        <f>B76+1</f>
+        <v>7</v>
+      </c>
+      <c r="C77" s="154"/>
+      <c r="D77" s="160">
+        <v>2</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="149">
+        <v>2</v>
+      </c>
+      <c r="H77" s="149">
+        <v>5</v>
+      </c>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="161"/>
+      <c r="N77">
+        <f>N76+1</f>
+        <v>7</v>
+      </c>
+      <c r="O77" s="154"/>
+      <c r="P77" s="160">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="37">
+        <v>1</v>
+      </c>
+      <c r="T77" s="149">
+        <v>4</v>
+      </c>
+      <c r="U77" s="21"/>
+      <c r="V77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="X77" s="161"/>
+      <c r="Z77">
+        <f>Z76+1</f>
+        <v>7</v>
+      </c>
+      <c r="AA77" s="177"/>
+      <c r="AB77" s="151"/>
+      <c r="AC77" s="21"/>
+      <c r="AD77" s="21"/>
+      <c r="AE77" s="21"/>
+      <c r="AF77" s="149">
+        <v>3</v>
+      </c>
+      <c r="AG77" s="21"/>
+      <c r="AH77" s="21"/>
+      <c r="AI77" s="21"/>
+      <c r="AJ77" s="161"/>
+      <c r="AL77">
+        <f>AL76+1</f>
+        <v>7</v>
+      </c>
+      <c r="AM77" s="177"/>
+      <c r="AN77" s="149"/>
+      <c r="AO77" s="21"/>
+      <c r="AP77" s="21"/>
+      <c r="AQ77" s="21"/>
+      <c r="AR77" s="149">
+        <v>2</v>
+      </c>
+      <c r="AS77" s="21"/>
+      <c r="AT77" s="21"/>
+      <c r="AU77" s="21"/>
+      <c r="AV77" s="161"/>
+    </row>
+    <row r="78" spans="2:48">
+      <c r="B78">
+        <f>B77+1</f>
+        <v>8</v>
+      </c>
+      <c r="C78" s="154"/>
+      <c r="D78" s="162">
+        <v>1</v>
+      </c>
+      <c r="E78" s="163"/>
+      <c r="F78" s="163"/>
+      <c r="G78" s="153">
+        <v>3</v>
+      </c>
+      <c r="H78" s="153">
+        <v>4</v>
+      </c>
+      <c r="I78" s="163"/>
+      <c r="J78" s="163"/>
+      <c r="K78" s="163"/>
+      <c r="L78" s="165"/>
+      <c r="N78">
+        <f>N77+1</f>
+        <v>8</v>
+      </c>
+      <c r="O78" s="177"/>
+      <c r="P78" s="181"/>
+      <c r="Q78" s="163"/>
+      <c r="R78" s="163"/>
+      <c r="S78" s="187">
+        <v>2</v>
+      </c>
+      <c r="T78" s="153">
+        <v>3</v>
+      </c>
+      <c r="U78" s="163"/>
+      <c r="V78" s="163"/>
+      <c r="W78" s="163"/>
+      <c r="X78" s="165"/>
+      <c r="Z78">
+        <f>Z77+1</f>
+        <v>8</v>
+      </c>
+      <c r="AA78" s="177"/>
+      <c r="AB78" s="180"/>
+      <c r="AC78" s="163"/>
+      <c r="AD78" s="163"/>
+      <c r="AE78" s="186">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="187">
+        <v>2</v>
+      </c>
+      <c r="AG78" s="163"/>
+      <c r="AH78" s="163"/>
+      <c r="AI78" s="163"/>
+      <c r="AJ78" s="165"/>
+      <c r="AL78">
+        <f>AL77+1</f>
+        <v>8</v>
+      </c>
+      <c r="AM78" s="177"/>
+      <c r="AN78" s="178"/>
+      <c r="AO78" s="163"/>
+      <c r="AP78" s="163"/>
+      <c r="AQ78" s="176"/>
+      <c r="AR78" s="164">
+        <v>1</v>
+      </c>
+      <c r="AS78" s="163"/>
+      <c r="AT78" s="163"/>
+      <c r="AU78" s="163"/>
+      <c r="AV78" s="165"/>
+    </row>
+    <row r="79" spans="2:48">
+      <c r="B79">
+        <f>B78+1</f>
+        <v>9</v>
+      </c>
+      <c r="C79" s="146"/>
+      <c r="D79" s="151"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="113"/>
+      <c r="N79">
+        <f>N78+1</f>
+        <v>9</v>
+      </c>
+      <c r="O79" s="146"/>
+      <c r="P79" s="146"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="113"/>
+      <c r="Z79">
+        <f>Z78+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA79" s="146"/>
+      <c r="AB79" s="146"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="113"/>
+      <c r="AL79">
+        <f>AL78+1</f>
+        <v>9</v>
+      </c>
+      <c r="AM79" s="146"/>
+      <c r="AN79" s="182"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="2"/>
+      <c r="AQ79" s="2"/>
+      <c r="AR79" s="2"/>
+      <c r="AS79" s="2"/>
+      <c r="AT79" s="2"/>
+      <c r="AU79" s="2"/>
+      <c r="AV79" s="113"/>
+    </row>
+    <row r="81" spans="2:48">
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <f>C81+1</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2">
+        <f>D81+1</f>
+        <v>2</v>
+      </c>
+      <c r="F81" s="2">
+        <f>E81+1</f>
+        <v>3</v>
+      </c>
+      <c r="G81" s="2">
+        <f>F81+1</f>
+        <v>4</v>
+      </c>
+      <c r="H81" s="2">
+        <f>G81+1</f>
+        <v>5</v>
+      </c>
+      <c r="I81" s="2">
+        <f>H81+1</f>
+        <v>6</v>
+      </c>
+      <c r="J81" s="2">
+        <f>I81+1</f>
+        <v>7</v>
+      </c>
+      <c r="K81" s="2">
+        <f>J81+1</f>
+        <v>8</v>
+      </c>
+      <c r="L81" s="2">
+        <f>K81+1</f>
+        <v>9</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0</v>
+      </c>
+      <c r="P81" s="2">
+        <f>O81+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q81" s="2">
+        <f>P81+1</f>
+        <v>2</v>
+      </c>
+      <c r="R81" s="2">
+        <f>Q81+1</f>
+        <v>3</v>
+      </c>
+      <c r="S81" s="2">
+        <f>R81+1</f>
+        <v>4</v>
+      </c>
+      <c r="T81" s="2">
+        <f>S81+1</f>
+        <v>5</v>
+      </c>
+      <c r="U81" s="2">
+        <f>T81+1</f>
+        <v>6</v>
+      </c>
+      <c r="V81" s="2">
+        <f>U81+1</f>
+        <v>7</v>
+      </c>
+      <c r="W81" s="2">
+        <f>V81+1</f>
+        <v>8</v>
+      </c>
+      <c r="X81" s="2">
+        <f>W81+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="2">
+        <f>AA81+1</f>
+        <v>1</v>
+      </c>
+      <c r="AC81" s="2">
+        <f>AB81+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD81" s="2">
+        <f>AC81+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE81" s="2">
+        <f>AD81+1</f>
+        <v>4</v>
+      </c>
+      <c r="AF81" s="2">
+        <f>AE81+1</f>
+        <v>5</v>
+      </c>
+      <c r="AG81" s="2">
+        <f>AF81+1</f>
+        <v>6</v>
+      </c>
+      <c r="AH81" s="2">
+        <f>AG81+1</f>
+        <v>7</v>
+      </c>
+      <c r="AI81" s="2">
+        <f>AH81+1</f>
+        <v>8</v>
+      </c>
+      <c r="AJ81" s="2">
+        <f>AI81+1</f>
+        <v>9</v>
+      </c>
+      <c r="AM81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="2">
+        <f>AM81+1</f>
+        <v>1</v>
+      </c>
+      <c r="AO81" s="2">
+        <f>AN81+1</f>
+        <v>2</v>
+      </c>
+      <c r="AP81" s="2">
+        <f>AO81+1</f>
+        <v>3</v>
+      </c>
+      <c r="AQ81" s="2">
+        <f>AP81+1</f>
+        <v>4</v>
+      </c>
+      <c r="AR81" s="2">
+        <f>AQ81+1</f>
+        <v>5</v>
+      </c>
+      <c r="AS81" s="2">
+        <f>AR81+1</f>
+        <v>6</v>
+      </c>
+      <c r="AT81" s="2">
+        <f>AS81+1</f>
+        <v>7</v>
+      </c>
+      <c r="AU81" s="2">
+        <f>AT81+1</f>
+        <v>8</v>
+      </c>
+      <c r="AV81" s="2">
+        <f>AU81+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="2:48">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" s="144"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="147"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="147"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="147"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="147"/>
+      <c r="L82" s="148"/>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" s="144"/>
+      <c r="P82" s="147"/>
+      <c r="Q82" s="147"/>
+      <c r="R82" s="147"/>
+      <c r="S82" s="147"/>
+      <c r="T82" s="147"/>
+      <c r="U82" s="147"/>
+      <c r="V82" s="147"/>
+      <c r="W82" s="147"/>
+      <c r="X82" s="148"/>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="144"/>
+      <c r="AB82" s="147"/>
+      <c r="AC82" s="147"/>
+      <c r="AD82" s="147"/>
+      <c r="AE82" s="147"/>
+      <c r="AF82" s="147"/>
+      <c r="AG82" s="147"/>
+      <c r="AH82" s="147"/>
+      <c r="AI82" s="147"/>
+      <c r="AJ82" s="148"/>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="144"/>
+      <c r="AN82" s="147"/>
+      <c r="AO82" s="147"/>
+      <c r="AP82" s="147"/>
+      <c r="AQ82" s="147"/>
+      <c r="AR82" s="147"/>
+      <c r="AS82" s="147"/>
+      <c r="AT82" s="147"/>
+      <c r="AU82" s="147"/>
+      <c r="AV82" s="148"/>
+    </row>
+    <row r="83" spans="2:48">
+      <c r="B83">
+        <f>B82+1</f>
+        <v>1</v>
+      </c>
+      <c r="C83" s="145"/>
+      <c r="D83" s="149"/>
+      <c r="E83" s="149"/>
+      <c r="F83" s="149"/>
+      <c r="G83" s="149"/>
+      <c r="H83" s="149"/>
+      <c r="I83" s="149"/>
+      <c r="J83" s="149"/>
+      <c r="K83" s="149"/>
+      <c r="L83" s="150"/>
+      <c r="N83">
+        <f>N82+1</f>
+        <v>1</v>
+      </c>
+      <c r="O83" s="145"/>
+      <c r="P83" s="149"/>
+      <c r="Q83" s="149"/>
+      <c r="R83" s="149"/>
+      <c r="S83" s="149"/>
+      <c r="T83" s="149"/>
+      <c r="U83" s="149"/>
+      <c r="V83" s="149"/>
+      <c r="W83" s="149"/>
+      <c r="X83" s="150"/>
+      <c r="Z83">
+        <f>Z82+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA83" s="145"/>
+      <c r="AB83" s="149">
+        <v>9</v>
+      </c>
+      <c r="AC83" s="149"/>
+      <c r="AD83" s="149"/>
+      <c r="AE83" s="149"/>
+      <c r="AF83" s="149"/>
+      <c r="AG83" s="149"/>
+      <c r="AH83" s="149"/>
+      <c r="AI83" s="149"/>
+      <c r="AJ83" s="150"/>
+      <c r="AL83">
+        <f>AL82+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM83" s="145"/>
+      <c r="AN83" s="149">
+        <v>8</v>
+      </c>
+      <c r="AO83" s="149">
+        <v>9</v>
+      </c>
+      <c r="AP83" s="149"/>
+      <c r="AQ83" s="149"/>
+      <c r="AR83" s="149"/>
+      <c r="AS83" s="149"/>
+      <c r="AT83" s="149"/>
+      <c r="AU83" s="149"/>
+      <c r="AV83" s="150"/>
+    </row>
+    <row r="84" spans="2:48">
+      <c r="B84">
+        <f>B83+1</f>
+        <v>2</v>
+      </c>
+      <c r="C84" s="145"/>
+      <c r="D84" s="149"/>
+      <c r="E84" s="149">
+        <v>9</v>
+      </c>
+      <c r="F84" s="149">
+        <v>8</v>
+      </c>
+      <c r="G84" s="149">
+        <v>7</v>
+      </c>
+      <c r="H84" s="149">
+        <v>6</v>
+      </c>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="89"/>
+      <c r="N84">
+        <f>N83+1</f>
+        <v>2</v>
+      </c>
+      <c r="O84" s="145"/>
+      <c r="P84" s="149">
+        <v>9</v>
+      </c>
+      <c r="Q84" s="149">
+        <v>8</v>
+      </c>
+      <c r="R84" s="149">
+        <v>7</v>
+      </c>
+      <c r="S84" s="149">
+        <v>6</v>
+      </c>
+      <c r="T84" s="149">
+        <v>5</v>
+      </c>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="X84" s="89"/>
+      <c r="Z84">
+        <f>Z83+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA84" s="145"/>
+      <c r="AB84" s="149">
+        <v>8</v>
+      </c>
+      <c r="AC84" s="149">
+        <v>7</v>
+      </c>
+      <c r="AD84" s="149">
+        <v>6</v>
+      </c>
+      <c r="AE84" s="149">
+        <v>5</v>
+      </c>
+      <c r="AF84" s="149">
+        <v>4</v>
+      </c>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="21"/>
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="89"/>
+      <c r="AL84">
+        <f>AL83+1</f>
+        <v>2</v>
+      </c>
+      <c r="AM84" s="145"/>
+      <c r="AN84" s="149">
+        <v>7</v>
+      </c>
+      <c r="AO84" s="149">
+        <v>6</v>
+      </c>
+      <c r="AP84" s="149">
+        <v>5</v>
+      </c>
+      <c r="AQ84" s="149">
+        <v>4</v>
+      </c>
+      <c r="AR84" s="149">
+        <v>3</v>
+      </c>
+      <c r="AS84" s="21"/>
+      <c r="AT84" s="21"/>
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="89"/>
+    </row>
+    <row r="85" spans="2:48">
+      <c r="B85">
+        <f>B84+1</f>
+        <v>3</v>
+      </c>
+      <c r="C85" s="154"/>
+      <c r="D85" s="179">
+        <v>2</v>
+      </c>
+      <c r="E85" s="156">
+        <v>3</v>
+      </c>
+      <c r="F85" s="157">
+        <v>4</v>
+      </c>
+      <c r="G85" s="157">
+        <v>5</v>
+      </c>
+      <c r="H85" s="158">
+        <v>5</v>
+      </c>
+      <c r="I85" s="157"/>
+      <c r="J85" s="157"/>
+      <c r="K85" s="157"/>
+      <c r="L85" s="159"/>
+      <c r="N85">
+        <f>N84+1</f>
+        <v>3</v>
+      </c>
+      <c r="O85" s="177"/>
+      <c r="P85" s="157">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="156">
+        <v>2</v>
+      </c>
+      <c r="R85" s="157">
+        <v>3</v>
+      </c>
+      <c r="S85" s="157">
+        <v>4</v>
+      </c>
+      <c r="T85" s="158">
+        <v>4</v>
+      </c>
+      <c r="U85" s="157"/>
+      <c r="V85" s="157"/>
+      <c r="W85" s="157"/>
+      <c r="X85" s="159"/>
+      <c r="Z85">
+        <f>Z84+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA85" s="177"/>
+      <c r="AB85" s="151"/>
+      <c r="AC85" s="156">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="157">
+        <v>2</v>
+      </c>
+      <c r="AE85" s="157">
+        <v>3</v>
+      </c>
+      <c r="AF85" s="158">
+        <v>3</v>
+      </c>
+      <c r="AG85" s="157"/>
+      <c r="AH85" s="157"/>
+      <c r="AI85" s="157"/>
+      <c r="AJ85" s="159"/>
+      <c r="AL85">
+        <f>AL84+1</f>
+        <v>3</v>
+      </c>
+      <c r="AM85" s="177"/>
+      <c r="AN85" s="183"/>
+      <c r="AO85" s="151"/>
+      <c r="AP85" s="157">
+        <v>1</v>
+      </c>
+      <c r="AQ85" s="157">
+        <v>2</v>
+      </c>
+      <c r="AR85" s="149">
+        <v>2</v>
+      </c>
+      <c r="AS85" s="157"/>
+      <c r="AT85" s="157"/>
+      <c r="AU85" s="157"/>
+      <c r="AV85" s="159"/>
+    </row>
+    <row r="86" spans="2:48">
+      <c r="B86">
+        <f>B85+1</f>
+        <v>4</v>
+      </c>
+      <c r="C86" s="154"/>
+      <c r="D86" s="160">
+        <v>1</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="149">
+        <v>4</v>
+      </c>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="161"/>
+      <c r="N86">
+        <f>N85+1</f>
+        <v>4</v>
+      </c>
+      <c r="O86" s="177"/>
+      <c r="P86" s="151"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="149">
+        <v>3</v>
+      </c>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="161"/>
+      <c r="Z86">
+        <f>Z85+1</f>
+        <v>4</v>
+      </c>
+      <c r="AA86" s="177"/>
+      <c r="AB86" s="149"/>
+      <c r="AC86" s="21"/>
+      <c r="AD86" s="21"/>
+      <c r="AE86" s="21"/>
+      <c r="AF86" s="149">
+        <v>2</v>
+      </c>
+      <c r="AG86" s="21"/>
+      <c r="AH86" s="21"/>
+      <c r="AI86" s="21"/>
+      <c r="AJ86" s="161"/>
+      <c r="AL86">
+        <f>AL85+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM86" s="177"/>
+      <c r="AN86" s="149"/>
+      <c r="AO86" s="21"/>
+      <c r="AP86" s="21"/>
+      <c r="AQ86" s="21"/>
+      <c r="AR86" s="37">
+        <v>1</v>
+      </c>
+      <c r="AS86" s="21"/>
+      <c r="AT86" s="21"/>
+      <c r="AU86" s="21"/>
+      <c r="AV86" s="161"/>
+    </row>
+    <row r="87" spans="2:48">
+      <c r="B87">
+        <f>B86+1</f>
+        <v>5</v>
+      </c>
+      <c r="C87" s="177"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="149">
+        <v>3</v>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="161"/>
+      <c r="N87">
+        <f>N86+1</f>
+        <v>5</v>
+      </c>
+      <c r="O87" s="177"/>
+      <c r="P87" s="149"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="149">
+        <v>2</v>
+      </c>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="161"/>
+      <c r="Z87">
+        <f>Z86+1</f>
+        <v>5</v>
+      </c>
+      <c r="AA87" s="177"/>
+      <c r="AB87" s="149"/>
+      <c r="AC87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
+      <c r="AF87" s="37">
+        <v>1</v>
+      </c>
+      <c r="AG87" s="21"/>
+      <c r="AH87" s="21"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="161"/>
+      <c r="AL87">
+        <f>AL86+1</f>
+        <v>5</v>
+      </c>
+      <c r="AM87" s="177"/>
+      <c r="AN87" s="149"/>
+      <c r="AO87" s="21"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="21"/>
+      <c r="AS87" s="21"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="21"/>
+      <c r="AV87" s="161"/>
+    </row>
+    <row r="88" spans="2:48">
+      <c r="B88">
+        <f>B87+1</f>
+        <v>6</v>
+      </c>
+      <c r="C88" s="177"/>
+      <c r="D88" s="149"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="149">
+        <v>2</v>
+      </c>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="161"/>
+      <c r="N88">
+        <f>N87+1</f>
+        <v>6</v>
+      </c>
+      <c r="O88" s="177"/>
+      <c r="P88" s="149"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="37">
+        <v>1</v>
+      </c>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="161"/>
+      <c r="Z88">
+        <f>Z87+1</f>
+        <v>6</v>
+      </c>
+      <c r="AA88" s="177"/>
+      <c r="AB88" s="149"/>
+      <c r="AC88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
+      <c r="AG88" s="21"/>
+      <c r="AH88" s="21"/>
+      <c r="AI88" s="21"/>
+      <c r="AJ88" s="161"/>
+      <c r="AL88">
+        <f>AL87+1</f>
+        <v>6</v>
+      </c>
+      <c r="AM88" s="177"/>
+      <c r="AN88" s="149"/>
+      <c r="AO88" s="21"/>
+      <c r="AP88" s="21"/>
+      <c r="AQ88" s="21"/>
+      <c r="AS88" s="21"/>
+      <c r="AT88" s="21"/>
+      <c r="AU88" s="21"/>
+      <c r="AV88" s="161"/>
+    </row>
+    <row r="89" spans="2:48">
+      <c r="B89">
+        <f>B88+1</f>
+        <v>7</v>
+      </c>
+      <c r="C89" s="177"/>
+      <c r="D89" s="149"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="37">
+        <v>1</v>
+      </c>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="161"/>
+      <c r="N89">
+        <f>N88+1</f>
+        <v>7</v>
+      </c>
+      <c r="O89" s="177"/>
+      <c r="P89" s="149"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="161"/>
+      <c r="Z89">
+        <f>Z88+1</f>
+        <v>7</v>
+      </c>
+      <c r="AA89" s="177"/>
+      <c r="AB89" s="149"/>
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="161"/>
+      <c r="AL89">
+        <f>AL88+1</f>
+        <v>7</v>
+      </c>
+      <c r="AM89" s="177"/>
+      <c r="AN89" s="149"/>
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="161"/>
+    </row>
+    <row r="90" spans="2:48">
+      <c r="B90">
+        <f>B89+1</f>
+        <v>8</v>
+      </c>
+      <c r="C90" s="177"/>
+      <c r="D90" s="178"/>
+      <c r="E90" s="163"/>
+      <c r="F90" s="163"/>
+      <c r="G90" s="176"/>
+      <c r="H90" s="176"/>
+      <c r="I90" s="163"/>
+      <c r="J90" s="163"/>
+      <c r="K90" s="163"/>
+      <c r="L90" s="165"/>
+      <c r="N90">
+        <f>N89+1</f>
+        <v>8</v>
+      </c>
+      <c r="O90" s="177"/>
+      <c r="P90" s="178"/>
+      <c r="Q90" s="163"/>
+      <c r="R90" s="163"/>
+      <c r="S90" s="176"/>
+      <c r="T90" s="176"/>
+      <c r="U90" s="163"/>
+      <c r="V90" s="163"/>
+      <c r="W90" s="163"/>
+      <c r="X90" s="165"/>
+      <c r="Z90">
+        <f>Z89+1</f>
+        <v>8</v>
+      </c>
+      <c r="AA90" s="177"/>
+      <c r="AB90" s="178"/>
+      <c r="AC90" s="163"/>
+      <c r="AD90" s="163"/>
+      <c r="AE90" s="176"/>
+      <c r="AF90" s="176"/>
+      <c r="AG90" s="163"/>
+      <c r="AH90" s="163"/>
+      <c r="AI90" s="163"/>
+      <c r="AJ90" s="165"/>
+      <c r="AL90">
+        <f>AL89+1</f>
+        <v>8</v>
+      </c>
+      <c r="AM90" s="177"/>
+      <c r="AN90" s="178"/>
+      <c r="AO90" s="163"/>
+      <c r="AP90" s="163"/>
+      <c r="AQ90" s="176"/>
+      <c r="AR90" s="176"/>
+      <c r="AS90" s="163"/>
+      <c r="AT90" s="163"/>
+      <c r="AU90" s="163"/>
+      <c r="AV90" s="165"/>
+    </row>
+    <row r="91" spans="2:48">
+      <c r="B91">
+        <f>B90+1</f>
+        <v>9</v>
+      </c>
+      <c r="C91" s="146"/>
+      <c r="D91" s="182"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="113"/>
+      <c r="N91">
+        <f>N90+1</f>
+        <v>9</v>
+      </c>
+      <c r="O91" s="146"/>
+      <c r="P91" s="182"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="113"/>
+      <c r="Z91">
+        <f>Z90+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA91" s="146"/>
+      <c r="AB91" s="182"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AG91" s="2"/>
+      <c r="AH91" s="2"/>
+      <c r="AI91" s="2"/>
+      <c r="AJ91" s="113"/>
+      <c r="AL91">
+        <f>AL90+1</f>
+        <v>9</v>
+      </c>
+      <c r="AM91" s="146"/>
+      <c r="AN91" s="182"/>
+      <c r="AO91" s="2"/>
+      <c r="AP91" s="2"/>
+      <c r="AQ91" s="2"/>
+      <c r="AR91" s="2"/>
+      <c r="AS91" s="2"/>
+      <c r="AT91" s="2"/>
+      <c r="AU91" s="2"/>
+      <c r="AV91" s="113"/>
+    </row>
+    <row r="93" spans="2:48">
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <f>C93+1</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2">
+        <f>D93+1</f>
+        <v>2</v>
+      </c>
+      <c r="F93" s="2">
+        <f>E93+1</f>
+        <v>3</v>
+      </c>
+      <c r="G93" s="2">
+        <f>F93+1</f>
+        <v>4</v>
+      </c>
+      <c r="H93" s="2">
+        <f>G93+1</f>
+        <v>5</v>
+      </c>
+      <c r="I93" s="2">
+        <f>H93+1</f>
+        <v>6</v>
+      </c>
+      <c r="J93" s="2">
+        <f>I93+1</f>
+        <v>7</v>
+      </c>
+      <c r="K93" s="2">
+        <f>J93+1</f>
+        <v>8</v>
+      </c>
+      <c r="L93" s="2">
+        <f>K93+1</f>
+        <v>9</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <f>O93+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q93" s="2">
+        <f>P93+1</f>
+        <v>2</v>
+      </c>
+      <c r="R93" s="2">
+        <f>Q93+1</f>
+        <v>3</v>
+      </c>
+      <c r="S93" s="2">
+        <f>R93+1</f>
+        <v>4</v>
+      </c>
+      <c r="T93" s="2">
+        <f>S93+1</f>
+        <v>5</v>
+      </c>
+      <c r="U93" s="2">
+        <f>T93+1</f>
+        <v>6</v>
+      </c>
+      <c r="V93" s="2">
+        <f>U93+1</f>
+        <v>7</v>
+      </c>
+      <c r="W93" s="2">
+        <f>V93+1</f>
+        <v>8</v>
+      </c>
+      <c r="X93" s="2">
+        <f>W93+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:48">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" s="144"/>
+      <c r="D94" s="147"/>
+      <c r="E94" s="147"/>
+      <c r="F94" s="147"/>
+      <c r="G94" s="147"/>
+      <c r="H94" s="147"/>
+      <c r="I94" s="147"/>
+      <c r="J94" s="147"/>
+      <c r="K94" s="147"/>
+      <c r="L94" s="148"/>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="144"/>
+      <c r="P94" s="147"/>
+      <c r="Q94" s="147"/>
+      <c r="R94" s="147"/>
+      <c r="S94" s="147"/>
+      <c r="T94" s="147"/>
+      <c r="U94" s="147"/>
+      <c r="V94" s="147"/>
+      <c r="W94" s="147"/>
+      <c r="X94" s="148"/>
+    </row>
+    <row r="95" spans="2:48">
+      <c r="B95">
+        <f>B94+1</f>
+        <v>1</v>
+      </c>
+      <c r="C95" s="145"/>
+      <c r="D95" s="149">
+        <v>7</v>
+      </c>
+      <c r="E95" s="149">
+        <v>8</v>
+      </c>
+      <c r="F95" s="149">
+        <v>9</v>
+      </c>
+      <c r="G95" s="149"/>
+      <c r="H95" s="149"/>
+      <c r="I95" s="149"/>
+      <c r="J95" s="149"/>
+      <c r="K95" s="149"/>
+      <c r="L95" s="150"/>
+      <c r="N95">
+        <f>N94+1</f>
+        <v>1</v>
+      </c>
+      <c r="O95" s="145"/>
+      <c r="P95" s="149">
+        <v>6</v>
+      </c>
+      <c r="Q95" s="149">
+        <v>7</v>
+      </c>
+      <c r="R95" s="149">
+        <v>8</v>
+      </c>
+      <c r="S95" s="149">
+        <v>9</v>
+      </c>
+      <c r="T95" s="149"/>
+      <c r="U95" s="149"/>
+      <c r="V95" s="149"/>
+      <c r="W95" s="149"/>
+      <c r="X95" s="150"/>
+    </row>
+    <row r="96" spans="2:48">
+      <c r="B96">
+        <f>B95+1</f>
+        <v>2</v>
+      </c>
+      <c r="C96" s="145"/>
+      <c r="D96" s="149">
+        <v>6</v>
+      </c>
+      <c r="E96" s="149">
+        <v>5</v>
+      </c>
+      <c r="F96" s="149">
+        <v>4</v>
+      </c>
+      <c r="G96" s="149">
+        <v>3</v>
+      </c>
+      <c r="H96" s="149">
+        <v>2</v>
+      </c>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="89"/>
+      <c r="N96">
+        <f>N95+1</f>
+        <v>2</v>
+      </c>
+      <c r="O96" s="145"/>
+      <c r="P96" s="149">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="149">
+        <v>4</v>
+      </c>
+      <c r="R96" s="149">
+        <v>3</v>
+      </c>
+      <c r="S96" s="149">
+        <v>2</v>
+      </c>
+      <c r="T96" s="37">
+        <v>1</v>
+      </c>
+      <c r="U96" s="21"/>
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="89"/>
+    </row>
+    <row r="97" spans="1:36">
+      <c r="B97">
+        <f>B96+1</f>
+        <v>3</v>
+      </c>
+      <c r="C97" s="177"/>
+      <c r="D97" s="183"/>
+      <c r="E97" s="185"/>
+      <c r="F97" s="151"/>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" s="37">
+        <v>1</v>
+      </c>
+      <c r="I97" s="157"/>
+      <c r="J97" s="157"/>
+      <c r="K97" s="157"/>
+      <c r="L97" s="159"/>
+      <c r="N97">
+        <f>N96+1</f>
+        <v>3</v>
+      </c>
+      <c r="O97" s="177"/>
+      <c r="P97" s="183"/>
+      <c r="Q97" s="185"/>
+      <c r="R97" s="185"/>
+      <c r="S97" s="151"/>
+      <c r="T97" s="157"/>
+      <c r="U97" s="157"/>
+      <c r="V97" s="157"/>
+      <c r="W97" s="157"/>
+      <c r="X97" s="159"/>
+    </row>
+    <row r="98" spans="1:36">
+      <c r="B98">
+        <f>B97+1</f>
+        <v>4</v>
+      </c>
+      <c r="C98" s="177"/>
+      <c r="D98" s="149"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="161"/>
+      <c r="N98">
+        <f>N97+1</f>
+        <v>4</v>
+      </c>
+      <c r="O98" s="177"/>
+      <c r="P98" s="149"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="161"/>
+    </row>
+    <row r="99" spans="1:36">
+      <c r="B99">
+        <f>B98+1</f>
+        <v>5</v>
+      </c>
+      <c r="C99" s="177"/>
+      <c r="D99" s="149"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="161"/>
+      <c r="N99">
+        <f>N98+1</f>
+        <v>5</v>
+      </c>
+      <c r="O99" s="177"/>
+      <c r="P99" s="149"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="161"/>
+    </row>
+    <row r="100" spans="1:36">
+      <c r="B100">
+        <f>B99+1</f>
+        <v>6</v>
+      </c>
+      <c r="C100" s="177"/>
+      <c r="D100" s="149"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="161"/>
+      <c r="N100">
+        <f>N99+1</f>
+        <v>6</v>
+      </c>
+      <c r="O100" s="177"/>
+      <c r="P100" s="149"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
+      <c r="U100" s="21"/>
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="161"/>
+    </row>
+    <row r="101" spans="1:36">
+      <c r="B101">
+        <f>B100+1</f>
+        <v>7</v>
+      </c>
+      <c r="C101" s="177"/>
+      <c r="D101" s="149"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="161"/>
+      <c r="N101">
+        <f>N100+1</f>
+        <v>7</v>
+      </c>
+      <c r="O101" s="177"/>
+      <c r="P101" s="149"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
+      <c r="U101" s="21"/>
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="161"/>
+    </row>
+    <row r="102" spans="1:36">
+      <c r="B102">
+        <f>B101+1</f>
+        <v>8</v>
+      </c>
+      <c r="C102" s="177"/>
+      <c r="D102" s="178"/>
+      <c r="E102" s="163"/>
+      <c r="F102" s="163"/>
+      <c r="G102" s="176"/>
+      <c r="H102" s="176"/>
+      <c r="I102" s="163"/>
+      <c r="J102" s="163"/>
+      <c r="K102" s="163"/>
+      <c r="L102" s="165"/>
+      <c r="N102">
+        <f>N101+1</f>
+        <v>8</v>
+      </c>
+      <c r="O102" s="177"/>
+      <c r="P102" s="178"/>
+      <c r="Q102" s="163"/>
+      <c r="R102" s="163"/>
+      <c r="S102" s="176"/>
+      <c r="T102" s="176"/>
+      <c r="U102" s="163"/>
+      <c r="V102" s="163"/>
+      <c r="W102" s="163"/>
+      <c r="X102" s="165"/>
+    </row>
+    <row r="103" spans="1:36">
+      <c r="B103">
+        <f>B102+1</f>
+        <v>9</v>
+      </c>
+      <c r="C103" s="146"/>
+      <c r="D103" s="182"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="113"/>
+      <c r="N103">
+        <f>N102+1</f>
+        <v>9</v>
+      </c>
+      <c r="O103" s="146"/>
+      <c r="P103" s="182"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="113"/>
+    </row>
+    <row r="110" spans="1:36">
+      <c r="C110" s="21">
+        <v>0</v>
+      </c>
+      <c r="D110" s="21">
+        <f>C110+1</f>
+        <v>1</v>
+      </c>
+      <c r="E110" s="21">
+        <f>D110+1</f>
+        <v>2</v>
+      </c>
+      <c r="F110" s="21">
+        <f>E110+1</f>
+        <v>3</v>
+      </c>
+      <c r="G110" s="21">
+        <f>F110+1</f>
+        <v>4</v>
+      </c>
+      <c r="H110" s="21">
+        <f>G110+1</f>
+        <v>5</v>
+      </c>
+      <c r="I110" s="21">
+        <f>H110+1</f>
+        <v>6</v>
+      </c>
+      <c r="J110" s="21">
+        <f>I110+1</f>
+        <v>7</v>
+      </c>
+      <c r="K110" s="21">
+        <f>J110+1</f>
+        <v>8</v>
+      </c>
+      <c r="L110" s="21">
+        <f>K110+1</f>
+        <v>9</v>
+      </c>
+      <c r="O110" s="21">
+        <v>0</v>
+      </c>
+      <c r="P110" s="21">
+        <f>O110+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q110" s="21">
+        <f>P110+1</f>
+        <v>2</v>
+      </c>
+      <c r="R110" s="21">
+        <f>Q110+1</f>
+        <v>3</v>
+      </c>
+      <c r="S110" s="21">
+        <f>R110+1</f>
+        <v>4</v>
+      </c>
+      <c r="T110" s="21">
+        <f>S110+1</f>
+        <v>5</v>
+      </c>
+      <c r="U110" s="21">
+        <f>T110+1</f>
+        <v>6</v>
+      </c>
+      <c r="V110" s="21">
+        <f>U110+1</f>
+        <v>7</v>
+      </c>
+      <c r="W110" s="21">
+        <f>V110+1</f>
+        <v>8</v>
+      </c>
+      <c r="X110" s="21">
+        <f>W110+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA110" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="21">
+        <f>AA110+1</f>
+        <v>1</v>
+      </c>
+      <c r="AC110" s="21">
+        <f>AB110+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD110" s="21">
+        <f>AC110+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE110" s="21">
+        <f>AD110+1</f>
+        <v>4</v>
+      </c>
+      <c r="AF110" s="21">
+        <f>AE110+1</f>
+        <v>5</v>
+      </c>
+      <c r="AG110" s="21">
+        <f>AF110+1</f>
+        <v>6</v>
+      </c>
+      <c r="AH110" s="21">
+        <f>AG110+1</f>
+        <v>7</v>
+      </c>
+      <c r="AI110" s="21">
+        <f>AH110+1</f>
+        <v>8</v>
+      </c>
+      <c r="AJ110" s="21">
+        <f>AI110+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36">
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" s="144"/>
+      <c r="D111" s="147"/>
+      <c r="E111" s="147"/>
+      <c r="F111" s="147"/>
+      <c r="G111" s="147"/>
+      <c r="H111" s="147"/>
+      <c r="I111" s="147"/>
+      <c r="J111" s="147"/>
+      <c r="K111" s="147"/>
+      <c r="L111" s="148"/>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" s="144"/>
+      <c r="P111" s="147"/>
+      <c r="Q111" s="147"/>
+      <c r="R111" s="147"/>
+      <c r="S111" s="147"/>
+      <c r="T111" s="147"/>
+      <c r="U111" s="147"/>
+      <c r="V111" s="147"/>
+      <c r="W111" s="147"/>
+      <c r="X111" s="148"/>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="144"/>
+      <c r="AB111" s="147"/>
+      <c r="AC111" s="147"/>
+      <c r="AD111" s="147"/>
+      <c r="AE111" s="147"/>
+      <c r="AF111" s="147"/>
+      <c r="AG111" s="147"/>
+      <c r="AH111" s="147"/>
+      <c r="AI111" s="147"/>
+      <c r="AJ111" s="148"/>
+    </row>
+    <row r="112" spans="1:36">
+      <c r="A112" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112">
+        <f>B111+1</f>
+        <v>1</v>
+      </c>
+      <c r="C112" s="145"/>
+      <c r="D112" s="149"/>
+      <c r="E112" s="149"/>
+      <c r="F112" s="149"/>
+      <c r="G112" s="149"/>
+      <c r="H112" s="149"/>
+      <c r="I112" s="149"/>
+      <c r="J112" s="149"/>
+      <c r="K112" s="149"/>
+      <c r="L112" s="150"/>
+      <c r="N112">
+        <f>N111+1</f>
+        <v>1</v>
+      </c>
+      <c r="O112" s="145"/>
+      <c r="P112" s="149"/>
+      <c r="Q112" s="149"/>
+      <c r="R112" s="149"/>
+      <c r="S112" s="149"/>
+      <c r="T112" s="149"/>
+      <c r="U112" s="149"/>
+      <c r="V112" s="149"/>
+      <c r="W112" s="149"/>
+      <c r="X112" s="150"/>
+      <c r="Z112">
+        <f>Z111+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA112" s="145"/>
+      <c r="AB112" s="149"/>
+      <c r="AC112" s="149"/>
+      <c r="AD112" s="149"/>
+      <c r="AE112" s="149"/>
+      <c r="AF112" s="149"/>
+      <c r="AG112" s="149"/>
+      <c r="AH112" s="149"/>
+      <c r="AI112" s="149"/>
+      <c r="AJ112" s="150"/>
+    </row>
+    <row r="113" spans="1:36">
+      <c r="A113" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113">
+        <f>B112+1</f>
+        <v>2</v>
+      </c>
+      <c r="C113" s="145"/>
+      <c r="D113" s="149"/>
+      <c r="E113" s="149"/>
+      <c r="F113" s="149"/>
+      <c r="G113" s="149"/>
+      <c r="H113" s="149"/>
+      <c r="I113" s="149"/>
+      <c r="J113" s="149"/>
+      <c r="K113" s="149"/>
+      <c r="L113" s="150"/>
+      <c r="N113">
+        <f>N112+1</f>
+        <v>2</v>
+      </c>
+      <c r="O113" s="145"/>
+      <c r="P113" s="149"/>
+      <c r="Q113" s="149"/>
+      <c r="R113" s="149"/>
+      <c r="S113" s="149"/>
+      <c r="T113" s="149"/>
+      <c r="U113" s="149"/>
+      <c r="V113" s="149"/>
+      <c r="W113" s="149"/>
+      <c r="X113" s="150"/>
+      <c r="Z113">
+        <f>Z112+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA113" s="145"/>
+      <c r="AB113" s="149"/>
+      <c r="AC113" s="149"/>
+      <c r="AD113" s="149"/>
+      <c r="AE113" s="149"/>
+      <c r="AF113" s="149"/>
+      <c r="AG113" s="149"/>
+      <c r="AH113" s="149"/>
+      <c r="AI113" s="149"/>
+      <c r="AJ113" s="150"/>
+    </row>
+    <row r="114" spans="1:36">
+      <c r="A114" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <f>B113+1</f>
+        <v>3</v>
+      </c>
+      <c r="C114" s="145"/>
+      <c r="D114" s="149"/>
+      <c r="E114" s="149"/>
+      <c r="F114" s="149"/>
+      <c r="G114" s="149"/>
+      <c r="H114" s="149"/>
+      <c r="I114" s="149"/>
+      <c r="J114" s="149"/>
+      <c r="K114" s="149"/>
+      <c r="L114" s="150"/>
+      <c r="N114">
+        <f>N113+1</f>
+        <v>3</v>
+      </c>
+      <c r="O114" s="145"/>
+      <c r="P114" s="149"/>
+      <c r="Q114" s="149"/>
+      <c r="R114" s="149"/>
+      <c r="S114" s="149"/>
+      <c r="T114" s="149"/>
+      <c r="U114" s="149"/>
+      <c r="V114" s="149"/>
+      <c r="W114" s="149"/>
+      <c r="X114" s="150"/>
+      <c r="Z114">
+        <f>Z113+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA114" s="145"/>
+      <c r="AB114" s="149"/>
+      <c r="AC114" s="149"/>
+      <c r="AD114" s="149"/>
+      <c r="AE114" s="149"/>
+      <c r="AF114" s="149"/>
+      <c r="AG114" s="149"/>
+      <c r="AH114" s="149"/>
+      <c r="AI114" s="149"/>
+      <c r="AJ114" s="150"/>
+    </row>
+    <row r="115" spans="1:36" ht="15" thickBot="1">
+      <c r="A115" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115">
+        <f>B114+1</f>
+        <v>4</v>
+      </c>
+      <c r="C115" s="145"/>
+      <c r="D115" s="149"/>
+      <c r="E115" s="149"/>
+      <c r="F115" s="149"/>
+      <c r="G115" s="149"/>
+      <c r="H115" s="149"/>
+      <c r="I115" s="149"/>
+      <c r="J115" s="149"/>
+      <c r="K115" s="149"/>
+      <c r="L115" s="133"/>
+      <c r="N115">
+        <f>N114+1</f>
+        <v>4</v>
+      </c>
+      <c r="O115" s="145"/>
+      <c r="P115" s="149"/>
+      <c r="Q115" s="149"/>
+      <c r="R115" s="149"/>
+      <c r="S115" s="149"/>
+      <c r="T115" s="149"/>
+      <c r="U115" s="149"/>
+      <c r="V115" s="149"/>
+      <c r="W115" s="149">
+        <v>5</v>
+      </c>
+      <c r="X115" s="133"/>
+      <c r="Z115">
+        <f>Z114+1</f>
+        <v>4</v>
+      </c>
+      <c r="AA115" s="145"/>
+      <c r="AB115" s="149"/>
+      <c r="AC115" s="149"/>
+      <c r="AD115" s="149"/>
+      <c r="AE115" s="149"/>
+      <c r="AF115" s="149"/>
+      <c r="AG115" s="149"/>
+      <c r="AH115" s="149">
+        <v>5</v>
+      </c>
+      <c r="AI115" s="149">
+        <v>4</v>
+      </c>
+      <c r="AJ115" s="133"/>
+    </row>
+    <row r="116" spans="1:36">
+      <c r="A116" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116">
+        <f>B115+1</f>
+        <v>5</v>
+      </c>
+      <c r="C116" s="154">
+        <v>15</v>
+      </c>
+      <c r="D116" s="121"/>
+      <c r="E116" s="122"/>
+      <c r="F116" s="122"/>
+      <c r="G116" s="122">
+        <v>2</v>
+      </c>
+      <c r="H116" s="188">
+        <v>3</v>
+      </c>
+      <c r="I116" s="122">
+        <v>4</v>
+      </c>
+      <c r="J116" s="122">
+        <v>5</v>
+      </c>
+      <c r="K116" s="189">
+        <v>5</v>
+      </c>
+      <c r="L116" s="13"/>
+      <c r="N116">
+        <f>N115+1</f>
+        <v>5</v>
+      </c>
+      <c r="O116" s="154"/>
+      <c r="P116" s="121"/>
+      <c r="Q116" s="122"/>
+      <c r="R116" s="122"/>
+      <c r="S116" s="122">
+        <v>1</v>
+      </c>
+      <c r="T116" s="188">
+        <v>2</v>
+      </c>
+      <c r="U116" s="122">
+        <v>3</v>
+      </c>
+      <c r="V116" s="122">
+        <v>4</v>
+      </c>
+      <c r="W116" s="189">
+        <v>4</v>
+      </c>
+      <c r="X116" s="13"/>
+      <c r="Z116">
+        <f>Z115+1</f>
+        <v>5</v>
+      </c>
+      <c r="AA116" s="154"/>
+      <c r="AB116" s="121"/>
+      <c r="AC116" s="122"/>
+      <c r="AD116" s="122"/>
+      <c r="AE116" s="195">
+        <v>1</v>
+      </c>
+      <c r="AF116" s="188">
+        <v>1</v>
+      </c>
+      <c r="AG116" s="122">
+        <v>2</v>
+      </c>
+      <c r="AH116" s="122">
+        <v>3</v>
+      </c>
+      <c r="AI116" s="189">
+        <v>3</v>
+      </c>
+      <c r="AJ116" s="13"/>
+    </row>
+    <row r="117" spans="1:36">
+      <c r="B117">
+        <f>B116+1</f>
+        <v>6</v>
+      </c>
+      <c r="C117" s="154">
+        <v>14</v>
+      </c>
+      <c r="D117" s="20"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21">
+        <v>1</v>
+      </c>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="149">
+        <v>4</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="N117">
+        <f>N116+1</f>
+        <v>6</v>
+      </c>
+      <c r="O117" s="154">
+        <v>15</v>
+      </c>
+      <c r="P117" s="20"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="193">
+        <v>1</v>
+      </c>
+      <c r="T117" s="21"/>
+      <c r="U117" s="21"/>
+      <c r="V117" s="21"/>
+      <c r="W117" s="149">
+        <v>3</v>
+      </c>
+      <c r="X117" s="17"/>
+      <c r="Z117">
+        <f>Z116+1</f>
+        <v>6</v>
+      </c>
+      <c r="AA117" s="154"/>
+      <c r="AB117" s="20"/>
+      <c r="AC117" s="21"/>
+      <c r="AD117" s="21"/>
+      <c r="AE117" s="149">
+        <v>2</v>
+      </c>
+      <c r="AF117" s="21"/>
+      <c r="AG117" s="21"/>
+      <c r="AH117" s="21"/>
+      <c r="AI117" s="149">
+        <v>2</v>
+      </c>
+      <c r="AJ117" s="17"/>
+    </row>
+    <row r="118" spans="1:36">
+      <c r="B118">
+        <f>B117+1</f>
+        <v>7</v>
+      </c>
+      <c r="C118" s="154">
+        <v>13</v>
+      </c>
+      <c r="D118" s="190">
+        <v>8</v>
+      </c>
+      <c r="E118" s="149">
+        <v>7</v>
+      </c>
+      <c r="F118" s="21"/>
+      <c r="G118" s="193">
+        <v>1</v>
+      </c>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="149">
+        <v>3</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="N118">
+        <f>N117+1</f>
+        <v>7</v>
+      </c>
+      <c r="O118" s="154">
+        <v>14</v>
+      </c>
+      <c r="P118" s="190">
+        <v>9</v>
+      </c>
+      <c r="Q118" s="149">
+        <v>8</v>
+      </c>
+      <c r="R118" s="21"/>
+      <c r="S118" s="149">
+        <v>2</v>
+      </c>
+      <c r="T118" s="21"/>
+      <c r="U118" s="21"/>
+      <c r="V118" s="21"/>
+      <c r="W118" s="149">
+        <v>2</v>
+      </c>
+      <c r="X118" s="17"/>
+      <c r="Z118">
+        <f>Z117+1</f>
+        <v>7</v>
+      </c>
+      <c r="AA118" s="154">
+        <v>15</v>
+      </c>
+      <c r="AB118" s="190">
+        <v>10</v>
+      </c>
+      <c r="AC118" s="149">
+        <v>9</v>
+      </c>
+      <c r="AD118" s="21"/>
+      <c r="AE118" s="149">
+        <v>3</v>
+      </c>
+      <c r="AF118" s="21"/>
+      <c r="AG118" s="21"/>
+      <c r="AH118" s="21"/>
+      <c r="AI118" s="37">
+        <v>1</v>
+      </c>
+      <c r="AJ118" s="17"/>
+    </row>
+    <row r="119" spans="1:36" ht="15" thickBot="1">
+      <c r="B119">
+        <f>B118+1</f>
+        <v>8</v>
+      </c>
+      <c r="C119" s="154">
+        <v>12</v>
+      </c>
+      <c r="D119" s="191">
+        <v>9</v>
+      </c>
+      <c r="E119" s="192">
+        <v>6</v>
+      </c>
+      <c r="F119" s="23"/>
+      <c r="G119" s="192">
+        <v>2</v>
+      </c>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="194">
+        <v>1</v>
+      </c>
+      <c r="K119" s="192">
+        <v>2</v>
+      </c>
+      <c r="L119" s="24"/>
+      <c r="N119">
+        <f>N118+1</f>
+        <v>8</v>
+      </c>
+      <c r="O119" s="154">
+        <v>13</v>
+      </c>
+      <c r="P119" s="191">
+        <v>10</v>
+      </c>
+      <c r="Q119" s="192">
+        <v>7</v>
+      </c>
+      <c r="R119" s="23"/>
+      <c r="S119" s="192">
+        <v>3</v>
+      </c>
+      <c r="T119" s="23"/>
+      <c r="U119" s="23"/>
+      <c r="V119" s="23"/>
+      <c r="W119" s="194">
+        <v>1</v>
+      </c>
+      <c r="X119" s="24"/>
+      <c r="Z119">
+        <f>Z118+1</f>
+        <v>8</v>
+      </c>
+      <c r="AA119" s="154">
+        <v>14</v>
+      </c>
+      <c r="AB119" s="191">
+        <v>11</v>
+      </c>
+      <c r="AC119" s="192">
+        <v>8</v>
+      </c>
+      <c r="AD119" s="23"/>
+      <c r="AE119" s="192">
+        <v>4</v>
+      </c>
+      <c r="AF119" s="23"/>
+      <c r="AG119" s="23"/>
+      <c r="AH119" s="23"/>
+      <c r="AI119" s="23"/>
+      <c r="AJ119" s="24"/>
+    </row>
+    <row r="120" spans="1:36">
+      <c r="B120">
+        <f>B119+1</f>
+        <v>9</v>
+      </c>
+      <c r="C120" s="146">
+        <v>11</v>
+      </c>
+      <c r="D120" s="152">
+        <v>10</v>
+      </c>
+      <c r="E120" s="152">
+        <v>5</v>
+      </c>
+      <c r="F120" s="152">
+        <v>4</v>
+      </c>
+      <c r="G120" s="152">
+        <v>3</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="113"/>
+      <c r="N120">
+        <f>N119+1</f>
+        <v>9</v>
+      </c>
+      <c r="O120" s="146">
+        <v>12</v>
+      </c>
+      <c r="P120" s="152">
+        <v>11</v>
+      </c>
+      <c r="Q120" s="152">
+        <v>6</v>
+      </c>
+      <c r="R120" s="152">
+        <v>5</v>
+      </c>
+      <c r="S120" s="152">
+        <v>4</v>
+      </c>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="113"/>
+      <c r="Z120">
+        <f>Z119+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA120" s="146">
+        <v>13</v>
+      </c>
+      <c r="AB120" s="152">
+        <v>12</v>
+      </c>
+      <c r="AC120" s="152">
+        <v>7</v>
+      </c>
+      <c r="AD120" s="152">
+        <v>6</v>
+      </c>
+      <c r="AE120" s="152">
+        <v>5</v>
+      </c>
+      <c r="AF120" s="2"/>
+      <c r="AG120" s="2"/>
+      <c r="AH120" s="2"/>
+      <c r="AI120" s="2"/>
+      <c r="AJ120" s="113"/>
+    </row>
+    <row r="122" spans="1:36">
+      <c r="C122" s="21">
+        <v>0</v>
+      </c>
+      <c r="D122" s="21">
+        <f>C122+1</f>
+        <v>1</v>
+      </c>
+      <c r="E122" s="21">
+        <f>D122+1</f>
+        <v>2</v>
+      </c>
+      <c r="F122" s="21">
+        <f>E122+1</f>
+        <v>3</v>
+      </c>
+      <c r="G122" s="21">
+        <f>F122+1</f>
+        <v>4</v>
+      </c>
+      <c r="H122" s="21">
+        <f>G122+1</f>
+        <v>5</v>
+      </c>
+      <c r="I122" s="21">
+        <f>H122+1</f>
+        <v>6</v>
+      </c>
+      <c r="J122" s="21">
+        <f>I122+1</f>
+        <v>7</v>
+      </c>
+      <c r="K122" s="21">
+        <f>J122+1</f>
+        <v>8</v>
+      </c>
+      <c r="L122" s="21">
+        <f>K122+1</f>
+        <v>9</v>
+      </c>
+      <c r="O122" s="21">
+        <v>0</v>
+      </c>
+      <c r="P122" s="21">
+        <f>O122+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q122" s="21">
+        <f>P122+1</f>
+        <v>2</v>
+      </c>
+      <c r="R122" s="21">
+        <f>Q122+1</f>
+        <v>3</v>
+      </c>
+      <c r="S122" s="21">
+        <f>R122+1</f>
+        <v>4</v>
+      </c>
+      <c r="T122" s="21">
+        <f>S122+1</f>
+        <v>5</v>
+      </c>
+      <c r="U122" s="21">
+        <f>T122+1</f>
+        <v>6</v>
+      </c>
+      <c r="V122" s="21">
+        <f>U122+1</f>
+        <v>7</v>
+      </c>
+      <c r="W122" s="21">
+        <f>V122+1</f>
+        <v>8</v>
+      </c>
+      <c r="X122" s="21">
+        <f>W122+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA122" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="21">
+        <f>AA122+1</f>
+        <v>1</v>
+      </c>
+      <c r="AC122" s="21">
+        <f>AB122+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD122" s="21">
+        <f>AC122+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE122" s="21">
+        <f>AD122+1</f>
+        <v>4</v>
+      </c>
+      <c r="AF122" s="21">
+        <f>AE122+1</f>
+        <v>5</v>
+      </c>
+      <c r="AG122" s="21">
+        <f>AF122+1</f>
+        <v>6</v>
+      </c>
+      <c r="AH122" s="21">
+        <f>AG122+1</f>
+        <v>7</v>
+      </c>
+      <c r="AI122" s="21">
+        <f>AH122+1</f>
+        <v>8</v>
+      </c>
+      <c r="AJ122" s="21">
+        <f>AI122+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36">
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" s="144"/>
+      <c r="D123" s="147"/>
+      <c r="E123" s="147"/>
+      <c r="F123" s="147"/>
+      <c r="G123" s="147"/>
+      <c r="H123" s="147"/>
+      <c r="I123" s="147"/>
+      <c r="J123" s="147"/>
+      <c r="K123" s="147"/>
+      <c r="L123" s="148"/>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" s="144"/>
+      <c r="P123" s="147"/>
+      <c r="Q123" s="147"/>
+      <c r="R123" s="147"/>
+      <c r="S123" s="147"/>
+      <c r="T123" s="147"/>
+      <c r="U123" s="147"/>
+      <c r="V123" s="147"/>
+      <c r="W123" s="147"/>
+      <c r="X123" s="148"/>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="144"/>
+      <c r="AB123" s="147"/>
+      <c r="AC123" s="147"/>
+      <c r="AD123" s="147"/>
+      <c r="AE123" s="147"/>
+      <c r="AF123" s="147"/>
+      <c r="AG123" s="147"/>
+      <c r="AH123" s="147"/>
+      <c r="AI123" s="147"/>
+      <c r="AJ123" s="148"/>
+    </row>
+    <row r="124" spans="1:36">
+      <c r="B124">
+        <f>B123+1</f>
+        <v>1</v>
+      </c>
+      <c r="C124" s="145"/>
+      <c r="D124" s="149"/>
+      <c r="E124" s="149" t="s">
+        <v>162</v>
+      </c>
+      <c r="F124" s="149"/>
+      <c r="G124" s="149"/>
+      <c r="H124" s="149"/>
+      <c r="I124" s="149"/>
+      <c r="J124" s="149"/>
+      <c r="K124" s="149"/>
+      <c r="L124" s="150"/>
+      <c r="N124">
+        <f>N123+1</f>
+        <v>1</v>
+      </c>
+      <c r="O124" s="145"/>
+      <c r="P124" s="149"/>
+      <c r="Q124" s="149"/>
+      <c r="R124" s="149"/>
+      <c r="S124" s="149"/>
+      <c r="T124" s="149"/>
+      <c r="U124" s="149"/>
+      <c r="V124" s="149"/>
+      <c r="W124" s="149"/>
+      <c r="X124" s="150"/>
+      <c r="Z124">
+        <f>Z123+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA124" s="145"/>
+      <c r="AB124" s="149"/>
+      <c r="AC124" s="149"/>
+      <c r="AD124" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE124" s="149"/>
+      <c r="AF124" s="149"/>
+      <c r="AG124" s="149"/>
+      <c r="AH124" s="149"/>
+      <c r="AI124" s="149"/>
+      <c r="AJ124" s="150"/>
+    </row>
+    <row r="125" spans="1:36">
+      <c r="B125">
+        <f>B124+1</f>
+        <v>2</v>
+      </c>
+      <c r="C125" s="145"/>
+      <c r="D125" s="149"/>
+      <c r="E125" s="149"/>
+      <c r="F125" s="149"/>
+      <c r="G125" s="149"/>
+      <c r="H125" s="149"/>
+      <c r="I125" s="149"/>
+      <c r="J125" s="149"/>
+      <c r="K125" s="149"/>
+      <c r="L125" s="150"/>
+      <c r="N125">
+        <f>N124+1</f>
+        <v>2</v>
+      </c>
+      <c r="O125" s="145"/>
+      <c r="P125" s="149"/>
+      <c r="Q125" s="149"/>
+      <c r="R125" s="149"/>
+      <c r="S125" s="149"/>
+      <c r="T125" s="149"/>
+      <c r="U125" s="149"/>
+      <c r="V125" s="149"/>
+      <c r="W125" s="149"/>
+      <c r="X125" s="150"/>
+      <c r="Z125">
+        <f>Z124+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA125" s="145"/>
+      <c r="AB125" s="149"/>
+      <c r="AC125" s="149"/>
+      <c r="AD125" s="149"/>
+      <c r="AE125" s="149"/>
+      <c r="AF125" s="149"/>
+      <c r="AG125" s="149"/>
+      <c r="AH125" s="149"/>
+      <c r="AI125" s="149"/>
+      <c r="AJ125" s="150"/>
+    </row>
+    <row r="126" spans="1:36">
+      <c r="B126">
+        <f>B125+1</f>
+        <v>3</v>
+      </c>
+      <c r="C126" s="145"/>
+      <c r="D126" s="149"/>
+      <c r="E126" s="149"/>
+      <c r="F126" s="149"/>
+      <c r="G126" s="149"/>
+      <c r="H126" s="149"/>
+      <c r="I126" s="149"/>
+      <c r="J126" s="149"/>
+      <c r="K126" s="149"/>
+      <c r="L126" s="150"/>
+      <c r="N126">
+        <f>N125+1</f>
+        <v>3</v>
+      </c>
+      <c r="O126" s="145"/>
+      <c r="P126" s="149"/>
+      <c r="Q126" s="149"/>
+      <c r="R126" s="149"/>
+      <c r="S126" s="149"/>
+      <c r="T126" s="149"/>
+      <c r="U126" s="149"/>
+      <c r="V126" s="149"/>
+      <c r="W126" s="149"/>
+      <c r="X126" s="150"/>
+      <c r="Z126">
+        <f>Z125+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA126" s="145"/>
+      <c r="AB126" s="149"/>
+      <c r="AC126" s="149"/>
+      <c r="AD126" s="149"/>
+      <c r="AE126" s="149"/>
+      <c r="AF126" s="149"/>
+      <c r="AG126" s="149"/>
+      <c r="AH126" s="149"/>
+      <c r="AI126" s="149"/>
+      <c r="AJ126" s="150"/>
+    </row>
+    <row r="127" spans="1:36" ht="15" thickBot="1">
+      <c r="B127">
+        <f>B126+1</f>
+        <v>4</v>
+      </c>
+      <c r="C127" s="145"/>
+      <c r="D127" s="149"/>
+      <c r="E127" s="149"/>
+      <c r="F127" s="149"/>
+      <c r="G127" s="149"/>
+      <c r="H127" s="149"/>
+      <c r="I127" s="149">
+        <v>6</v>
+      </c>
+      <c r="J127" s="149">
+        <v>5</v>
+      </c>
+      <c r="K127" s="149">
+        <v>4</v>
+      </c>
+      <c r="L127" s="133"/>
+      <c r="N127">
+        <f>N126+1</f>
+        <v>4</v>
+      </c>
+      <c r="O127" s="145"/>
+      <c r="P127" s="149"/>
+      <c r="Q127" s="149"/>
+      <c r="R127" s="149"/>
+      <c r="S127" s="149">
+        <v>6</v>
+      </c>
+      <c r="T127" s="149">
+        <v>5</v>
+      </c>
+      <c r="U127" s="149">
+        <v>4</v>
+      </c>
+      <c r="V127" s="149">
+        <v>3</v>
+      </c>
+      <c r="W127" s="149">
+        <v>2</v>
+      </c>
+      <c r="X127" s="133"/>
+      <c r="Z127">
+        <f>Z126+1</f>
+        <v>4</v>
+      </c>
+      <c r="AA127" s="145"/>
+      <c r="AB127" s="149"/>
+      <c r="AC127" s="149"/>
+      <c r="AD127" s="149"/>
+      <c r="AE127" s="149">
+        <v>6</v>
+      </c>
+      <c r="AF127" s="149">
+        <v>5</v>
+      </c>
+      <c r="AG127" s="149">
+        <v>4</v>
+      </c>
+      <c r="AH127" s="149">
+        <v>3</v>
+      </c>
+      <c r="AI127" s="37">
+        <v>2</v>
+      </c>
+      <c r="AJ127" s="133"/>
+    </row>
+    <row r="128" spans="1:36">
+      <c r="B128">
+        <f>B127+1</f>
+        <v>5</v>
+      </c>
+      <c r="C128" s="154"/>
+      <c r="D128" s="121"/>
+      <c r="E128" s="122"/>
+      <c r="F128" s="122"/>
+      <c r="G128" s="189">
+        <v>2</v>
+      </c>
+      <c r="H128" s="195">
+        <v>1</v>
+      </c>
+      <c r="I128" s="122">
+        <v>1</v>
+      </c>
+      <c r="J128" s="122">
+        <v>2</v>
+      </c>
+      <c r="K128" s="189">
+        <v>3</v>
+      </c>
+      <c r="L128" s="13"/>
+      <c r="N128">
+        <f>N127+1</f>
+        <v>5</v>
+      </c>
+      <c r="O128" s="154"/>
+      <c r="P128" s="121"/>
+      <c r="Q128" s="122"/>
+      <c r="R128" s="122"/>
+      <c r="S128" s="189">
+        <v>3</v>
+      </c>
+      <c r="T128" s="189">
+        <v>2</v>
+      </c>
+      <c r="U128" s="195">
+        <v>1</v>
+      </c>
+      <c r="V128" s="122">
+        <v>1</v>
+      </c>
+      <c r="W128" s="149">
+        <v>2</v>
+      </c>
+      <c r="X128" s="13"/>
+      <c r="Z128">
+        <f>Z127+1</f>
+        <v>5</v>
+      </c>
+      <c r="AA128" s="154"/>
+      <c r="AB128" s="121"/>
+      <c r="AC128" s="122"/>
+      <c r="AD128" s="122"/>
+      <c r="AE128" s="189">
+        <v>4</v>
+      </c>
+      <c r="AF128" s="189">
+        <v>3</v>
+      </c>
+      <c r="AG128" s="189">
+        <v>2</v>
+      </c>
+      <c r="AH128" s="195">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="37">
+        <v>1</v>
+      </c>
+      <c r="AJ128" s="13"/>
+    </row>
+    <row r="129" spans="2:36">
+      <c r="B129">
+        <f>B128+1</f>
+        <v>6</v>
+      </c>
+      <c r="C129" s="154"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="149">
+        <v>3</v>
+      </c>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="149">
+        <v>2</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="N129">
+        <f>N128+1</f>
+        <v>6</v>
+      </c>
+      <c r="O129" s="154"/>
+      <c r="P129" s="20"/>
+      <c r="Q129" s="21"/>
+      <c r="R129" s="21"/>
+      <c r="S129" s="149">
+        <v>4</v>
+      </c>
+      <c r="T129" s="21"/>
+      <c r="U129" s="21"/>
+      <c r="V129" s="21"/>
+      <c r="W129" s="37">
+        <v>1</v>
+      </c>
+      <c r="X129" s="17"/>
+      <c r="Z129">
+        <f>Z128+1</f>
+        <v>6</v>
+      </c>
+      <c r="AA129" s="154"/>
+      <c r="AB129" s="20"/>
+      <c r="AC129" s="21"/>
+      <c r="AD129" s="21"/>
+      <c r="AE129" s="149">
+        <v>5</v>
+      </c>
+      <c r="AF129" s="21"/>
+      <c r="AG129" s="21"/>
+      <c r="AH129" s="21"/>
+      <c r="AI129" s="21"/>
+      <c r="AJ129" s="17"/>
+    </row>
+    <row r="130" spans="2:36">
+      <c r="B130">
+        <f>B129+1</f>
+        <v>7</v>
+      </c>
+      <c r="C130" s="154"/>
+      <c r="D130" s="190">
+        <v>11</v>
+      </c>
+      <c r="E130" s="149">
+        <v>10</v>
+      </c>
+      <c r="F130" s="21"/>
+      <c r="G130" s="149">
+        <v>4</v>
+      </c>
+      <c r="H130" s="21"/>
+      <c r="I130" s="74"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="37">
+        <v>1</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="N130">
+        <f>N129+1</f>
+        <v>7</v>
+      </c>
+      <c r="O130" s="154"/>
+      <c r="P130" s="190">
+        <v>12</v>
+      </c>
+      <c r="Q130" s="149">
+        <v>11</v>
+      </c>
+      <c r="R130" s="21"/>
+      <c r="S130" s="149">
+        <v>5</v>
+      </c>
+      <c r="T130" s="21"/>
+      <c r="U130" s="74"/>
+      <c r="V130" s="21"/>
+      <c r="W130" s="21"/>
+      <c r="X130" s="17"/>
+      <c r="Z130">
+        <f>Z129+1</f>
+        <v>7</v>
+      </c>
+      <c r="AA130" s="154"/>
+      <c r="AB130" s="190">
+        <v>13</v>
+      </c>
+      <c r="AC130" s="149">
+        <v>12</v>
+      </c>
+      <c r="AD130" s="21"/>
+      <c r="AE130" s="149">
+        <v>6</v>
+      </c>
+      <c r="AF130" s="21"/>
+      <c r="AG130" s="74"/>
+      <c r="AH130" s="21"/>
+      <c r="AI130" s="21"/>
+      <c r="AJ130" s="17"/>
+    </row>
+    <row r="131" spans="2:36" ht="15" thickBot="1">
+      <c r="B131">
+        <f>B130+1</f>
+        <v>8</v>
+      </c>
+      <c r="C131" s="154">
+        <v>15</v>
+      </c>
+      <c r="D131" s="191">
+        <v>12</v>
+      </c>
+      <c r="E131" s="192">
+        <v>9</v>
+      </c>
+      <c r="F131" s="23"/>
+      <c r="G131" s="192">
+        <v>5</v>
+      </c>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="24"/>
+      <c r="N131">
+        <f>N130+1</f>
+        <v>8</v>
+      </c>
+      <c r="O131" s="154"/>
+      <c r="P131" s="191">
+        <v>13</v>
+      </c>
+      <c r="Q131" s="192">
+        <v>10</v>
+      </c>
+      <c r="R131" s="23"/>
+      <c r="S131" s="192">
+        <v>6</v>
+      </c>
+      <c r="T131" s="23"/>
+      <c r="U131" s="23"/>
+      <c r="V131" s="23"/>
+      <c r="W131" s="23"/>
+      <c r="X131" s="24"/>
+      <c r="Z131">
+        <f>Z130+1</f>
+        <v>8</v>
+      </c>
+      <c r="AA131" s="154">
+        <v>17</v>
+      </c>
+      <c r="AB131" s="191">
+        <v>14</v>
+      </c>
+      <c r="AC131" s="192">
+        <v>11</v>
+      </c>
+      <c r="AD131" s="23"/>
+      <c r="AE131" s="192">
+        <v>7</v>
+      </c>
+      <c r="AF131" s="23"/>
+      <c r="AG131" s="23"/>
+      <c r="AH131" s="23"/>
+      <c r="AI131" s="23"/>
+      <c r="AJ131" s="24"/>
+    </row>
+    <row r="132" spans="2:36">
+      <c r="B132">
+        <f>B131+1</f>
+        <v>9</v>
+      </c>
+      <c r="C132" s="146">
+        <v>14</v>
+      </c>
+      <c r="D132" s="152">
+        <v>13</v>
+      </c>
+      <c r="E132" s="152">
+        <v>8</v>
+      </c>
+      <c r="F132" s="152">
+        <v>7</v>
+      </c>
+      <c r="G132" s="152">
+        <v>6</v>
+      </c>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="113"/>
+      <c r="N132">
+        <f>N131+1</f>
+        <v>9</v>
+      </c>
+      <c r="O132" s="146">
+        <v>15</v>
+      </c>
+      <c r="P132" s="152">
+        <v>14</v>
+      </c>
+      <c r="Q132" s="152">
+        <v>9</v>
+      </c>
+      <c r="R132" s="152">
+        <v>8</v>
+      </c>
+      <c r="S132" s="152">
+        <v>7</v>
+      </c>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="113"/>
+      <c r="Z132">
+        <f>Z131+1</f>
+        <v>9</v>
+      </c>
+      <c r="AA132" s="146">
+        <v>16</v>
+      </c>
+      <c r="AB132" s="152">
+        <v>15</v>
+      </c>
+      <c r="AC132" s="152">
+        <v>10</v>
+      </c>
+      <c r="AD132" s="152">
+        <v>9</v>
+      </c>
+      <c r="AE132" s="152">
+        <v>8</v>
+      </c>
+      <c r="AF132" s="2"/>
+      <c r="AG132" s="2"/>
+      <c r="AH132" s="2"/>
+      <c r="AI132" s="2"/>
+      <c r="AJ132" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Snake/Documents/Helper.xlsx
+++ b/Snake/Documents/Helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Visual Studio Projects\Visual Studio 2019\Projetcs\Snake\Snake\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11654847-0B30-4840-9037-5A478E50ECE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B72A654-411D-41F7-8E1A-2BE53BB54EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="168">
   <si>
     <t>Hoehe</t>
   </si>
@@ -533,12 +533,24 @@
   <si>
     <t>does not worK!</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Snake length increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">because the apple </t>
+  </si>
+  <si>
+    <t>where eaten!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,8 +594,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1207,111 +1233,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC00000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC00000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC00000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1552,12 +1479,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
@@ -1596,26 +1517,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10284,10 +10206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C7CDE-FA09-4542-9DD9-60A1EEECAB2D}">
-  <dimension ref="A2:AV132"/>
+  <dimension ref="A2:AV150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="AD124" sqref="AD124"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -10300,13 +10222,13 @@
       <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="141"/>
+      <c r="K2" s="139"/>
       <c r="M2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="2:28">
-      <c r="B3" s="138"/>
+      <c r="B3" s="136"/>
       <c r="D3" t="s">
         <v>153</v>
       </c>
@@ -10339,81 +10261,81 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f>D10+1</f>
+        <f t="shared" ref="E10:J10" si="0">D10+1</f>
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <f>E10+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G10" s="2">
-        <f>F10+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H10" s="2">
-        <f>G10+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I10" s="2">
-        <f>H10+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J10" s="2">
-        <f>I10+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <f>M10+1</f>
+        <f t="shared" ref="N10:S10" si="1">M10+1</f>
         <v>1</v>
       </c>
       <c r="O10" s="2">
-        <f>N10+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P10" s="2">
-        <f>O10+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Q10" s="2">
-        <f>P10+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R10" s="2">
-        <f>Q10+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="S10" s="2">
-        <f>R10+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
-        <f>V10+1</f>
+        <f t="shared" ref="W10:AB10" si="2">V10+1</f>
         <v>1</v>
       </c>
       <c r="X10" s="2">
-        <f>W10+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Y10" s="2">
-        <f>X10+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Z10" s="2">
-        <f>Y10+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AA10" s="2">
-        <f>Z10+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="AB10" s="2">
-        <f>AA10+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -10421,45 +10343,45 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="137"/>
       <c r="J11" s="110"/>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" s="139"/>
+      <c r="M11" s="137"/>
       <c r="S11" s="110"/>
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11" s="139"/>
+      <c r="V11" s="137"/>
       <c r="AB11" s="110"/>
     </row>
     <row r="12" spans="2:28">
       <c r="C12">
-        <f>C11+1</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="140"/>
+        <f t="shared" ref="C12:C17" si="3">C11+1</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="138"/>
       <c r="J12" s="89"/>
       <c r="L12">
-        <f>L11+1</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="140"/>
+        <f t="shared" ref="L12:L17" si="4">L11+1</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="138"/>
       <c r="S12" s="89"/>
       <c r="U12">
-        <f>U11+1</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="140"/>
+        <f t="shared" ref="U12:U17" si="5">U11+1</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="138"/>
       <c r="AB12" s="89"/>
     </row>
     <row r="13" spans="2:28">
       <c r="C13">
-        <f>C12+1</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D13" s="140"/>
+      <c r="D13" s="138"/>
       <c r="E13" s="19" t="s">
         <v>16</v>
       </c>
@@ -10467,18 +10389,18 @@
       <c r="G13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="141"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="142" t="s">
+      <c r="J13" s="140" t="s">
         <v>13</v>
       </c>
       <c r="L13">
-        <f>L12+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M13" s="140"/>
+      <c r="M13" s="138"/>
       <c r="N13" s="19" t="s">
         <v>16</v>
       </c>
@@ -10492,14 +10414,14 @@
       <c r="R13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="142" t="s">
+      <c r="S13" s="140" t="s">
         <v>13</v>
       </c>
       <c r="U13">
-        <f>U12+1</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="V13" s="140"/>
+      <c r="V13" s="138"/>
       <c r="W13" s="19" t="s">
         <v>16</v>
       </c>
@@ -10519,10 +10441,10 @@
     </row>
     <row r="14" spans="2:28">
       <c r="C14">
-        <f>C13+1</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="16" t="s">
         <v>17</v>
       </c>
@@ -10532,18 +10454,18 @@
       <c r="G14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="141"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="143" t="s">
+      <c r="J14" s="141" t="s">
         <v>16</v>
       </c>
       <c r="L14">
-        <f>L13+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M14" s="140"/>
+      <c r="M14" s="138"/>
       <c r="N14" s="16" t="s">
         <v>17</v>
       </c>
@@ -10553,18 +10475,18 @@
       <c r="P14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="141"/>
+      <c r="Q14" s="139"/>
       <c r="R14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="143" t="s">
+      <c r="S14" s="141" t="s">
         <v>16</v>
       </c>
       <c r="U14">
-        <f>U13+1</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="V14" s="140"/>
+      <c r="V14" s="138"/>
       <c r="W14" s="16" t="s">
         <v>17</v>
       </c>
@@ -10574,20 +10496,20 @@
       <c r="Y14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z14" s="141"/>
+      <c r="Z14" s="139"/>
       <c r="AA14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AB14" s="143" t="s">
+      <c r="AB14" s="141" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:28">
       <c r="C15">
-        <f>C14+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="19" t="s">
         <v>16</v>
       </c>
@@ -10597,18 +10519,18 @@
       <c r="G15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="141"/>
+      <c r="H15" s="139"/>
       <c r="I15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="142" t="s">
+      <c r="J15" s="140" t="s">
         <v>13</v>
       </c>
       <c r="L15">
-        <f>L14+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M15" s="140"/>
+      <c r="M15" s="138"/>
       <c r="N15" s="19" t="s">
         <v>16</v>
       </c>
@@ -10618,18 +10540,18 @@
       <c r="P15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="141"/>
+      <c r="Q15" s="139"/>
       <c r="R15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S15" s="142" t="s">
+      <c r="S15" s="140" t="s">
         <v>13</v>
       </c>
       <c r="U15">
-        <f>U14+1</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="V15" s="140"/>
+      <c r="V15" s="138"/>
       <c r="W15" s="19" t="s">
         <v>16</v>
       </c>
@@ -10639,20 +10561,20 @@
       <c r="Y15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="141"/>
+      <c r="Z15" s="139"/>
       <c r="AA15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB15" s="142" t="s">
+      <c r="AB15" s="140" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:28">
       <c r="C16">
-        <f>C15+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D16" s="140"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="16" t="s">
         <v>17</v>
       </c>
@@ -10662,18 +10584,18 @@
       <c r="G16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="141"/>
+      <c r="H16" s="139"/>
       <c r="I16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="143" t="s">
+      <c r="J16" s="141" t="s">
         <v>16</v>
       </c>
       <c r="L16">
-        <f>L15+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M16" s="140"/>
+      <c r="M16" s="138"/>
       <c r="N16" s="16" t="s">
         <v>17</v>
       </c>
@@ -10683,18 +10605,18 @@
       <c r="P16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="141"/>
+      <c r="Q16" s="139"/>
       <c r="R16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="143" t="s">
+      <c r="S16" s="141" t="s">
         <v>16</v>
       </c>
       <c r="U16">
-        <f>U15+1</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="V16" s="140"/>
+      <c r="V16" s="138"/>
       <c r="W16" s="16" t="s">
         <v>17</v>
       </c>
@@ -10704,20 +10626,20 @@
       <c r="Y16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Z16" s="141"/>
+      <c r="Z16" s="139"/>
       <c r="AA16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AB16" s="143" t="s">
+      <c r="AB16" s="141" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:28">
       <c r="C17">
-        <f>C16+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="D17" s="140"/>
+      <c r="D17" s="138"/>
       <c r="E17" s="19" t="s">
         <v>16</v>
       </c>
@@ -10727,18 +10649,18 @@
       <c r="G17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="138"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="142" t="s">
+      <c r="J17" s="140" t="s">
         <v>13</v>
       </c>
       <c r="L17">
-        <f>L16+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M17" s="140"/>
+      <c r="M17" s="138"/>
       <c r="N17" s="19" t="s">
         <v>16</v>
       </c>
@@ -10748,18 +10670,18 @@
       <c r="P17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="138"/>
+      <c r="Q17" s="136"/>
       <c r="R17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S17" s="142" t="s">
+      <c r="S17" s="140" t="s">
         <v>13</v>
       </c>
       <c r="U17">
-        <f>U16+1</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="V17" s="140"/>
+      <c r="V17" s="138"/>
       <c r="W17" s="19" t="s">
         <v>16</v>
       </c>
@@ -10769,11 +10691,11 @@
       <c r="Y17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Z17" s="138"/>
+      <c r="Z17" s="136"/>
       <c r="AA17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AB17" s="142" t="s">
+      <c r="AB17" s="140" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10781,17 +10703,17 @@
       <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="140"/>
+      <c r="D18" s="138"/>
       <c r="J18" s="89"/>
       <c r="L18" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="140"/>
+      <c r="M18" s="138"/>
       <c r="S18" s="89"/>
       <c r="U18" t="s">
         <v>80</v>
       </c>
-      <c r="V18" s="140"/>
+      <c r="V18" s="138"/>
       <c r="AB18" s="89"/>
     </row>
     <row r="21" spans="3:28">
@@ -10866,39 +10788,39 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="139"/>
+      <c r="D22" s="137"/>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="139"/>
+      <c r="L22" s="137"/>
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="139"/>
+      <c r="T22" s="137"/>
     </row>
     <row r="23" spans="3:28">
       <c r="C23">
         <f>C22+1</f>
         <v>1</v>
       </c>
-      <c r="D23" s="140"/>
+      <c r="D23" s="138"/>
       <c r="K23">
         <f>K22+1</f>
         <v>1</v>
       </c>
-      <c r="L23" s="140"/>
+      <c r="L23" s="138"/>
       <c r="S23">
         <f>S22+1</f>
         <v>1</v>
       </c>
-      <c r="T23" s="140"/>
+      <c r="T23" s="138"/>
     </row>
     <row r="24" spans="3:28">
       <c r="C24">
         <f>C23+1</f>
         <v>2</v>
       </c>
-      <c r="D24" s="140"/>
+      <c r="D24" s="138"/>
       <c r="E24" s="19" t="s">
         <v>16</v>
       </c>
@@ -10906,7 +10828,7 @@
       <c r="G24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="141"/>
+      <c r="H24" s="139"/>
       <c r="I24" s="18" t="s">
         <v>13</v>
       </c>
@@ -10914,7 +10836,7 @@
         <f>K23+1</f>
         <v>2</v>
       </c>
-      <c r="L24" s="140"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="19" t="s">
         <v>16</v>
       </c>
@@ -10929,7 +10851,7 @@
         <f>S23+1</f>
         <v>2</v>
       </c>
-      <c r="T24" s="140"/>
+      <c r="T24" s="138"/>
       <c r="U24" s="19" t="s">
         <v>16</v>
       </c>
@@ -10949,23 +10871,23 @@
         <f>C24+1</f>
         <v>3</v>
       </c>
-      <c r="D25" s="140"/>
+      <c r="D25" s="138"/>
       <c r="E25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="141"/>
+      <c r="H25" s="139"/>
       <c r="K25">
         <f>K24+1</f>
         <v>3</v>
       </c>
-      <c r="L25" s="140"/>
+      <c r="L25" s="138"/>
       <c r="M25" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="141"/>
+      <c r="O25" s="139"/>
       <c r="P25" s="16" t="s">
         <v>17</v>
       </c>
@@ -10973,14 +10895,14 @@
         <f>S24+1</f>
         <v>3</v>
       </c>
-      <c r="T25" s="140"/>
+      <c r="T25" s="138"/>
       <c r="U25" s="16" t="s">
         <v>17</v>
       </c>
       <c r="V25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W25" s="141"/>
+      <c r="W25" s="139"/>
       <c r="X25" s="16" t="s">
         <v>17</v>
       </c>
@@ -10990,36 +10912,36 @@
         <f>C25+1</f>
         <v>4</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="141"/>
+      <c r="H26" s="139"/>
       <c r="K26" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="L26" s="140"/>
+      <c r="L26" s="138"/>
       <c r="M26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="141"/>
+      <c r="O26" s="139"/>
       <c r="S26" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
-      <c r="T26" s="140"/>
+      <c r="T26" s="138"/>
       <c r="U26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W26" s="141"/>
+      <c r="W26" s="139"/>
     </row>
     <row r="27" spans="3:28">
       <c r="C27">
         <f>C26+1</f>
         <v>5</v>
       </c>
-      <c r="D27" s="140"/>
+      <c r="D27" s="138"/>
       <c r="E27" s="16" t="s">
         <v>17</v>
       </c>
@@ -11029,7 +10951,7 @@
       <c r="G27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="138"/>
+      <c r="H27" s="136"/>
       <c r="I27" s="16" t="s">
         <v>17</v>
       </c>
@@ -11037,14 +10959,14 @@
         <f>K26+1</f>
         <v>#REF!</v>
       </c>
-      <c r="L27" s="140"/>
+      <c r="L27" s="138"/>
       <c r="M27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="138"/>
+      <c r="O27" s="136"/>
       <c r="P27" s="18" t="s">
         <v>13</v>
       </c>
@@ -11052,14 +10974,14 @@
         <f>S26+1</f>
         <v>#REF!</v>
       </c>
-      <c r="T27" s="140"/>
+      <c r="T27" s="138"/>
       <c r="U27" s="19" t="s">
         <v>16</v>
       </c>
       <c r="V27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="W27" s="138"/>
+      <c r="W27" s="136"/>
       <c r="X27" s="18" t="s">
         <v>13</v>
       </c>
@@ -11071,54 +10993,54 @@
       <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="140"/>
+      <c r="D29" s="138"/>
       <c r="K29" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="140"/>
+      <c r="L29" s="138"/>
       <c r="S29" t="s">
         <v>80</v>
       </c>
-      <c r="T29" s="140"/>
+      <c r="T29" s="138"/>
     </row>
     <row r="42" spans="35:47">
       <c r="AJ42" s="2">
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <f>AJ42+1</f>
+        <f t="shared" ref="AK42:AS42" si="6">AJ42+1</f>
         <v>1</v>
       </c>
       <c r="AL42" s="2">
-        <f>AK42+1</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AM42" s="2">
-        <f>AL42+1</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AN42" s="2">
-        <f>AM42+1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AO42" s="2">
-        <f>AN42+1</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AP42" s="2">
-        <f>AO42+1</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AQ42" s="2">
-        <f>AP42+1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AR42" s="2">
-        <f>AQ42+1</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AS42" s="2">
-        <f>AR42+1</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -11126,48 +11048,48 @@
       <c r="AI43">
         <v>0</v>
       </c>
-      <c r="AJ43" s="144"/>
-      <c r="AK43" s="147"/>
-      <c r="AL43" s="147"/>
-      <c r="AM43" s="147"/>
-      <c r="AN43" s="147"/>
-      <c r="AO43" s="147"/>
-      <c r="AP43" s="147"/>
-      <c r="AQ43" s="147"/>
-      <c r="AR43" s="147"/>
-      <c r="AS43" s="148"/>
+      <c r="AJ43" s="142"/>
+      <c r="AK43" s="145"/>
+      <c r="AL43" s="145"/>
+      <c r="AM43" s="145"/>
+      <c r="AN43" s="145"/>
+      <c r="AO43" s="145"/>
+      <c r="AP43" s="145"/>
+      <c r="AQ43" s="145"/>
+      <c r="AR43" s="145"/>
+      <c r="AS43" s="146"/>
     </row>
     <row r="44" spans="35:47">
       <c r="AI44">
-        <f>AI43+1</f>
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="145"/>
-      <c r="AK44" s="149"/>
-      <c r="AL44" s="149"/>
-      <c r="AM44" s="149"/>
-      <c r="AN44" s="149"/>
-      <c r="AO44" s="149"/>
-      <c r="AP44" s="149"/>
-      <c r="AQ44" s="149"/>
-      <c r="AR44" s="149"/>
-      <c r="AS44" s="150"/>
+        <f t="shared" ref="AI44:AI52" si="7">AI43+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="143"/>
+      <c r="AK44" s="147"/>
+      <c r="AL44" s="147"/>
+      <c r="AM44" s="147"/>
+      <c r="AN44" s="147"/>
+      <c r="AO44" s="147"/>
+      <c r="AP44" s="147"/>
+      <c r="AQ44" s="147"/>
+      <c r="AR44" s="147"/>
+      <c r="AS44" s="148"/>
     </row>
     <row r="45" spans="35:47" ht="15" thickBot="1">
       <c r="AI45">
-        <f>AI44+1</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AJ45" s="145"/>
-      <c r="AK45" s="149"/>
-      <c r="AL45" s="149"/>
-      <c r="AM45" s="149"/>
-      <c r="AN45" s="149"/>
-      <c r="AO45" s="149"/>
-      <c r="AP45" s="149"/>
-      <c r="AQ45" s="149"/>
-      <c r="AR45" s="149"/>
-      <c r="AS45" s="175">
+      <c r="AJ45" s="143"/>
+      <c r="AK45" s="147"/>
+      <c r="AL45" s="147"/>
+      <c r="AM45" s="147"/>
+      <c r="AN45" s="147"/>
+      <c r="AO45" s="147"/>
+      <c r="AP45" s="147"/>
+      <c r="AQ45" s="147"/>
+      <c r="AR45" s="147"/>
+      <c r="AS45" s="173">
         <v>42</v>
       </c>
       <c r="AU45" t="s">
@@ -11176,55 +11098,55 @@
     </row>
     <row r="46" spans="35:47" ht="15" thickTop="1">
       <c r="AI46">
-        <f>AI45+1</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="AJ46" s="154"/>
-      <c r="AK46" s="166">
+      <c r="AJ46" s="152"/>
+      <c r="AK46" s="164">
         <v>6</v>
       </c>
-      <c r="AL46" s="167"/>
-      <c r="AM46" s="168"/>
-      <c r="AN46" s="168"/>
-      <c r="AO46" s="168"/>
-      <c r="AP46" s="168"/>
-      <c r="AQ46" s="168"/>
-      <c r="AR46" s="168"/>
-      <c r="AS46" s="169">
+      <c r="AL46" s="165"/>
+      <c r="AM46" s="166"/>
+      <c r="AN46" s="166"/>
+      <c r="AO46" s="166"/>
+      <c r="AP46" s="166"/>
+      <c r="AQ46" s="166"/>
+      <c r="AR46" s="166"/>
+      <c r="AS46" s="167">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="35:47">
       <c r="AI47">
-        <f>AI46+1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AJ47" s="154"/>
-      <c r="AK47" s="170">
+      <c r="AJ47" s="152"/>
+      <c r="AK47" s="168">
         <v>5</v>
       </c>
       <c r="AL47" s="37">
         <v>1</v>
       </c>
-      <c r="AM47" s="149">
+      <c r="AM47" s="147">
         <v>10</v>
       </c>
-      <c r="AN47" s="149">
+      <c r="AN47" s="147">
         <v>11</v>
       </c>
-      <c r="AO47" s="149">
+      <c r="AO47" s="147">
         <v>20</v>
       </c>
-      <c r="AP47" s="149">
+      <c r="AP47" s="147">
         <v>21</v>
       </c>
-      <c r="AQ47" s="149">
+      <c r="AQ47" s="147">
         <v>30</v>
       </c>
-      <c r="AR47" s="149">
+      <c r="AR47" s="147">
         <v>31</v>
       </c>
-      <c r="AS47" s="171">
+      <c r="AS47" s="169">
         <v>40</v>
       </c>
       <c r="AU47" t="s">
@@ -11233,114 +11155,114 @@
     </row>
     <row r="48" spans="35:47">
       <c r="AI48">
-        <f>AI47+1</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="AJ48" s="154"/>
-      <c r="AK48" s="170">
+      <c r="AJ48" s="152"/>
+      <c r="AK48" s="168">
         <v>4</v>
       </c>
-      <c r="AL48" s="149">
+      <c r="AL48" s="147">
         <v>2</v>
       </c>
-      <c r="AM48" s="149"/>
-      <c r="AN48" s="149"/>
-      <c r="AO48" s="149"/>
-      <c r="AP48" s="149"/>
-      <c r="AQ48" s="149"/>
-      <c r="AR48" s="149"/>
-      <c r="AS48" s="171"/>
+      <c r="AM48" s="147"/>
+      <c r="AN48" s="147"/>
+      <c r="AO48" s="147"/>
+      <c r="AP48" s="147"/>
+      <c r="AQ48" s="147"/>
+      <c r="AR48" s="147"/>
+      <c r="AS48" s="169"/>
       <c r="AU48" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="49" spans="35:47">
       <c r="AI49">
-        <f>AI48+1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="AJ49" s="154"/>
-      <c r="AK49" s="170">
+      <c r="AJ49" s="152"/>
+      <c r="AK49" s="168">
         <v>3</v>
       </c>
-      <c r="AL49" s="149">
+      <c r="AL49" s="147">
         <v>3</v>
       </c>
-      <c r="AM49" s="149"/>
-      <c r="AN49" s="149"/>
-      <c r="AO49" s="149"/>
-      <c r="AP49" s="149"/>
-      <c r="AQ49" s="149"/>
-      <c r="AR49" s="149"/>
-      <c r="AS49" s="171"/>
+      <c r="AM49" s="147"/>
+      <c r="AN49" s="147"/>
+      <c r="AO49" s="147"/>
+      <c r="AP49" s="147"/>
+      <c r="AQ49" s="147"/>
+      <c r="AR49" s="147"/>
+      <c r="AS49" s="169"/>
       <c r="AU49" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="50" spans="35:47">
       <c r="AI50">
-        <f>AI49+1</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="AJ50" s="154"/>
-      <c r="AK50" s="170">
+      <c r="AJ50" s="152"/>
+      <c r="AK50" s="168">
         <v>2</v>
       </c>
-      <c r="AL50" s="149">
+      <c r="AL50" s="147">
         <v>4</v>
       </c>
-      <c r="AM50" s="149"/>
-      <c r="AN50" s="149"/>
-      <c r="AO50" s="149"/>
-      <c r="AP50" s="149"/>
-      <c r="AQ50" s="149"/>
-      <c r="AR50" s="149"/>
-      <c r="AS50" s="171"/>
+      <c r="AM50" s="147"/>
+      <c r="AN50" s="147"/>
+      <c r="AO50" s="147"/>
+      <c r="AP50" s="147"/>
+      <c r="AQ50" s="147"/>
+      <c r="AR50" s="147"/>
+      <c r="AS50" s="169"/>
       <c r="AU50" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="51" spans="35:47" ht="15" thickBot="1">
       <c r="AI51">
-        <f>AI50+1</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="AJ51" s="154"/>
-      <c r="AK51" s="172">
-        <v>1</v>
-      </c>
-      <c r="AL51" s="173">
+      <c r="AJ51" s="152"/>
+      <c r="AK51" s="170">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="171">
         <v>5</v>
       </c>
-      <c r="AM51" s="173">
+      <c r="AM51" s="171">
         <v>6</v>
       </c>
-      <c r="AN51" s="173">
-        <v>15</v>
-      </c>
-      <c r="AO51" s="173">
-        <v>16</v>
-      </c>
-      <c r="AP51" s="173">
+      <c r="AN51" s="171">
+        <v>15</v>
+      </c>
+      <c r="AO51" s="171">
+        <v>16</v>
+      </c>
+      <c r="AP51" s="171">
         <v>25</v>
       </c>
-      <c r="AQ51" s="173">
+      <c r="AQ51" s="171">
         <v>26</v>
       </c>
-      <c r="AR51" s="173">
+      <c r="AR51" s="171">
         <v>35</v>
       </c>
-      <c r="AS51" s="174">
+      <c r="AS51" s="172">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="35:47" ht="15" thickTop="1">
       <c r="AI52">
-        <f>AI51+1</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="AJ52" s="146"/>
-      <c r="AK52" s="151"/>
+      <c r="AJ52" s="144"/>
+      <c r="AK52" s="149"/>
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
@@ -11355,39 +11277,39 @@
         <v>0</v>
       </c>
       <c r="AK55" s="2">
-        <f>AJ55+1</f>
+        <f t="shared" ref="AK55:AS55" si="8">AJ55+1</f>
         <v>1</v>
       </c>
       <c r="AL55" s="2">
-        <f>AK55+1</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AM55" s="2">
-        <f>AL55+1</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AN55" s="2">
-        <f>AM55+1</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AO55" s="2">
-        <f>AN55+1</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AP55" s="2">
-        <f>AO55+1</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AQ55" s="2">
-        <f>AP55+1</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AR55" s="2">
-        <f>AQ55+1</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AS55" s="2">
-        <f>AR55+1</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -11395,44 +11317,44 @@
       <c r="AI56">
         <v>0</v>
       </c>
-      <c r="AJ56" s="144"/>
-      <c r="AK56" s="147"/>
-      <c r="AL56" s="147"/>
-      <c r="AM56" s="147"/>
-      <c r="AN56" s="147"/>
-      <c r="AO56" s="147"/>
-      <c r="AP56" s="147"/>
-      <c r="AQ56" s="147"/>
-      <c r="AR56" s="147"/>
-      <c r="AS56" s="148"/>
+      <c r="AJ56" s="142"/>
+      <c r="AK56" s="145"/>
+      <c r="AL56" s="145"/>
+      <c r="AM56" s="145"/>
+      <c r="AN56" s="145"/>
+      <c r="AO56" s="145"/>
+      <c r="AP56" s="145"/>
+      <c r="AQ56" s="145"/>
+      <c r="AR56" s="145"/>
+      <c r="AS56" s="146"/>
     </row>
     <row r="57" spans="35:47">
       <c r="AI57">
-        <f>AI56+1</f>
-        <v>1</v>
-      </c>
-      <c r="AJ57" s="145"/>
-      <c r="AK57" s="149"/>
-      <c r="AL57" s="149"/>
-      <c r="AM57" s="149"/>
-      <c r="AN57" s="149"/>
-      <c r="AO57" s="149"/>
-      <c r="AP57" s="149"/>
-      <c r="AQ57" s="149"/>
-      <c r="AR57" s="149"/>
-      <c r="AS57" s="150"/>
+        <f t="shared" ref="AI57:AI65" si="9">AI56+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ57" s="143"/>
+      <c r="AK57" s="147"/>
+      <c r="AL57" s="147"/>
+      <c r="AM57" s="147"/>
+      <c r="AN57" s="147"/>
+      <c r="AO57" s="147"/>
+      <c r="AP57" s="147"/>
+      <c r="AQ57" s="147"/>
+      <c r="AR57" s="147"/>
+      <c r="AS57" s="148"/>
     </row>
     <row r="58" spans="35:47">
       <c r="AI58">
-        <f>AI57+1</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AJ58" s="145"/>
-      <c r="AK58" s="149"/>
-      <c r="AL58" s="149"/>
-      <c r="AM58" s="149"/>
-      <c r="AN58" s="149"/>
-      <c r="AO58" s="149">
+      <c r="AJ58" s="143"/>
+      <c r="AK58" s="147"/>
+      <c r="AL58" s="147"/>
+      <c r="AM58" s="147"/>
+      <c r="AN58" s="147"/>
+      <c r="AO58" s="147">
         <v>8</v>
       </c>
       <c r="AP58" s="21"/>
@@ -11442,133 +11364,133 @@
     </row>
     <row r="59" spans="35:47">
       <c r="AI59">
-        <f>AI58+1</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="AJ59" s="154"/>
-      <c r="AK59" s="155">
+      <c r="AJ59" s="152"/>
+      <c r="AK59" s="153">
         <v>6</v>
       </c>
-      <c r="AL59" s="156"/>
-      <c r="AM59" s="157"/>
-      <c r="AN59" s="157"/>
-      <c r="AO59" s="158">
+      <c r="AL59" s="154"/>
+      <c r="AM59" s="155"/>
+      <c r="AN59" s="155"/>
+      <c r="AO59" s="156">
         <v>7</v>
       </c>
-      <c r="AP59" s="157"/>
-      <c r="AQ59" s="157"/>
-      <c r="AR59" s="157"/>
-      <c r="AS59" s="159"/>
+      <c r="AP59" s="155"/>
+      <c r="AQ59" s="155"/>
+      <c r="AR59" s="155"/>
+      <c r="AS59" s="157"/>
     </row>
     <row r="60" spans="35:47">
       <c r="AI60">
-        <f>AI59+1</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="AJ60" s="154"/>
-      <c r="AK60" s="160">
+      <c r="AJ60" s="152"/>
+      <c r="AK60" s="158">
         <v>5</v>
       </c>
       <c r="AL60" s="21"/>
       <c r="AM60" s="21"/>
       <c r="AN60" s="21"/>
-      <c r="AO60" s="149">
+      <c r="AO60" s="147">
         <v>6</v>
       </c>
       <c r="AP60" s="21"/>
       <c r="AQ60" s="21"/>
       <c r="AR60" s="21"/>
-      <c r="AS60" s="161"/>
+      <c r="AS60" s="159"/>
     </row>
     <row r="61" spans="35:47">
       <c r="AI61">
-        <f>AI60+1</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="AJ61" s="154"/>
-      <c r="AK61" s="160">
+      <c r="AJ61" s="152"/>
+      <c r="AK61" s="158">
         <v>4</v>
       </c>
       <c r="AL61" s="21"/>
       <c r="AM61" s="21"/>
       <c r="AN61" s="21"/>
-      <c r="AO61" s="149">
+      <c r="AO61" s="147">
         <v>5</v>
       </c>
       <c r="AP61" s="21"/>
       <c r="AQ61" s="21"/>
       <c r="AR61" s="21"/>
-      <c r="AS61" s="161"/>
+      <c r="AS61" s="159"/>
     </row>
     <row r="62" spans="35:47">
       <c r="AI62">
-        <f>AI61+1</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="AJ62" s="154"/>
-      <c r="AK62" s="160">
+      <c r="AJ62" s="152"/>
+      <c r="AK62" s="158">
         <v>3</v>
       </c>
       <c r="AL62" s="21"/>
       <c r="AM62" s="21"/>
       <c r="AN62" s="21"/>
-      <c r="AO62" s="149">
+      <c r="AO62" s="147">
         <v>4</v>
       </c>
       <c r="AP62" s="21"/>
       <c r="AQ62" s="21"/>
       <c r="AR62" s="21"/>
-      <c r="AS62" s="161"/>
+      <c r="AS62" s="159"/>
     </row>
     <row r="63" spans="35:47">
       <c r="AI63">
-        <f>AI62+1</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="AJ63" s="154"/>
-      <c r="AK63" s="160">
+      <c r="AJ63" s="152"/>
+      <c r="AK63" s="158">
         <v>2</v>
       </c>
       <c r="AL63" s="21"/>
       <c r="AM63" s="21"/>
       <c r="AN63" s="21"/>
-      <c r="AO63" s="149">
+      <c r="AO63" s="147">
         <v>3</v>
       </c>
       <c r="AP63" s="21"/>
       <c r="AQ63" s="21"/>
       <c r="AR63" s="21"/>
-      <c r="AS63" s="161"/>
+      <c r="AS63" s="159"/>
     </row>
     <row r="64" spans="35:47">
       <c r="AI64">
-        <f>AI63+1</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="AJ64" s="154"/>
-      <c r="AK64" s="162">
-        <v>1</v>
-      </c>
-      <c r="AL64" s="163"/>
-      <c r="AM64" s="163"/>
-      <c r="AN64" s="164">
-        <v>1</v>
-      </c>
-      <c r="AO64" s="153">
+      <c r="AJ64" s="152"/>
+      <c r="AK64" s="160">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="161"/>
+      <c r="AM64" s="161"/>
+      <c r="AN64" s="162">
+        <v>1</v>
+      </c>
+      <c r="AO64" s="151">
         <v>2</v>
       </c>
-      <c r="AP64" s="163"/>
-      <c r="AQ64" s="163"/>
-      <c r="AR64" s="163"/>
-      <c r="AS64" s="165"/>
+      <c r="AP64" s="161"/>
+      <c r="AQ64" s="161"/>
+      <c r="AR64" s="161"/>
+      <c r="AS64" s="163"/>
     </row>
     <row r="65" spans="2:48">
       <c r="AI65">
-        <f>AI64+1</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="AJ65" s="146"/>
-      <c r="AK65" s="151"/>
+      <c r="AJ65" s="144"/>
+      <c r="AK65" s="149"/>
       <c r="AL65" s="2"/>
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
@@ -11583,156 +11505,156 @@
         <v>0</v>
       </c>
       <c r="D69" s="2">
-        <f>C69+1</f>
+        <f t="shared" ref="D69:L69" si="10">C69+1</f>
         <v>1</v>
       </c>
       <c r="E69" s="2">
-        <f>D69+1</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F69" s="2">
-        <f>E69+1</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="G69" s="2">
-        <f>F69+1</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="H69" s="2">
-        <f>G69+1</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="I69" s="2">
-        <f>H69+1</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J69" s="2">
-        <f>I69+1</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K69" s="2">
-        <f>J69+1</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="L69" s="2">
-        <f>K69+1</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="O69" s="2">
         <v>0</v>
       </c>
       <c r="P69" s="2">
-        <f>O69+1</f>
+        <f t="shared" ref="P69:X69" si="11">O69+1</f>
         <v>1</v>
       </c>
       <c r="Q69" s="2">
-        <f>P69+1</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="R69" s="2">
-        <f>Q69+1</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="S69" s="2">
-        <f>R69+1</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="T69" s="2">
-        <f>S69+1</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="U69" s="2">
-        <f>T69+1</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="V69" s="2">
-        <f>U69+1</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="W69" s="2">
-        <f>V69+1</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="X69" s="2">
-        <f>W69+1</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AA69" s="2">
         <v>0</v>
       </c>
       <c r="AB69" s="2">
-        <f>AA69+1</f>
+        <f t="shared" ref="AB69:AJ69" si="12">AA69+1</f>
         <v>1</v>
       </c>
       <c r="AC69" s="2">
-        <f>AB69+1</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="AD69" s="2">
-        <f>AC69+1</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AE69" s="2">
-        <f>AD69+1</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AF69" s="2">
-        <f>AE69+1</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AG69" s="2">
-        <f>AF69+1</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AH69" s="2">
-        <f>AG69+1</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AI69" s="2">
-        <f>AH69+1</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AJ69" s="2">
-        <f>AI69+1</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="AM69" s="2">
         <v>0</v>
       </c>
       <c r="AN69" s="2">
-        <f>AM69+1</f>
+        <f t="shared" ref="AN69:AV69" si="13">AM69+1</f>
         <v>1</v>
       </c>
       <c r="AO69" s="2">
-        <f>AN69+1</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AP69" s="2">
-        <f>AO69+1</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AQ69" s="2">
-        <f>AP69+1</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AR69" s="2">
-        <f>AQ69+1</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AS69" s="2">
-        <f>AR69+1</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AT69" s="2">
-        <f>AS69+1</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AU69" s="2">
-        <f>AT69+1</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AV69" s="2">
-        <f>AU69+1</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
     </row>
@@ -11740,125 +11662,125 @@
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70" s="144"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="147"/>
-      <c r="F70" s="147"/>
-      <c r="G70" s="147"/>
-      <c r="H70" s="147"/>
-      <c r="I70" s="147"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="148"/>
+      <c r="C70" s="142"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="145"/>
+      <c r="G70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="145"/>
+      <c r="L70" s="146"/>
       <c r="N70">
         <v>0</v>
       </c>
-      <c r="O70" s="144"/>
-      <c r="P70" s="147"/>
-      <c r="Q70" s="147"/>
-      <c r="R70" s="147"/>
-      <c r="S70" s="147"/>
-      <c r="T70" s="147"/>
-      <c r="U70" s="147"/>
-      <c r="V70" s="147"/>
-      <c r="W70" s="147"/>
-      <c r="X70" s="148"/>
+      <c r="O70" s="142"/>
+      <c r="P70" s="145"/>
+      <c r="Q70" s="145"/>
+      <c r="R70" s="145"/>
+      <c r="S70" s="145"/>
+      <c r="T70" s="145"/>
+      <c r="U70" s="145"/>
+      <c r="V70" s="145"/>
+      <c r="W70" s="145"/>
+      <c r="X70" s="146"/>
       <c r="Z70">
         <v>0</v>
       </c>
-      <c r="AA70" s="144"/>
-      <c r="AB70" s="147"/>
-      <c r="AC70" s="147"/>
-      <c r="AD70" s="147"/>
-      <c r="AE70" s="147"/>
-      <c r="AF70" s="147"/>
-      <c r="AG70" s="147"/>
-      <c r="AH70" s="147"/>
-      <c r="AI70" s="147"/>
-      <c r="AJ70" s="148"/>
+      <c r="AA70" s="142"/>
+      <c r="AB70" s="145"/>
+      <c r="AC70" s="145"/>
+      <c r="AD70" s="145"/>
+      <c r="AE70" s="145"/>
+      <c r="AF70" s="145"/>
+      <c r="AG70" s="145"/>
+      <c r="AH70" s="145"/>
+      <c r="AI70" s="145"/>
+      <c r="AJ70" s="146"/>
       <c r="AL70">
         <v>0</v>
       </c>
-      <c r="AM70" s="144"/>
-      <c r="AN70" s="147"/>
-      <c r="AO70" s="147"/>
-      <c r="AP70" s="147"/>
-      <c r="AQ70" s="147"/>
-      <c r="AR70" s="147"/>
-      <c r="AS70" s="147"/>
-      <c r="AT70" s="147"/>
-      <c r="AU70" s="147"/>
-      <c r="AV70" s="148"/>
+      <c r="AM70" s="142"/>
+      <c r="AN70" s="145"/>
+      <c r="AO70" s="145"/>
+      <c r="AP70" s="145"/>
+      <c r="AQ70" s="145"/>
+      <c r="AR70" s="145"/>
+      <c r="AS70" s="145"/>
+      <c r="AT70" s="145"/>
+      <c r="AU70" s="145"/>
+      <c r="AV70" s="146"/>
     </row>
     <row r="71" spans="2:48">
       <c r="B71">
-        <f>B70+1</f>
-        <v>1</v>
-      </c>
-      <c r="C71" s="145"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
-      <c r="F71" s="149"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="149"/>
-      <c r="I71" s="149"/>
-      <c r="J71" s="149"/>
-      <c r="K71" s="149"/>
-      <c r="L71" s="150"/>
+        <f t="shared" ref="B71:B79" si="14">B70+1</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="143"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="147"/>
+      <c r="F71" s="147"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="147"/>
+      <c r="I71" s="147"/>
+      <c r="J71" s="147"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="148"/>
       <c r="N71">
-        <f>N70+1</f>
-        <v>1</v>
-      </c>
-      <c r="O71" s="145"/>
-      <c r="P71" s="149"/>
-      <c r="Q71" s="149"/>
-      <c r="R71" s="149"/>
-      <c r="S71" s="149"/>
-      <c r="T71" s="149"/>
-      <c r="U71" s="149"/>
-      <c r="V71" s="149"/>
-      <c r="W71" s="149"/>
-      <c r="X71" s="150"/>
+        <f t="shared" ref="N71:N79" si="15">N70+1</f>
+        <v>1</v>
+      </c>
+      <c r="O71" s="143"/>
+      <c r="P71" s="147"/>
+      <c r="Q71" s="147"/>
+      <c r="R71" s="147"/>
+      <c r="S71" s="147"/>
+      <c r="T71" s="147"/>
+      <c r="U71" s="147"/>
+      <c r="V71" s="147"/>
+      <c r="W71" s="147"/>
+      <c r="X71" s="148"/>
       <c r="Z71">
-        <f>Z70+1</f>
-        <v>1</v>
-      </c>
-      <c r="AA71" s="145"/>
-      <c r="AB71" s="149"/>
-      <c r="AC71" s="149"/>
-      <c r="AD71" s="149"/>
-      <c r="AE71" s="149"/>
-      <c r="AF71" s="149"/>
-      <c r="AG71" s="149"/>
-      <c r="AH71" s="149"/>
-      <c r="AI71" s="149"/>
-      <c r="AJ71" s="150"/>
+        <f t="shared" ref="Z71:Z79" si="16">Z70+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA71" s="143"/>
+      <c r="AB71" s="147"/>
+      <c r="AC71" s="147"/>
+      <c r="AD71" s="147"/>
+      <c r="AE71" s="147"/>
+      <c r="AF71" s="147"/>
+      <c r="AG71" s="147"/>
+      <c r="AH71" s="147"/>
+      <c r="AI71" s="147"/>
+      <c r="AJ71" s="148"/>
       <c r="AL71">
-        <f>AL70+1</f>
-        <v>1</v>
-      </c>
-      <c r="AM71" s="145"/>
-      <c r="AN71" s="149"/>
-      <c r="AO71" s="149"/>
-      <c r="AP71" s="149"/>
-      <c r="AQ71" s="149"/>
-      <c r="AR71" s="149"/>
-      <c r="AS71" s="149"/>
-      <c r="AT71" s="149"/>
-      <c r="AU71" s="149"/>
-      <c r="AV71" s="150"/>
+        <f t="shared" ref="AL71:AL79" si="17">AL70+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM71" s="143"/>
+      <c r="AN71" s="147"/>
+      <c r="AO71" s="147"/>
+      <c r="AP71" s="147"/>
+      <c r="AQ71" s="147"/>
+      <c r="AR71" s="147"/>
+      <c r="AS71" s="147"/>
+      <c r="AT71" s="147"/>
+      <c r="AU71" s="147"/>
+      <c r="AV71" s="148"/>
     </row>
     <row r="72" spans="2:48">
       <c r="B72">
-        <f>B71+1</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C72" s="145"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="149"/>
-      <c r="F72" s="149"/>
-      <c r="G72" s="149"/>
-      <c r="H72" s="149" t="s">
+      <c r="C72" s="143"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="147" t="s">
         <v>161</v>
       </c>
       <c r="I72" s="21"/>
@@ -11866,54 +11788,54 @@
       <c r="K72" s="21"/>
       <c r="L72" s="89"/>
       <c r="N72">
-        <f>N71+1</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O72" s="145"/>
-      <c r="P72" s="149"/>
-      <c r="Q72" s="149"/>
-      <c r="R72" s="149"/>
-      <c r="S72" s="149"/>
-      <c r="T72" s="149">
-        <v>9</v>
+      <c r="O72" s="143"/>
+      <c r="P72" s="147"/>
+      <c r="Q72" s="147"/>
+      <c r="R72" s="147"/>
+      <c r="S72" s="147"/>
+      <c r="T72" s="147">
+        <v>8</v>
       </c>
       <c r="U72" s="21"/>
       <c r="V72" s="21"/>
       <c r="W72" s="21"/>
       <c r="X72" s="89"/>
       <c r="Z72">
-        <f>Z71+1</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="AA72" s="145"/>
-      <c r="AB72" s="149"/>
-      <c r="AC72" s="149"/>
-      <c r="AD72" s="149"/>
-      <c r="AE72" s="149">
-        <v>9</v>
-      </c>
-      <c r="AF72" s="149">
+      <c r="AA72" s="143"/>
+      <c r="AB72" s="147"/>
+      <c r="AC72" s="147"/>
+      <c r="AD72" s="147"/>
+      <c r="AE72" s="147">
         <v>8</v>
+      </c>
+      <c r="AF72" s="147">
+        <v>7</v>
       </c>
       <c r="AG72" s="21"/>
       <c r="AH72" s="21"/>
       <c r="AI72" s="21"/>
       <c r="AJ72" s="89"/>
       <c r="AL72">
-        <f>AL71+1</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="AM72" s="145"/>
-      <c r="AN72" s="149"/>
-      <c r="AO72" s="149"/>
-      <c r="AP72" s="149">
-        <v>9</v>
-      </c>
-      <c r="AQ72" s="149">
+      <c r="AM72" s="143"/>
+      <c r="AN72" s="147"/>
+      <c r="AO72" s="147"/>
+      <c r="AP72" s="147">
         <v>8</v>
       </c>
-      <c r="AR72" s="149">
+      <c r="AQ72" s="147">
         <v>7</v>
+      </c>
+      <c r="AR72" s="147">
+        <v>6</v>
       </c>
       <c r="AS72" s="21"/>
       <c r="AT72" s="21"/>
@@ -11922,479 +11844,478 @@
     </row>
     <row r="73" spans="2:48">
       <c r="B73">
-        <f>B72+1</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="C73" s="154"/>
-      <c r="D73" s="155">
+      <c r="C73" s="143"/>
+      <c r="D73" s="21">
         <v>6</v>
       </c>
-      <c r="E73" s="156">
+      <c r="E73" s="74">
         <v>7</v>
       </c>
-      <c r="F73" s="157">
+      <c r="F73" s="21">
         <v>8</v>
       </c>
-      <c r="G73" s="157">
+      <c r="G73" s="21">
         <v>9</v>
       </c>
-      <c r="H73" s="158">
-        <v>9</v>
-      </c>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="159"/>
+      <c r="H73" s="147">
+        <v>8</v>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="89"/>
       <c r="N73">
-        <f>N72+1</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="O73" s="154"/>
-      <c r="P73" s="155">
+      <c r="O73" s="143"/>
+      <c r="P73" s="21">
         <v>5</v>
       </c>
-      <c r="Q73" s="156">
+      <c r="Q73" s="74">
         <v>6</v>
       </c>
-      <c r="R73" s="157">
+      <c r="R73" s="21">
         <v>7</v>
       </c>
-      <c r="S73" s="157">
+      <c r="S73" s="21">
         <v>8</v>
       </c>
-      <c r="T73" s="158">
-        <v>8</v>
-      </c>
-      <c r="U73" s="157"/>
-      <c r="V73" s="157"/>
-      <c r="W73" s="157"/>
-      <c r="X73" s="159"/>
+      <c r="T73" s="147">
+        <v>7</v>
+      </c>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="89"/>
       <c r="Z73">
-        <f>Z72+1</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="AA73" s="154"/>
-      <c r="AB73" s="155">
+      <c r="AA73" s="143"/>
+      <c r="AB73" s="21">
         <v>4</v>
       </c>
-      <c r="AC73" s="156">
+      <c r="AC73" s="74">
         <v>5</v>
       </c>
-      <c r="AD73" s="157">
+      <c r="AD73" s="21">
         <v>6</v>
       </c>
-      <c r="AE73" s="157">
+      <c r="AE73" s="21">
         <v>7</v>
       </c>
-      <c r="AF73" s="158">
-        <v>7</v>
-      </c>
-      <c r="AG73" s="157"/>
-      <c r="AH73" s="157"/>
-      <c r="AI73" s="157"/>
-      <c r="AJ73" s="159"/>
+      <c r="AF73" s="147">
+        <v>6</v>
+      </c>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="89"/>
       <c r="AL73">
-        <f>AL72+1</f>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="AM73" s="154"/>
-      <c r="AN73" s="155">
+      <c r="AM73" s="143"/>
+      <c r="AN73" s="21">
         <v>3</v>
       </c>
-      <c r="AO73" s="156">
+      <c r="AO73" s="74">
         <v>4</v>
       </c>
-      <c r="AP73" s="157">
+      <c r="AP73" s="21">
         <v>5</v>
       </c>
-      <c r="AQ73" s="157">
+      <c r="AQ73" s="21">
         <v>6</v>
       </c>
-      <c r="AR73" s="158">
-        <v>6</v>
-      </c>
-      <c r="AS73" s="157"/>
-      <c r="AT73" s="157"/>
-      <c r="AU73" s="157"/>
-      <c r="AV73" s="159"/>
+      <c r="AR73" s="147">
+        <v>5</v>
+      </c>
+      <c r="AS73" s="21"/>
+      <c r="AT73" s="21"/>
+      <c r="AU73" s="21"/>
+      <c r="AV73" s="89"/>
     </row>
     <row r="74" spans="2:48">
       <c r="B74">
-        <f>B73+1</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C74" s="154"/>
-      <c r="D74" s="160">
+      <c r="C74" s="143"/>
+      <c r="D74" s="21">
         <v>5</v>
       </c>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
-      <c r="H74" s="149">
-        <v>8</v>
+      <c r="H74" s="147">
+        <v>7</v>
       </c>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
-      <c r="L74" s="161"/>
+      <c r="L74" s="89"/>
       <c r="N74">
-        <f>N73+1</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="O74" s="154"/>
-      <c r="P74" s="160">
+      <c r="O74" s="143"/>
+      <c r="P74" s="21">
         <v>4</v>
       </c>
       <c r="Q74" s="21"/>
       <c r="R74" s="21"/>
       <c r="S74" s="21"/>
-      <c r="T74" s="149">
-        <v>7</v>
+      <c r="T74" s="147">
+        <v>6</v>
       </c>
       <c r="U74" s="21"/>
       <c r="V74" s="21"/>
       <c r="W74" s="21"/>
-      <c r="X74" s="161"/>
+      <c r="X74" s="89"/>
       <c r="Z74">
-        <f>Z73+1</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AA74" s="154"/>
-      <c r="AB74" s="160">
+      <c r="AA74" s="143"/>
+      <c r="AB74" s="21">
         <v>3</v>
       </c>
       <c r="AC74" s="21"/>
       <c r="AD74" s="21"/>
       <c r="AE74" s="21"/>
-      <c r="AF74" s="149">
-        <v>6</v>
+      <c r="AF74" s="147">
+        <v>5</v>
       </c>
       <c r="AG74" s="21"/>
       <c r="AH74" s="21"/>
       <c r="AI74" s="21"/>
-      <c r="AJ74" s="161"/>
+      <c r="AJ74" s="89"/>
       <c r="AL74">
-        <f>AL73+1</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="AM74" s="154"/>
-      <c r="AN74" s="160">
+      <c r="AM74" s="143"/>
+      <c r="AN74" s="21">
         <v>2</v>
       </c>
       <c r="AO74" s="21"/>
       <c r="AP74" s="21"/>
       <c r="AQ74" s="21"/>
-      <c r="AR74" s="149">
-        <v>5</v>
+      <c r="AR74" s="147">
+        <v>4</v>
       </c>
       <c r="AS74" s="21"/>
       <c r="AT74" s="21"/>
       <c r="AU74" s="21"/>
-      <c r="AV74" s="161"/>
+      <c r="AV74" s="89"/>
     </row>
     <row r="75" spans="2:48">
       <c r="B75">
-        <f>B74+1</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C75" s="154"/>
-      <c r="D75" s="160">
+      <c r="C75" s="143"/>
+      <c r="D75" s="21">
         <v>4</v>
       </c>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
-      <c r="H75" s="149">
-        <v>7</v>
+      <c r="H75" s="147">
+        <v>6</v>
       </c>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" s="21"/>
-      <c r="L75" s="161"/>
+      <c r="L75" s="89"/>
       <c r="N75">
-        <f>N74+1</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="O75" s="154"/>
-      <c r="P75" s="160">
+      <c r="O75" s="143"/>
+      <c r="P75" s="21">
         <v>3</v>
       </c>
       <c r="Q75" s="21"/>
       <c r="R75" s="21"/>
       <c r="S75" s="21"/>
-      <c r="T75" s="149">
-        <v>6</v>
+      <c r="T75" s="147">
+        <v>5</v>
       </c>
       <c r="U75" s="21"/>
       <c r="V75" s="21"/>
       <c r="W75" s="21"/>
-      <c r="X75" s="161"/>
+      <c r="X75" s="89"/>
       <c r="Z75">
-        <f>Z74+1</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="AA75" s="177"/>
+      <c r="AA75" s="143"/>
       <c r="AB75" s="21">
         <v>2</v>
       </c>
       <c r="AC75" s="21"/>
       <c r="AD75" s="21"/>
       <c r="AE75" s="21"/>
-      <c r="AF75" s="149">
-        <v>5</v>
+      <c r="AF75" s="147">
+        <v>4</v>
       </c>
       <c r="AG75" s="21"/>
       <c r="AH75" s="21"/>
       <c r="AI75" s="21"/>
-      <c r="AJ75" s="161"/>
+      <c r="AJ75" s="89"/>
       <c r="AL75">
-        <f>AL74+1</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="AM75" s="154"/>
-      <c r="AN75" s="160">
+      <c r="AM75" s="143"/>
+      <c r="AN75" s="21">
         <v>1</v>
       </c>
       <c r="AO75" s="21"/>
       <c r="AP75" s="21"/>
       <c r="AQ75" s="21"/>
-      <c r="AR75" s="149">
-        <v>4</v>
+      <c r="AR75" s="147">
+        <v>3</v>
       </c>
       <c r="AS75" s="21"/>
       <c r="AT75" s="21"/>
       <c r="AU75" s="21"/>
-      <c r="AV75" s="161"/>
+      <c r="AV75" s="89"/>
     </row>
     <row r="76" spans="2:48">
       <c r="B76">
-        <f>B75+1</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="C76" s="154"/>
-      <c r="D76" s="160">
+      <c r="C76" s="143"/>
+      <c r="D76" s="21">
         <v>3</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="37">
-        <v>1</v>
-      </c>
-      <c r="H76" s="149">
-        <v>6</v>
+      <c r="G76" s="21"/>
+      <c r="H76" s="147">
+        <v>5</v>
       </c>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
       <c r="K76" s="21"/>
-      <c r="L76" s="161"/>
+      <c r="L76" s="89"/>
       <c r="N76">
-        <f>N75+1</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="O76" s="154"/>
-      <c r="P76" s="160">
+      <c r="O76" s="143"/>
+      <c r="P76" s="21">
         <v>2</v>
       </c>
       <c r="Q76" s="21"/>
       <c r="R76" s="21"/>
       <c r="S76" s="21"/>
-      <c r="T76" s="149">
-        <v>5</v>
+      <c r="T76" s="147">
+        <v>4</v>
       </c>
       <c r="U76" s="21"/>
       <c r="V76" s="21"/>
       <c r="W76" s="21"/>
-      <c r="X76" s="161"/>
+      <c r="X76" s="89"/>
       <c r="Z76">
-        <f>Z75+1</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="AA76" s="177"/>
+      <c r="AA76" s="143"/>
       <c r="AB76" s="21">
         <v>1</v>
       </c>
       <c r="AC76" s="21"/>
       <c r="AD76" s="21"/>
       <c r="AE76" s="21"/>
-      <c r="AF76" s="149">
-        <v>4</v>
+      <c r="AF76" s="147">
+        <v>3</v>
       </c>
       <c r="AG76" s="21"/>
       <c r="AH76" s="21"/>
       <c r="AI76" s="21"/>
-      <c r="AJ76" s="161"/>
+      <c r="AJ76" s="89"/>
       <c r="AL76">
-        <f>AL75+1</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="AM76" s="154"/>
-      <c r="AN76" s="151"/>
+      <c r="AM76" s="143"/>
+      <c r="AN76" s="183" t="s">
+        <v>164</v>
+      </c>
       <c r="AO76" s="21"/>
       <c r="AP76" s="21"/>
       <c r="AQ76" s="21"/>
-      <c r="AR76" s="149">
-        <v>3</v>
+      <c r="AR76" s="147">
+        <v>2</v>
       </c>
       <c r="AS76" s="21"/>
       <c r="AT76" s="21"/>
       <c r="AU76" s="21"/>
-      <c r="AV76" s="161"/>
+      <c r="AV76" s="89"/>
     </row>
     <row r="77" spans="2:48">
       <c r="B77">
-        <f>B76+1</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="C77" s="154"/>
-      <c r="D77" s="160">
+      <c r="C77" s="143"/>
+      <c r="D77" s="21">
         <v>2</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="149">
-        <v>2</v>
-      </c>
-      <c r="H77" s="149">
-        <v>5</v>
+      <c r="G77" s="21"/>
+      <c r="H77" s="147">
+        <v>4</v>
       </c>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
-      <c r="L77" s="161"/>
+      <c r="L77" s="89"/>
       <c r="N77">
-        <f>N76+1</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="O77" s="154"/>
-      <c r="P77" s="160">
+      <c r="O77" s="143"/>
+      <c r="P77" s="21">
         <v>1</v>
       </c>
       <c r="Q77" s="21"/>
       <c r="R77" s="21"/>
-      <c r="S77" s="37">
-        <v>1</v>
-      </c>
-      <c r="T77" s="149">
-        <v>4</v>
+      <c r="T77" s="147">
+        <v>3</v>
       </c>
       <c r="U77" s="21"/>
       <c r="V77" s="21"/>
       <c r="W77" s="21"/>
-      <c r="X77" s="161"/>
+      <c r="X77" s="89"/>
       <c r="Z77">
-        <f>Z76+1</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="AA77" s="177"/>
-      <c r="AB77" s="151"/>
+      <c r="AA77" s="143"/>
+      <c r="AB77" s="183" t="s">
+        <v>164</v>
+      </c>
       <c r="AC77" s="21"/>
       <c r="AD77" s="21"/>
       <c r="AE77" s="21"/>
-      <c r="AF77" s="149">
-        <v>3</v>
+      <c r="AF77" s="147">
+        <v>2</v>
       </c>
       <c r="AG77" s="21"/>
       <c r="AH77" s="21"/>
       <c r="AI77" s="21"/>
-      <c r="AJ77" s="161"/>
+      <c r="AJ77" s="89"/>
       <c r="AL77">
-        <f>AL76+1</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="AM77" s="177"/>
-      <c r="AN77" s="149"/>
+      <c r="AM77" s="143"/>
+      <c r="AN77" s="147"/>
       <c r="AO77" s="21"/>
       <c r="AP77" s="21"/>
       <c r="AQ77" s="21"/>
-      <c r="AR77" s="149">
-        <v>2</v>
+      <c r="AR77" s="37">
+        <v>1</v>
       </c>
       <c r="AS77" s="21"/>
       <c r="AT77" s="21"/>
       <c r="AU77" s="21"/>
-      <c r="AV77" s="161"/>
+      <c r="AV77" s="89"/>
     </row>
     <row r="78" spans="2:48">
       <c r="B78">
-        <f>B77+1</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="C78" s="154"/>
-      <c r="D78" s="162">
-        <v>1</v>
-      </c>
-      <c r="E78" s="163"/>
-      <c r="F78" s="163"/>
-      <c r="G78" s="153">
+      <c r="C78" s="143"/>
+      <c r="D78" s="21">
+        <v>1</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="37">
+        <v>1</v>
+      </c>
+      <c r="G78" s="147">
+        <v>2</v>
+      </c>
+      <c r="H78" s="147">
         <v>3</v>
       </c>
-      <c r="H78" s="153">
-        <v>4</v>
-      </c>
-      <c r="I78" s="163"/>
-      <c r="J78" s="163"/>
-      <c r="K78" s="163"/>
-      <c r="L78" s="165"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="89"/>
       <c r="N78">
-        <f>N77+1</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="O78" s="177"/>
-      <c r="P78" s="181"/>
-      <c r="Q78" s="163"/>
-      <c r="R78" s="163"/>
-      <c r="S78" s="187">
+      <c r="O78" s="143"/>
+      <c r="P78" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="37">
+        <v>1</v>
+      </c>
+      <c r="T78" s="147">
         <v>2</v>
       </c>
-      <c r="T78" s="153">
-        <v>3</v>
-      </c>
-      <c r="U78" s="163"/>
-      <c r="V78" s="163"/>
-      <c r="W78" s="163"/>
-      <c r="X78" s="165"/>
+      <c r="U78" s="21"/>
+      <c r="V78" s="21"/>
+      <c r="W78" s="21"/>
+      <c r="X78" s="89"/>
       <c r="Z78">
-        <f>Z77+1</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="AA78" s="177"/>
-      <c r="AB78" s="180"/>
-      <c r="AC78" s="163"/>
-      <c r="AD78" s="163"/>
-      <c r="AE78" s="186">
-        <v>1</v>
-      </c>
-      <c r="AF78" s="187">
-        <v>2</v>
-      </c>
-      <c r="AG78" s="163"/>
-      <c r="AH78" s="163"/>
-      <c r="AI78" s="163"/>
-      <c r="AJ78" s="165"/>
+      <c r="AA78" s="143"/>
+      <c r="AB78" s="147"/>
+      <c r="AC78" s="21"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="21"/>
+      <c r="AF78" s="37">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="21"/>
+      <c r="AH78" s="21"/>
+      <c r="AI78" s="21"/>
+      <c r="AJ78" s="89"/>
       <c r="AL78">
-        <f>AL77+1</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="AM78" s="177"/>
-      <c r="AN78" s="178"/>
-      <c r="AO78" s="163"/>
-      <c r="AP78" s="163"/>
-      <c r="AQ78" s="176"/>
-      <c r="AR78" s="164">
-        <v>1</v>
-      </c>
-      <c r="AS78" s="163"/>
-      <c r="AT78" s="163"/>
-      <c r="AU78" s="163"/>
-      <c r="AV78" s="165"/>
+      <c r="AM78" s="143"/>
+      <c r="AN78" s="147"/>
+      <c r="AO78" s="21"/>
+      <c r="AP78" s="21"/>
+      <c r="AQ78" s="21"/>
+      <c r="AR78" s="21"/>
+      <c r="AS78" s="21"/>
+      <c r="AT78" s="21"/>
+      <c r="AU78" s="21"/>
+      <c r="AV78" s="89"/>
     </row>
     <row r="79" spans="2:48">
       <c r="B79">
-        <f>B78+1</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="C79" s="146"/>
-      <c r="D79" s="151"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="183" t="s">
+        <v>164</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -12404,11 +12325,11 @@
       <c r="K79" s="2"/>
       <c r="L79" s="113"/>
       <c r="N79">
-        <f>N78+1</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="O79" s="146"/>
-      <c r="P79" s="146"/>
+      <c r="O79" s="144"/>
+      <c r="P79" s="150"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
@@ -12418,11 +12339,11 @@
       <c r="W79" s="2"/>
       <c r="X79" s="113"/>
       <c r="Z79">
-        <f>Z78+1</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="AA79" s="146"/>
-      <c r="AB79" s="146"/>
+      <c r="AA79" s="144"/>
+      <c r="AB79" s="150"/>
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
@@ -12432,11 +12353,11 @@
       <c r="AI79" s="2"/>
       <c r="AJ79" s="113"/>
       <c r="AL79">
-        <f>AL78+1</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
-      <c r="AM79" s="146"/>
-      <c r="AN79" s="182"/>
+      <c r="AM79" s="144"/>
+      <c r="AN79" s="150"/>
       <c r="AO79" s="2"/>
       <c r="AP79" s="2"/>
       <c r="AQ79" s="2"/>
@@ -12451,156 +12372,156 @@
         <v>0</v>
       </c>
       <c r="D81" s="2">
-        <f>C81+1</f>
+        <f t="shared" ref="D81:L81" si="18">C81+1</f>
         <v>1</v>
       </c>
       <c r="E81" s="2">
-        <f>D81+1</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="F81" s="2">
-        <f>E81+1</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="G81" s="2">
-        <f>F81+1</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="H81" s="2">
-        <f>G81+1</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I81" s="2">
-        <f>H81+1</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="J81" s="2">
-        <f>I81+1</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="K81" s="2">
-        <f>J81+1</f>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="L81" s="2">
-        <f>K81+1</f>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="O81" s="2">
         <v>0</v>
       </c>
       <c r="P81" s="2">
-        <f>O81+1</f>
+        <f t="shared" ref="P81:X81" si="19">O81+1</f>
         <v>1</v>
       </c>
       <c r="Q81" s="2">
-        <f>P81+1</f>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R81" s="2">
-        <f>Q81+1</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="S81" s="2">
-        <f>R81+1</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="T81" s="2">
-        <f>S81+1</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="U81" s="2">
-        <f>T81+1</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="V81" s="2">
-        <f>U81+1</f>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="W81" s="2">
-        <f>V81+1</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="X81" s="2">
-        <f>W81+1</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="AA81" s="2">
         <v>0</v>
       </c>
       <c r="AB81" s="2">
-        <f>AA81+1</f>
+        <f t="shared" ref="AB81:AJ81" si="20">AA81+1</f>
         <v>1</v>
       </c>
       <c r="AC81" s="2">
-        <f>AB81+1</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AD81" s="2">
-        <f>AC81+1</f>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="AE81" s="2">
-        <f>AD81+1</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="AF81" s="2">
-        <f>AE81+1</f>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AG81" s="2">
-        <f>AF81+1</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="AH81" s="2">
-        <f>AG81+1</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="AI81" s="2">
-        <f>AH81+1</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="AJ81" s="2">
-        <f>AI81+1</f>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="AM81" s="2">
         <v>0</v>
       </c>
       <c r="AN81" s="2">
-        <f>AM81+1</f>
+        <f t="shared" ref="AN81:AV81" si="21">AM81+1</f>
         <v>1</v>
       </c>
       <c r="AO81" s="2">
-        <f>AN81+1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AP81" s="2">
-        <f>AO81+1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AQ81" s="2">
-        <f>AP81+1</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AR81" s="2">
-        <f>AQ81+1</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="AS81" s="2">
-        <f>AR81+1</f>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="AT81" s="2">
-        <f>AS81+1</f>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="AU81" s="2">
-        <f>AT81+1</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="AV81" s="2">
-        <f>AU81+1</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
     </row>
@@ -12608,209 +12529,209 @@
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82" s="144"/>
-      <c r="D82" s="147"/>
-      <c r="E82" s="147"/>
-      <c r="F82" s="147"/>
-      <c r="G82" s="147"/>
-      <c r="H82" s="147"/>
-      <c r="I82" s="147"/>
-      <c r="J82" s="147"/>
-      <c r="K82" s="147"/>
-      <c r="L82" s="148"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="145"/>
+      <c r="F82" s="145"/>
+      <c r="G82" s="145"/>
+      <c r="H82" s="145"/>
+      <c r="I82" s="145"/>
+      <c r="J82" s="145"/>
+      <c r="K82" s="145"/>
+      <c r="L82" s="146"/>
       <c r="N82">
         <v>0</v>
       </c>
-      <c r="O82" s="144"/>
-      <c r="P82" s="147"/>
-      <c r="Q82" s="147"/>
-      <c r="R82" s="147"/>
-      <c r="S82" s="147"/>
-      <c r="T82" s="147"/>
-      <c r="U82" s="147"/>
-      <c r="V82" s="147"/>
-      <c r="W82" s="147"/>
-      <c r="X82" s="148"/>
+      <c r="O82" s="142"/>
+      <c r="P82" s="145"/>
+      <c r="Q82" s="145"/>
+      <c r="R82" s="145"/>
+      <c r="S82" s="145"/>
+      <c r="T82" s="145"/>
+      <c r="U82" s="145"/>
+      <c r="V82" s="145"/>
+      <c r="W82" s="145"/>
+      <c r="X82" s="146"/>
       <c r="Z82">
         <v>0</v>
       </c>
-      <c r="AA82" s="144"/>
-      <c r="AB82" s="147"/>
-      <c r="AC82" s="147"/>
-      <c r="AD82" s="147"/>
-      <c r="AE82" s="147"/>
-      <c r="AF82" s="147"/>
-      <c r="AG82" s="147"/>
-      <c r="AH82" s="147"/>
-      <c r="AI82" s="147"/>
-      <c r="AJ82" s="148"/>
+      <c r="AA82" s="142"/>
+      <c r="AB82" s="145"/>
+      <c r="AC82" s="145"/>
+      <c r="AD82" s="145"/>
+      <c r="AE82" s="145"/>
+      <c r="AF82" s="145"/>
+      <c r="AG82" s="145"/>
+      <c r="AH82" s="145"/>
+      <c r="AI82" s="145"/>
+      <c r="AJ82" s="146"/>
       <c r="AL82">
         <v>0</v>
       </c>
-      <c r="AM82" s="144"/>
-      <c r="AN82" s="147"/>
-      <c r="AO82" s="147"/>
-      <c r="AP82" s="147"/>
-      <c r="AQ82" s="147"/>
-      <c r="AR82" s="147"/>
-      <c r="AS82" s="147"/>
-      <c r="AT82" s="147"/>
-      <c r="AU82" s="147"/>
-      <c r="AV82" s="148"/>
+      <c r="AM82" s="142"/>
+      <c r="AN82" s="145"/>
+      <c r="AO82" s="145"/>
+      <c r="AP82" s="145"/>
+      <c r="AQ82" s="145"/>
+      <c r="AR82" s="184"/>
+      <c r="AS82" s="145"/>
+      <c r="AT82" s="145"/>
+      <c r="AU82" s="145"/>
+      <c r="AV82" s="146"/>
     </row>
     <row r="83" spans="2:48">
       <c r="B83">
-        <f>B82+1</f>
-        <v>1</v>
-      </c>
-      <c r="C83" s="145"/>
-      <c r="D83" s="149"/>
-      <c r="E83" s="149"/>
-      <c r="F83" s="149"/>
-      <c r="G83" s="149"/>
-      <c r="H83" s="149"/>
-      <c r="I83" s="149"/>
-      <c r="J83" s="149"/>
-      <c r="K83" s="149"/>
-      <c r="L83" s="150"/>
+        <f t="shared" ref="B83:B91" si="22">B82+1</f>
+        <v>1</v>
+      </c>
+      <c r="C83" s="143"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="147"/>
+      <c r="G83" s="147"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="147"/>
+      <c r="J83" s="147"/>
+      <c r="K83" s="147"/>
+      <c r="L83" s="148"/>
       <c r="N83">
-        <f>N82+1</f>
-        <v>1</v>
-      </c>
-      <c r="O83" s="145"/>
-      <c r="P83" s="149"/>
-      <c r="Q83" s="149"/>
-      <c r="R83" s="149"/>
-      <c r="S83" s="149"/>
-      <c r="T83" s="149"/>
-      <c r="U83" s="149"/>
-      <c r="V83" s="149"/>
-      <c r="W83" s="149"/>
-      <c r="X83" s="150"/>
+        <f t="shared" ref="N83:N91" si="23">N82+1</f>
+        <v>1</v>
+      </c>
+      <c r="O83" s="143"/>
+      <c r="P83" s="147"/>
+      <c r="Q83" s="147"/>
+      <c r="R83" s="147"/>
+      <c r="S83" s="147"/>
+      <c r="T83" s="147"/>
+      <c r="U83" s="147"/>
+      <c r="V83" s="147"/>
+      <c r="W83" s="147"/>
+      <c r="X83" s="148"/>
       <c r="Z83">
-        <f>Z82+1</f>
-        <v>1</v>
-      </c>
-      <c r="AA83" s="145"/>
-      <c r="AB83" s="149">
+        <f t="shared" ref="Z83:Z91" si="24">Z82+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA83" s="143"/>
+      <c r="AB83" s="147">
+        <v>8</v>
+      </c>
+      <c r="AC83" s="147"/>
+      <c r="AD83" s="147"/>
+      <c r="AE83" s="147"/>
+      <c r="AF83" s="147"/>
+      <c r="AG83" s="147"/>
+      <c r="AH83" s="147"/>
+      <c r="AI83" s="147"/>
+      <c r="AJ83" s="148"/>
+      <c r="AL83">
+        <f t="shared" ref="AL83:AL91" si="25">AL82+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM83" s="143"/>
+      <c r="AN83" s="147">
+        <v>8</v>
+      </c>
+      <c r="AO83" s="182">
         <v>9</v>
       </c>
-      <c r="AC83" s="149"/>
-      <c r="AD83" s="149"/>
-      <c r="AE83" s="149"/>
-      <c r="AF83" s="149"/>
-      <c r="AG83" s="149"/>
-      <c r="AH83" s="149"/>
-      <c r="AI83" s="149"/>
-      <c r="AJ83" s="150"/>
-      <c r="AL83">
-        <f>AL82+1</f>
-        <v>1</v>
-      </c>
-      <c r="AM83" s="145"/>
-      <c r="AN83" s="149">
-        <v>8</v>
-      </c>
-      <c r="AO83" s="149">
-        <v>9</v>
-      </c>
-      <c r="AP83" s="149"/>
-      <c r="AQ83" s="149"/>
-      <c r="AR83" s="149"/>
-      <c r="AS83" s="149"/>
-      <c r="AT83" s="149"/>
-      <c r="AU83" s="149"/>
-      <c r="AV83" s="150"/>
+      <c r="AP83" s="147"/>
+      <c r="AQ83" s="147"/>
+      <c r="AR83" s="147"/>
+      <c r="AS83" s="147"/>
+      <c r="AT83" s="147"/>
+      <c r="AU83" s="147"/>
+      <c r="AV83" s="148"/>
     </row>
     <row r="84" spans="2:48">
       <c r="B84">
-        <f>B83+1</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="C84" s="145"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="149">
-        <v>9</v>
-      </c>
-      <c r="F84" s="149">
+      <c r="C84" s="143"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="147">
         <v>8</v>
       </c>
-      <c r="G84" s="149">
+      <c r="F84" s="147">
         <v>7</v>
       </c>
-      <c r="H84" s="149">
+      <c r="G84" s="147">
         <v>6</v>
+      </c>
+      <c r="H84" s="147">
+        <v>5</v>
       </c>
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
       <c r="L84" s="89"/>
       <c r="N84">
-        <f>N83+1</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="O84" s="145"/>
-      <c r="P84" s="149">
-        <v>9</v>
-      </c>
-      <c r="Q84" s="149">
+      <c r="O84" s="143"/>
+      <c r="P84" s="147">
         <v>8</v>
       </c>
-      <c r="R84" s="149">
+      <c r="Q84" s="147">
         <v>7</v>
       </c>
-      <c r="S84" s="149">
+      <c r="R84" s="147">
         <v>6</v>
       </c>
-      <c r="T84" s="149">
+      <c r="S84" s="147">
         <v>5</v>
+      </c>
+      <c r="T84" s="147">
+        <v>4</v>
       </c>
       <c r="U84" s="21"/>
       <c r="V84" s="21"/>
       <c r="W84" s="21"/>
       <c r="X84" s="89"/>
       <c r="Z84">
-        <f>Z83+1</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="AA84" s="145"/>
-      <c r="AB84" s="149">
-        <v>8</v>
-      </c>
-      <c r="AC84" s="149">
+      <c r="AA84" s="143"/>
+      <c r="AB84" s="147">
         <v>7</v>
       </c>
-      <c r="AD84" s="149">
+      <c r="AC84" s="147">
         <v>6</v>
       </c>
-      <c r="AE84" s="149">
+      <c r="AD84" s="147">
         <v>5</v>
       </c>
-      <c r="AF84" s="149">
+      <c r="AE84" s="147">
         <v>4</v>
+      </c>
+      <c r="AF84" s="147">
+        <v>3</v>
       </c>
       <c r="AG84" s="21"/>
       <c r="AH84" s="21"/>
       <c r="AI84" s="21"/>
       <c r="AJ84" s="89"/>
       <c r="AL84">
-        <f>AL83+1</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="AM84" s="145"/>
-      <c r="AN84" s="149">
+      <c r="AM84" s="143"/>
+      <c r="AN84" s="147">
         <v>7</v>
       </c>
-      <c r="AO84" s="149">
+      <c r="AO84" s="147">
         <v>6</v>
       </c>
-      <c r="AP84" s="149">
+      <c r="AP84" s="147">
         <v>5</v>
       </c>
-      <c r="AQ84" s="149">
+      <c r="AQ84" s="147">
         <v>4</v>
       </c>
-      <c r="AR84" s="149">
+      <c r="AR84" s="147">
         <v>3</v>
       </c>
       <c r="AS84" s="21"/>
@@ -12820,153 +12741,159 @@
     </row>
     <row r="85" spans="2:48">
       <c r="B85">
-        <f>B84+1</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="C85" s="154"/>
-      <c r="D85" s="179">
+      <c r="C85" s="143"/>
+      <c r="D85" s="21">
         <v>2</v>
       </c>
-      <c r="E85" s="156">
+      <c r="E85" s="74">
         <v>3</v>
       </c>
-      <c r="F85" s="157">
+      <c r="F85" s="21">
         <v>4</v>
       </c>
-      <c r="G85" s="157">
+      <c r="G85" s="21">
         <v>5</v>
       </c>
-      <c r="H85" s="158">
-        <v>5</v>
-      </c>
-      <c r="I85" s="157"/>
-      <c r="J85" s="157"/>
-      <c r="K85" s="157"/>
-      <c r="L85" s="159"/>
+      <c r="H85" s="147">
+        <v>4</v>
+      </c>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="89"/>
       <c r="N85">
-        <f>N84+1</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="O85" s="177"/>
-      <c r="P85" s="157">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="156">
+      <c r="O85" s="143"/>
+      <c r="P85" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="74">
         <v>2</v>
       </c>
-      <c r="R85" s="157">
+      <c r="R85" s="21">
         <v>3</v>
       </c>
-      <c r="S85" s="157">
+      <c r="S85" s="21">
         <v>4</v>
       </c>
-      <c r="T85" s="158">
-        <v>4</v>
-      </c>
-      <c r="U85" s="157"/>
-      <c r="V85" s="157"/>
-      <c r="W85" s="157"/>
-      <c r="X85" s="159"/>
+      <c r="T85" s="147">
+        <v>3</v>
+      </c>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="X85" s="89"/>
       <c r="Z85">
-        <f>Z84+1</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="AA85" s="177"/>
-      <c r="AB85" s="151"/>
-      <c r="AC85" s="156">
-        <v>1</v>
-      </c>
-      <c r="AD85" s="157">
+      <c r="AA85" s="143"/>
+      <c r="AB85" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC85" s="74">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="21">
         <v>2</v>
       </c>
-      <c r="AE85" s="157">
+      <c r="AE85" s="21">
         <v>3</v>
       </c>
-      <c r="AF85" s="158">
+      <c r="AF85" s="147">
+        <v>2</v>
+      </c>
+      <c r="AG85" s="21"/>
+      <c r="AH85" s="21"/>
+      <c r="AI85" s="21"/>
+      <c r="AJ85" s="89"/>
+      <c r="AL85">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="AG85" s="157"/>
-      <c r="AH85" s="157"/>
-      <c r="AI85" s="157"/>
-      <c r="AJ85" s="159"/>
-      <c r="AL85">
-        <f>AL84+1</f>
-        <v>3</v>
-      </c>
-      <c r="AM85" s="177"/>
-      <c r="AN85" s="183"/>
-      <c r="AO85" s="151"/>
-      <c r="AP85" s="157">
-        <v>1</v>
-      </c>
-      <c r="AQ85" s="157">
+      <c r="AM85" s="143"/>
+      <c r="AN85" s="147"/>
+      <c r="AO85" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP85" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ85" s="21">
         <v>2</v>
       </c>
-      <c r="AR85" s="149">
+      <c r="AR85" s="147">
         <v>2</v>
       </c>
-      <c r="AS85" s="157"/>
-      <c r="AT85" s="157"/>
-      <c r="AU85" s="157"/>
-      <c r="AV85" s="159"/>
+      <c r="AS85" s="21"/>
+      <c r="AT85" s="21"/>
+      <c r="AU85" s="21"/>
+      <c r="AV85" s="89"/>
     </row>
     <row r="86" spans="2:48">
       <c r="B86">
-        <f>B85+1</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="C86" s="154"/>
-      <c r="D86" s="160">
+      <c r="C86" s="143"/>
+      <c r="D86" s="21">
         <v>1</v>
       </c>
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="149">
-        <v>4</v>
+      <c r="H86" s="147">
+        <v>3</v>
       </c>
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
-      <c r="L86" s="161"/>
+      <c r="L86" s="89"/>
       <c r="N86">
-        <f>N85+1</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="O86" s="177"/>
-      <c r="P86" s="151"/>
+      <c r="O86" s="143"/>
+      <c r="P86" s="183" t="s">
+        <v>164</v>
+      </c>
       <c r="Q86" s="21"/>
       <c r="R86" s="21"/>
       <c r="S86" s="21"/>
-      <c r="T86" s="149">
-        <v>3</v>
+      <c r="T86" s="147">
+        <v>2</v>
       </c>
       <c r="U86" s="21"/>
       <c r="V86" s="21"/>
       <c r="W86" s="21"/>
-      <c r="X86" s="161"/>
+      <c r="X86" s="89"/>
       <c r="Z86">
-        <f>Z85+1</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="AA86" s="177"/>
-      <c r="AB86" s="149"/>
+      <c r="AA86" s="143"/>
+      <c r="AB86" s="147"/>
       <c r="AC86" s="21"/>
       <c r="AD86" s="21"/>
       <c r="AE86" s="21"/>
-      <c r="AF86" s="149">
-        <v>2</v>
+      <c r="AF86" s="37">
+        <v>1</v>
       </c>
       <c r="AG86" s="21"/>
       <c r="AH86" s="21"/>
       <c r="AI86" s="21"/>
-      <c r="AJ86" s="161"/>
+      <c r="AJ86" s="89"/>
       <c r="AL86">
-        <f>AL85+1</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="AM86" s="177"/>
-      <c r="AN86" s="149"/>
+      <c r="AM86" s="143"/>
+      <c r="AN86" s="147"/>
       <c r="AO86" s="21"/>
       <c r="AP86" s="21"/>
       <c r="AQ86" s="21"/>
@@ -12976,253 +12903,255 @@
       <c r="AS86" s="21"/>
       <c r="AT86" s="21"/>
       <c r="AU86" s="21"/>
-      <c r="AV86" s="161"/>
+      <c r="AV86" s="89"/>
     </row>
     <row r="87" spans="2:48">
       <c r="B87">
-        <f>B86+1</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="C87" s="177"/>
-      <c r="D87" s="184"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="183" t="s">
+        <v>164</v>
+      </c>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
-      <c r="H87" s="149">
-        <v>3</v>
+      <c r="H87" s="147">
+        <v>2</v>
       </c>
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
-      <c r="L87" s="161"/>
+      <c r="L87" s="89"/>
       <c r="N87">
-        <f>N86+1</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="O87" s="177"/>
-      <c r="P87" s="149"/>
+      <c r="O87" s="143"/>
+      <c r="P87" s="147"/>
       <c r="Q87" s="21"/>
       <c r="R87" s="21"/>
       <c r="S87" s="21"/>
-      <c r="T87" s="149">
-        <v>2</v>
+      <c r="T87" s="37">
+        <v>1</v>
       </c>
       <c r="U87" s="21"/>
       <c r="V87" s="21"/>
       <c r="W87" s="21"/>
-      <c r="X87" s="161"/>
+      <c r="X87" s="89"/>
       <c r="Z87">
-        <f>Z86+1</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="AA87" s="177"/>
-      <c r="AB87" s="149"/>
+      <c r="AA87" s="143"/>
+      <c r="AB87" s="147"/>
       <c r="AC87" s="21"/>
       <c r="AD87" s="21"/>
       <c r="AE87" s="21"/>
-      <c r="AF87" s="37">
-        <v>1</v>
-      </c>
       <c r="AG87" s="21"/>
       <c r="AH87" s="21"/>
       <c r="AI87" s="21"/>
-      <c r="AJ87" s="161"/>
+      <c r="AJ87" s="89"/>
       <c r="AL87">
-        <f>AL86+1</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="AM87" s="177"/>
-      <c r="AN87" s="149"/>
+      <c r="AM87" s="143"/>
+      <c r="AN87" s="147"/>
       <c r="AO87" s="21"/>
       <c r="AP87" s="21"/>
       <c r="AQ87" s="21"/>
+      <c r="AR87" s="21"/>
       <c r="AS87" s="21"/>
       <c r="AT87" s="21"/>
       <c r="AU87" s="21"/>
-      <c r="AV87" s="161"/>
+      <c r="AV87" s="89"/>
     </row>
     <row r="88" spans="2:48">
       <c r="B88">
-        <f>B87+1</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="C88" s="177"/>
-      <c r="D88" s="149"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="147"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
-      <c r="H88" s="149">
-        <v>2</v>
+      <c r="H88" s="37">
+        <v>1</v>
       </c>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
-      <c r="L88" s="161"/>
+      <c r="L88" s="89"/>
       <c r="N88">
-        <f>N87+1</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
-      <c r="O88" s="177"/>
-      <c r="P88" s="149"/>
+      <c r="O88" s="143"/>
+      <c r="P88" s="147"/>
       <c r="Q88" s="21"/>
       <c r="R88" s="21"/>
       <c r="S88" s="21"/>
-      <c r="T88" s="37">
-        <v>1</v>
-      </c>
       <c r="U88" s="21"/>
       <c r="V88" s="21"/>
       <c r="W88" s="21"/>
-      <c r="X88" s="161"/>
+      <c r="X88" s="89"/>
       <c r="Z88">
-        <f>Z87+1</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="AA88" s="177"/>
-      <c r="AB88" s="149"/>
+      <c r="AA88" s="143"/>
+      <c r="AB88" s="147"/>
       <c r="AC88" s="21"/>
       <c r="AD88" s="21"/>
       <c r="AE88" s="21"/>
+      <c r="AF88" s="21"/>
       <c r="AG88" s="21"/>
       <c r="AH88" s="21"/>
       <c r="AI88" s="21"/>
-      <c r="AJ88" s="161"/>
+      <c r="AJ88" s="89"/>
       <c r="AL88">
-        <f>AL87+1</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="AM88" s="177"/>
-      <c r="AN88" s="149"/>
-      <c r="AO88" s="21"/>
-      <c r="AP88" s="21"/>
+      <c r="AM88" s="143"/>
+      <c r="AN88" s="147"/>
+      <c r="AP88" s="21" t="s">
+        <v>165</v>
+      </c>
       <c r="AQ88" s="21"/>
+      <c r="AR88" s="21"/>
       <c r="AS88" s="21"/>
       <c r="AT88" s="21"/>
       <c r="AU88" s="21"/>
-      <c r="AV88" s="161"/>
+      <c r="AV88" s="89"/>
     </row>
     <row r="89" spans="2:48">
       <c r="B89">
-        <f>B88+1</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="C89" s="177"/>
-      <c r="D89" s="149"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="147"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
-      <c r="H89" s="37">
-        <v>1</v>
-      </c>
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
-      <c r="L89" s="161"/>
+      <c r="L89" s="89"/>
       <c r="N89">
-        <f>N88+1</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="O89" s="177"/>
-      <c r="P89" s="149"/>
+      <c r="O89" s="143"/>
+      <c r="P89" s="147"/>
       <c r="Q89" s="21"/>
       <c r="R89" s="21"/>
       <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
       <c r="U89" s="21"/>
       <c r="V89" s="21"/>
       <c r="W89" s="21"/>
-      <c r="X89" s="161"/>
+      <c r="X89" s="89"/>
       <c r="Z89">
-        <f>Z88+1</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
-      <c r="AA89" s="177"/>
-      <c r="AB89" s="149"/>
+      <c r="AA89" s="143"/>
+      <c r="AB89" s="147"/>
       <c r="AC89" s="21"/>
       <c r="AD89" s="21"/>
       <c r="AE89" s="21"/>
+      <c r="AF89" s="21"/>
       <c r="AG89" s="21"/>
       <c r="AH89" s="21"/>
       <c r="AI89" s="21"/>
-      <c r="AJ89" s="161"/>
+      <c r="AJ89" s="89"/>
       <c r="AL89">
-        <f>AL88+1</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="AM89" s="177"/>
-      <c r="AN89" s="149"/>
-      <c r="AO89" s="21"/>
-      <c r="AP89" s="21"/>
+      <c r="AM89" s="143"/>
+      <c r="AN89" s="147"/>
+      <c r="AP89" s="21" t="s">
+        <v>166</v>
+      </c>
       <c r="AQ89" s="21"/>
+      <c r="AR89" s="21"/>
       <c r="AS89" s="21"/>
       <c r="AT89" s="21"/>
       <c r="AU89" s="21"/>
-      <c r="AV89" s="161"/>
+      <c r="AV89" s="89"/>
     </row>
     <row r="90" spans="2:48">
       <c r="B90">
-        <f>B89+1</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="C90" s="177"/>
-      <c r="D90" s="178"/>
-      <c r="E90" s="163"/>
-      <c r="F90" s="163"/>
-      <c r="G90" s="176"/>
-      <c r="H90" s="176"/>
-      <c r="I90" s="163"/>
-      <c r="J90" s="163"/>
-      <c r="K90" s="163"/>
-      <c r="L90" s="165"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="89"/>
       <c r="N90">
-        <f>N89+1</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="O90" s="177"/>
-      <c r="P90" s="178"/>
-      <c r="Q90" s="163"/>
-      <c r="R90" s="163"/>
-      <c r="S90" s="176"/>
-      <c r="T90" s="176"/>
-      <c r="U90" s="163"/>
-      <c r="V90" s="163"/>
-      <c r="W90" s="163"/>
-      <c r="X90" s="165"/>
+      <c r="O90" s="143"/>
+      <c r="P90" s="147"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="89"/>
       <c r="Z90">
-        <f>Z89+1</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="AA90" s="177"/>
-      <c r="AB90" s="178"/>
-      <c r="AC90" s="163"/>
-      <c r="AD90" s="163"/>
-      <c r="AE90" s="176"/>
-      <c r="AF90" s="176"/>
-      <c r="AG90" s="163"/>
-      <c r="AH90" s="163"/>
-      <c r="AI90" s="163"/>
-      <c r="AJ90" s="165"/>
+      <c r="AA90" s="143"/>
+      <c r="AB90" s="147"/>
+      <c r="AC90" s="21"/>
+      <c r="AD90" s="21"/>
+      <c r="AE90" s="21"/>
+      <c r="AF90" s="21"/>
+      <c r="AG90" s="21"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="89"/>
       <c r="AL90">
-        <f>AL89+1</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="AM90" s="177"/>
-      <c r="AN90" s="178"/>
-      <c r="AO90" s="163"/>
-      <c r="AP90" s="163"/>
-      <c r="AQ90" s="176"/>
-      <c r="AR90" s="176"/>
-      <c r="AS90" s="163"/>
-      <c r="AT90" s="163"/>
-      <c r="AU90" s="163"/>
-      <c r="AV90" s="165"/>
+      <c r="AM90" s="143"/>
+      <c r="AN90" s="147"/>
+      <c r="AP90" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ90" s="21"/>
+      <c r="AR90" s="21"/>
+      <c r="AS90" s="21"/>
+      <c r="AT90" s="21"/>
+      <c r="AU90" s="21"/>
+      <c r="AV90" s="89"/>
     </row>
     <row r="91" spans="2:48">
       <c r="B91">
-        <f>B90+1</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
-      <c r="C91" s="146"/>
-      <c r="D91" s="182"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="150"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -13232,11 +13161,11 @@
       <c r="K91" s="2"/>
       <c r="L91" s="113"/>
       <c r="N91">
-        <f>N90+1</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
-      <c r="O91" s="146"/>
-      <c r="P91" s="182"/>
+      <c r="O91" s="144"/>
+      <c r="P91" s="150"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
@@ -13246,11 +13175,11 @@
       <c r="W91" s="2"/>
       <c r="X91" s="113"/>
       <c r="Z91">
-        <f>Z90+1</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
-      <c r="AA91" s="146"/>
-      <c r="AB91" s="182"/>
+      <c r="AA91" s="144"/>
+      <c r="AB91" s="150"/>
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
@@ -13260,11 +13189,11 @@
       <c r="AI91" s="2"/>
       <c r="AJ91" s="113"/>
       <c r="AL91">
-        <f>AL90+1</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="AM91" s="146"/>
-      <c r="AN91" s="182"/>
+      <c r="AM91" s="144"/>
+      <c r="AN91" s="150"/>
       <c r="AO91" s="2"/>
       <c r="AP91" s="2"/>
       <c r="AQ91" s="2"/>
@@ -13279,78 +13208,78 @@
         <v>0</v>
       </c>
       <c r="D93" s="2">
-        <f>C93+1</f>
+        <f t="shared" ref="D93:L93" si="26">C93+1</f>
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <f>D93+1</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="F93" s="2">
-        <f>E93+1</f>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="G93" s="2">
-        <f>F93+1</f>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="H93" s="2">
-        <f>G93+1</f>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="I93" s="2">
-        <f>H93+1</f>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="J93" s="2">
-        <f>I93+1</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="K93" s="2">
-        <f>J93+1</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="L93" s="2">
-        <f>K93+1</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="O93" s="2">
         <v>0</v>
       </c>
       <c r="P93" s="2">
-        <f>O93+1</f>
+        <f t="shared" ref="P93:X93" si="27">O93+1</f>
         <v>1</v>
       </c>
       <c r="Q93" s="2">
-        <f>P93+1</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="R93" s="2">
-        <f>Q93+1</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="S93" s="2">
-        <f>R93+1</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="T93" s="2">
-        <f>S93+1</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="U93" s="2">
-        <f>T93+1</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="V93" s="2">
-        <f>U93+1</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="W93" s="2">
-        <f>V93+1</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="X93" s="2">
-        <f>W93+1</f>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
     </row>
@@ -13358,93 +13287,132 @@
       <c r="B94">
         <v>0</v>
       </c>
-      <c r="C94" s="144"/>
-      <c r="D94" s="147"/>
-      <c r="E94" s="147"/>
-      <c r="F94" s="147"/>
-      <c r="G94" s="147"/>
-      <c r="H94" s="147"/>
-      <c r="I94" s="147"/>
-      <c r="J94" s="147"/>
-      <c r="K94" s="147"/>
-      <c r="L94" s="148"/>
+      <c r="C94" s="142"/>
+      <c r="D94" s="145"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="145"/>
+      <c r="G94" s="145"/>
+      <c r="H94" s="145"/>
+      <c r="I94" s="145"/>
+      <c r="J94" s="145"/>
+      <c r="K94" s="145"/>
+      <c r="L94" s="146"/>
       <c r="N94">
         <v>0</v>
       </c>
-      <c r="O94" s="144"/>
-      <c r="P94" s="147"/>
-      <c r="Q94" s="147"/>
-      <c r="R94" s="147"/>
-      <c r="S94" s="147"/>
-      <c r="T94" s="147"/>
-      <c r="U94" s="147"/>
-      <c r="V94" s="147"/>
-      <c r="W94" s="147"/>
-      <c r="X94" s="148"/>
+      <c r="O94" s="142"/>
+      <c r="P94" s="145"/>
+      <c r="Q94" s="145"/>
+      <c r="R94" s="145"/>
+      <c r="S94" s="145"/>
+      <c r="T94" s="145"/>
+      <c r="U94" s="145"/>
+      <c r="V94" s="145"/>
+      <c r="W94" s="145"/>
+      <c r="X94" s="146"/>
     </row>
     <row r="95" spans="2:48">
       <c r="B95">
-        <f>B94+1</f>
-        <v>1</v>
-      </c>
-      <c r="C95" s="145"/>
-      <c r="D95" s="149">
+        <f t="shared" ref="B95:B103" si="28">B94+1</f>
+        <v>1</v>
+      </c>
+      <c r="C95" s="143"/>
+      <c r="D95" s="147">
         <v>7</v>
       </c>
-      <c r="E95" s="149">
+      <c r="E95" s="147">
         <v>8</v>
       </c>
-      <c r="F95" s="149">
+      <c r="F95" s="182">
         <v>9</v>
       </c>
-      <c r="G95" s="149"/>
-      <c r="H95" s="149"/>
-      <c r="I95" s="149"/>
-      <c r="J95" s="149"/>
-      <c r="K95" s="149"/>
-      <c r="L95" s="150"/>
+      <c r="G95" s="147"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="147"/>
+      <c r="J95" s="147"/>
+      <c r="K95" s="147"/>
+      <c r="L95" s="148"/>
       <c r="N95">
-        <f>N94+1</f>
-        <v>1</v>
-      </c>
-      <c r="O95" s="145"/>
-      <c r="P95" s="149">
+        <f t="shared" ref="N95:N103" si="29">N94+1</f>
+        <v>1</v>
+      </c>
+      <c r="O95" s="143"/>
+      <c r="P95" s="147">
         <v>6</v>
       </c>
-      <c r="Q95" s="149">
+      <c r="Q95" s="147">
         <v>7</v>
       </c>
-      <c r="R95" s="149">
+      <c r="R95" s="147">
         <v>8</v>
       </c>
-      <c r="S95" s="149">
+      <c r="S95" s="182">
         <v>9</v>
       </c>
-      <c r="T95" s="149"/>
-      <c r="U95" s="149"/>
-      <c r="V95" s="149"/>
-      <c r="W95" s="149"/>
-      <c r="X95" s="150"/>
+      <c r="T95" s="147"/>
+      <c r="U95" s="147"/>
+      <c r="V95" s="147"/>
+      <c r="W95" s="147"/>
+      <c r="X95" s="148"/>
+      <c r="AJ95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="2">
+        <f t="shared" ref="AK95:AS95" si="30">AJ95+1</f>
+        <v>1</v>
+      </c>
+      <c r="AL95" s="2">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AM95" s="2">
+        <f t="shared" si="30"/>
+        <v>3</v>
+      </c>
+      <c r="AN95" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="AO95" s="2">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AP95" s="2">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="AQ95" s="2">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="AR95" s="2">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="AS95" s="2">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="2:48">
       <c r="B96">
-        <f>B95+1</f>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="C96" s="145"/>
-      <c r="D96" s="149">
+      <c r="C96" s="143"/>
+      <c r="D96" s="147">
         <v>6</v>
       </c>
-      <c r="E96" s="149">
+      <c r="E96" s="147">
         <v>5</v>
       </c>
-      <c r="F96" s="149">
+      <c r="F96" s="147">
         <v>4</v>
       </c>
-      <c r="G96" s="149">
+      <c r="G96" s="147">
         <v>3</v>
       </c>
-      <c r="H96" s="149">
+      <c r="H96" s="147">
         <v>2</v>
       </c>
       <c r="I96" s="21"/>
@@ -13452,20 +13420,20 @@
       <c r="K96" s="21"/>
       <c r="L96" s="89"/>
       <c r="N96">
-        <f>N95+1</f>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="O96" s="145"/>
-      <c r="P96" s="149">
+      <c r="O96" s="143"/>
+      <c r="P96" s="147">
         <v>5</v>
       </c>
-      <c r="Q96" s="149">
+      <c r="Q96" s="147">
         <v>4</v>
       </c>
-      <c r="R96" s="149">
+      <c r="R96" s="147">
         <v>3</v>
       </c>
-      <c r="S96" s="149">
+      <c r="S96" s="147">
         <v>2</v>
       </c>
       <c r="T96" s="37">
@@ -13475,190 +13443,326 @@
       <c r="V96" s="21"/>
       <c r="W96" s="21"/>
       <c r="X96" s="89"/>
-    </row>
-    <row r="97" spans="1:36">
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="142"/>
+      <c r="AK96" s="145"/>
+      <c r="AL96" s="145"/>
+      <c r="AM96" s="145"/>
+      <c r="AN96" s="145"/>
+      <c r="AO96" s="145"/>
+      <c r="AP96" s="145"/>
+      <c r="AQ96" s="145"/>
+      <c r="AR96" s="145"/>
+      <c r="AS96" s="146"/>
+    </row>
+    <row r="97" spans="1:45">
       <c r="B97">
-        <f>B96+1</f>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="C97" s="177"/>
-      <c r="D97" s="183"/>
-      <c r="E97" s="185"/>
-      <c r="F97" s="151"/>
-      <c r="G97">
+      <c r="C97" s="143"/>
+      <c r="D97" s="147"/>
+      <c r="E97" s="147"/>
+      <c r="F97" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="21">
         <v>1</v>
       </c>
       <c r="H97" s="37">
         <v>1</v>
       </c>
-      <c r="I97" s="157"/>
-      <c r="J97" s="157"/>
-      <c r="K97" s="157"/>
-      <c r="L97" s="159"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="89"/>
       <c r="N97">
-        <f>N96+1</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="O97" s="177"/>
-      <c r="P97" s="183"/>
-      <c r="Q97" s="185"/>
-      <c r="R97" s="185"/>
-      <c r="S97" s="151"/>
-      <c r="T97" s="157"/>
-      <c r="U97" s="157"/>
-      <c r="V97" s="157"/>
-      <c r="W97" s="157"/>
-      <c r="X97" s="159"/>
-    </row>
-    <row r="98" spans="1:36">
+      <c r="O97" s="143"/>
+      <c r="P97" s="147"/>
+      <c r="Q97" s="147"/>
+      <c r="R97" s="147"/>
+      <c r="S97" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="89"/>
+      <c r="AI97">
+        <f t="shared" ref="AI97:AI105" si="31">AI96+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ97" s="143"/>
+      <c r="AK97" s="147"/>
+      <c r="AL97" s="147"/>
+      <c r="AM97" s="147"/>
+      <c r="AN97" s="147"/>
+      <c r="AO97" s="147"/>
+      <c r="AP97" s="147"/>
+      <c r="AQ97" s="147"/>
+      <c r="AR97" s="147"/>
+      <c r="AS97" s="148"/>
+    </row>
+    <row r="98" spans="1:45">
       <c r="B98">
-        <f>B97+1</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="C98" s="177"/>
-      <c r="D98" s="149"/>
+      <c r="C98" s="143"/>
+      <c r="D98" s="147"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
       <c r="K98" s="21"/>
-      <c r="L98" s="161"/>
+      <c r="L98" s="89"/>
       <c r="N98">
-        <f>N97+1</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="O98" s="177"/>
-      <c r="P98" s="149"/>
+      <c r="O98" s="143"/>
+      <c r="P98" s="147"/>
       <c r="Q98" s="21"/>
       <c r="R98" s="21"/>
       <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
       <c r="U98" s="21"/>
       <c r="V98" s="21"/>
       <c r="W98" s="21"/>
-      <c r="X98" s="161"/>
-    </row>
-    <row r="99" spans="1:36">
+      <c r="X98" s="89"/>
+      <c r="AI98">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="AJ98" s="143"/>
+      <c r="AK98" s="147"/>
+      <c r="AL98" s="147">
+        <v>11</v>
+      </c>
+      <c r="AM98" s="147">
+        <v>10</v>
+      </c>
+      <c r="AN98" s="21"/>
+      <c r="AO98" s="21"/>
+      <c r="AP98" s="21"/>
+      <c r="AQ98" s="21"/>
+      <c r="AR98" s="21"/>
+      <c r="AS98" s="89"/>
+    </row>
+    <row r="99" spans="1:45">
       <c r="B99">
-        <f>B98+1</f>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="C99" s="177"/>
-      <c r="D99" s="149"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="147"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
       <c r="K99" s="21"/>
-      <c r="L99" s="161"/>
+      <c r="L99" s="89"/>
       <c r="N99">
-        <f>N98+1</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="O99" s="177"/>
-      <c r="P99" s="149"/>
+      <c r="O99" s="143"/>
+      <c r="P99" s="147"/>
       <c r="Q99" s="21"/>
       <c r="R99" s="21"/>
       <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
       <c r="U99" s="21"/>
       <c r="V99" s="21"/>
       <c r="W99" s="21"/>
-      <c r="X99" s="161"/>
-    </row>
-    <row r="100" spans="1:36">
+      <c r="X99" s="89"/>
+      <c r="AI99">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="AJ99" s="143"/>
+      <c r="AK99" s="21">
+        <v>6</v>
+      </c>
+      <c r="AL99" s="74">
+        <v>7</v>
+      </c>
+      <c r="AM99" s="147">
+        <v>9</v>
+      </c>
+      <c r="AN99" s="21"/>
+      <c r="AO99" s="21"/>
+      <c r="AP99" s="21"/>
+      <c r="AQ99" s="21"/>
+      <c r="AR99" s="21"/>
+      <c r="AS99" s="89"/>
+    </row>
+    <row r="100" spans="1:45">
       <c r="B100">
-        <f>B99+1</f>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="C100" s="177"/>
-      <c r="D100" s="149"/>
+      <c r="C100" s="143"/>
+      <c r="D100" s="147"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
       <c r="K100" s="21"/>
-      <c r="L100" s="161"/>
+      <c r="L100" s="89"/>
       <c r="N100">
-        <f>N99+1</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="O100" s="177"/>
-      <c r="P100" s="149"/>
+      <c r="O100" s="143"/>
+      <c r="P100" s="147"/>
       <c r="Q100" s="21"/>
       <c r="R100" s="21"/>
       <c r="S100" s="21"/>
+      <c r="T100" s="21"/>
       <c r="U100" s="21"/>
       <c r="V100" s="21"/>
       <c r="W100" s="21"/>
-      <c r="X100" s="161"/>
-    </row>
-    <row r="101" spans="1:36">
+      <c r="X100" s="89"/>
+      <c r="AI100">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="AJ100" s="143"/>
+      <c r="AK100" s="21">
+        <v>5</v>
+      </c>
+      <c r="AL100" s="21"/>
+      <c r="AM100" s="147">
+        <v>8</v>
+      </c>
+      <c r="AN100" s="21"/>
+      <c r="AO100" s="21"/>
+      <c r="AP100" s="21"/>
+      <c r="AQ100" s="21"/>
+      <c r="AR100" s="21"/>
+      <c r="AS100" s="89"/>
+    </row>
+    <row r="101" spans="1:45">
       <c r="B101">
-        <f>B100+1</f>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="C101" s="177"/>
-      <c r="D101" s="149"/>
+      <c r="C101" s="143"/>
+      <c r="D101" s="147"/>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
       <c r="K101" s="21"/>
-      <c r="L101" s="161"/>
+      <c r="L101" s="89"/>
       <c r="N101">
-        <f>N100+1</f>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="O101" s="177"/>
-      <c r="P101" s="149"/>
+      <c r="O101" s="143"/>
+      <c r="P101" s="147"/>
       <c r="Q101" s="21"/>
       <c r="R101" s="21"/>
       <c r="S101" s="21"/>
+      <c r="T101" s="21"/>
       <c r="U101" s="21"/>
       <c r="V101" s="21"/>
       <c r="W101" s="21"/>
-      <c r="X101" s="161"/>
-    </row>
-    <row r="102" spans="1:36">
+      <c r="X101" s="89"/>
+      <c r="AI101">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="AJ101" s="143"/>
+      <c r="AK101" s="147">
+        <v>5</v>
+      </c>
+      <c r="AL101" s="147">
+        <v>6</v>
+      </c>
+      <c r="AM101" s="147">
+        <v>7</v>
+      </c>
+      <c r="AN101" s="21"/>
+      <c r="AO101" s="21"/>
+      <c r="AP101" s="21"/>
+      <c r="AQ101" s="21"/>
+      <c r="AR101" s="21"/>
+      <c r="AS101" s="89"/>
+    </row>
+    <row r="102" spans="1:45">
       <c r="B102">
-        <f>B101+1</f>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="C102" s="177"/>
-      <c r="D102" s="178"/>
-      <c r="E102" s="163"/>
-      <c r="F102" s="163"/>
-      <c r="G102" s="176"/>
-      <c r="H102" s="176"/>
-      <c r="I102" s="163"/>
-      <c r="J102" s="163"/>
-      <c r="K102" s="163"/>
-      <c r="L102" s="165"/>
+      <c r="C102" s="143"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="89"/>
       <c r="N102">
-        <f>N101+1</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
-      <c r="O102" s="177"/>
-      <c r="P102" s="178"/>
-      <c r="Q102" s="163"/>
-      <c r="R102" s="163"/>
-      <c r="S102" s="176"/>
-      <c r="T102" s="176"/>
-      <c r="U102" s="163"/>
-      <c r="V102" s="163"/>
-      <c r="W102" s="163"/>
-      <c r="X102" s="165"/>
-    </row>
-    <row r="103" spans="1:36">
+      <c r="O102" s="143"/>
+      <c r="P102" s="147"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="89"/>
+      <c r="AI102">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="AJ102" s="143"/>
+      <c r="AK102" s="147">
+        <v>4</v>
+      </c>
+      <c r="AL102" s="147">
+        <v>3</v>
+      </c>
+      <c r="AM102" s="147">
+        <v>2</v>
+      </c>
+      <c r="AN102" s="37">
+        <v>1</v>
+      </c>
+      <c r="AO102" s="21"/>
+      <c r="AP102" s="21"/>
+      <c r="AR102" s="21"/>
+      <c r="AS102" s="89"/>
+    </row>
+    <row r="103" spans="1:45">
       <c r="B103">
-        <f>B102+1</f>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
-      <c r="C103" s="146"/>
-      <c r="D103" s="182"/>
+      <c r="C103" s="144"/>
+      <c r="D103" s="150"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -13668,11 +13772,11 @@
       <c r="K103" s="2"/>
       <c r="L103" s="113"/>
       <c r="N103">
-        <f>N102+1</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="O103" s="146"/>
-      <c r="P103" s="182"/>
+      <c r="O103" s="144"/>
+      <c r="P103" s="150"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
@@ -13681,357 +13785,406 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="113"/>
-    </row>
-    <row r="110" spans="1:36">
+      <c r="AI103">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="AJ103" s="143"/>
+      <c r="AK103" s="21">
+        <v>2</v>
+      </c>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="21"/>
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="89"/>
+    </row>
+    <row r="104" spans="1:45">
+      <c r="AI104">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="AJ104" s="143"/>
+      <c r="AK104" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL104" s="21"/>
+      <c r="AM104" s="21"/>
+      <c r="AN104" s="21"/>
+      <c r="AO104" s="21"/>
+      <c r="AP104" s="21"/>
+      <c r="AQ104" s="21"/>
+      <c r="AR104" s="21"/>
+      <c r="AS104" s="89"/>
+    </row>
+    <row r="105" spans="1:45">
+      <c r="AI105">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="AJ105" s="144"/>
+      <c r="AK105" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL105" s="2"/>
+      <c r="AM105" s="2"/>
+      <c r="AN105" s="2"/>
+      <c r="AO105" s="2"/>
+      <c r="AP105" s="2"/>
+      <c r="AQ105" s="2"/>
+      <c r="AR105" s="2"/>
+      <c r="AS105" s="113"/>
+    </row>
+    <row r="110" spans="1:45">
       <c r="C110" s="21">
         <v>0</v>
       </c>
       <c r="D110" s="21">
-        <f>C110+1</f>
+        <f t="shared" ref="D110:L110" si="32">C110+1</f>
         <v>1</v>
       </c>
       <c r="E110" s="21">
-        <f>D110+1</f>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="F110" s="21">
-        <f>E110+1</f>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="G110" s="21">
-        <f>F110+1</f>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="H110" s="21">
-        <f>G110+1</f>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="I110" s="21">
-        <f>H110+1</f>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="J110" s="21">
-        <f>I110+1</f>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="K110" s="21">
-        <f>J110+1</f>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="L110" s="21">
-        <f>K110+1</f>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="O110" s="21">
         <v>0</v>
       </c>
       <c r="P110" s="21">
-        <f>O110+1</f>
+        <f t="shared" ref="P110:X110" si="33">O110+1</f>
         <v>1</v>
       </c>
       <c r="Q110" s="21">
-        <f>P110+1</f>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="R110" s="21">
-        <f>Q110+1</f>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="S110" s="21">
-        <f>R110+1</f>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="T110" s="21">
-        <f>S110+1</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="U110" s="21">
-        <f>T110+1</f>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="V110" s="21">
-        <f>U110+1</f>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="W110" s="21">
-        <f>V110+1</f>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="X110" s="21">
-        <f>W110+1</f>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="AA110" s="21">
         <v>0</v>
       </c>
       <c r="AB110" s="21">
-        <f>AA110+1</f>
+        <f t="shared" ref="AB110:AJ110" si="34">AA110+1</f>
         <v>1</v>
       </c>
       <c r="AC110" s="21">
-        <f>AB110+1</f>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AD110" s="21">
-        <f>AC110+1</f>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AE110" s="21">
-        <f>AD110+1</f>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="AF110" s="21">
-        <f>AE110+1</f>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AG110" s="21">
-        <f>AF110+1</f>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="AH110" s="21">
-        <f>AG110+1</f>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="AI110" s="21">
-        <f>AH110+1</f>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="AJ110" s="21">
-        <f>AI110+1</f>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:45">
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111" s="144"/>
-      <c r="D111" s="147"/>
-      <c r="E111" s="147"/>
-      <c r="F111" s="147"/>
-      <c r="G111" s="147"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="147"/>
-      <c r="K111" s="147"/>
-      <c r="L111" s="148"/>
+      <c r="C111" s="142"/>
+      <c r="D111" s="145"/>
+      <c r="E111" s="145"/>
+      <c r="F111" s="145"/>
+      <c r="G111" s="145"/>
+      <c r="H111" s="145"/>
+      <c r="I111" s="145"/>
+      <c r="J111" s="145"/>
+      <c r="K111" s="145"/>
+      <c r="L111" s="146"/>
       <c r="N111">
         <v>0</v>
       </c>
-      <c r="O111" s="144"/>
-      <c r="P111" s="147"/>
-      <c r="Q111" s="147"/>
-      <c r="R111" s="147"/>
-      <c r="S111" s="147"/>
-      <c r="T111" s="147"/>
-      <c r="U111" s="147"/>
-      <c r="V111" s="147"/>
-      <c r="W111" s="147"/>
-      <c r="X111" s="148"/>
+      <c r="O111" s="142"/>
+      <c r="P111" s="145"/>
+      <c r="Q111" s="145"/>
+      <c r="R111" s="145"/>
+      <c r="S111" s="145"/>
+      <c r="T111" s="145"/>
+      <c r="U111" s="145"/>
+      <c r="V111" s="145"/>
+      <c r="W111" s="145"/>
+      <c r="X111" s="146"/>
       <c r="Z111">
         <v>0</v>
       </c>
-      <c r="AA111" s="144"/>
-      <c r="AB111" s="147"/>
-      <c r="AC111" s="147"/>
-      <c r="AD111" s="147"/>
-      <c r="AE111" s="147"/>
-      <c r="AF111" s="147"/>
-      <c r="AG111" s="147"/>
-      <c r="AH111" s="147"/>
-      <c r="AI111" s="147"/>
-      <c r="AJ111" s="148"/>
-    </row>
-    <row r="112" spans="1:36">
+      <c r="AA111" s="142"/>
+      <c r="AB111" s="145"/>
+      <c r="AC111" s="145"/>
+      <c r="AD111" s="145"/>
+      <c r="AE111" s="145"/>
+      <c r="AF111" s="145"/>
+      <c r="AG111" s="145"/>
+      <c r="AH111" s="145"/>
+      <c r="AI111" s="145"/>
+      <c r="AJ111" s="146"/>
+    </row>
+    <row r="112" spans="1:45">
       <c r="A112" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B112">
-        <f>B111+1</f>
-        <v>1</v>
-      </c>
-      <c r="C112" s="145"/>
-      <c r="D112" s="149"/>
-      <c r="E112" s="149"/>
-      <c r="F112" s="149"/>
-      <c r="G112" s="149"/>
-      <c r="H112" s="149"/>
-      <c r="I112" s="149"/>
-      <c r="J112" s="149"/>
-      <c r="K112" s="149"/>
-      <c r="L112" s="150"/>
+        <f t="shared" ref="B112:B120" si="35">B111+1</f>
+        <v>1</v>
+      </c>
+      <c r="C112" s="143"/>
+      <c r="D112" s="147"/>
+      <c r="E112" s="147"/>
+      <c r="F112" s="147"/>
+      <c r="G112" s="147"/>
+      <c r="H112" s="147"/>
+      <c r="I112" s="147"/>
+      <c r="J112" s="147"/>
+      <c r="K112" s="147"/>
+      <c r="L112" s="148"/>
       <c r="N112">
-        <f>N111+1</f>
-        <v>1</v>
-      </c>
-      <c r="O112" s="145"/>
-      <c r="P112" s="149"/>
-      <c r="Q112" s="149"/>
-      <c r="R112" s="149"/>
-      <c r="S112" s="149"/>
-      <c r="T112" s="149"/>
-      <c r="U112" s="149"/>
-      <c r="V112" s="149"/>
-      <c r="W112" s="149"/>
-      <c r="X112" s="150"/>
+        <f t="shared" ref="N112:N120" si="36">N111+1</f>
+        <v>1</v>
+      </c>
+      <c r="O112" s="143"/>
+      <c r="P112" s="147"/>
+      <c r="Q112" s="147"/>
+      <c r="R112" s="147"/>
+      <c r="S112" s="147"/>
+      <c r="T112" s="147"/>
+      <c r="U112" s="147"/>
+      <c r="V112" s="147"/>
+      <c r="W112" s="147"/>
+      <c r="X112" s="148"/>
       <c r="Z112">
-        <f>Z111+1</f>
-        <v>1</v>
-      </c>
-      <c r="AA112" s="145"/>
-      <c r="AB112" s="149"/>
-      <c r="AC112" s="149"/>
-      <c r="AD112" s="149"/>
-      <c r="AE112" s="149"/>
-      <c r="AF112" s="149"/>
-      <c r="AG112" s="149"/>
-      <c r="AH112" s="149"/>
-      <c r="AI112" s="149"/>
-      <c r="AJ112" s="150"/>
+        <f t="shared" ref="Z112:Z120" si="37">Z111+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA112" s="143"/>
+      <c r="AB112" s="147"/>
+      <c r="AC112" s="147"/>
+      <c r="AD112" s="147"/>
+      <c r="AE112" s="147"/>
+      <c r="AF112" s="147"/>
+      <c r="AG112" s="147"/>
+      <c r="AH112" s="147"/>
+      <c r="AI112" s="147"/>
+      <c r="AJ112" s="148"/>
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B113">
-        <f>B112+1</f>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
-      <c r="C113" s="145"/>
-      <c r="D113" s="149"/>
-      <c r="E113" s="149"/>
-      <c r="F113" s="149"/>
-      <c r="G113" s="149"/>
-      <c r="H113" s="149"/>
-      <c r="I113" s="149"/>
-      <c r="J113" s="149"/>
-      <c r="K113" s="149"/>
-      <c r="L113" s="150"/>
+      <c r="C113" s="143"/>
+      <c r="D113" s="147"/>
+      <c r="E113" s="147"/>
+      <c r="F113" s="147"/>
+      <c r="G113" s="147"/>
+      <c r="H113" s="147"/>
+      <c r="I113" s="147"/>
+      <c r="J113" s="147"/>
+      <c r="K113" s="147"/>
+      <c r="L113" s="148"/>
       <c r="N113">
-        <f>N112+1</f>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="O113" s="145"/>
-      <c r="P113" s="149"/>
-      <c r="Q113" s="149"/>
-      <c r="R113" s="149"/>
-      <c r="S113" s="149"/>
-      <c r="T113" s="149"/>
-      <c r="U113" s="149"/>
-      <c r="V113" s="149"/>
-      <c r="W113" s="149"/>
-      <c r="X113" s="150"/>
+      <c r="O113" s="143"/>
+      <c r="P113" s="147"/>
+      <c r="Q113" s="147"/>
+      <c r="R113" s="147"/>
+      <c r="S113" s="147"/>
+      <c r="T113" s="147"/>
+      <c r="U113" s="147"/>
+      <c r="V113" s="147"/>
+      <c r="W113" s="147"/>
+      <c r="X113" s="148"/>
       <c r="Z113">
-        <f>Z112+1</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="AA113" s="145"/>
-      <c r="AB113" s="149"/>
-      <c r="AC113" s="149"/>
-      <c r="AD113" s="149"/>
-      <c r="AE113" s="149"/>
-      <c r="AF113" s="149"/>
-      <c r="AG113" s="149"/>
-      <c r="AH113" s="149"/>
-      <c r="AI113" s="149"/>
-      <c r="AJ113" s="150"/>
+      <c r="AA113" s="143"/>
+      <c r="AB113" s="147"/>
+      <c r="AC113" s="147"/>
+      <c r="AD113" s="147"/>
+      <c r="AE113" s="147"/>
+      <c r="AF113" s="147"/>
+      <c r="AG113" s="147"/>
+      <c r="AH113" s="147"/>
+      <c r="AI113" s="147"/>
+      <c r="AJ113" s="148"/>
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B114">
-        <f>B113+1</f>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
-      <c r="C114" s="145"/>
-      <c r="D114" s="149"/>
-      <c r="E114" s="149"/>
-      <c r="F114" s="149"/>
-      <c r="G114" s="149"/>
-      <c r="H114" s="149"/>
-      <c r="I114" s="149"/>
-      <c r="J114" s="149"/>
-      <c r="K114" s="149"/>
-      <c r="L114" s="150"/>
+      <c r="C114" s="143"/>
+      <c r="D114" s="147"/>
+      <c r="E114" s="147"/>
+      <c r="F114" s="147"/>
+      <c r="G114" s="147"/>
+      <c r="H114" s="147"/>
+      <c r="I114" s="147"/>
+      <c r="J114" s="147"/>
+      <c r="K114" s="147"/>
+      <c r="L114" s="148"/>
       <c r="N114">
-        <f>N113+1</f>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="O114" s="145"/>
-      <c r="P114" s="149"/>
-      <c r="Q114" s="149"/>
-      <c r="R114" s="149"/>
-      <c r="S114" s="149"/>
-      <c r="T114" s="149"/>
-      <c r="U114" s="149"/>
-      <c r="V114" s="149"/>
-      <c r="W114" s="149"/>
-      <c r="X114" s="150"/>
+      <c r="O114" s="143"/>
+      <c r="P114" s="147"/>
+      <c r="Q114" s="147"/>
+      <c r="R114" s="147"/>
+      <c r="S114" s="147"/>
+      <c r="T114" s="147"/>
+      <c r="U114" s="147"/>
+      <c r="V114" s="147"/>
+      <c r="W114" s="147"/>
+      <c r="X114" s="148"/>
       <c r="Z114">
-        <f>Z113+1</f>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="AA114" s="145"/>
-      <c r="AB114" s="149"/>
-      <c r="AC114" s="149"/>
-      <c r="AD114" s="149"/>
-      <c r="AE114" s="149"/>
-      <c r="AF114" s="149"/>
-      <c r="AG114" s="149"/>
-      <c r="AH114" s="149"/>
-      <c r="AI114" s="149"/>
-      <c r="AJ114" s="150"/>
+      <c r="AA114" s="143"/>
+      <c r="AB114" s="147"/>
+      <c r="AC114" s="147"/>
+      <c r="AD114" s="147"/>
+      <c r="AE114" s="147"/>
+      <c r="AF114" s="147"/>
+      <c r="AG114" s="147"/>
+      <c r="AH114" s="147"/>
+      <c r="AI114" s="147"/>
+      <c r="AJ114" s="148"/>
     </row>
     <row r="115" spans="1:36" ht="15" thickBot="1">
       <c r="A115" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B115">
-        <f>B114+1</f>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="C115" s="145"/>
-      <c r="D115" s="149"/>
-      <c r="E115" s="149"/>
-      <c r="F115" s="149"/>
-      <c r="G115" s="149"/>
-      <c r="H115" s="149"/>
-      <c r="I115" s="149"/>
-      <c r="J115" s="149"/>
-      <c r="K115" s="149"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="147"/>
+      <c r="E115" s="147"/>
+      <c r="F115" s="147"/>
+      <c r="G115" s="147"/>
+      <c r="H115" s="147"/>
+      <c r="I115" s="147"/>
+      <c r="J115" s="147"/>
+      <c r="K115" s="147"/>
       <c r="L115" s="133"/>
       <c r="N115">
-        <f>N114+1</f>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="O115" s="145"/>
-      <c r="P115" s="149"/>
-      <c r="Q115" s="149"/>
-      <c r="R115" s="149"/>
-      <c r="S115" s="149"/>
-      <c r="T115" s="149"/>
-      <c r="U115" s="149"/>
-      <c r="V115" s="149"/>
-      <c r="W115" s="149">
+      <c r="O115" s="143"/>
+      <c r="P115" s="147"/>
+      <c r="Q115" s="147"/>
+      <c r="R115" s="147"/>
+      <c r="S115" s="147"/>
+      <c r="T115" s="147"/>
+      <c r="U115" s="147"/>
+      <c r="V115" s="147"/>
+      <c r="W115" s="147">
         <v>5</v>
       </c>
       <c r="X115" s="133"/>
       <c r="Z115">
-        <f>Z114+1</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="AA115" s="145"/>
-      <c r="AB115" s="149"/>
-      <c r="AC115" s="149"/>
-      <c r="AD115" s="149"/>
-      <c r="AE115" s="149"/>
-      <c r="AF115" s="149"/>
-      <c r="AG115" s="149"/>
-      <c r="AH115" s="149">
+      <c r="AA115" s="143"/>
+      <c r="AB115" s="147"/>
+      <c r="AC115" s="147"/>
+      <c r="AD115" s="147"/>
+      <c r="AE115" s="147"/>
+      <c r="AF115" s="147"/>
+      <c r="AG115" s="147"/>
+      <c r="AH115" s="147">
         <v>5</v>
       </c>
-      <c r="AI115" s="149">
+      <c r="AI115" s="147">
         <v>4</v>
       </c>
       <c r="AJ115" s="133"/>
@@ -14041,10 +14194,10 @@
         <v>17</v>
       </c>
       <c r="B116">
-        <f>B115+1</f>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="C116" s="154">
+      <c r="C116" s="152">
         <v>15</v>
       </c>
       <c r="D116" s="121"/>
@@ -14053,7 +14206,7 @@
       <c r="G116" s="122">
         <v>2</v>
       </c>
-      <c r="H116" s="188">
+      <c r="H116" s="174">
         <v>3</v>
       </c>
       <c r="I116" s="122">
@@ -14062,22 +14215,22 @@
       <c r="J116" s="122">
         <v>5</v>
       </c>
-      <c r="K116" s="189">
+      <c r="K116" s="175">
         <v>5</v>
       </c>
       <c r="L116" s="13"/>
       <c r="N116">
-        <f>N115+1</f>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="O116" s="154"/>
+      <c r="O116" s="152"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="122"/>
       <c r="R116" s="122"/>
       <c r="S116" s="122">
         <v>1</v>
       </c>
-      <c r="T116" s="188">
+      <c r="T116" s="174">
         <v>2</v>
       </c>
       <c r="U116" s="122">
@@ -14086,22 +14239,22 @@
       <c r="V116" s="122">
         <v>4</v>
       </c>
-      <c r="W116" s="189">
+      <c r="W116" s="175">
         <v>4</v>
       </c>
       <c r="X116" s="13"/>
       <c r="Z116">
-        <f>Z115+1</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="AA116" s="154"/>
+      <c r="AA116" s="152"/>
       <c r="AB116" s="121"/>
       <c r="AC116" s="122"/>
       <c r="AD116" s="122"/>
-      <c r="AE116" s="195">
-        <v>1</v>
-      </c>
-      <c r="AF116" s="188">
+      <c r="AE116" s="181">
+        <v>1</v>
+      </c>
+      <c r="AF116" s="174">
         <v>1</v>
       </c>
       <c r="AG116" s="122">
@@ -14110,17 +14263,17 @@
       <c r="AH116" s="122">
         <v>3</v>
       </c>
-      <c r="AI116" s="189">
+      <c r="AI116" s="175">
         <v>3</v>
       </c>
       <c r="AJ116" s="13"/>
     </row>
     <row r="117" spans="1:36">
       <c r="B117">
-        <f>B116+1</f>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="C117" s="154">
+      <c r="C117" s="152">
         <v>14</v>
       </c>
       <c r="D117" s="20"/>
@@ -14132,113 +14285,113 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="21"/>
-      <c r="K117" s="149">
+      <c r="K117" s="147">
         <v>4</v>
       </c>
       <c r="L117" s="17"/>
       <c r="N117">
-        <f>N116+1</f>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="O117" s="154">
+      <c r="O117" s="152">
         <v>15</v>
       </c>
       <c r="P117" s="20"/>
       <c r="Q117" s="21"/>
       <c r="R117" s="21"/>
-      <c r="S117" s="193">
+      <c r="S117" s="179">
         <v>1</v>
       </c>
       <c r="T117" s="21"/>
       <c r="U117" s="21"/>
       <c r="V117" s="21"/>
-      <c r="W117" s="149">
+      <c r="W117" s="147">
         <v>3</v>
       </c>
       <c r="X117" s="17"/>
       <c r="Z117">
-        <f>Z116+1</f>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="AA117" s="154"/>
+      <c r="AA117" s="152"/>
       <c r="AB117" s="20"/>
       <c r="AC117" s="21"/>
       <c r="AD117" s="21"/>
-      <c r="AE117" s="149">
+      <c r="AE117" s="147">
         <v>2</v>
       </c>
       <c r="AF117" s="21"/>
       <c r="AG117" s="21"/>
       <c r="AH117" s="21"/>
-      <c r="AI117" s="149">
+      <c r="AI117" s="147">
         <v>2</v>
       </c>
       <c r="AJ117" s="17"/>
     </row>
     <row r="118" spans="1:36">
       <c r="B118">
-        <f>B117+1</f>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
-      <c r="C118" s="154">
-        <v>13</v>
-      </c>
-      <c r="D118" s="190">
+      <c r="C118" s="152">
+        <v>13</v>
+      </c>
+      <c r="D118" s="176">
         <v>8</v>
       </c>
-      <c r="E118" s="149">
+      <c r="E118" s="147">
         <v>7</v>
       </c>
       <c r="F118" s="21"/>
-      <c r="G118" s="193">
+      <c r="G118" s="179">
         <v>1</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
-      <c r="K118" s="149">
+      <c r="K118" s="147">
         <v>3</v>
       </c>
       <c r="L118" s="17"/>
       <c r="N118">
-        <f>N117+1</f>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="O118" s="154">
+      <c r="O118" s="152">
         <v>14</v>
       </c>
-      <c r="P118" s="190">
+      <c r="P118" s="176">
         <v>9</v>
       </c>
-      <c r="Q118" s="149">
+      <c r="Q118" s="147">
         <v>8</v>
       </c>
       <c r="R118" s="21"/>
-      <c r="S118" s="149">
+      <c r="S118" s="147">
         <v>2</v>
       </c>
       <c r="T118" s="21"/>
       <c r="U118" s="21"/>
       <c r="V118" s="21"/>
-      <c r="W118" s="149">
+      <c r="W118" s="147">
         <v>2</v>
       </c>
       <c r="X118" s="17"/>
       <c r="Z118">
-        <f>Z117+1</f>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="AA118" s="154">
-        <v>15</v>
-      </c>
-      <c r="AB118" s="190">
+      <c r="AA118" s="152">
+        <v>15</v>
+      </c>
+      <c r="AB118" s="176">
         <v>10</v>
       </c>
-      <c r="AC118" s="149">
+      <c r="AC118" s="147">
         <v>9</v>
       </c>
       <c r="AD118" s="21"/>
-      <c r="AE118" s="149">
+      <c r="AE118" s="147">
         <v>3</v>
       </c>
       <c r="AF118" s="21"/>
@@ -14251,70 +14404,70 @@
     </row>
     <row r="119" spans="1:36" ht="15" thickBot="1">
       <c r="B119">
-        <f>B118+1</f>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="C119" s="154">
+      <c r="C119" s="152">
         <v>12</v>
       </c>
-      <c r="D119" s="191">
+      <c r="D119" s="177">
         <v>9</v>
       </c>
-      <c r="E119" s="192">
+      <c r="E119" s="178">
         <v>6</v>
       </c>
       <c r="F119" s="23"/>
-      <c r="G119" s="192">
+      <c r="G119" s="178">
         <v>2</v>
       </c>
       <c r="H119" s="23"/>
       <c r="I119" s="23"/>
-      <c r="J119" s="194">
-        <v>1</v>
-      </c>
-      <c r="K119" s="192">
+      <c r="J119" s="180">
+        <v>1</v>
+      </c>
+      <c r="K119" s="178">
         <v>2</v>
       </c>
       <c r="L119" s="24"/>
       <c r="N119">
-        <f>N118+1</f>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="O119" s="154">
-        <v>13</v>
-      </c>
-      <c r="P119" s="191">
+      <c r="O119" s="152">
+        <v>13</v>
+      </c>
+      <c r="P119" s="177">
         <v>10</v>
       </c>
-      <c r="Q119" s="192">
+      <c r="Q119" s="178">
         <v>7</v>
       </c>
       <c r="R119" s="23"/>
-      <c r="S119" s="192">
+      <c r="S119" s="178">
         <v>3</v>
       </c>
       <c r="T119" s="23"/>
       <c r="U119" s="23"/>
       <c r="V119" s="23"/>
-      <c r="W119" s="194">
+      <c r="W119" s="180">
         <v>1</v>
       </c>
       <c r="X119" s="24"/>
       <c r="Z119">
-        <f>Z118+1</f>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="AA119" s="154">
+      <c r="AA119" s="152">
         <v>14</v>
       </c>
-      <c r="AB119" s="191">
+      <c r="AB119" s="177">
         <v>11</v>
       </c>
-      <c r="AC119" s="192">
+      <c r="AC119" s="178">
         <v>8</v>
       </c>
       <c r="AD119" s="23"/>
-      <c r="AE119" s="192">
+      <c r="AE119" s="178">
         <v>4</v>
       </c>
       <c r="AF119" s="23"/>
@@ -14325,22 +14478,22 @@
     </row>
     <row r="120" spans="1:36">
       <c r="B120">
-        <f>B119+1</f>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="C120" s="146">
+      <c r="C120" s="144">
         <v>11</v>
       </c>
-      <c r="D120" s="152">
+      <c r="D120" s="150">
         <v>10</v>
       </c>
-      <c r="E120" s="152">
+      <c r="E120" s="150">
         <v>5</v>
       </c>
-      <c r="F120" s="152">
+      <c r="F120" s="150">
         <v>4</v>
       </c>
-      <c r="G120" s="152">
+      <c r="G120" s="150">
         <v>3</v>
       </c>
       <c r="H120" s="2"/>
@@ -14349,22 +14502,22 @@
       <c r="K120" s="2"/>
       <c r="L120" s="113"/>
       <c r="N120">
-        <f>N119+1</f>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
-      <c r="O120" s="146">
+      <c r="O120" s="144">
         <v>12</v>
       </c>
-      <c r="P120" s="152">
+      <c r="P120" s="150">
         <v>11</v>
       </c>
-      <c r="Q120" s="152">
+      <c r="Q120" s="150">
         <v>6</v>
       </c>
-      <c r="R120" s="152">
+      <c r="R120" s="150">
         <v>5</v>
       </c>
-      <c r="S120" s="152">
+      <c r="S120" s="150">
         <v>4</v>
       </c>
       <c r="T120" s="2"/>
@@ -14373,22 +14526,22 @@
       <c r="W120" s="2"/>
       <c r="X120" s="113"/>
       <c r="Z120">
-        <f>Z119+1</f>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="AA120" s="146">
-        <v>13</v>
-      </c>
-      <c r="AB120" s="152">
+      <c r="AA120" s="144">
+        <v>13</v>
+      </c>
+      <c r="AB120" s="150">
         <v>12</v>
       </c>
-      <c r="AC120" s="152">
+      <c r="AC120" s="150">
         <v>7</v>
       </c>
-      <c r="AD120" s="152">
+      <c r="AD120" s="150">
         <v>6</v>
       </c>
-      <c r="AE120" s="152">
+      <c r="AE120" s="150">
         <v>5</v>
       </c>
       <c r="AF120" s="2"/>
@@ -14402,117 +14555,117 @@
         <v>0</v>
       </c>
       <c r="D122" s="21">
-        <f>C122+1</f>
+        <f t="shared" ref="D122:L122" si="38">C122+1</f>
         <v>1</v>
       </c>
       <c r="E122" s="21">
-        <f>D122+1</f>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="F122" s="21">
-        <f>E122+1</f>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="G122" s="21">
-        <f>F122+1</f>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="H122" s="21">
-        <f>G122+1</f>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="I122" s="21">
-        <f>H122+1</f>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="J122" s="21">
-        <f>I122+1</f>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="K122" s="21">
-        <f>J122+1</f>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="L122" s="21">
-        <f>K122+1</f>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="O122" s="21">
         <v>0</v>
       </c>
       <c r="P122" s="21">
-        <f>O122+1</f>
+        <f t="shared" ref="P122:X122" si="39">O122+1</f>
         <v>1</v>
       </c>
       <c r="Q122" s="21">
-        <f>P122+1</f>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="R122" s="21">
-        <f>Q122+1</f>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="S122" s="21">
-        <f>R122+1</f>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="T122" s="21">
-        <f>S122+1</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="U122" s="21">
-        <f>T122+1</f>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="V122" s="21">
-        <f>U122+1</f>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="W122" s="21">
-        <f>V122+1</f>
+        <f t="shared" si="39"/>
         <v>8</v>
       </c>
       <c r="X122" s="21">
-        <f>W122+1</f>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="AA122" s="21">
         <v>0</v>
       </c>
       <c r="AB122" s="21">
-        <f>AA122+1</f>
+        <f t="shared" ref="AB122:AJ122" si="40">AA122+1</f>
         <v>1</v>
       </c>
       <c r="AC122" s="21">
-        <f>AB122+1</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
       <c r="AD122" s="21">
-        <f>AC122+1</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="AE122" s="21">
-        <f>AD122+1</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="AF122" s="21">
-        <f>AE122+1</f>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
       <c r="AG122" s="21">
-        <f>AF122+1</f>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AH122" s="21">
-        <f>AG122+1</f>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="AI122" s="21">
-        <f>AH122+1</f>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="AJ122" s="21">
-        <f>AI122+1</f>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
     </row>
@@ -14520,262 +14673,262 @@
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123" s="144"/>
-      <c r="D123" s="147"/>
-      <c r="E123" s="147"/>
-      <c r="F123" s="147"/>
-      <c r="G123" s="147"/>
-      <c r="H123" s="147"/>
-      <c r="I123" s="147"/>
-      <c r="J123" s="147"/>
-      <c r="K123" s="147"/>
-      <c r="L123" s="148"/>
+      <c r="C123" s="142"/>
+      <c r="D123" s="145"/>
+      <c r="E123" s="145"/>
+      <c r="F123" s="145"/>
+      <c r="G123" s="145"/>
+      <c r="H123" s="145"/>
+      <c r="I123" s="145"/>
+      <c r="J123" s="145"/>
+      <c r="K123" s="145"/>
+      <c r="L123" s="146"/>
       <c r="N123">
         <v>0</v>
       </c>
-      <c r="O123" s="144"/>
-      <c r="P123" s="147"/>
-      <c r="Q123" s="147"/>
-      <c r="R123" s="147"/>
-      <c r="S123" s="147"/>
-      <c r="T123" s="147"/>
-      <c r="U123" s="147"/>
-      <c r="V123" s="147"/>
-      <c r="W123" s="147"/>
-      <c r="X123" s="148"/>
+      <c r="O123" s="142"/>
+      <c r="P123" s="145"/>
+      <c r="Q123" s="145"/>
+      <c r="R123" s="145"/>
+      <c r="S123" s="145"/>
+      <c r="T123" s="145"/>
+      <c r="U123" s="145"/>
+      <c r="V123" s="145"/>
+      <c r="W123" s="145"/>
+      <c r="X123" s="146"/>
       <c r="Z123">
         <v>0</v>
       </c>
-      <c r="AA123" s="144"/>
-      <c r="AB123" s="147"/>
-      <c r="AC123" s="147"/>
-      <c r="AD123" s="147"/>
-      <c r="AE123" s="147"/>
-      <c r="AF123" s="147"/>
-      <c r="AG123" s="147"/>
-      <c r="AH123" s="147"/>
-      <c r="AI123" s="147"/>
-      <c r="AJ123" s="148"/>
+      <c r="AA123" s="142"/>
+      <c r="AB123" s="145"/>
+      <c r="AC123" s="145"/>
+      <c r="AD123" s="145"/>
+      <c r="AE123" s="145"/>
+      <c r="AF123" s="145"/>
+      <c r="AG123" s="145"/>
+      <c r="AH123" s="145"/>
+      <c r="AI123" s="145"/>
+      <c r="AJ123" s="146"/>
     </row>
     <row r="124" spans="1:36">
       <c r="B124">
-        <f>B123+1</f>
-        <v>1</v>
-      </c>
-      <c r="C124" s="145"/>
-      <c r="D124" s="149"/>
-      <c r="E124" s="149" t="s">
+        <f t="shared" ref="B124:B132" si="41">B123+1</f>
+        <v>1</v>
+      </c>
+      <c r="C124" s="143"/>
+      <c r="D124" s="147"/>
+      <c r="E124" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="F124" s="149"/>
-      <c r="G124" s="149"/>
-      <c r="H124" s="149"/>
-      <c r="I124" s="149"/>
-      <c r="J124" s="149"/>
-      <c r="K124" s="149"/>
-      <c r="L124" s="150"/>
+      <c r="F124" s="147"/>
+      <c r="G124" s="147"/>
+      <c r="H124" s="147"/>
+      <c r="I124" s="147"/>
+      <c r="J124" s="147"/>
+      <c r="K124" s="147"/>
+      <c r="L124" s="148"/>
       <c r="N124">
-        <f>N123+1</f>
-        <v>1</v>
-      </c>
-      <c r="O124" s="145"/>
-      <c r="P124" s="149"/>
-      <c r="Q124" s="149"/>
-      <c r="R124" s="149"/>
-      <c r="S124" s="149"/>
-      <c r="T124" s="149"/>
-      <c r="U124" s="149"/>
-      <c r="V124" s="149"/>
-      <c r="W124" s="149"/>
-      <c r="X124" s="150"/>
+        <f t="shared" ref="N124:N132" si="42">N123+1</f>
+        <v>1</v>
+      </c>
+      <c r="O124" s="143"/>
+      <c r="P124" s="147"/>
+      <c r="Q124" s="147"/>
+      <c r="R124" s="147"/>
+      <c r="S124" s="147"/>
+      <c r="T124" s="147"/>
+      <c r="U124" s="147"/>
+      <c r="V124" s="147"/>
+      <c r="W124" s="147"/>
+      <c r="X124" s="148"/>
       <c r="Z124">
-        <f>Z123+1</f>
-        <v>1</v>
-      </c>
-      <c r="AA124" s="145"/>
-      <c r="AB124" s="149"/>
-      <c r="AC124" s="149"/>
-      <c r="AD124" s="149" t="s">
+        <f t="shared" ref="Z124:Z132" si="43">Z123+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA124" s="143"/>
+      <c r="AB124" s="147"/>
+      <c r="AC124" s="147"/>
+      <c r="AD124" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="AE124" s="149"/>
-      <c r="AF124" s="149"/>
-      <c r="AG124" s="149"/>
-      <c r="AH124" s="149"/>
-      <c r="AI124" s="149"/>
-      <c r="AJ124" s="150"/>
+      <c r="AE124" s="147"/>
+      <c r="AF124" s="147"/>
+      <c r="AG124" s="147"/>
+      <c r="AH124" s="147"/>
+      <c r="AI124" s="147"/>
+      <c r="AJ124" s="148"/>
     </row>
     <row r="125" spans="1:36">
       <c r="B125">
-        <f>B124+1</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
-      <c r="C125" s="145"/>
-      <c r="D125" s="149"/>
-      <c r="E125" s="149"/>
-      <c r="F125" s="149"/>
-      <c r="G125" s="149"/>
-      <c r="H125" s="149"/>
-      <c r="I125" s="149"/>
-      <c r="J125" s="149"/>
-      <c r="K125" s="149"/>
-      <c r="L125" s="150"/>
+      <c r="C125" s="143"/>
+      <c r="D125" s="147"/>
+      <c r="E125" s="147"/>
+      <c r="F125" s="147"/>
+      <c r="G125" s="147"/>
+      <c r="H125" s="147"/>
+      <c r="I125" s="147"/>
+      <c r="J125" s="147"/>
+      <c r="K125" s="147"/>
+      <c r="L125" s="148"/>
       <c r="N125">
-        <f>N124+1</f>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="O125" s="145"/>
-      <c r="P125" s="149"/>
-      <c r="Q125" s="149"/>
-      <c r="R125" s="149"/>
-      <c r="S125" s="149"/>
-      <c r="T125" s="149"/>
-      <c r="U125" s="149"/>
-      <c r="V125" s="149"/>
-      <c r="W125" s="149"/>
-      <c r="X125" s="150"/>
+      <c r="O125" s="143"/>
+      <c r="P125" s="147"/>
+      <c r="Q125" s="147"/>
+      <c r="R125" s="147"/>
+      <c r="S125" s="147"/>
+      <c r="T125" s="147"/>
+      <c r="U125" s="147"/>
+      <c r="V125" s="147"/>
+      <c r="W125" s="147"/>
+      <c r="X125" s="148"/>
       <c r="Z125">
-        <f>Z124+1</f>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
-      <c r="AA125" s="145"/>
-      <c r="AB125" s="149"/>
-      <c r="AC125" s="149"/>
-      <c r="AD125" s="149"/>
-      <c r="AE125" s="149"/>
-      <c r="AF125" s="149"/>
-      <c r="AG125" s="149"/>
-      <c r="AH125" s="149"/>
-      <c r="AI125" s="149"/>
-      <c r="AJ125" s="150"/>
+      <c r="AA125" s="143"/>
+      <c r="AB125" s="147"/>
+      <c r="AC125" s="147"/>
+      <c r="AD125" s="147"/>
+      <c r="AE125" s="147"/>
+      <c r="AF125" s="147"/>
+      <c r="AG125" s="147"/>
+      <c r="AH125" s="147"/>
+      <c r="AI125" s="147"/>
+      <c r="AJ125" s="148"/>
     </row>
     <row r="126" spans="1:36">
       <c r="B126">
-        <f>B125+1</f>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
-      <c r="C126" s="145"/>
-      <c r="D126" s="149"/>
-      <c r="E126" s="149"/>
-      <c r="F126" s="149"/>
-      <c r="G126" s="149"/>
-      <c r="H126" s="149"/>
-      <c r="I126" s="149"/>
-      <c r="J126" s="149"/>
-      <c r="K126" s="149"/>
-      <c r="L126" s="150"/>
+      <c r="C126" s="143"/>
+      <c r="D126" s="147"/>
+      <c r="E126" s="147"/>
+      <c r="F126" s="147"/>
+      <c r="G126" s="147"/>
+      <c r="H126" s="147"/>
+      <c r="I126" s="147"/>
+      <c r="J126" s="147"/>
+      <c r="K126" s="147"/>
+      <c r="L126" s="148"/>
       <c r="N126">
-        <f>N125+1</f>
+        <f t="shared" si="42"/>
         <v>3</v>
       </c>
-      <c r="O126" s="145"/>
-      <c r="P126" s="149"/>
-      <c r="Q126" s="149"/>
-      <c r="R126" s="149"/>
-      <c r="S126" s="149"/>
-      <c r="T126" s="149"/>
-      <c r="U126" s="149"/>
-      <c r="V126" s="149"/>
-      <c r="W126" s="149"/>
-      <c r="X126" s="150"/>
+      <c r="O126" s="143"/>
+      <c r="P126" s="147"/>
+      <c r="Q126" s="147"/>
+      <c r="R126" s="147"/>
+      <c r="S126" s="147"/>
+      <c r="T126" s="147"/>
+      <c r="U126" s="147"/>
+      <c r="V126" s="147"/>
+      <c r="W126" s="147"/>
+      <c r="X126" s="148"/>
       <c r="Z126">
-        <f>Z125+1</f>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
-      <c r="AA126" s="145"/>
-      <c r="AB126" s="149"/>
-      <c r="AC126" s="149"/>
-      <c r="AD126" s="149"/>
-      <c r="AE126" s="149"/>
-      <c r="AF126" s="149"/>
-      <c r="AG126" s="149"/>
-      <c r="AH126" s="149"/>
-      <c r="AI126" s="149"/>
-      <c r="AJ126" s="150"/>
+      <c r="AA126" s="143"/>
+      <c r="AB126" s="147"/>
+      <c r="AC126" s="147"/>
+      <c r="AD126" s="147"/>
+      <c r="AE126" s="147"/>
+      <c r="AF126" s="147"/>
+      <c r="AG126" s="147"/>
+      <c r="AH126" s="147"/>
+      <c r="AI126" s="147"/>
+      <c r="AJ126" s="148"/>
     </row>
     <row r="127" spans="1:36" ht="15" thickBot="1">
       <c r="B127">
-        <f>B126+1</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="C127" s="145"/>
-      <c r="D127" s="149"/>
-      <c r="E127" s="149"/>
-      <c r="F127" s="149"/>
-      <c r="G127" s="149"/>
-      <c r="H127" s="149"/>
-      <c r="I127" s="149">
+      <c r="C127" s="143"/>
+      <c r="D127" s="147"/>
+      <c r="E127" s="147"/>
+      <c r="F127" s="147"/>
+      <c r="G127" s="147"/>
+      <c r="H127" s="147"/>
+      <c r="I127" s="147">
         <v>6</v>
       </c>
-      <c r="J127" s="149">
+      <c r="J127" s="147">
         <v>5</v>
       </c>
-      <c r="K127" s="149">
+      <c r="K127" s="147">
         <v>4</v>
       </c>
       <c r="L127" s="133"/>
       <c r="N127">
-        <f>N126+1</f>
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="O127" s="145"/>
-      <c r="P127" s="149"/>
-      <c r="Q127" s="149"/>
-      <c r="R127" s="149"/>
-      <c r="S127" s="149">
+      <c r="O127" s="143"/>
+      <c r="P127" s="147"/>
+      <c r="Q127" s="147"/>
+      <c r="R127" s="147"/>
+      <c r="S127" s="147">
         <v>6</v>
       </c>
-      <c r="T127" s="149">
+      <c r="T127" s="147">
         <v>5</v>
       </c>
-      <c r="U127" s="149">
+      <c r="U127" s="147">
         <v>4</v>
       </c>
-      <c r="V127" s="149">
+      <c r="V127" s="147">
         <v>3</v>
       </c>
-      <c r="W127" s="149">
+      <c r="W127" s="147">
         <v>2</v>
       </c>
       <c r="X127" s="133"/>
       <c r="Z127">
-        <f>Z126+1</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
-      <c r="AA127" s="145"/>
-      <c r="AB127" s="149"/>
-      <c r="AC127" s="149"/>
-      <c r="AD127" s="149"/>
-      <c r="AE127" s="149">
+      <c r="AA127" s="143"/>
+      <c r="AB127" s="147"/>
+      <c r="AC127" s="147"/>
+      <c r="AD127" s="147"/>
+      <c r="AE127" s="147">
         <v>6</v>
       </c>
-      <c r="AF127" s="149">
+      <c r="AF127" s="147">
         <v>5</v>
       </c>
-      <c r="AG127" s="149">
+      <c r="AG127" s="147">
         <v>4</v>
       </c>
-      <c r="AH127" s="149">
+      <c r="AH127" s="147">
         <v>3</v>
       </c>
-      <c r="AI127" s="37">
+      <c r="AI127" s="147">
         <v>2</v>
       </c>
       <c r="AJ127" s="133"/>
     </row>
     <row r="128" spans="1:36">
       <c r="B128">
-        <f>B127+1</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
-      <c r="C128" s="154"/>
+      <c r="C128" s="152"/>
       <c r="D128" s="121"/>
       <c r="E128" s="122"/>
       <c r="F128" s="122"/>
-      <c r="G128" s="189">
+      <c r="G128" s="175">
         <v>2</v>
       </c>
-      <c r="H128" s="195">
+      <c r="H128" s="181">
         <v>1</v>
       </c>
       <c r="I128" s="122">
@@ -14784,52 +14937,52 @@
       <c r="J128" s="122">
         <v>2</v>
       </c>
-      <c r="K128" s="189">
+      <c r="K128" s="175">
         <v>3</v>
       </c>
       <c r="L128" s="13"/>
       <c r="N128">
-        <f>N127+1</f>
+        <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="O128" s="154"/>
+      <c r="O128" s="152"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="122"/>
       <c r="R128" s="122"/>
-      <c r="S128" s="189">
+      <c r="S128" s="175">
         <v>3</v>
       </c>
-      <c r="T128" s="189">
+      <c r="T128" s="175">
         <v>2</v>
       </c>
-      <c r="U128" s="195">
+      <c r="U128" s="181">
         <v>1</v>
       </c>
       <c r="V128" s="122">
         <v>1</v>
       </c>
-      <c r="W128" s="149">
+      <c r="W128" s="147">
         <v>2</v>
       </c>
       <c r="X128" s="13"/>
       <c r="Z128">
-        <f>Z127+1</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
-      <c r="AA128" s="154"/>
+      <c r="AA128" s="152"/>
       <c r="AB128" s="121"/>
       <c r="AC128" s="122"/>
       <c r="AD128" s="122"/>
-      <c r="AE128" s="189">
+      <c r="AE128" s="175">
         <v>4</v>
       </c>
-      <c r="AF128" s="189">
+      <c r="AF128" s="175">
         <v>3</v>
       </c>
-      <c r="AG128" s="189">
+      <c r="AG128" s="175">
         <v>2</v>
       </c>
-      <c r="AH128" s="195">
+      <c r="AH128" s="181">
         <v>1</v>
       </c>
       <c r="AI128" s="37">
@@ -14839,32 +14992,32 @@
     </row>
     <row r="129" spans="2:36">
       <c r="B129">
-        <f>B128+1</f>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
-      <c r="C129" s="154"/>
+      <c r="C129" s="152"/>
       <c r="D129" s="20"/>
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
-      <c r="G129" s="149">
+      <c r="G129" s="147">
         <v>3</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="21"/>
-      <c r="K129" s="149">
+      <c r="K129" s="147">
         <v>2</v>
       </c>
       <c r="L129" s="17"/>
       <c r="N129">
-        <f>N128+1</f>
+        <f t="shared" si="42"/>
         <v>6</v>
       </c>
-      <c r="O129" s="154"/>
+      <c r="O129" s="152"/>
       <c r="P129" s="20"/>
       <c r="Q129" s="21"/>
       <c r="R129" s="21"/>
-      <c r="S129" s="149">
+      <c r="S129" s="147">
         <v>4</v>
       </c>
       <c r="T129" s="21"/>
@@ -14875,14 +15028,14 @@
       </c>
       <c r="X129" s="17"/>
       <c r="Z129">
-        <f>Z128+1</f>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
-      <c r="AA129" s="154"/>
+      <c r="AA129" s="152"/>
       <c r="AB129" s="20"/>
       <c r="AC129" s="21"/>
       <c r="AD129" s="21"/>
-      <c r="AE129" s="149">
+      <c r="AE129" s="147">
         <v>5</v>
       </c>
       <c r="AF129" s="21"/>
@@ -14893,18 +15046,18 @@
     </row>
     <row r="130" spans="2:36">
       <c r="B130">
-        <f>B129+1</f>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
-      <c r="C130" s="154"/>
-      <c r="D130" s="190">
+      <c r="C130" s="152"/>
+      <c r="D130" s="176">
         <v>11</v>
       </c>
-      <c r="E130" s="149">
+      <c r="E130" s="147">
         <v>10</v>
       </c>
       <c r="F130" s="21"/>
-      <c r="G130" s="149">
+      <c r="G130" s="147">
         <v>4</v>
       </c>
       <c r="H130" s="21"/>
@@ -14915,18 +15068,18 @@
       </c>
       <c r="L130" s="17"/>
       <c r="N130">
-        <f>N129+1</f>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
-      <c r="O130" s="154"/>
-      <c r="P130" s="190">
+      <c r="O130" s="152"/>
+      <c r="P130" s="176">
         <v>12</v>
       </c>
-      <c r="Q130" s="149">
+      <c r="Q130" s="147">
         <v>11</v>
       </c>
       <c r="R130" s="21"/>
-      <c r="S130" s="149">
+      <c r="S130" s="147">
         <v>5</v>
       </c>
       <c r="T130" s="21"/>
@@ -14935,18 +15088,18 @@
       <c r="W130" s="21"/>
       <c r="X130" s="17"/>
       <c r="Z130">
-        <f>Z129+1</f>
+        <f t="shared" si="43"/>
         <v>7</v>
       </c>
-      <c r="AA130" s="154"/>
-      <c r="AB130" s="190">
-        <v>13</v>
-      </c>
-      <c r="AC130" s="149">
+      <c r="AA130" s="152"/>
+      <c r="AB130" s="176">
+        <v>13</v>
+      </c>
+      <c r="AC130" s="147">
         <v>12</v>
       </c>
       <c r="AD130" s="21"/>
-      <c r="AE130" s="149">
+      <c r="AE130" s="147">
         <v>6</v>
       </c>
       <c r="AF130" s="21"/>
@@ -14957,20 +15110,20 @@
     </row>
     <row r="131" spans="2:36" ht="15" thickBot="1">
       <c r="B131">
-        <f>B130+1</f>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="C131" s="154">
-        <v>15</v>
-      </c>
-      <c r="D131" s="191">
+      <c r="C131" s="152">
+        <v>15</v>
+      </c>
+      <c r="D131" s="177">
         <v>12</v>
       </c>
-      <c r="E131" s="192">
+      <c r="E131" s="178">
         <v>9</v>
       </c>
       <c r="F131" s="23"/>
-      <c r="G131" s="192">
+      <c r="G131" s="178">
         <v>5</v>
       </c>
       <c r="H131" s="23"/>
@@ -14979,18 +15132,18 @@
       <c r="K131" s="23"/>
       <c r="L131" s="24"/>
       <c r="N131">
-        <f>N130+1</f>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="O131" s="154"/>
-      <c r="P131" s="191">
-        <v>13</v>
-      </c>
-      <c r="Q131" s="192">
+      <c r="O131" s="152"/>
+      <c r="P131" s="177">
+        <v>13</v>
+      </c>
+      <c r="Q131" s="178">
         <v>10</v>
       </c>
       <c r="R131" s="23"/>
-      <c r="S131" s="192">
+      <c r="S131" s="178">
         <v>6</v>
       </c>
       <c r="T131" s="23"/>
@@ -14999,20 +15152,20 @@
       <c r="W131" s="23"/>
       <c r="X131" s="24"/>
       <c r="Z131">
-        <f>Z130+1</f>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
-      <c r="AA131" s="154">
-        <v>17</v>
-      </c>
-      <c r="AB131" s="191">
+      <c r="AA131" s="152">
+        <v>17</v>
+      </c>
+      <c r="AB131" s="177">
         <v>14</v>
       </c>
-      <c r="AC131" s="192">
+      <c r="AC131" s="178">
         <v>11</v>
       </c>
       <c r="AD131" s="23"/>
-      <c r="AE131" s="192">
+      <c r="AE131" s="178">
         <v>7</v>
       </c>
       <c r="AF131" s="23"/>
@@ -15023,22 +15176,22 @@
     </row>
     <row r="132" spans="2:36">
       <c r="B132">
-        <f>B131+1</f>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
-      <c r="C132" s="146">
+      <c r="C132" s="144">
         <v>14</v>
       </c>
-      <c r="D132" s="152">
-        <v>13</v>
-      </c>
-      <c r="E132" s="152">
+      <c r="D132" s="150">
+        <v>13</v>
+      </c>
+      <c r="E132" s="150">
         <v>8</v>
       </c>
-      <c r="F132" s="152">
+      <c r="F132" s="150">
         <v>7</v>
       </c>
-      <c r="G132" s="152">
+      <c r="G132" s="150">
         <v>6</v>
       </c>
       <c r="H132" s="2"/>
@@ -15047,22 +15200,22 @@
       <c r="K132" s="2"/>
       <c r="L132" s="113"/>
       <c r="N132">
-        <f>N131+1</f>
+        <f t="shared" si="42"/>
         <v>9</v>
       </c>
-      <c r="O132" s="146">
-        <v>15</v>
-      </c>
-      <c r="P132" s="152">
+      <c r="O132" s="144">
+        <v>15</v>
+      </c>
+      <c r="P132" s="150">
         <v>14</v>
       </c>
-      <c r="Q132" s="152">
+      <c r="Q132" s="150">
         <v>9</v>
       </c>
-      <c r="R132" s="152">
+      <c r="R132" s="150">
         <v>8</v>
       </c>
-      <c r="S132" s="152">
+      <c r="S132" s="150">
         <v>7</v>
       </c>
       <c r="T132" s="2"/>
@@ -15071,22 +15224,22 @@
       <c r="W132" s="2"/>
       <c r="X132" s="113"/>
       <c r="Z132">
-        <f>Z131+1</f>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
-      <c r="AA132" s="146">
-        <v>16</v>
-      </c>
-      <c r="AB132" s="152">
-        <v>15</v>
-      </c>
-      <c r="AC132" s="152">
+      <c r="AA132" s="144">
+        <v>16</v>
+      </c>
+      <c r="AB132" s="150">
+        <v>15</v>
+      </c>
+      <c r="AC132" s="150">
         <v>10</v>
       </c>
-      <c r="AD132" s="152">
+      <c r="AD132" s="150">
         <v>9</v>
       </c>
-      <c r="AE132" s="152">
+      <c r="AE132" s="150">
         <v>8</v>
       </c>
       <c r="AF132" s="2"/>
@@ -15094,6 +15247,180 @@
       <c r="AH132" s="2"/>
       <c r="AI132" s="2"/>
       <c r="AJ132" s="113"/>
+    </row>
+    <row r="142" spans="2:36">
+      <c r="F142" s="2">
+        <v>0</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" ref="G142:L142" si="44">F142+1</f>
+        <v>1</v>
+      </c>
+      <c r="H142" s="2">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="I142" s="2">
+        <f t="shared" si="44"/>
+        <v>3</v>
+      </c>
+      <c r="J142" s="2">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="K142" s="2">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="L142" s="2">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:36">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" s="137"/>
+      <c r="L143" s="110"/>
+    </row>
+    <row r="144" spans="2:36">
+      <c r="E144">
+        <f t="shared" ref="E144:E149" si="45">E143+1</f>
+        <v>1</v>
+      </c>
+      <c r="F144" s="138"/>
+      <c r="L144" s="89"/>
+    </row>
+    <row r="145" spans="5:12" ht="15" thickBot="1">
+      <c r="E145">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="F145" s="138"/>
+      <c r="G145" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L145" s="140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="5:12">
+      <c r="E146">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="F146" s="138"/>
+      <c r="G146" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="147">
+        <v>3</v>
+      </c>
+      <c r="I146" s="147">
+        <v>2</v>
+      </c>
+      <c r="J146" s="181">
+        <v>1</v>
+      </c>
+      <c r="K146" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" s="141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="5:12">
+      <c r="E147">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="F147" s="138"/>
+      <c r="G147" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K147" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L147" s="140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="5:12">
+      <c r="E148">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="F148" s="138"/>
+      <c r="G148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L148" s="141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="5:12">
+      <c r="E149">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="F149" s="138"/>
+      <c r="G149" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" s="69"/>
+      <c r="K149" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L149" s="140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="5:12">
+      <c r="E150" t="s">
+        <v>80</v>
+      </c>
+      <c r="F150" s="138"/>
+      <c r="L150" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27337,25 +27664,25 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
       <c r="V10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="185" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="26"/>
@@ -27403,7 +27730,7 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="136"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="28">
         <v>0</v>
       </c>
@@ -27442,7 +27769,7 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="136"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="28">
         <f t="shared" ref="B13:B18" si="2">B12+1</f>
         <v>1</v>
@@ -27479,7 +27806,7 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="136"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -27519,7 +27846,7 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="136"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -27559,7 +27886,7 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="136"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -27599,7 +27926,7 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="136"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -27636,7 +27963,7 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="136"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -27676,7 +28003,7 @@
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="136"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="28">
         <f t="shared" ref="B19:B21" si="3">B18+1</f>
         <v>7</v>
@@ -27716,7 +28043,7 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="136"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="28">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -27753,7 +28080,7 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="136"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="28">
         <f t="shared" si="3"/>
         <v>9</v>

--- a/Snake/Documents/Helper.xlsx
+++ b/Snake/Documents/Helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Visual Studio Projects\Visual Studio 2019\Projetcs\Snake\Snake\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B72A654-411D-41F7-8E1A-2BE53BB54EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A02DE4-1B3C-4059-9051-AE26EF79C8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="181">
   <si>
     <t>Hoehe</t>
   </si>
@@ -545,6 +545,45 @@
   <si>
     <t>where eaten!</t>
   </si>
+  <si>
+    <t xml:space="preserve">if true -&gt; </t>
+  </si>
+  <si>
+    <t>this set up would return false -&gt; no shortcut woul be caclulated!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all snake parts now in the hamiltonian cycle </t>
+  </si>
+  <si>
+    <t>areAllSnakePartsInTheHamiltonianCycle</t>
+  </si>
+  <si>
+    <t>is now equalt to true</t>
+  </si>
+  <si>
+    <t>und enthält das fett umrandete Feld keine snake parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = function (...)</t>
+  </si>
+  <si>
+    <t>eight move furhther:</t>
+  </si>
+  <si>
+    <t>Wennalle snake parts im Ham cycle sind, aknn</t>
+  </si>
+  <si>
+    <t>im fett umrahmte bereich (niemals!) kein snake part sein!</t>
+  </si>
+  <si>
+    <t>shortcut berechnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nur durchführen wenn </t>
+  </si>
+  <si>
+    <t>appl im fett umrahmten bereich ist.</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1538,6 +1583,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10206,10 +10265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C7CDE-FA09-4542-9DD9-60A1EEECAB2D}">
-  <dimension ref="A2:AV150"/>
+  <dimension ref="A2:AX188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="AN174" sqref="AN174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -15248,6 +15307,11 @@
       <c r="AI132" s="2"/>
       <c r="AJ132" s="113"/>
     </row>
+    <row r="141" spans="2:36">
+      <c r="U141" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="142" spans="2:36">
       <c r="F142" s="2">
         <v>0</v>
@@ -15276,6 +15340,9 @@
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
+      <c r="U142" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="143" spans="2:36">
       <c r="E143">
@@ -15283,6 +15350,9 @@
       </c>
       <c r="F143" s="137"/>
       <c r="L143" s="110"/>
+      <c r="V143" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="144" spans="2:36">
       <c r="E144">
@@ -15292,7 +15362,7 @@
       <c r="F144" s="138"/>
       <c r="L144" s="89"/>
     </row>
-    <row r="145" spans="5:12" ht="15" thickBot="1">
+    <row r="145" spans="5:32" ht="15" thickBot="1">
       <c r="E145">
         <f t="shared" si="45"/>
         <v>2</v>
@@ -15316,8 +15386,11 @@
       <c r="L145" s="140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="5:12">
+      <c r="U145" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="5:32">
       <c r="E146">
         <f t="shared" si="45"/>
         <v>3</v>
@@ -15342,7 +15415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="5:12">
+    <row r="147" spans="5:32">
       <c r="E147">
         <f t="shared" si="45"/>
         <v>4</v>
@@ -15351,23 +15424,11 @@
       <c r="G147" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H147" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J147" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K147" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L147" s="140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="5:12">
+      <c r="V147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="5:32">
       <c r="E148">
         <f t="shared" si="45"/>
         <v>5</v>
@@ -15391,8 +15452,47 @@
       <c r="L148" s="141" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="5:12">
+      <c r="W148" s="2">
+        <v>0</v>
+      </c>
+      <c r="X148" s="2">
+        <f t="shared" ref="X148" si="46">W148+1</f>
+        <v>1</v>
+      </c>
+      <c r="Y148" s="2">
+        <f t="shared" ref="Y148" si="47">X148+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z148" s="2">
+        <f t="shared" ref="Z148" si="48">Y148+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA148" s="2">
+        <f t="shared" ref="AA148" si="49">Z148+1</f>
+        <v>4</v>
+      </c>
+      <c r="AB148" s="2">
+        <f t="shared" ref="AB148" si="50">AA148+1</f>
+        <v>5</v>
+      </c>
+      <c r="AC148" s="2">
+        <f t="shared" ref="AC148" si="51">AB148+1</f>
+        <v>6</v>
+      </c>
+      <c r="AD148" s="2">
+        <f t="shared" ref="AD148" si="52">AC148+1</f>
+        <v>7</v>
+      </c>
+      <c r="AE148" s="2">
+        <f t="shared" ref="AE148" si="53">AD148+1</f>
+        <v>8</v>
+      </c>
+      <c r="AF148" s="2">
+        <f t="shared" ref="AF148" si="54">AE148+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="5:32">
       <c r="E149">
         <f t="shared" si="45"/>
         <v>6</v>
@@ -15414,13 +15514,885 @@
       <c r="L149" s="140" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="5:12">
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149" s="142"/>
+      <c r="X149" s="145"/>
+      <c r="Y149" s="145"/>
+      <c r="Z149" s="145"/>
+      <c r="AA149" s="145"/>
+      <c r="AB149" s="145"/>
+      <c r="AC149" s="145"/>
+      <c r="AD149" s="145"/>
+      <c r="AE149" s="145"/>
+      <c r="AF149" s="146"/>
+    </row>
+    <row r="150" spans="5:32">
       <c r="E150" t="s">
         <v>80</v>
       </c>
       <c r="F150" s="138"/>
       <c r="L150" s="89"/>
+      <c r="V150">
+        <f t="shared" ref="V150:V158" si="55">V149+1</f>
+        <v>1</v>
+      </c>
+      <c r="W150" s="143"/>
+      <c r="X150" s="147"/>
+      <c r="Y150" s="147"/>
+      <c r="Z150" s="147"/>
+      <c r="AA150" s="147"/>
+      <c r="AB150" s="147"/>
+      <c r="AC150" s="147"/>
+      <c r="AD150" s="147"/>
+      <c r="AE150" s="147"/>
+      <c r="AF150" s="148"/>
+    </row>
+    <row r="151" spans="5:32">
+      <c r="V151">
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="W151" s="143"/>
+      <c r="X151" s="147"/>
+      <c r="Y151" s="147"/>
+      <c r="Z151" s="147"/>
+      <c r="AA151" s="147"/>
+      <c r="AB151" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC151" s="21"/>
+      <c r="AD151" s="21"/>
+      <c r="AE151" s="21"/>
+      <c r="AF151" s="89"/>
+    </row>
+    <row r="152" spans="5:32">
+      <c r="V152">
+        <f t="shared" si="55"/>
+        <v>3</v>
+      </c>
+      <c r="W152" s="143"/>
+      <c r="X152" s="21"/>
+      <c r="Y152" s="74"/>
+      <c r="Z152" s="21"/>
+      <c r="AA152" s="21"/>
+      <c r="AB152" s="147">
+        <v>8</v>
+      </c>
+      <c r="AC152" s="21"/>
+      <c r="AD152" s="21"/>
+      <c r="AE152" s="21"/>
+      <c r="AF152" s="89"/>
+    </row>
+    <row r="153" spans="5:32">
+      <c r="V153">
+        <f t="shared" si="55"/>
+        <v>4</v>
+      </c>
+      <c r="W153" s="143"/>
+      <c r="X153" s="21"/>
+      <c r="Y153" s="21"/>
+      <c r="Z153" s="21"/>
+      <c r="AA153" s="21"/>
+      <c r="AB153" s="147">
+        <v>7</v>
+      </c>
+      <c r="AC153" s="21"/>
+      <c r="AD153" s="21"/>
+      <c r="AE153" s="21"/>
+      <c r="AF153" s="89"/>
+    </row>
+    <row r="154" spans="5:32">
+      <c r="V154">
+        <f t="shared" si="55"/>
+        <v>5</v>
+      </c>
+      <c r="W154" s="143"/>
+      <c r="X154" s="21"/>
+      <c r="Y154" s="21"/>
+      <c r="Z154" s="21"/>
+      <c r="AA154" s="21"/>
+      <c r="AB154" s="147">
+        <v>6</v>
+      </c>
+      <c r="AC154" s="21"/>
+      <c r="AD154" s="21"/>
+      <c r="AE154" s="21"/>
+      <c r="AF154" s="89"/>
+    </row>
+    <row r="155" spans="5:32">
+      <c r="V155">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="W155" s="143"/>
+      <c r="X155" s="21"/>
+      <c r="Y155" s="21"/>
+      <c r="Z155" s="21"/>
+      <c r="AA155" s="21"/>
+      <c r="AB155" s="147">
+        <v>5</v>
+      </c>
+      <c r="AC155" s="21"/>
+      <c r="AD155" s="21"/>
+      <c r="AE155" s="21"/>
+      <c r="AF155" s="89"/>
+    </row>
+    <row r="156" spans="5:32">
+      <c r="V156">
+        <f t="shared" si="55"/>
+        <v>7</v>
+      </c>
+      <c r="W156" s="143"/>
+      <c r="X156" s="21"/>
+      <c r="Y156" s="21"/>
+      <c r="Z156" s="21"/>
+      <c r="AA156" s="21"/>
+      <c r="AB156" s="147">
+        <v>4</v>
+      </c>
+      <c r="AC156" s="21"/>
+      <c r="AD156" s="21"/>
+      <c r="AE156" s="21"/>
+      <c r="AF156" s="89"/>
+    </row>
+    <row r="157" spans="5:32">
+      <c r="V157">
+        <f t="shared" si="55"/>
+        <v>8</v>
+      </c>
+      <c r="W157" s="143"/>
+      <c r="X157" s="21"/>
+      <c r="Y157" s="21"/>
+      <c r="Z157" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA157" s="147">
+        <v>2</v>
+      </c>
+      <c r="AB157" s="147">
+        <v>3</v>
+      </c>
+      <c r="AC157" s="21"/>
+      <c r="AD157" s="21"/>
+      <c r="AE157" s="21"/>
+      <c r="AF157" s="89"/>
+    </row>
+    <row r="158" spans="5:32">
+      <c r="V158">
+        <f t="shared" si="55"/>
+        <v>9</v>
+      </c>
+      <c r="W158" s="144"/>
+      <c r="X158" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y158" s="2"/>
+      <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
+      <c r="AB158" s="2"/>
+      <c r="AC158" s="2"/>
+      <c r="AD158" s="2"/>
+      <c r="AE158" s="2"/>
+      <c r="AF158" s="113"/>
+    </row>
+    <row r="160" spans="5:32">
+      <c r="V160" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="20:38">
+      <c r="W162" s="2">
+        <v>0</v>
+      </c>
+      <c r="X162" s="2">
+        <f t="shared" ref="X162" si="56">W162+1</f>
+        <v>1</v>
+      </c>
+      <c r="Y162" s="2">
+        <f t="shared" ref="Y162" si="57">X162+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z162" s="2">
+        <f t="shared" ref="Z162" si="58">Y162+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA162" s="2">
+        <f t="shared" ref="AA162" si="59">Z162+1</f>
+        <v>4</v>
+      </c>
+      <c r="AB162" s="2">
+        <f t="shared" ref="AB162" si="60">AA162+1</f>
+        <v>5</v>
+      </c>
+      <c r="AC162" s="2">
+        <f t="shared" ref="AC162" si="61">AB162+1</f>
+        <v>6</v>
+      </c>
+      <c r="AD162" s="2">
+        <f t="shared" ref="AD162" si="62">AC162+1</f>
+        <v>7</v>
+      </c>
+      <c r="AE162" s="2">
+        <f t="shared" ref="AE162" si="63">AD162+1</f>
+        <v>8</v>
+      </c>
+      <c r="AF162" s="2">
+        <f t="shared" ref="AF162" si="64">AE162+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="20:38">
+      <c r="V163">
+        <v>0</v>
+      </c>
+      <c r="W163" s="196"/>
+      <c r="X163" s="192"/>
+      <c r="Y163" s="192"/>
+      <c r="Z163" s="192"/>
+      <c r="AA163" s="192"/>
+      <c r="AB163" s="192"/>
+      <c r="AC163" s="192"/>
+      <c r="AD163" s="192"/>
+      <c r="AE163" s="192"/>
+      <c r="AF163" s="194"/>
+    </row>
+    <row r="164" spans="20:38">
+      <c r="T164" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V164">
+        <f t="shared" ref="V164:V172" si="65">V163+1</f>
+        <v>1</v>
+      </c>
+      <c r="W164" s="197"/>
+      <c r="X164" s="193"/>
+      <c r="Y164" s="193"/>
+      <c r="Z164" s="193"/>
+      <c r="AA164" s="193"/>
+      <c r="AB164" s="193"/>
+      <c r="AC164" s="193"/>
+      <c r="AD164" s="193"/>
+      <c r="AE164" s="193"/>
+      <c r="AF164" s="195"/>
+    </row>
+    <row r="165" spans="20:38">
+      <c r="T165" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="W165" s="197"/>
+      <c r="X165" s="193"/>
+      <c r="Y165" s="193"/>
+      <c r="Z165" s="193"/>
+      <c r="AA165" s="193"/>
+      <c r="AB165" s="37">
+        <v>1</v>
+      </c>
+      <c r="AC165" s="21"/>
+      <c r="AD165" s="21"/>
+      <c r="AE165" s="21"/>
+      <c r="AF165" s="89"/>
+    </row>
+    <row r="166" spans="20:38" ht="15" thickBot="1">
+      <c r="T166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="W166" s="197"/>
+      <c r="X166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y166" s="74"/>
+      <c r="Z166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE166" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF166" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="20:38">
+      <c r="T167" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="65"/>
+        <v>4</v>
+      </c>
+      <c r="W167" s="197"/>
+      <c r="X167" s="17"/>
+      <c r="Y167" s="187"/>
+      <c r="Z167" s="188"/>
+      <c r="AA167" s="188"/>
+      <c r="AB167" s="188"/>
+      <c r="AC167" s="188"/>
+      <c r="AD167" s="188"/>
+      <c r="AE167" s="188"/>
+      <c r="AF167" s="189"/>
+      <c r="AJ167" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="20:38">
+      <c r="T168" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+      <c r="W168" s="197"/>
+      <c r="X168" s="17"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="21"/>
+      <c r="AA168" s="21"/>
+      <c r="AB168" s="21"/>
+      <c r="AC168" s="21"/>
+      <c r="AD168" s="21"/>
+      <c r="AE168" s="21"/>
+      <c r="AF168" s="190"/>
+      <c r="AK168" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169" spans="20:38">
+      <c r="T169" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+      <c r="W169" s="197"/>
+      <c r="X169" s="17"/>
+      <c r="Y169" s="20"/>
+      <c r="Z169" s="21"/>
+      <c r="AA169" s="21"/>
+      <c r="AB169" s="21"/>
+      <c r="AC169" s="21"/>
+      <c r="AD169" s="21"/>
+      <c r="AE169" s="21"/>
+      <c r="AF169" s="190"/>
+    </row>
+    <row r="170" spans="20:38">
+      <c r="T170" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="65"/>
+        <v>7</v>
+      </c>
+      <c r="W170" s="197"/>
+      <c r="X170" s="17"/>
+      <c r="Y170" s="20"/>
+      <c r="Z170" s="21"/>
+      <c r="AA170" s="21"/>
+      <c r="AB170" s="21"/>
+      <c r="AC170" s="21"/>
+      <c r="AD170" s="21"/>
+      <c r="AE170" s="21"/>
+      <c r="AF170" s="190"/>
+    </row>
+    <row r="171" spans="20:38" ht="15" thickBot="1">
+      <c r="T171" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="W171" s="197"/>
+      <c r="X171" s="17"/>
+      <c r="Y171" s="22"/>
+      <c r="Z171" s="23"/>
+      <c r="AA171" s="23"/>
+      <c r="AB171" s="23"/>
+      <c r="AC171" s="23"/>
+      <c r="AD171" s="23"/>
+      <c r="AE171" s="23"/>
+      <c r="AF171" s="191"/>
+      <c r="AL171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="20:38">
+      <c r="V172">
+        <f t="shared" si="65"/>
+        <v>9</v>
+      </c>
+      <c r="W172" s="198"/>
+      <c r="X172" s="199"/>
+      <c r="Y172" s="199"/>
+      <c r="Z172" s="199"/>
+      <c r="AA172" s="199"/>
+      <c r="AB172" s="199"/>
+      <c r="AC172" s="199"/>
+      <c r="AD172" s="199"/>
+      <c r="AE172" s="199"/>
+      <c r="AF172" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="20:38">
+      <c r="W174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="20:38">
+      <c r="W175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="20:38">
+      <c r="W176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178" spans="20:50" ht="15" thickBot="1">
+      <c r="W178" s="2">
+        <v>0</v>
+      </c>
+      <c r="X178" s="2">
+        <f t="shared" ref="X178" si="66">W178+1</f>
+        <v>1</v>
+      </c>
+      <c r="Y178" s="2">
+        <f t="shared" ref="Y178" si="67">X178+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z178" s="2">
+        <f t="shared" ref="Z178" si="68">Y178+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA178" s="2">
+        <f t="shared" ref="AA178" si="69">Z178+1</f>
+        <v>4</v>
+      </c>
+      <c r="AB178" s="2">
+        <f t="shared" ref="AB178" si="70">AA178+1</f>
+        <v>5</v>
+      </c>
+      <c r="AC178" s="2">
+        <f t="shared" ref="AC178" si="71">AB178+1</f>
+        <v>6</v>
+      </c>
+      <c r="AD178" s="2">
+        <f t="shared" ref="AD178" si="72">AC178+1</f>
+        <v>7</v>
+      </c>
+      <c r="AE178" s="2">
+        <f t="shared" ref="AE178" si="73">AD178+1</f>
+        <v>8</v>
+      </c>
+      <c r="AF178" s="2">
+        <f t="shared" ref="AF178" si="74">AE178+1</f>
+        <v>9</v>
+      </c>
+      <c r="AL178" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM178" s="21">
+        <f t="shared" ref="AM178" si="75">AL178+1</f>
+        <v>1</v>
+      </c>
+      <c r="AN178" s="21">
+        <f t="shared" ref="AN178" si="76">AM178+1</f>
+        <v>2</v>
+      </c>
+      <c r="AO178" s="21">
+        <f t="shared" ref="AO178" si="77">AN178+1</f>
+        <v>3</v>
+      </c>
+      <c r="AP178" s="21">
+        <f t="shared" ref="AP178" si="78">AO178+1</f>
+        <v>4</v>
+      </c>
+      <c r="AQ178" s="21">
+        <f t="shared" ref="AQ178" si="79">AP178+1</f>
+        <v>5</v>
+      </c>
+      <c r="AR178" s="21">
+        <f t="shared" ref="AR178" si="80">AQ178+1</f>
+        <v>6</v>
+      </c>
+      <c r="AS178" s="21">
+        <f t="shared" ref="AS178" si="81">AR178+1</f>
+        <v>7</v>
+      </c>
+      <c r="AT178" s="21">
+        <f t="shared" ref="AT178" si="82">AS178+1</f>
+        <v>8</v>
+      </c>
+      <c r="AU178" s="21">
+        <f t="shared" ref="AU178" si="83">AT178+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="20:50">
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179" s="196"/>
+      <c r="X179" s="192"/>
+      <c r="Y179" s="192"/>
+      <c r="Z179" s="192"/>
+      <c r="AA179" s="192"/>
+      <c r="AB179" s="192"/>
+      <c r="AC179" s="192"/>
+      <c r="AD179" s="192"/>
+      <c r="AE179" s="192"/>
+      <c r="AF179" s="194"/>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179" s="200"/>
+      <c r="AM179" s="121"/>
+      <c r="AN179" s="122"/>
+      <c r="AO179" s="122"/>
+      <c r="AP179" s="122"/>
+      <c r="AQ179" s="122"/>
+      <c r="AR179" s="122"/>
+      <c r="AS179" s="122"/>
+      <c r="AT179" s="122"/>
+      <c r="AU179" s="13"/>
+    </row>
+    <row r="180" spans="20:50">
+      <c r="T180" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V180">
+        <f t="shared" ref="V180:V188" si="84">V179+1</f>
+        <v>1</v>
+      </c>
+      <c r="W180" s="197"/>
+      <c r="X180" s="193"/>
+      <c r="Y180" s="193"/>
+      <c r="Z180" s="193"/>
+      <c r="AA180" s="193"/>
+      <c r="AB180" s="193"/>
+      <c r="AC180" s="193"/>
+      <c r="AD180" s="193"/>
+      <c r="AE180" s="193"/>
+      <c r="AF180" s="195"/>
+      <c r="AK180">
+        <f t="shared" ref="AK180:AK188" si="85">AK179+1</f>
+        <v>1</v>
+      </c>
+      <c r="AL180" s="81"/>
+      <c r="AM180" s="20"/>
+      <c r="AN180" s="21"/>
+      <c r="AO180" s="21"/>
+      <c r="AP180" s="21"/>
+      <c r="AQ180" s="21"/>
+      <c r="AR180" s="21"/>
+      <c r="AS180" s="21"/>
+      <c r="AT180" s="21"/>
+      <c r="AU180" s="17"/>
+      <c r="AX180" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="20:50" ht="15" thickBot="1">
+      <c r="T181" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V181">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="W181" s="197"/>
+      <c r="X181" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y181" s="74"/>
+      <c r="Z181" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA181" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB181" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC181" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD181" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE181" s="21"/>
+      <c r="AF181" s="89"/>
+      <c r="AK181">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="AL181" s="81"/>
+      <c r="AM181" s="20"/>
+      <c r="AN181" s="21"/>
+      <c r="AO181" s="21"/>
+      <c r="AP181" s="21"/>
+      <c r="AQ181" s="21"/>
+      <c r="AR181" s="21"/>
+      <c r="AS181" s="21"/>
+      <c r="AT181" s="21"/>
+      <c r="AU181" s="17"/>
+      <c r="AX181" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="20:50">
+      <c r="T182" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="84"/>
+        <v>3</v>
+      </c>
+      <c r="W182" s="197"/>
+      <c r="X182" s="17"/>
+      <c r="Y182" s="187"/>
+      <c r="Z182" s="188"/>
+      <c r="AA182" s="188"/>
+      <c r="AB182" s="188"/>
+      <c r="AC182" s="188"/>
+      <c r="AD182" s="188"/>
+      <c r="AE182" s="188"/>
+      <c r="AF182" s="189"/>
+      <c r="AK182">
+        <f t="shared" si="85"/>
+        <v>3</v>
+      </c>
+      <c r="AL182" s="81"/>
+      <c r="AM182" s="20"/>
+      <c r="AN182" s="21"/>
+      <c r="AO182" s="21"/>
+      <c r="AP182" s="21"/>
+      <c r="AQ182" s="21"/>
+      <c r="AR182" s="21"/>
+      <c r="AS182" s="21"/>
+      <c r="AT182" s="21"/>
+      <c r="AU182" s="17"/>
+      <c r="AX182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="20:50">
+      <c r="T183" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="84"/>
+        <v>4</v>
+      </c>
+      <c r="W183" s="197"/>
+      <c r="X183" s="17"/>
+      <c r="AF183" s="190"/>
+      <c r="AK183">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="AL183" s="81"/>
+      <c r="AM183" s="20"/>
+      <c r="AN183" s="21"/>
+      <c r="AO183" s="21"/>
+      <c r="AP183" s="21"/>
+      <c r="AQ183" s="21"/>
+      <c r="AR183" s="21"/>
+      <c r="AS183" s="21"/>
+      <c r="AT183" s="21"/>
+      <c r="AU183" s="17"/>
+    </row>
+    <row r="184" spans="20:50">
+      <c r="T184" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V184">
+        <f t="shared" si="84"/>
+        <v>5</v>
+      </c>
+      <c r="W184" s="197"/>
+      <c r="X184" s="17"/>
+      <c r="Y184" s="20"/>
+      <c r="Z184" s="21"/>
+      <c r="AA184" s="21"/>
+      <c r="AB184" s="21"/>
+      <c r="AC184" s="21"/>
+      <c r="AD184" s="21"/>
+      <c r="AE184" s="21"/>
+      <c r="AF184" s="190"/>
+      <c r="AK184">
+        <f t="shared" si="85"/>
+        <v>5</v>
+      </c>
+      <c r="AL184" s="81"/>
+      <c r="AM184" s="20"/>
+      <c r="AN184" s="21"/>
+      <c r="AO184" s="21"/>
+      <c r="AP184" s="21"/>
+      <c r="AQ184" s="21"/>
+      <c r="AR184" s="21"/>
+      <c r="AS184" s="21"/>
+      <c r="AT184" s="21"/>
+      <c r="AU184" s="17"/>
+    </row>
+    <row r="185" spans="20:50">
+      <c r="T185" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V185">
+        <f t="shared" si="84"/>
+        <v>6</v>
+      </c>
+      <c r="W185" s="197"/>
+      <c r="X185" s="17"/>
+      <c r="Y185" s="20"/>
+      <c r="Z185" s="21"/>
+      <c r="AA185" s="21"/>
+      <c r="AB185" s="21"/>
+      <c r="AC185" s="21"/>
+      <c r="AD185" s="21"/>
+      <c r="AE185" s="21"/>
+      <c r="AF185" s="190"/>
+      <c r="AK185">
+        <f t="shared" si="85"/>
+        <v>6</v>
+      </c>
+      <c r="AL185" s="81"/>
+      <c r="AM185" s="20"/>
+      <c r="AN185" s="21"/>
+      <c r="AO185" s="21"/>
+      <c r="AP185" s="21"/>
+      <c r="AQ185" s="21"/>
+      <c r="AR185" s="21"/>
+      <c r="AS185" s="21"/>
+      <c r="AT185" s="21"/>
+      <c r="AU185" s="17"/>
+    </row>
+    <row r="186" spans="20:50">
+      <c r="T186" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V186">
+        <f t="shared" si="84"/>
+        <v>7</v>
+      </c>
+      <c r="W186" s="197"/>
+      <c r="X186" s="17"/>
+      <c r="Y186" s="20"/>
+      <c r="Z186" s="21"/>
+      <c r="AA186" s="21"/>
+      <c r="AB186" s="21"/>
+      <c r="AC186" s="21"/>
+      <c r="AD186" s="21"/>
+      <c r="AE186" s="21"/>
+      <c r="AF186" s="190"/>
+      <c r="AK186">
+        <f t="shared" si="85"/>
+        <v>7</v>
+      </c>
+      <c r="AL186" s="81"/>
+      <c r="AM186" s="20"/>
+      <c r="AN186" s="21"/>
+      <c r="AO186" s="21"/>
+      <c r="AP186" s="21"/>
+      <c r="AQ186" s="21"/>
+      <c r="AR186" s="21"/>
+      <c r="AS186" s="21"/>
+      <c r="AT186" s="21"/>
+      <c r="AU186" s="17"/>
+    </row>
+    <row r="187" spans="20:50" ht="15" thickBot="1">
+      <c r="T187" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V187">
+        <f t="shared" si="84"/>
+        <v>8</v>
+      </c>
+      <c r="W187" s="197"/>
+      <c r="X187" s="17"/>
+      <c r="Y187" s="22"/>
+      <c r="Z187" s="23"/>
+      <c r="AA187" s="23"/>
+      <c r="AB187" s="23"/>
+      <c r="AC187" s="23"/>
+      <c r="AD187" s="23"/>
+      <c r="AE187" s="23"/>
+      <c r="AF187" s="191"/>
+      <c r="AK187">
+        <f t="shared" si="85"/>
+        <v>8</v>
+      </c>
+      <c r="AL187" s="81"/>
+      <c r="AM187" s="20"/>
+      <c r="AN187" s="21"/>
+      <c r="AO187" s="21"/>
+      <c r="AP187" s="21"/>
+      <c r="AQ187" s="21"/>
+      <c r="AR187" s="21"/>
+      <c r="AS187" s="21"/>
+      <c r="AT187" s="21"/>
+      <c r="AU187" s="17"/>
+    </row>
+    <row r="188" spans="20:50" ht="15" thickBot="1">
+      <c r="V188">
+        <f t="shared" si="84"/>
+        <v>9</v>
+      </c>
+      <c r="W188" s="198"/>
+      <c r="X188" s="199"/>
+      <c r="Y188" s="199"/>
+      <c r="Z188" s="199"/>
+      <c r="AA188" s="199"/>
+      <c r="AB188" s="199"/>
+      <c r="AC188" s="199"/>
+      <c r="AD188" s="199"/>
+      <c r="AE188" s="199"/>
+      <c r="AF188" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK188">
+        <f t="shared" si="85"/>
+        <v>9</v>
+      </c>
+      <c r="AL188" s="112"/>
+      <c r="AM188" s="22"/>
+      <c r="AN188" s="23"/>
+      <c r="AO188" s="23"/>
+      <c r="AP188" s="23"/>
+      <c r="AQ188" s="23"/>
+      <c r="AR188" s="23"/>
+      <c r="AS188" s="23"/>
+      <c r="AT188" s="23"/>
+      <c r="AU188" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Snake/Documents/Helper.xlsx
+++ b/Snake/Documents/Helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Visual Studio Projects\Visual Studio 2019\Projetcs\Snake\Snake\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A02DE4-1B3C-4059-9051-AE26EF79C8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F614F2-0AB0-41D8-B86D-09C2F6101166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="183">
   <si>
     <t>Hoehe</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>appl im fett umrahmten bereich ist.</t>
+  </si>
+  <si>
+    <t>PointSequence[n] = Point [x, y];</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1596,6 +1602,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -10265,10 +10272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C7CDE-FA09-4542-9DD9-60A1EEECAB2D}">
-  <dimension ref="A2:AX188"/>
+  <dimension ref="A2:AX201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="AN174" sqref="AN174"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="AM196" sqref="AM196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -15362,7 +15369,7 @@
       <c r="F144" s="138"/>
       <c r="L144" s="89"/>
     </row>
-    <row r="145" spans="5:32" ht="15" thickBot="1">
+    <row r="145" spans="5:42" ht="15" thickBot="1">
       <c r="E145">
         <f t="shared" si="45"/>
         <v>2</v>
@@ -15390,7 +15397,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="5:32">
+    <row r="146" spans="5:42">
       <c r="E146">
         <f t="shared" si="45"/>
         <v>3</v>
@@ -15415,7 +15422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="5:32">
+    <row r="147" spans="5:42">
       <c r="E147">
         <f t="shared" si="45"/>
         <v>4</v>
@@ -15428,7 +15435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="148" spans="5:32">
+    <row r="148" spans="5:42">
       <c r="E148">
         <f t="shared" si="45"/>
         <v>5</v>
@@ -15492,7 +15499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="5:32">
+    <row r="149" spans="5:42">
       <c r="E149">
         <f t="shared" si="45"/>
         <v>6</v>
@@ -15528,7 +15535,7 @@
       <c r="AE149" s="145"/>
       <c r="AF149" s="146"/>
     </row>
-    <row r="150" spans="5:32">
+    <row r="150" spans="5:42">
       <c r="E150" t="s">
         <v>80</v>
       </c>
@@ -15549,7 +15556,7 @@
       <c r="AE150" s="147"/>
       <c r="AF150" s="148"/>
     </row>
-    <row r="151" spans="5:32">
+    <row r="151" spans="5:42">
       <c r="V151">
         <f t="shared" si="55"/>
         <v>2</v>
@@ -15566,8 +15573,11 @@
       <c r="AD151" s="21"/>
       <c r="AE151" s="21"/>
       <c r="AF151" s="89"/>
-    </row>
-    <row r="152" spans="5:32">
+      <c r="AJ151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="5:42">
       <c r="V152">
         <f t="shared" si="55"/>
         <v>3</v>
@@ -15584,8 +15594,17 @@
       <c r="AD152" s="21"/>
       <c r="AE152" s="21"/>
       <c r="AF152" s="89"/>
-    </row>
-    <row r="153" spans="5:32">
+      <c r="AJ152" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="5:42">
       <c r="V153">
         <f t="shared" si="55"/>
         <v>4</v>
@@ -15602,8 +15621,17 @@
       <c r="AD153" s="21"/>
       <c r="AE153" s="21"/>
       <c r="AF153" s="89"/>
-    </row>
-    <row r="154" spans="5:32">
+      <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>0</v>
+      </c>
+      <c r="AP153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="5:42">
       <c r="V154">
         <f t="shared" si="55"/>
         <v>5</v>
@@ -15620,8 +15648,17 @@
       <c r="AD154" s="21"/>
       <c r="AE154" s="21"/>
       <c r="AF154" s="89"/>
-    </row>
-    <row r="155" spans="5:32">
+      <c r="AJ154">
+        <v>1</v>
+      </c>
+      <c r="AN154">
+        <v>0</v>
+      </c>
+      <c r="AP154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="5:42">
       <c r="V155">
         <f t="shared" si="55"/>
         <v>6</v>
@@ -15638,8 +15675,17 @@
       <c r="AD155" s="21"/>
       <c r="AE155" s="21"/>
       <c r="AF155" s="89"/>
-    </row>
-    <row r="156" spans="5:32">
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AN155">
+        <v>0</v>
+      </c>
+      <c r="AP155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="5:42">
       <c r="V156">
         <f t="shared" si="55"/>
         <v>7</v>
@@ -15656,8 +15702,41 @@
       <c r="AD156" s="21"/>
       <c r="AE156" s="21"/>
       <c r="AF156" s="89"/>
-    </row>
-    <row r="157" spans="5:32">
+      <c r="AJ156">
+        <v>3</v>
+      </c>
+      <c r="AN156">
+        <v>0</v>
+      </c>
+      <c r="AP156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="5:42" ht="15" thickBot="1">
+      <c r="G157" s="21">
+        <v>0</v>
+      </c>
+      <c r="H157" s="21">
+        <f t="shared" ref="H157" si="56">G157+1</f>
+        <v>1</v>
+      </c>
+      <c r="I157" s="21">
+        <f t="shared" ref="I157" si="57">H157+1</f>
+        <v>2</v>
+      </c>
+      <c r="J157" s="21">
+        <f t="shared" ref="J157" si="58">I157+1</f>
+        <v>3</v>
+      </c>
+      <c r="K157" s="21">
+        <f t="shared" ref="K157" si="59">J157+1</f>
+        <v>4</v>
+      </c>
+      <c r="L157" s="21">
+        <f t="shared" ref="L157" si="60">K157+1</f>
+        <v>5</v>
+      </c>
+      <c r="M157" s="21"/>
       <c r="V157">
         <f t="shared" si="55"/>
         <v>8</v>
@@ -15678,8 +15757,38 @@
       <c r="AD157" s="21"/>
       <c r="AE157" s="21"/>
       <c r="AF157" s="89"/>
-    </row>
-    <row r="158" spans="5:32">
+      <c r="AJ157">
+        <v>4</v>
+      </c>
+      <c r="AN157">
+        <v>0</v>
+      </c>
+      <c r="AP157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="5:42">
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" s="121">
+        <v>0</v>
+      </c>
+      <c r="H158" s="122">
+        <v>35</v>
+      </c>
+      <c r="I158" s="122">
+        <v>34</v>
+      </c>
+      <c r="J158" s="122">
+        <v>33</v>
+      </c>
+      <c r="K158" s="122">
+        <v>32</v>
+      </c>
+      <c r="L158" s="13">
+        <v>31</v>
+      </c>
       <c r="V158">
         <f t="shared" si="55"/>
         <v>9</v>
@@ -15697,53 +15806,167 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="113"/>
     </row>
-    <row r="160" spans="5:32">
+    <row r="159" spans="5:42">
+      <c r="F159">
+        <f t="shared" ref="F159:F164" si="61">F158+1</f>
+        <v>1</v>
+      </c>
+      <c r="G159" s="20">
+        <v>1</v>
+      </c>
+      <c r="H159" s="21">
+        <v>26</v>
+      </c>
+      <c r="I159" s="21">
+        <v>27</v>
+      </c>
+      <c r="J159" s="97">
+        <v>28</v>
+      </c>
+      <c r="K159" s="97">
+        <v>29</v>
+      </c>
+      <c r="L159" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="5:42">
+      <c r="F160">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="G160" s="20">
+        <v>2</v>
+      </c>
+      <c r="H160" s="21">
+        <v>25</v>
+      </c>
+      <c r="I160" s="21">
+        <v>24</v>
+      </c>
+      <c r="J160" s="21">
+        <v>23</v>
+      </c>
+      <c r="K160" s="21">
+        <v>22</v>
+      </c>
+      <c r="L160" s="17">
+        <v>21</v>
+      </c>
       <c r="V160" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="162" spans="20:38">
+    <row r="161" spans="6:38">
+      <c r="F161">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="G161" s="20">
+        <v>3</v>
+      </c>
+      <c r="H161" s="21">
+        <v>16</v>
+      </c>
+      <c r="I161" s="21">
+        <v>17</v>
+      </c>
+      <c r="J161" s="97">
+        <v>18</v>
+      </c>
+      <c r="K161" s="97">
+        <v>19</v>
+      </c>
+      <c r="L161" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="6:38">
+      <c r="F162">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="G162" s="20">
+        <v>4</v>
+      </c>
+      <c r="H162" s="21">
+        <v>15</v>
+      </c>
+      <c r="I162" s="21">
+        <v>14</v>
+      </c>
+      <c r="J162" s="21">
+        <v>13</v>
+      </c>
+      <c r="K162" s="21">
+        <v>12</v>
+      </c>
+      <c r="L162" s="17">
+        <v>11</v>
+      </c>
       <c r="W162" s="2">
         <v>0</v>
       </c>
       <c r="X162" s="2">
-        <f t="shared" ref="X162" si="56">W162+1</f>
+        <f t="shared" ref="X162" si="62">W162+1</f>
         <v>1</v>
       </c>
       <c r="Y162" s="2">
-        <f t="shared" ref="Y162" si="57">X162+1</f>
+        <f t="shared" ref="Y162" si="63">X162+1</f>
         <v>2</v>
       </c>
       <c r="Z162" s="2">
-        <f t="shared" ref="Z162" si="58">Y162+1</f>
+        <f t="shared" ref="Z162" si="64">Y162+1</f>
         <v>3</v>
       </c>
       <c r="AA162" s="2">
-        <f t="shared" ref="AA162" si="59">Z162+1</f>
+        <f t="shared" ref="AA162" si="65">Z162+1</f>
         <v>4</v>
       </c>
       <c r="AB162" s="2">
-        <f t="shared" ref="AB162" si="60">AA162+1</f>
+        <f t="shared" ref="AB162" si="66">AA162+1</f>
         <v>5</v>
       </c>
       <c r="AC162" s="2">
-        <f t="shared" ref="AC162" si="61">AB162+1</f>
+        <f t="shared" ref="AC162" si="67">AB162+1</f>
         <v>6</v>
       </c>
       <c r="AD162" s="2">
-        <f t="shared" ref="AD162" si="62">AC162+1</f>
+        <f t="shared" ref="AD162" si="68">AC162+1</f>
         <v>7</v>
       </c>
       <c r="AE162" s="2">
-        <f t="shared" ref="AE162" si="63">AD162+1</f>
+        <f t="shared" ref="AE162" si="69">AD162+1</f>
         <v>8</v>
       </c>
       <c r="AF162" s="2">
-        <f t="shared" ref="AF162" si="64">AE162+1</f>
+        <f t="shared" ref="AF162" si="70">AE162+1</f>
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="20:38">
+    <row r="163" spans="6:38">
+      <c r="F163">
+        <f t="shared" si="61"/>
+        <v>5</v>
+      </c>
+      <c r="G163" s="20">
+        <v>5</v>
+      </c>
+      <c r="H163" s="21">
+        <v>6</v>
+      </c>
+      <c r="I163" s="21">
+        <v>7</v>
+      </c>
+      <c r="J163" s="21">
+        <v>8</v>
+      </c>
+      <c r="K163" s="21">
+        <v>9</v>
+      </c>
+      <c r="L163" s="17">
+        <v>10</v>
+      </c>
       <c r="V163">
         <v>0</v>
       </c>
@@ -15758,12 +15981,12 @@
       <c r="AE163" s="192"/>
       <c r="AF163" s="194"/>
     </row>
-    <row r="164" spans="20:38">
+    <row r="164" spans="6:38">
       <c r="T164" s="16" t="s">
         <v>17</v>
       </c>
       <c r="V164">
-        <f t="shared" ref="V164:V172" si="65">V163+1</f>
+        <f t="shared" ref="V164:V172" si="71">V163+1</f>
         <v>1</v>
       </c>
       <c r="W164" s="197"/>
@@ -15777,12 +16000,12 @@
       <c r="AE164" s="193"/>
       <c r="AF164" s="195"/>
     </row>
-    <row r="165" spans="20:38">
+    <row r="165" spans="6:38">
       <c r="T165" s="19" t="s">
         <v>16</v>
       </c>
       <c r="V165">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2</v>
       </c>
       <c r="W165" s="197"/>
@@ -15798,12 +16021,12 @@
       <c r="AE165" s="21"/>
       <c r="AF165" s="89"/>
     </row>
-    <row r="166" spans="20:38" ht="15" thickBot="1">
+    <row r="166" spans="6:38" ht="15" thickBot="1">
       <c r="T166" s="16" t="s">
         <v>17</v>
       </c>
       <c r="V166">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="W166" s="197"/>
@@ -15836,12 +16059,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="20:38">
+    <row r="167" spans="6:38">
       <c r="T167" s="19" t="s">
         <v>16</v>
       </c>
       <c r="V167">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
       <c r="W167" s="197"/>
@@ -15858,12 +16081,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="20:38">
+    <row r="168" spans="6:38">
       <c r="T168" s="16" t="s">
         <v>17</v>
       </c>
       <c r="V168">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
       <c r="W168" s="197"/>
@@ -15880,12 +16103,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="20:38">
+    <row r="169" spans="6:38">
       <c r="T169" s="19" t="s">
         <v>16</v>
       </c>
       <c r="V169">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>6</v>
       </c>
       <c r="W169" s="197"/>
@@ -15899,12 +16122,12 @@
       <c r="AE169" s="21"/>
       <c r="AF169" s="190"/>
     </row>
-    <row r="170" spans="20:38">
+    <row r="170" spans="6:38">
       <c r="T170" s="16" t="s">
         <v>17</v>
       </c>
       <c r="V170">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>7</v>
       </c>
       <c r="W170" s="197"/>
@@ -15918,12 +16141,12 @@
       <c r="AE170" s="21"/>
       <c r="AF170" s="190"/>
     </row>
-    <row r="171" spans="20:38" ht="15" thickBot="1">
+    <row r="171" spans="6:38" ht="15" thickBot="1">
       <c r="T171" s="19" t="s">
         <v>16</v>
       </c>
       <c r="V171">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>8</v>
       </c>
       <c r="W171" s="197"/>
@@ -15940,9 +16163,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="20:38">
+    <row r="172" spans="6:38">
       <c r="V172">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>9</v>
       </c>
       <c r="W172" s="198"/>
@@ -15961,17 +16184,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="20:38">
+    <row r="174" spans="6:38">
       <c r="W174" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="20:38">
+    <row r="175" spans="6:38">
       <c r="W175" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="20:38">
+    <row r="176" spans="6:38">
       <c r="W176" t="s">
         <v>172</v>
       </c>
@@ -15981,78 +16204,78 @@
         <v>0</v>
       </c>
       <c r="X178" s="2">
-        <f t="shared" ref="X178" si="66">W178+1</f>
+        <f t="shared" ref="X178" si="72">W178+1</f>
         <v>1</v>
       </c>
       <c r="Y178" s="2">
-        <f t="shared" ref="Y178" si="67">X178+1</f>
+        <f t="shared" ref="Y178" si="73">X178+1</f>
         <v>2</v>
       </c>
       <c r="Z178" s="2">
-        <f t="shared" ref="Z178" si="68">Y178+1</f>
+        <f t="shared" ref="Z178" si="74">Y178+1</f>
         <v>3</v>
       </c>
       <c r="AA178" s="2">
-        <f t="shared" ref="AA178" si="69">Z178+1</f>
+        <f t="shared" ref="AA178" si="75">Z178+1</f>
         <v>4</v>
       </c>
       <c r="AB178" s="2">
-        <f t="shared" ref="AB178" si="70">AA178+1</f>
+        <f t="shared" ref="AB178" si="76">AA178+1</f>
         <v>5</v>
       </c>
       <c r="AC178" s="2">
-        <f t="shared" ref="AC178" si="71">AB178+1</f>
+        <f t="shared" ref="AC178" si="77">AB178+1</f>
         <v>6</v>
       </c>
       <c r="AD178" s="2">
-        <f t="shared" ref="AD178" si="72">AC178+1</f>
+        <f t="shared" ref="AD178" si="78">AC178+1</f>
         <v>7</v>
       </c>
       <c r="AE178" s="2">
-        <f t="shared" ref="AE178" si="73">AD178+1</f>
+        <f t="shared" ref="AE178" si="79">AD178+1</f>
         <v>8</v>
       </c>
       <c r="AF178" s="2">
-        <f t="shared" ref="AF178" si="74">AE178+1</f>
+        <f t="shared" ref="AF178" si="80">AE178+1</f>
         <v>9</v>
       </c>
       <c r="AL178" s="2">
         <v>0</v>
       </c>
       <c r="AM178" s="21">
-        <f t="shared" ref="AM178" si="75">AL178+1</f>
+        <f t="shared" ref="AM178" si="81">AL178+1</f>
         <v>1</v>
       </c>
       <c r="AN178" s="21">
-        <f t="shared" ref="AN178" si="76">AM178+1</f>
+        <f t="shared" ref="AN178" si="82">AM178+1</f>
         <v>2</v>
       </c>
       <c r="AO178" s="21">
-        <f t="shared" ref="AO178" si="77">AN178+1</f>
+        <f t="shared" ref="AO178" si="83">AN178+1</f>
         <v>3</v>
       </c>
       <c r="AP178" s="21">
-        <f t="shared" ref="AP178" si="78">AO178+1</f>
+        <f t="shared" ref="AP178" si="84">AO178+1</f>
         <v>4</v>
       </c>
       <c r="AQ178" s="21">
-        <f t="shared" ref="AQ178" si="79">AP178+1</f>
+        <f t="shared" ref="AQ178" si="85">AP178+1</f>
         <v>5</v>
       </c>
       <c r="AR178" s="21">
-        <f t="shared" ref="AR178" si="80">AQ178+1</f>
+        <f t="shared" ref="AR178" si="86">AQ178+1</f>
         <v>6</v>
       </c>
       <c r="AS178" s="21">
-        <f t="shared" ref="AS178" si="81">AR178+1</f>
+        <f t="shared" ref="AS178" si="87">AR178+1</f>
         <v>7</v>
       </c>
       <c r="AT178" s="21">
-        <f t="shared" ref="AT178" si="82">AS178+1</f>
+        <f t="shared" ref="AT178" si="88">AS178+1</f>
         <v>8</v>
       </c>
       <c r="AU178" s="21">
-        <f t="shared" ref="AU178" si="83">AT178+1</f>
+        <f t="shared" ref="AU178" si="89">AT178+1</f>
         <v>9</v>
       </c>
     </row>
@@ -16073,7 +16296,7 @@
       <c r="AK179">
         <v>0</v>
       </c>
-      <c r="AL179" s="200"/>
+      <c r="AL179" s="201"/>
       <c r="AM179" s="121"/>
       <c r="AN179" s="122"/>
       <c r="AO179" s="122"/>
@@ -16089,7 +16312,7 @@
         <v>17</v>
       </c>
       <c r="V180">
-        <f t="shared" ref="V180:V188" si="84">V179+1</f>
+        <f t="shared" ref="V180:V188" si="90">V179+1</f>
         <v>1</v>
       </c>
       <c r="W180" s="197"/>
@@ -16103,7 +16326,7 @@
       <c r="AE180" s="193"/>
       <c r="AF180" s="195"/>
       <c r="AK180">
-        <f t="shared" ref="AK180:AK188" si="85">AK179+1</f>
+        <f t="shared" ref="AK180:AK188" si="91">AK179+1</f>
         <v>1</v>
       </c>
       <c r="AL180" s="81"/>
@@ -16125,7 +16348,7 @@
         <v>16</v>
       </c>
       <c r="V181">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>2</v>
       </c>
       <c r="W181" s="197"/>
@@ -16151,7 +16374,7 @@
       <c r="AE181" s="21"/>
       <c r="AF181" s="89"/>
       <c r="AK181">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>2</v>
       </c>
       <c r="AL181" s="81"/>
@@ -16173,7 +16396,7 @@
         <v>17</v>
       </c>
       <c r="V182">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>3</v>
       </c>
       <c r="W182" s="197"/>
@@ -16187,7 +16410,7 @@
       <c r="AE182" s="188"/>
       <c r="AF182" s="189"/>
       <c r="AK182">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>3</v>
       </c>
       <c r="AL182" s="81"/>
@@ -16209,14 +16432,14 @@
         <v>16</v>
       </c>
       <c r="V183">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>4</v>
       </c>
       <c r="W183" s="197"/>
       <c r="X183" s="17"/>
       <c r="AF183" s="190"/>
       <c r="AK183">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>4</v>
       </c>
       <c r="AL183" s="81"/>
@@ -16235,7 +16458,7 @@
         <v>17</v>
       </c>
       <c r="V184">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>5</v>
       </c>
       <c r="W184" s="197"/>
@@ -16249,7 +16472,7 @@
       <c r="AE184" s="21"/>
       <c r="AF184" s="190"/>
       <c r="AK184">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>5</v>
       </c>
       <c r="AL184" s="81"/>
@@ -16268,7 +16491,7 @@
         <v>16</v>
       </c>
       <c r="V185">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>6</v>
       </c>
       <c r="W185" s="197"/>
@@ -16282,7 +16505,7 @@
       <c r="AE185" s="21"/>
       <c r="AF185" s="190"/>
       <c r="AK185">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>6</v>
       </c>
       <c r="AL185" s="81"/>
@@ -16301,7 +16524,7 @@
         <v>17</v>
       </c>
       <c r="V186">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>7</v>
       </c>
       <c r="W186" s="197"/>
@@ -16315,7 +16538,7 @@
       <c r="AE186" s="21"/>
       <c r="AF186" s="190"/>
       <c r="AK186">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>7</v>
       </c>
       <c r="AL186" s="81"/>
@@ -16334,7 +16557,7 @@
         <v>16</v>
       </c>
       <c r="V187">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>8</v>
       </c>
       <c r="W187" s="197"/>
@@ -16348,7 +16571,7 @@
       <c r="AE187" s="23"/>
       <c r="AF187" s="191"/>
       <c r="AK187">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>8</v>
       </c>
       <c r="AL187" s="81"/>
@@ -16364,7 +16587,7 @@
     </row>
     <row r="188" spans="20:50" ht="15" thickBot="1">
       <c r="V188">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>9</v>
       </c>
       <c r="W188" s="198"/>
@@ -16380,7 +16603,7 @@
         <v>164</v>
       </c>
       <c r="AK188">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>9</v>
       </c>
       <c r="AL188" s="112"/>
@@ -16393,6 +16616,232 @@
       <c r="AS188" s="23"/>
       <c r="AT188" s="23"/>
       <c r="AU188" s="24"/>
+    </row>
+    <row r="191" spans="20:50">
+      <c r="W191" s="21">
+        <v>0</v>
+      </c>
+      <c r="X191" s="21">
+        <f t="shared" ref="X191" si="92">W191+1</f>
+        <v>1</v>
+      </c>
+      <c r="Y191" s="21">
+        <f t="shared" ref="Y191" si="93">X191+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z191" s="21">
+        <f t="shared" ref="Z191" si="94">Y191+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA191" s="21">
+        <f t="shared" ref="AA191" si="95">Z191+1</f>
+        <v>4</v>
+      </c>
+      <c r="AB191" s="21">
+        <f t="shared" ref="AB191" si="96">AA191+1</f>
+        <v>5</v>
+      </c>
+      <c r="AC191" s="21">
+        <f t="shared" ref="AC191" si="97">AB191+1</f>
+        <v>6</v>
+      </c>
+      <c r="AD191" s="21">
+        <f t="shared" ref="AD191" si="98">AC191+1</f>
+        <v>7</v>
+      </c>
+      <c r="AE191" s="21">
+        <f t="shared" ref="AE191" si="99">AD191+1</f>
+        <v>8</v>
+      </c>
+      <c r="AF191" s="21">
+        <f t="shared" ref="AF191" si="100">AE191+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="20:50">
+      <c r="V192">
+        <v>0</v>
+      </c>
+      <c r="W192" s="137"/>
+      <c r="X192" s="109"/>
+      <c r="Y192" s="109"/>
+      <c r="Z192" s="109"/>
+      <c r="AA192" s="109"/>
+      <c r="AB192" s="109"/>
+      <c r="AC192" s="109"/>
+      <c r="AD192" s="109"/>
+      <c r="AE192" s="109"/>
+      <c r="AF192" s="110"/>
+    </row>
+    <row r="193" spans="20:32">
+      <c r="T193" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V193">
+        <f t="shared" ref="V193:V201" si="101">V192+1</f>
+        <v>1</v>
+      </c>
+      <c r="W193" s="138"/>
+      <c r="X193" s="21"/>
+      <c r="Y193" s="21"/>
+      <c r="Z193" s="21"/>
+      <c r="AA193" s="21"/>
+      <c r="AB193" s="21"/>
+      <c r="AC193" s="21"/>
+      <c r="AD193" s="21"/>
+      <c r="AE193" s="21"/>
+      <c r="AF193" s="89"/>
+    </row>
+    <row r="194" spans="20:32">
+      <c r="T194" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V194">
+        <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="W194" s="138"/>
+      <c r="X194" s="21"/>
+      <c r="Y194" s="21"/>
+      <c r="Z194" s="21"/>
+      <c r="AA194" s="21"/>
+      <c r="AB194" s="21"/>
+      <c r="AC194" s="21"/>
+      <c r="AD194" s="21"/>
+      <c r="AE194" s="21"/>
+      <c r="AF194" s="89"/>
+    </row>
+    <row r="195" spans="20:32">
+      <c r="T195" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V195">
+        <f t="shared" si="101"/>
+        <v>3</v>
+      </c>
+      <c r="W195" s="138"/>
+      <c r="X195" s="193"/>
+      <c r="Y195" s="193"/>
+      <c r="Z195" s="193"/>
+      <c r="AA195" s="193"/>
+      <c r="AB195" s="183" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC195" s="21"/>
+      <c r="AD195" s="21"/>
+      <c r="AE195" s="21"/>
+      <c r="AF195" s="89"/>
+    </row>
+    <row r="196" spans="20:32">
+      <c r="T196" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V196">
+        <f t="shared" si="101"/>
+        <v>4</v>
+      </c>
+      <c r="W196" s="138"/>
+      <c r="X196" s="193"/>
+      <c r="Y196" s="193"/>
+      <c r="Z196" s="193"/>
+      <c r="AA196" s="193"/>
+      <c r="AB196" s="193"/>
+      <c r="AC196" s="193"/>
+      <c r="AD196" s="193"/>
+      <c r="AE196" s="193"/>
+      <c r="AF196" s="195"/>
+    </row>
+    <row r="197" spans="20:32">
+      <c r="T197" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V197">
+        <f t="shared" si="101"/>
+        <v>5</v>
+      </c>
+      <c r="W197" s="138"/>
+      <c r="X197" s="21"/>
+      <c r="Y197" s="21"/>
+      <c r="Z197" s="21"/>
+      <c r="AA197" s="21"/>
+      <c r="AB197" s="21"/>
+      <c r="AC197" s="21"/>
+      <c r="AD197" s="21"/>
+      <c r="AE197" s="21"/>
+      <c r="AF197" s="89"/>
+    </row>
+    <row r="198" spans="20:32">
+      <c r="T198" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V198">
+        <f t="shared" si="101"/>
+        <v>6</v>
+      </c>
+      <c r="W198" s="138"/>
+      <c r="X198" s="21"/>
+      <c r="Y198" s="21"/>
+      <c r="Z198" s="21"/>
+      <c r="AA198" s="21"/>
+      <c r="AB198" s="21"/>
+      <c r="AC198" s="21"/>
+      <c r="AD198" s="74"/>
+      <c r="AE198" s="21"/>
+      <c r="AF198" s="89"/>
+    </row>
+    <row r="199" spans="20:32">
+      <c r="T199" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V199">
+        <f t="shared" si="101"/>
+        <v>7</v>
+      </c>
+      <c r="W199" s="138"/>
+      <c r="X199" s="21"/>
+      <c r="Y199" s="21"/>
+      <c r="Z199" s="21"/>
+      <c r="AA199" s="21"/>
+      <c r="AB199" s="21"/>
+      <c r="AC199" s="21"/>
+      <c r="AD199" s="21"/>
+      <c r="AE199" s="21"/>
+      <c r="AF199" s="89"/>
+    </row>
+    <row r="200" spans="20:32">
+      <c r="T200" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V200">
+        <f t="shared" si="101"/>
+        <v>8</v>
+      </c>
+      <c r="W200" s="138"/>
+      <c r="X200" s="21"/>
+      <c r="Y200" s="21"/>
+      <c r="Z200" s="21"/>
+      <c r="AA200" s="21"/>
+      <c r="AB200" s="21"/>
+      <c r="AC200" s="21"/>
+      <c r="AD200" s="21"/>
+      <c r="AE200" s="21"/>
+      <c r="AF200" s="89"/>
+    </row>
+    <row r="201" spans="20:32">
+      <c r="V201">
+        <f t="shared" si="101"/>
+        <v>9</v>
+      </c>
+      <c r="W201" s="200"/>
+      <c r="X201" s="2"/>
+      <c r="Y201" s="2"/>
+      <c r="Z201" s="2"/>
+      <c r="AA201" s="2"/>
+      <c r="AB201" s="2"/>
+      <c r="AC201" s="2"/>
+      <c r="AD201" s="2"/>
+      <c r="AE201" s="2"/>
+      <c r="AF201" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Snake/Documents/Helper.xlsx
+++ b/Snake/Documents/Helper.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Visual Studio Projects\Visual Studio 2019\Projetcs\Snake\Snake\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F614F2-0AB0-41D8-B86D-09C2F6101166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E75729-50B3-4A3B-BA2D-DD6D46989D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="3" r:id="rId1"/>
-    <sheet name="B" sheetId="7" r:id="rId2"/>
-    <sheet name="FindNextFreePosition" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="Chart1" sheetId="8" r:id="rId2"/>
+    <sheet name="B" sheetId="7" r:id="rId3"/>
+    <sheet name="FindNextFreePosition" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="235">
   <si>
     <t>Hoehe</t>
   </si>
@@ -590,12 +591,214 @@
   <si>
     <t>n</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Snakehead</t>
+  </si>
+  <si>
+    <t>Snaketail</t>
+  </si>
+  <si>
+    <t>Shortcut path</t>
+  </si>
+  <si>
+    <t>Snakebody</t>
+  </si>
+  <si>
+    <t>Step n</t>
+  </si>
+  <si>
+    <t>Step n + 1</t>
+  </si>
+  <si>
+    <t>Step n + 2</t>
+  </si>
+  <si>
+    <t>Tail bewegt sich nicht da ein apfel gegessen wurde</t>
+  </si>
+  <si>
+    <t>und daher die Schlange ein Element länger wurde</t>
+  </si>
+  <si>
+    <t>Start situation</t>
+  </si>
+  <si>
+    <t>Moved Up, from {4; 4} to {4; 3}</t>
+  </si>
+  <si>
+    <t>Moved Right, from {1; 1} to {2; 1}</t>
+  </si>
+  <si>
+    <t>Step n + 3</t>
+  </si>
+  <si>
+    <t>Step n + 3 would be:</t>
+  </si>
+  <si>
+    <t>Regarding the games rules is this move not possible</t>
+  </si>
+  <si>
+    <t>Moved Up, from {4; 3} to {4; 2}</t>
+  </si>
+  <si>
+    <t>Step n + 2:</t>
+  </si>
+  <si>
+    <t>Snakes length increased by one.</t>
+  </si>
+  <si>
+    <t>because the apple was eaten.</t>
+  </si>
+  <si>
+    <t>Does not moved at all,</t>
+  </si>
+  <si>
+    <t>because the head woud be placed in the snakebody.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It can be tryed to generate an abbreviation </t>
+  </si>
+  <si>
+    <t>because all snake parts are in the regular</t>
+  </si>
+  <si>
+    <t>Hamiltonian Cycle and in the correct order.</t>
+  </si>
+  <si>
+    <t>be cause not all parts</t>
+  </si>
+  <si>
+    <t>are "inline"</t>
+  </si>
+  <si>
+    <t>(Here: Snakes tail)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calc no short cut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All parts are "inline" -&gt; try to </t>
+  </si>
+  <si>
+    <t>caly a shortcut.</t>
+  </si>
+  <si>
+    <t>Step n + 4</t>
+  </si>
+  <si>
+    <t>No step, just visualizing the situaton:</t>
+  </si>
+  <si>
+    <t>This is the generated abbreviation.</t>
+  </si>
+  <si>
+    <t>Moved Right, from {1; 2} to {1; 1}</t>
+  </si>
+  <si>
+    <t>Moved Up, from {4; 4} to {3; 4}</t>
+  </si>
+  <si>
+    <t>Moved Up, from {3; 4} to {3; 3}</t>
+  </si>
+  <si>
+    <t>Step n + 5 would be:</t>
+  </si>
+  <si>
+    <t>Situation:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be tryed to generate an</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">abbreviation because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all snake parts</t>
+    </r>
+  </si>
+  <si>
+    <t>It should be tryed to generate an</t>
+  </si>
+  <si>
+    <t>abbreviation because all snake parts</t>
+  </si>
+  <si>
+    <t>Moved Right, from {1; 1 to {2; 1}</t>
+  </si>
+  <si>
+    <t>Moved Up, from {3; 3} to {3; 2}</t>
+  </si>
+  <si>
+    <t>Regarding the games rules is this move</t>
+  </si>
+  <si>
+    <t>not possible because the head woud be</t>
+  </si>
+  <si>
+    <t>placed in the snakebody.</t>
+  </si>
+  <si>
+    <t>are in the regular Hamiltonian Cycle and</t>
+  </si>
+  <si>
+    <t>in the correct order.</t>
+  </si>
+  <si>
+    <t>im the correct order.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +862,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,6 +965,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1583,12 +1800,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1604,6 +1815,47 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1627,7 +1879,810 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="288775600"/>
+        <c:axId val="288778552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="288775600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288778552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="288778552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288775600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{110F6F37-B7BA-4F50-8451-86236596712F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="16286574" cy="10642130"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A9058B-6379-4D6B-A1BB-A6841662842B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2041,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C1CA8-4445-4A42-837E-08649278B969}">
   <dimension ref="A8:BS193"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="F182" sqref="D180:F182"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="AG175" sqref="AG175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -9720,8 +10775,7 @@
       </c>
       <c r="L175" s="21"/>
       <c r="M175" s="97">
-        <f>M172+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N175" s="105" t="s">
         <v>17</v>
@@ -10272,10 +11326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C7CDE-FA09-4542-9DD9-60A1EEECAB2D}">
-  <dimension ref="A2:AX201"/>
+  <dimension ref="A2:BV343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="AM196" sqref="AM196"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="L287" sqref="L287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -15808,7 +16862,7 @@
     </row>
     <row r="159" spans="5:42">
       <c r="F159">
-        <f t="shared" ref="F159:F164" si="61">F158+1</f>
+        <f t="shared" ref="F159:F163" si="61">F158+1</f>
         <v>1</v>
       </c>
       <c r="G159" s="20">
@@ -15970,16 +17024,16 @@
       <c r="V163">
         <v>0</v>
       </c>
-      <c r="W163" s="196"/>
-      <c r="X163" s="192"/>
-      <c r="Y163" s="192"/>
-      <c r="Z163" s="192"/>
-      <c r="AA163" s="192"/>
-      <c r="AB163" s="192"/>
-      <c r="AC163" s="192"/>
-      <c r="AD163" s="192"/>
-      <c r="AE163" s="192"/>
-      <c r="AF163" s="194"/>
+      <c r="W163" s="194"/>
+      <c r="X163" s="190"/>
+      <c r="Y163" s="190"/>
+      <c r="Z163" s="190"/>
+      <c r="AA163" s="190"/>
+      <c r="AB163" s="190"/>
+      <c r="AC163" s="190"/>
+      <c r="AD163" s="190"/>
+      <c r="AE163" s="190"/>
+      <c r="AF163" s="192"/>
     </row>
     <row r="164" spans="6:38">
       <c r="T164" s="16" t="s">
@@ -15989,16 +17043,16 @@
         <f t="shared" ref="V164:V172" si="71">V163+1</f>
         <v>1</v>
       </c>
-      <c r="W164" s="197"/>
-      <c r="X164" s="193"/>
-      <c r="Y164" s="193"/>
-      <c r="Z164" s="193"/>
-      <c r="AA164" s="193"/>
-      <c r="AB164" s="193"/>
-      <c r="AC164" s="193"/>
-      <c r="AD164" s="193"/>
-      <c r="AE164" s="193"/>
-      <c r="AF164" s="195"/>
+      <c r="W164" s="195"/>
+      <c r="X164" s="191"/>
+      <c r="Y164" s="191"/>
+      <c r="Z164" s="191"/>
+      <c r="AA164" s="191"/>
+      <c r="AB164" s="191"/>
+      <c r="AC164" s="191"/>
+      <c r="AD164" s="191"/>
+      <c r="AE164" s="191"/>
+      <c r="AF164" s="193"/>
     </row>
     <row r="165" spans="6:38">
       <c r="T165" s="19" t="s">
@@ -16008,11 +17062,11 @@
         <f t="shared" si="71"/>
         <v>2</v>
       </c>
-      <c r="W165" s="197"/>
-      <c r="X165" s="193"/>
-      <c r="Y165" s="193"/>
-      <c r="Z165" s="193"/>
-      <c r="AA165" s="193"/>
+      <c r="W165" s="195"/>
+      <c r="X165" s="191"/>
+      <c r="Y165" s="191"/>
+      <c r="Z165" s="191"/>
+      <c r="AA165" s="191"/>
       <c r="AB165" s="37">
         <v>1</v>
       </c>
@@ -16029,7 +17083,7 @@
         <f t="shared" si="71"/>
         <v>3</v>
       </c>
-      <c r="W166" s="197"/>
+      <c r="W166" s="195"/>
       <c r="X166" s="16" t="s">
         <v>17</v>
       </c>
@@ -16067,16 +17121,16 @@
         <f t="shared" si="71"/>
         <v>4</v>
       </c>
-      <c r="W167" s="197"/>
+      <c r="W167" s="195"/>
       <c r="X167" s="17"/>
-      <c r="Y167" s="187"/>
-      <c r="Z167" s="188"/>
-      <c r="AA167" s="188"/>
-      <c r="AB167" s="188"/>
-      <c r="AC167" s="188"/>
-      <c r="AD167" s="188"/>
-      <c r="AE167" s="188"/>
-      <c r="AF167" s="189"/>
+      <c r="Y167" s="185"/>
+      <c r="Z167" s="186"/>
+      <c r="AA167" s="186"/>
+      <c r="AB167" s="186"/>
+      <c r="AC167" s="186"/>
+      <c r="AD167" s="186"/>
+      <c r="AE167" s="186"/>
+      <c r="AF167" s="187"/>
       <c r="AJ167" t="s">
         <v>173</v>
       </c>
@@ -16089,7 +17143,7 @@
         <f t="shared" si="71"/>
         <v>5</v>
       </c>
-      <c r="W168" s="197"/>
+      <c r="W168" s="195"/>
       <c r="X168" s="17"/>
       <c r="Y168" s="20"/>
       <c r="Z168" s="21"/>
@@ -16098,7 +17152,7 @@
       <c r="AC168" s="21"/>
       <c r="AD168" s="21"/>
       <c r="AE168" s="21"/>
-      <c r="AF168" s="190"/>
+      <c r="AF168" s="188"/>
       <c r="AK168" t="s">
         <v>174</v>
       </c>
@@ -16111,7 +17165,7 @@
         <f t="shared" si="71"/>
         <v>6</v>
       </c>
-      <c r="W169" s="197"/>
+      <c r="W169" s="195"/>
       <c r="X169" s="17"/>
       <c r="Y169" s="20"/>
       <c r="Z169" s="21"/>
@@ -16120,7 +17174,7 @@
       <c r="AC169" s="21"/>
       <c r="AD169" s="21"/>
       <c r="AE169" s="21"/>
-      <c r="AF169" s="190"/>
+      <c r="AF169" s="188"/>
     </row>
     <row r="170" spans="6:38">
       <c r="T170" s="16" t="s">
@@ -16130,7 +17184,7 @@
         <f t="shared" si="71"/>
         <v>7</v>
       </c>
-      <c r="W170" s="197"/>
+      <c r="W170" s="195"/>
       <c r="X170" s="17"/>
       <c r="Y170" s="20"/>
       <c r="Z170" s="21"/>
@@ -16139,7 +17193,7 @@
       <c r="AC170" s="21"/>
       <c r="AD170" s="21"/>
       <c r="AE170" s="21"/>
-      <c r="AF170" s="190"/>
+      <c r="AF170" s="188"/>
     </row>
     <row r="171" spans="6:38" ht="15" thickBot="1">
       <c r="T171" s="19" t="s">
@@ -16149,7 +17203,7 @@
         <f t="shared" si="71"/>
         <v>8</v>
       </c>
-      <c r="W171" s="197"/>
+      <c r="W171" s="195"/>
       <c r="X171" s="17"/>
       <c r="Y171" s="22"/>
       <c r="Z171" s="23"/>
@@ -16158,7 +17212,7 @@
       <c r="AC171" s="23"/>
       <c r="AD171" s="23"/>
       <c r="AE171" s="23"/>
-      <c r="AF171" s="191"/>
+      <c r="AF171" s="189"/>
       <c r="AL171" t="s">
         <v>176</v>
       </c>
@@ -16168,15 +17222,15 @@
         <f t="shared" si="71"/>
         <v>9</v>
       </c>
-      <c r="W172" s="198"/>
-      <c r="X172" s="199"/>
-      <c r="Y172" s="199"/>
-      <c r="Z172" s="199"/>
-      <c r="AA172" s="199"/>
-      <c r="AB172" s="199"/>
-      <c r="AC172" s="199"/>
-      <c r="AD172" s="199"/>
-      <c r="AE172" s="199"/>
+      <c r="W172" s="196"/>
+      <c r="X172" s="197"/>
+      <c r="Y172" s="197"/>
+      <c r="Z172" s="197"/>
+      <c r="AA172" s="197"/>
+      <c r="AB172" s="197"/>
+      <c r="AC172" s="197"/>
+      <c r="AD172" s="197"/>
+      <c r="AE172" s="197"/>
       <c r="AF172" s="183" t="s">
         <v>164</v>
       </c>
@@ -16283,20 +17337,20 @@
       <c r="V179">
         <v>0</v>
       </c>
-      <c r="W179" s="196"/>
-      <c r="X179" s="192"/>
-      <c r="Y179" s="192"/>
-      <c r="Z179" s="192"/>
-      <c r="AA179" s="192"/>
-      <c r="AB179" s="192"/>
-      <c r="AC179" s="192"/>
-      <c r="AD179" s="192"/>
-      <c r="AE179" s="192"/>
-      <c r="AF179" s="194"/>
+      <c r="W179" s="202"/>
+      <c r="X179" s="204"/>
+      <c r="Y179" s="204"/>
+      <c r="Z179" s="204"/>
+      <c r="AA179" s="204"/>
+      <c r="AB179" s="204"/>
+      <c r="AC179" s="204"/>
+      <c r="AD179" s="204"/>
+      <c r="AE179" s="204"/>
+      <c r="AF179" s="205"/>
       <c r="AK179">
         <v>0</v>
       </c>
-      <c r="AL179" s="201"/>
+      <c r="AL179" s="199"/>
       <c r="AM179" s="121"/>
       <c r="AN179" s="122"/>
       <c r="AO179" s="122"/>
@@ -16315,16 +17369,16 @@
         <f t="shared" ref="V180:V188" si="90">V179+1</f>
         <v>1</v>
       </c>
-      <c r="W180" s="197"/>
-      <c r="X180" s="193"/>
-      <c r="Y180" s="193"/>
-      <c r="Z180" s="193"/>
-      <c r="AA180" s="193"/>
-      <c r="AB180" s="193"/>
-      <c r="AC180" s="193"/>
-      <c r="AD180" s="193"/>
-      <c r="AE180" s="193"/>
-      <c r="AF180" s="195"/>
+      <c r="W180" s="203"/>
+      <c r="X180" s="206"/>
+      <c r="Y180" s="206"/>
+      <c r="Z180" s="206"/>
+      <c r="AA180" s="206"/>
+      <c r="AB180" s="206"/>
+      <c r="AC180" s="206"/>
+      <c r="AD180" s="206"/>
+      <c r="AE180" s="206"/>
+      <c r="AF180" s="207"/>
       <c r="AK180">
         <f t="shared" ref="AK180:AK188" si="91">AK179+1</f>
         <v>1</v>
@@ -16343,7 +17397,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="20:50" ht="15" thickBot="1">
+    <row r="181" spans="20:50">
       <c r="T181" s="19" t="s">
         <v>16</v>
       </c>
@@ -16351,7 +17405,7 @@
         <f t="shared" si="90"/>
         <v>2</v>
       </c>
-      <c r="W181" s="197"/>
+      <c r="W181" s="203"/>
       <c r="X181" s="19" t="s">
         <v>16</v>
       </c>
@@ -16399,16 +17453,16 @@
         <f t="shared" si="90"/>
         <v>3</v>
       </c>
-      <c r="W182" s="197"/>
-      <c r="X182" s="17"/>
-      <c r="Y182" s="187"/>
-      <c r="Z182" s="188"/>
-      <c r="AA182" s="188"/>
-      <c r="AB182" s="188"/>
-      <c r="AC182" s="188"/>
-      <c r="AD182" s="188"/>
-      <c r="AE182" s="188"/>
-      <c r="AF182" s="189"/>
+      <c r="W182" s="203"/>
+      <c r="X182" s="21"/>
+      <c r="Y182" s="208"/>
+      <c r="Z182" s="208"/>
+      <c r="AA182" s="208"/>
+      <c r="AB182" s="208"/>
+      <c r="AC182" s="208"/>
+      <c r="AD182" s="208"/>
+      <c r="AE182" s="208"/>
+      <c r="AF182" s="210"/>
       <c r="AK182">
         <f t="shared" si="91"/>
         <v>3</v>
@@ -16435,9 +17489,16 @@
         <f t="shared" si="90"/>
         <v>4</v>
       </c>
-      <c r="W183" s="197"/>
-      <c r="X183" s="17"/>
-      <c r="AF183" s="190"/>
+      <c r="W183" s="203"/>
+      <c r="X183" s="21"/>
+      <c r="Y183" s="209"/>
+      <c r="Z183" s="209"/>
+      <c r="AA183" s="209"/>
+      <c r="AB183" s="209"/>
+      <c r="AC183" s="209"/>
+      <c r="AD183" s="209"/>
+      <c r="AE183" s="209"/>
+      <c r="AF183" s="210"/>
       <c r="AK183">
         <f t="shared" si="91"/>
         <v>4</v>
@@ -16461,16 +17522,16 @@
         <f t="shared" si="90"/>
         <v>5</v>
       </c>
-      <c r="W184" s="197"/>
-      <c r="X184" s="17"/>
-      <c r="Y184" s="20"/>
-      <c r="Z184" s="21"/>
-      <c r="AA184" s="21"/>
-      <c r="AB184" s="21"/>
-      <c r="AC184" s="21"/>
-      <c r="AD184" s="21"/>
-      <c r="AE184" s="21"/>
-      <c r="AF184" s="190"/>
+      <c r="W184" s="203"/>
+      <c r="X184" s="21"/>
+      <c r="Y184" s="209"/>
+      <c r="Z184" s="209"/>
+      <c r="AA184" s="209"/>
+      <c r="AB184" s="209"/>
+      <c r="AC184" s="209"/>
+      <c r="AD184" s="209"/>
+      <c r="AE184" s="209"/>
+      <c r="AF184" s="210"/>
       <c r="AK184">
         <f t="shared" si="91"/>
         <v>5</v>
@@ -16494,16 +17555,16 @@
         <f t="shared" si="90"/>
         <v>6</v>
       </c>
-      <c r="W185" s="197"/>
-      <c r="X185" s="17"/>
-      <c r="Y185" s="20"/>
-      <c r="Z185" s="21"/>
-      <c r="AA185" s="21"/>
-      <c r="AB185" s="21"/>
-      <c r="AC185" s="21"/>
-      <c r="AD185" s="21"/>
-      <c r="AE185" s="21"/>
-      <c r="AF185" s="190"/>
+      <c r="W185" s="203"/>
+      <c r="X185" s="21"/>
+      <c r="Y185" s="209"/>
+      <c r="Z185" s="209"/>
+      <c r="AA185" s="209"/>
+      <c r="AB185" s="209"/>
+      <c r="AC185" s="209"/>
+      <c r="AD185" s="209"/>
+      <c r="AE185" s="209"/>
+      <c r="AF185" s="210"/>
       <c r="AK185">
         <f t="shared" si="91"/>
         <v>6</v>
@@ -16527,16 +17588,16 @@
         <f t="shared" si="90"/>
         <v>7</v>
       </c>
-      <c r="W186" s="197"/>
-      <c r="X186" s="17"/>
-      <c r="Y186" s="20"/>
-      <c r="Z186" s="21"/>
-      <c r="AA186" s="21"/>
-      <c r="AB186" s="21"/>
-      <c r="AC186" s="21"/>
-      <c r="AD186" s="21"/>
-      <c r="AE186" s="21"/>
-      <c r="AF186" s="190"/>
+      <c r="W186" s="203"/>
+      <c r="X186" s="21"/>
+      <c r="Y186" s="209"/>
+      <c r="Z186" s="209"/>
+      <c r="AA186" s="209"/>
+      <c r="AB186" s="209"/>
+      <c r="AC186" s="209"/>
+      <c r="AD186" s="209"/>
+      <c r="AE186" s="209"/>
+      <c r="AF186" s="210"/>
       <c r="AK186">
         <f t="shared" si="91"/>
         <v>7</v>
@@ -16552,7 +17613,7 @@
       <c r="AT186" s="21"/>
       <c r="AU186" s="17"/>
     </row>
-    <row r="187" spans="20:50" ht="15" thickBot="1">
+    <row r="187" spans="20:50">
       <c r="T187" s="19" t="s">
         <v>16</v>
       </c>
@@ -16560,16 +17621,16 @@
         <f t="shared" si="90"/>
         <v>8</v>
       </c>
-      <c r="W187" s="197"/>
-      <c r="X187" s="17"/>
-      <c r="Y187" s="22"/>
-      <c r="Z187" s="23"/>
-      <c r="AA187" s="23"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="23"/>
-      <c r="AD187" s="23"/>
-      <c r="AE187" s="23"/>
-      <c r="AF187" s="191"/>
+      <c r="W187" s="203"/>
+      <c r="X187" s="21"/>
+      <c r="Y187" s="209"/>
+      <c r="Z187" s="209"/>
+      <c r="AA187" s="209"/>
+      <c r="AB187" s="209"/>
+      <c r="AC187" s="209"/>
+      <c r="AD187" s="209"/>
+      <c r="AE187" s="209"/>
+      <c r="AF187" s="210"/>
       <c r="AK187">
         <f t="shared" si="91"/>
         <v>8</v>
@@ -16590,16 +17651,16 @@
         <f t="shared" si="90"/>
         <v>9</v>
       </c>
-      <c r="W188" s="198"/>
-      <c r="X188" s="199"/>
-      <c r="Y188" s="199"/>
-      <c r="Z188" s="199"/>
-      <c r="AA188" s="199"/>
-      <c r="AB188" s="199"/>
-      <c r="AC188" s="199"/>
-      <c r="AD188" s="199"/>
-      <c r="AE188" s="199"/>
-      <c r="AF188" s="183" t="s">
+      <c r="W188" s="200"/>
+      <c r="X188" s="201"/>
+      <c r="Y188" s="201"/>
+      <c r="Z188" s="201"/>
+      <c r="AA188" s="201"/>
+      <c r="AB188" s="201"/>
+      <c r="AC188" s="201"/>
+      <c r="AD188" s="201"/>
+      <c r="AE188" s="211"/>
+      <c r="AF188" s="212" t="s">
         <v>164</v>
       </c>
       <c r="AK188">
@@ -16673,7 +17734,7 @@
       <c r="AE192" s="109"/>
       <c r="AF192" s="110"/>
     </row>
-    <row r="193" spans="20:32">
+    <row r="193" spans="3:32">
       <c r="T193" s="16" t="s">
         <v>17</v>
       </c>
@@ -16692,7 +17753,7 @@
       <c r="AE193" s="21"/>
       <c r="AF193" s="89"/>
     </row>
-    <row r="194" spans="20:32">
+    <row r="194" spans="3:32">
       <c r="T194" s="19" t="s">
         <v>16</v>
       </c>
@@ -16711,7 +17772,7 @@
       <c r="AE194" s="21"/>
       <c r="AF194" s="89"/>
     </row>
-    <row r="195" spans="20:32">
+    <row r="195" spans="3:32">
       <c r="T195" s="16" t="s">
         <v>17</v>
       </c>
@@ -16720,10 +17781,10 @@
         <v>3</v>
       </c>
       <c r="W195" s="138"/>
-      <c r="X195" s="193"/>
-      <c r="Y195" s="193"/>
-      <c r="Z195" s="193"/>
-      <c r="AA195" s="193"/>
+      <c r="X195" s="191"/>
+      <c r="Y195" s="191"/>
+      <c r="Z195" s="191"/>
+      <c r="AA195" s="191"/>
       <c r="AB195" s="183" t="s">
         <v>164</v>
       </c>
@@ -16732,7 +17793,7 @@
       <c r="AE195" s="21"/>
       <c r="AF195" s="89"/>
     </row>
-    <row r="196" spans="20:32">
+    <row r="196" spans="3:32">
       <c r="T196" s="19" t="s">
         <v>16</v>
       </c>
@@ -16741,17 +17802,17 @@
         <v>4</v>
       </c>
       <c r="W196" s="138"/>
-      <c r="X196" s="193"/>
-      <c r="Y196" s="193"/>
-      <c r="Z196" s="193"/>
-      <c r="AA196" s="193"/>
-      <c r="AB196" s="193"/>
-      <c r="AC196" s="193"/>
-      <c r="AD196" s="193"/>
-      <c r="AE196" s="193"/>
-      <c r="AF196" s="195"/>
-    </row>
-    <row r="197" spans="20:32">
+      <c r="X196" s="191"/>
+      <c r="Y196" s="191"/>
+      <c r="Z196" s="191"/>
+      <c r="AA196" s="191"/>
+      <c r="AB196" s="191"/>
+      <c r="AC196" s="191"/>
+      <c r="AD196" s="191"/>
+      <c r="AE196" s="191"/>
+      <c r="AF196" s="193"/>
+    </row>
+    <row r="197" spans="3:32">
       <c r="T197" s="16" t="s">
         <v>17</v>
       </c>
@@ -16770,7 +17831,7 @@
       <c r="AE197" s="21"/>
       <c r="AF197" s="89"/>
     </row>
-    <row r="198" spans="20:32">
+    <row r="198" spans="3:32">
       <c r="T198" s="19" t="s">
         <v>16</v>
       </c>
@@ -16789,7 +17850,7 @@
       <c r="AE198" s="21"/>
       <c r="AF198" s="89"/>
     </row>
-    <row r="199" spans="20:32">
+    <row r="199" spans="3:32">
       <c r="T199" s="16" t="s">
         <v>17</v>
       </c>
@@ -16808,7 +17869,7 @@
       <c r="AE199" s="21"/>
       <c r="AF199" s="89"/>
     </row>
-    <row r="200" spans="20:32">
+    <row r="200" spans="3:32">
       <c r="T200" s="19" t="s">
         <v>16</v>
       </c>
@@ -16827,12 +17888,12 @@
       <c r="AE200" s="21"/>
       <c r="AF200" s="89"/>
     </row>
-    <row r="201" spans="20:32">
+    <row r="201" spans="3:32">
       <c r="V201">
         <f t="shared" si="101"/>
         <v>9</v>
       </c>
-      <c r="W201" s="200"/>
+      <c r="W201" s="198"/>
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
@@ -16842,6 +17903,6659 @@
       <c r="AD201" s="2"/>
       <c r="AE201" s="2"/>
       <c r="AF201" s="113"/>
+    </row>
+    <row r="206" spans="3:32" ht="15" thickBot="1"/>
+    <row r="207" spans="3:32">
+      <c r="C207" s="121"/>
+      <c r="D207" s="122"/>
+      <c r="E207" s="122"/>
+      <c r="F207" s="122"/>
+      <c r="G207" s="122"/>
+      <c r="H207" s="122"/>
+      <c r="I207" s="122"/>
+      <c r="J207" s="122"/>
+      <c r="K207" s="122"/>
+      <c r="L207" s="122"/>
+      <c r="M207" s="122"/>
+      <c r="N207" s="122"/>
+      <c r="O207" s="122"/>
+      <c r="P207" s="122"/>
+      <c r="Q207" s="122"/>
+      <c r="R207" s="13"/>
+    </row>
+    <row r="208" spans="3:32">
+      <c r="C208" s="20"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+      <c r="J208" s="21"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="M208" s="21"/>
+      <c r="N208" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O208" s="21"/>
+      <c r="P208" s="21"/>
+      <c r="Q208" s="21"/>
+      <c r="R208" s="17"/>
+    </row>
+    <row r="209" spans="3:34">
+      <c r="C209" s="20"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="206"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="21"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="21"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="21"/>
+      <c r="O209" s="21"/>
+      <c r="P209" s="21"/>
+      <c r="Q209" s="21"/>
+      <c r="R209" s="17"/>
+    </row>
+    <row r="210" spans="3:34">
+      <c r="C210" s="20"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
+      <c r="J210" s="21"/>
+      <c r="K210" s="21"/>
+      <c r="L210" s="215"/>
+      <c r="M210" s="21"/>
+      <c r="N210" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O210" s="21"/>
+      <c r="P210" s="21"/>
+      <c r="Q210" s="21"/>
+      <c r="R210" s="17"/>
+    </row>
+    <row r="211" spans="3:34">
+      <c r="C211" s="20"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
+      <c r="J211" s="21"/>
+      <c r="K211" s="21"/>
+      <c r="L211" s="21"/>
+      <c r="M211" s="21"/>
+      <c r="N211" s="21"/>
+      <c r="O211" s="21"/>
+      <c r="P211" s="21"/>
+      <c r="Q211" s="21"/>
+      <c r="R211" s="17"/>
+    </row>
+    <row r="212" spans="3:34">
+      <c r="C212" s="20"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
+      <c r="J212" s="21"/>
+      <c r="K212" s="21"/>
+      <c r="L212" s="21"/>
+      <c r="M212" s="21"/>
+      <c r="N212" s="21"/>
+      <c r="O212" s="21"/>
+      <c r="P212" s="21"/>
+      <c r="Q212" s="21"/>
+      <c r="R212" s="17"/>
+    </row>
+    <row r="213" spans="3:34" ht="15" thickBot="1">
+      <c r="C213" s="20"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="21"/>
+      <c r="G213" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H213" s="21"/>
+      <c r="I213" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J213" s="21"/>
+      <c r="K213" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L213" s="21"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="21"/>
+      <c r="O213" s="21"/>
+      <c r="P213" s="21"/>
+      <c r="Q213" s="21"/>
+      <c r="R213" s="17"/>
+    </row>
+    <row r="214" spans="3:34">
+      <c r="C214" s="20"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="21"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="21"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="21"/>
+      <c r="O214" s="21"/>
+      <c r="P214" s="21"/>
+      <c r="Q214" s="21"/>
+      <c r="R214" s="17"/>
+      <c r="U214" s="121"/>
+      <c r="V214" s="122"/>
+      <c r="W214" s="122"/>
+      <c r="X214" s="122"/>
+      <c r="Y214" s="122"/>
+      <c r="Z214" s="122"/>
+      <c r="AA214" s="122"/>
+      <c r="AB214" s="122"/>
+      <c r="AC214" s="122"/>
+      <c r="AD214" s="122"/>
+      <c r="AE214" s="122"/>
+      <c r="AF214" s="122"/>
+      <c r="AG214" s="122"/>
+      <c r="AH214" s="13"/>
+    </row>
+    <row r="215" spans="3:34">
+      <c r="C215" s="20"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="2">
+        <v>0</v>
+      </c>
+      <c r="G215" s="2">
+        <f t="shared" ref="G215" si="102">F215+1</f>
+        <v>1</v>
+      </c>
+      <c r="H215" s="2">
+        <f t="shared" ref="H215" si="103">G215+1</f>
+        <v>2</v>
+      </c>
+      <c r="I215" s="2">
+        <f t="shared" ref="I215" si="104">H215+1</f>
+        <v>3</v>
+      </c>
+      <c r="J215" s="2">
+        <f t="shared" ref="J215" si="105">I215+1</f>
+        <v>4</v>
+      </c>
+      <c r="K215" s="2">
+        <f t="shared" ref="K215" si="106">J215+1</f>
+        <v>5</v>
+      </c>
+      <c r="L215" s="2">
+        <f t="shared" ref="L215" si="107">K215+1</f>
+        <v>6</v>
+      </c>
+      <c r="M215" s="2">
+        <f t="shared" ref="M215" si="108">L215+1</f>
+        <v>7</v>
+      </c>
+      <c r="N215" s="2">
+        <f t="shared" ref="N215" si="109">M215+1</f>
+        <v>8</v>
+      </c>
+      <c r="O215" s="2">
+        <f t="shared" ref="O215" si="110">N215+1</f>
+        <v>9</v>
+      </c>
+      <c r="P215" s="21"/>
+      <c r="Q215" s="21"/>
+      <c r="R215" s="17"/>
+      <c r="U215" s="20"/>
+      <c r="V215" s="21"/>
+      <c r="W215" s="2">
+        <v>0</v>
+      </c>
+      <c r="X215" s="2">
+        <f t="shared" ref="X215" si="111">W215+1</f>
+        <v>1</v>
+      </c>
+      <c r="Y215" s="2">
+        <f t="shared" ref="Y215" si="112">X215+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z215" s="2">
+        <f t="shared" ref="Z215" si="113">Y215+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA215" s="2">
+        <f t="shared" ref="AA215" si="114">Z215+1</f>
+        <v>4</v>
+      </c>
+      <c r="AB215" s="2">
+        <f t="shared" ref="AB215" si="115">AA215+1</f>
+        <v>5</v>
+      </c>
+      <c r="AC215" s="2">
+        <f t="shared" ref="AC215" si="116">AB215+1</f>
+        <v>6</v>
+      </c>
+      <c r="AD215" s="2">
+        <f t="shared" ref="AD215" si="117">AC215+1</f>
+        <v>7</v>
+      </c>
+      <c r="AE215" s="2">
+        <f t="shared" ref="AE215" si="118">AD215+1</f>
+        <v>8</v>
+      </c>
+      <c r="AF215" s="2">
+        <f t="shared" ref="AF215" si="119">AE215+1</f>
+        <v>9</v>
+      </c>
+      <c r="AG215" s="21"/>
+      <c r="AH215" s="17"/>
+    </row>
+    <row r="216" spans="3:34">
+      <c r="C216" s="20"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="21">
+        <v>0</v>
+      </c>
+      <c r="F216" s="202"/>
+      <c r="G216" s="217"/>
+      <c r="H216" s="204"/>
+      <c r="I216" s="204"/>
+      <c r="J216" s="204"/>
+      <c r="K216" s="204"/>
+      <c r="L216" s="204"/>
+      <c r="M216" s="204"/>
+      <c r="N216" s="204"/>
+      <c r="O216" s="205"/>
+      <c r="P216" s="21"/>
+      <c r="Q216" s="21"/>
+      <c r="R216" s="17"/>
+      <c r="U216" s="20"/>
+      <c r="V216" s="21">
+        <v>0</v>
+      </c>
+      <c r="W216" s="202"/>
+      <c r="X216" s="217"/>
+      <c r="Y216" s="204"/>
+      <c r="Z216" s="204"/>
+      <c r="AA216" s="204"/>
+      <c r="AB216" s="204"/>
+      <c r="AC216" s="204"/>
+      <c r="AD216" s="204"/>
+      <c r="AE216" s="204"/>
+      <c r="AF216" s="205"/>
+      <c r="AG216" s="21"/>
+      <c r="AH216" s="17"/>
+    </row>
+    <row r="217" spans="3:34">
+      <c r="C217" s="20"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21">
+        <f t="shared" ref="E217:E225" si="120">E216+1</f>
+        <v>1</v>
+      </c>
+      <c r="F217" s="203"/>
+      <c r="G217" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I217" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K217" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L217" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="M217" s="206"/>
+      <c r="N217" s="206"/>
+      <c r="O217" s="207"/>
+      <c r="P217" s="21"/>
+      <c r="Q217" s="21"/>
+      <c r="R217" s="17"/>
+      <c r="U217" s="20"/>
+      <c r="V217" s="21">
+        <f t="shared" ref="V217:V225" si="121">V216+1</f>
+        <v>1</v>
+      </c>
+      <c r="W217" s="203"/>
+      <c r="X217" s="209"/>
+      <c r="Y217" s="209"/>
+      <c r="Z217" s="209"/>
+      <c r="AA217" s="208"/>
+      <c r="AB217" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC217" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD217" s="206"/>
+      <c r="AE217" s="206"/>
+      <c r="AF217" s="207"/>
+      <c r="AG217" s="21"/>
+      <c r="AH217" s="17"/>
+    </row>
+    <row r="218" spans="3:34">
+      <c r="C218" s="20"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21">
+        <f t="shared" si="120"/>
+        <v>2</v>
+      </c>
+      <c r="F218" s="203"/>
+      <c r="G218" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J218" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="K218" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L218" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M218" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N218" s="208"/>
+      <c r="O218" s="89"/>
+      <c r="P218" s="21"/>
+      <c r="Q218" s="21"/>
+      <c r="R218" s="17"/>
+      <c r="U218" s="20"/>
+      <c r="V218" s="21">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+      <c r="W218" s="203"/>
+      <c r="X218" s="209"/>
+      <c r="Y218" s="209"/>
+      <c r="Z218" s="209"/>
+      <c r="AA218" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB218" s="209"/>
+      <c r="AC218" s="209"/>
+      <c r="AD218" s="209"/>
+      <c r="AE218" s="209"/>
+      <c r="AF218" s="89"/>
+      <c r="AG218" s="21"/>
+      <c r="AH218" s="17"/>
+    </row>
+    <row r="219" spans="3:34">
+      <c r="C219" s="20"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21">
+        <f t="shared" si="120"/>
+        <v>3</v>
+      </c>
+      <c r="F219" s="203"/>
+      <c r="G219" s="81"/>
+      <c r="J219" s="209"/>
+      <c r="K219" s="209"/>
+      <c r="L219" s="209"/>
+      <c r="M219" s="209"/>
+      <c r="N219" s="208"/>
+      <c r="O219" s="89"/>
+      <c r="P219" s="21"/>
+      <c r="Q219" s="21"/>
+      <c r="R219" s="17"/>
+      <c r="U219" s="20"/>
+      <c r="V219" s="21">
+        <f t="shared" si="121"/>
+        <v>3</v>
+      </c>
+      <c r="W219" s="203"/>
+      <c r="X219" s="81"/>
+      <c r="Y219" s="21"/>
+      <c r="Z219" s="21"/>
+      <c r="AA219" s="208"/>
+      <c r="AB219" s="208"/>
+      <c r="AC219" s="208"/>
+      <c r="AD219" s="208"/>
+      <c r="AE219" s="208"/>
+      <c r="AF219" s="89"/>
+      <c r="AG219" s="21"/>
+      <c r="AH219" s="17"/>
+    </row>
+    <row r="220" spans="3:34">
+      <c r="C220" s="20"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21">
+        <f t="shared" si="120"/>
+        <v>4</v>
+      </c>
+      <c r="F220" s="203"/>
+      <c r="G220" s="81"/>
+      <c r="H220" s="209"/>
+      <c r="I220" s="209"/>
+      <c r="J220" s="209"/>
+      <c r="K220" s="209"/>
+      <c r="M220" s="209"/>
+      <c r="N220" s="208"/>
+      <c r="O220" s="89"/>
+      <c r="P220" s="21"/>
+      <c r="Q220" s="21"/>
+      <c r="R220" s="17"/>
+      <c r="U220" s="20"/>
+      <c r="V220" s="21">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
+      <c r="W220" s="203"/>
+      <c r="X220" s="81"/>
+      <c r="Y220" s="209"/>
+      <c r="Z220" s="209"/>
+      <c r="AA220" s="209"/>
+      <c r="AB220" s="209"/>
+      <c r="AC220" s="21"/>
+      <c r="AD220" s="209"/>
+      <c r="AE220" s="208"/>
+      <c r="AF220" s="89"/>
+      <c r="AG220" s="21"/>
+      <c r="AH220" s="17"/>
+    </row>
+    <row r="221" spans="3:34">
+      <c r="C221" s="20"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21">
+        <f t="shared" si="120"/>
+        <v>5</v>
+      </c>
+      <c r="F221" s="203"/>
+      <c r="G221" s="81"/>
+      <c r="H221" s="209"/>
+      <c r="I221" s="209"/>
+      <c r="J221" s="209"/>
+      <c r="K221" s="209"/>
+      <c r="M221" s="209"/>
+      <c r="N221" s="208"/>
+      <c r="O221" s="89"/>
+      <c r="P221" s="21"/>
+      <c r="Q221" s="21"/>
+      <c r="R221" s="17"/>
+      <c r="U221" s="20"/>
+      <c r="V221" s="21">
+        <f t="shared" si="121"/>
+        <v>5</v>
+      </c>
+      <c r="W221" s="203"/>
+      <c r="X221" s="81"/>
+      <c r="Y221" s="209"/>
+      <c r="Z221" s="209"/>
+      <c r="AA221" s="209"/>
+      <c r="AB221" s="209"/>
+      <c r="AC221" s="21"/>
+      <c r="AD221" s="209"/>
+      <c r="AE221" s="208"/>
+      <c r="AF221" s="89"/>
+      <c r="AG221" s="21"/>
+      <c r="AH221" s="17"/>
+    </row>
+    <row r="222" spans="3:34">
+      <c r="C222" s="20"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21">
+        <f t="shared" si="120"/>
+        <v>6</v>
+      </c>
+      <c r="F222" s="203"/>
+      <c r="G222" s="81"/>
+      <c r="H222" s="209"/>
+      <c r="I222" s="209"/>
+      <c r="J222" s="209"/>
+      <c r="K222" s="209"/>
+      <c r="M222" s="209"/>
+      <c r="N222" s="208"/>
+      <c r="O222" s="89"/>
+      <c r="P222" s="21"/>
+      <c r="Q222" s="21"/>
+      <c r="R222" s="17"/>
+      <c r="U222" s="20"/>
+      <c r="V222" s="21">
+        <f t="shared" si="121"/>
+        <v>6</v>
+      </c>
+      <c r="W222" s="203"/>
+      <c r="X222" s="81"/>
+      <c r="Y222" s="209"/>
+      <c r="Z222" s="209"/>
+      <c r="AA222" s="209"/>
+      <c r="AB222" s="209"/>
+      <c r="AC222" s="21"/>
+      <c r="AD222" s="209"/>
+      <c r="AE222" s="208"/>
+      <c r="AF222" s="89"/>
+      <c r="AG222" s="21"/>
+      <c r="AH222" s="17"/>
+    </row>
+    <row r="223" spans="3:34">
+      <c r="C223" s="20"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21">
+        <f t="shared" si="120"/>
+        <v>7</v>
+      </c>
+      <c r="F223" s="203"/>
+      <c r="G223" s="81"/>
+      <c r="H223" s="209"/>
+      <c r="I223" s="209"/>
+      <c r="J223" s="209"/>
+      <c r="K223" s="209"/>
+      <c r="M223" s="209"/>
+      <c r="N223" s="208"/>
+      <c r="O223" s="89"/>
+      <c r="P223" s="21"/>
+      <c r="Q223" s="21"/>
+      <c r="R223" s="17"/>
+      <c r="U223" s="20"/>
+      <c r="V223" s="21">
+        <f t="shared" si="121"/>
+        <v>7</v>
+      </c>
+      <c r="W223" s="203"/>
+      <c r="X223" s="81"/>
+      <c r="Y223" s="209"/>
+      <c r="Z223" s="209"/>
+      <c r="AA223" s="209"/>
+      <c r="AB223" s="209"/>
+      <c r="AC223" s="21"/>
+      <c r="AD223" s="209"/>
+      <c r="AE223" s="208"/>
+      <c r="AF223" s="89"/>
+      <c r="AG223" s="21"/>
+      <c r="AH223" s="17"/>
+    </row>
+    <row r="224" spans="3:34">
+      <c r="C224" s="20"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21">
+        <f t="shared" si="120"/>
+        <v>8</v>
+      </c>
+      <c r="F224" s="203"/>
+      <c r="G224" s="81"/>
+      <c r="H224" s="209"/>
+      <c r="I224" s="209"/>
+      <c r="J224" s="209"/>
+      <c r="K224" s="209"/>
+      <c r="M224" s="209"/>
+      <c r="N224" s="208"/>
+      <c r="O224" s="89"/>
+      <c r="P224" s="21"/>
+      <c r="Q224" s="21"/>
+      <c r="R224" s="17"/>
+      <c r="U224" s="20"/>
+      <c r="V224" s="21">
+        <f t="shared" si="121"/>
+        <v>8</v>
+      </c>
+      <c r="W224" s="203"/>
+      <c r="X224" s="81"/>
+      <c r="Y224" s="209"/>
+      <c r="Z224" s="209"/>
+      <c r="AA224" s="209"/>
+      <c r="AB224" s="209"/>
+      <c r="AC224" s="21"/>
+      <c r="AD224" s="209"/>
+      <c r="AE224" s="208"/>
+      <c r="AF224" s="89"/>
+      <c r="AG224" s="21"/>
+      <c r="AH224" s="17"/>
+    </row>
+    <row r="225" spans="3:60">
+      <c r="C225" s="20"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="F225" s="200"/>
+      <c r="G225" s="220"/>
+      <c r="H225" s="201"/>
+      <c r="I225" s="201"/>
+      <c r="J225" s="201"/>
+      <c r="K225" s="201"/>
+      <c r="L225" s="201"/>
+      <c r="M225" s="201"/>
+      <c r="N225" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="O225" s="113"/>
+      <c r="P225" s="21"/>
+      <c r="Q225" s="21"/>
+      <c r="R225" s="17"/>
+      <c r="U225" s="20"/>
+      <c r="V225" s="21">
+        <f t="shared" si="121"/>
+        <v>9</v>
+      </c>
+      <c r="W225" s="200"/>
+      <c r="X225" s="220"/>
+      <c r="Y225" s="201"/>
+      <c r="Z225" s="201"/>
+      <c r="AA225" s="201"/>
+      <c r="AB225" s="201"/>
+      <c r="AC225" s="201"/>
+      <c r="AD225" s="201"/>
+      <c r="AE225" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF225" s="113"/>
+      <c r="AG225" s="21"/>
+      <c r="AH225" s="17"/>
+    </row>
+    <row r="226" spans="3:60" ht="15" thickBot="1">
+      <c r="C226" s="22"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23"/>
+      <c r="G226" s="23"/>
+      <c r="H226" s="23"/>
+      <c r="I226" s="23"/>
+      <c r="J226" s="23"/>
+      <c r="K226" s="23"/>
+      <c r="L226" s="23"/>
+      <c r="M226" s="23"/>
+      <c r="N226" s="23"/>
+      <c r="O226" s="23"/>
+      <c r="P226" s="23"/>
+      <c r="Q226" s="23"/>
+      <c r="R226" s="24"/>
+      <c r="U226" s="22"/>
+      <c r="V226" s="23"/>
+      <c r="W226" s="23"/>
+      <c r="X226" s="23"/>
+      <c r="Y226" s="23"/>
+      <c r="Z226" s="23"/>
+      <c r="AA226" s="23"/>
+      <c r="AB226" s="23"/>
+      <c r="AC226" s="23"/>
+      <c r="AD226" s="23"/>
+      <c r="AE226" s="23"/>
+      <c r="AF226" s="23"/>
+      <c r="AG226" s="23"/>
+      <c r="AH226" s="24"/>
+    </row>
+    <row r="228" spans="3:60" ht="15" thickBot="1"/>
+    <row r="229" spans="3:60">
+      <c r="R229" s="121"/>
+      <c r="S229" s="122"/>
+      <c r="T229" s="122"/>
+      <c r="U229" s="122"/>
+      <c r="V229" s="122"/>
+      <c r="W229" s="122"/>
+      <c r="X229" s="122"/>
+      <c r="Y229" s="122"/>
+      <c r="Z229" s="122"/>
+      <c r="AA229" s="122"/>
+      <c r="AB229" s="122"/>
+      <c r="AC229" s="122"/>
+      <c r="AD229" s="13"/>
+      <c r="AF229" s="121"/>
+      <c r="AG229" s="122"/>
+      <c r="AH229" s="122"/>
+      <c r="AI229" s="122"/>
+      <c r="AJ229" s="122"/>
+      <c r="AK229" s="122"/>
+      <c r="AL229" s="122"/>
+      <c r="AM229" s="122"/>
+      <c r="AN229" s="122"/>
+      <c r="AO229" s="122"/>
+      <c r="AP229" s="122"/>
+      <c r="AQ229" s="122"/>
+      <c r="AR229" s="122"/>
+      <c r="AS229" s="122"/>
+      <c r="AT229" s="122"/>
+      <c r="AU229" s="122"/>
+      <c r="AV229" s="122"/>
+      <c r="AW229" s="122"/>
+      <c r="AX229" s="122"/>
+      <c r="AY229" s="122"/>
+      <c r="AZ229" s="122"/>
+      <c r="BA229" s="122"/>
+      <c r="BB229" s="122"/>
+      <c r="BC229" s="122"/>
+      <c r="BD229" s="122"/>
+      <c r="BE229" s="122"/>
+      <c r="BF229" s="122"/>
+      <c r="BG229" s="122"/>
+      <c r="BH229" s="13"/>
+    </row>
+    <row r="230" spans="3:60">
+      <c r="D230" s="21"/>
+      <c r="E230" s="2">
+        <v>0</v>
+      </c>
+      <c r="F230" s="2">
+        <f t="shared" ref="F230" si="122">E230+1</f>
+        <v>1</v>
+      </c>
+      <c r="G230" s="2">
+        <f t="shared" ref="G230" si="123">F230+1</f>
+        <v>2</v>
+      </c>
+      <c r="H230" s="2">
+        <f t="shared" ref="H230" si="124">G230+1</f>
+        <v>3</v>
+      </c>
+      <c r="I230" s="2">
+        <f t="shared" ref="I230" si="125">H230+1</f>
+        <v>4</v>
+      </c>
+      <c r="J230" s="2">
+        <f t="shared" ref="J230" si="126">I230+1</f>
+        <v>5</v>
+      </c>
+      <c r="K230" s="2">
+        <f t="shared" ref="K230" si="127">J230+1</f>
+        <v>6</v>
+      </c>
+      <c r="L230" s="2">
+        <f t="shared" ref="L230" si="128">K230+1</f>
+        <v>7</v>
+      </c>
+      <c r="M230" s="2">
+        <f t="shared" ref="M230" si="129">L230+1</f>
+        <v>8</v>
+      </c>
+      <c r="N230" s="2">
+        <f t="shared" ref="N230" si="130">M230+1</f>
+        <v>9</v>
+      </c>
+      <c r="R230" s="20"/>
+      <c r="S230" s="21"/>
+      <c r="T230" s="2">
+        <v>0</v>
+      </c>
+      <c r="U230" s="2">
+        <f t="shared" ref="U230" si="131">T230+1</f>
+        <v>1</v>
+      </c>
+      <c r="V230" s="2">
+        <f t="shared" ref="V230" si="132">U230+1</f>
+        <v>2</v>
+      </c>
+      <c r="W230" s="2">
+        <f t="shared" ref="W230" si="133">V230+1</f>
+        <v>3</v>
+      </c>
+      <c r="X230" s="2">
+        <f t="shared" ref="X230" si="134">W230+1</f>
+        <v>4</v>
+      </c>
+      <c r="Y230" s="2">
+        <f t="shared" ref="Y230" si="135">X230+1</f>
+        <v>5</v>
+      </c>
+      <c r="Z230" s="2">
+        <f t="shared" ref="Z230" si="136">Y230+1</f>
+        <v>6</v>
+      </c>
+      <c r="AA230" s="2">
+        <f t="shared" ref="AA230" si="137">Z230+1</f>
+        <v>7</v>
+      </c>
+      <c r="AB230" s="2">
+        <f t="shared" ref="AB230" si="138">AA230+1</f>
+        <v>8</v>
+      </c>
+      <c r="AC230" s="2">
+        <f t="shared" ref="AC230" si="139">AB230+1</f>
+        <v>9</v>
+      </c>
+      <c r="AD230" s="17"/>
+      <c r="AF230" s="20"/>
+      <c r="AG230" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH230" s="21"/>
+      <c r="AI230" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ230" s="21"/>
+      <c r="AK230" s="21"/>
+      <c r="AL230" s="21"/>
+      <c r="AM230" s="21"/>
+      <c r="AN230" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO230" s="21"/>
+      <c r="AP230" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ230" s="21"/>
+      <c r="AR230" s="21"/>
+      <c r="AS230" s="21"/>
+      <c r="AT230" s="21"/>
+      <c r="AU230" s="21"/>
+      <c r="AV230" s="21"/>
+      <c r="AW230" s="21"/>
+      <c r="AX230" s="21"/>
+      <c r="AY230" s="21"/>
+      <c r="AZ230" s="21"/>
+      <c r="BA230" s="21"/>
+      <c r="BB230" s="21"/>
+      <c r="BC230" s="21"/>
+      <c r="BD230" s="21"/>
+      <c r="BE230" s="21"/>
+      <c r="BF230" s="21"/>
+      <c r="BG230" s="21"/>
+      <c r="BH230" s="17"/>
+    </row>
+    <row r="231" spans="3:60">
+      <c r="D231" s="21">
+        <v>0</v>
+      </c>
+      <c r="E231" s="202"/>
+      <c r="F231" s="217"/>
+      <c r="G231" s="204"/>
+      <c r="H231" s="204"/>
+      <c r="I231" s="204"/>
+      <c r="J231" s="204"/>
+      <c r="K231" s="204"/>
+      <c r="L231" s="204"/>
+      <c r="M231" s="204"/>
+      <c r="N231" s="205"/>
+      <c r="R231" s="20"/>
+      <c r="S231" s="21">
+        <v>0</v>
+      </c>
+      <c r="T231" s="202"/>
+      <c r="U231" s="217"/>
+      <c r="V231" s="204"/>
+      <c r="W231" s="204"/>
+      <c r="X231" s="204"/>
+      <c r="Y231" s="204"/>
+      <c r="Z231" s="204"/>
+      <c r="AA231" s="204"/>
+      <c r="AB231" s="204"/>
+      <c r="AC231" s="205"/>
+      <c r="AD231" s="17"/>
+      <c r="AF231" s="20"/>
+      <c r="AG231" s="206"/>
+      <c r="AH231" s="21"/>
+      <c r="AI231" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ231" s="21"/>
+      <c r="AK231" s="21"/>
+      <c r="AL231" s="21"/>
+      <c r="AM231" s="21"/>
+      <c r="AN231" s="21"/>
+      <c r="AO231" s="21"/>
+      <c r="AP231" s="21"/>
+      <c r="AQ231" s="21"/>
+      <c r="AR231" s="21"/>
+      <c r="AS231" s="21"/>
+      <c r="AT231" s="21"/>
+      <c r="AU231" s="21"/>
+      <c r="AV231" s="21"/>
+      <c r="AW231" s="21"/>
+      <c r="AX231" s="21"/>
+      <c r="AY231" s="21"/>
+      <c r="AZ231" s="21"/>
+      <c r="BA231" s="21"/>
+      <c r="BB231" s="21"/>
+      <c r="BC231" s="21"/>
+      <c r="BD231" s="21"/>
+      <c r="BE231" s="21"/>
+      <c r="BF231" s="21"/>
+      <c r="BG231" s="21"/>
+      <c r="BH231" s="17"/>
+    </row>
+    <row r="232" spans="3:60">
+      <c r="D232" s="21">
+        <f t="shared" ref="D232:D240" si="140">D231+1</f>
+        <v>1</v>
+      </c>
+      <c r="E232" s="203"/>
+      <c r="F232" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G232" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="H232" s="206"/>
+      <c r="I232" s="206"/>
+      <c r="J232" s="206"/>
+      <c r="K232" s="206"/>
+      <c r="L232" s="206"/>
+      <c r="M232" s="206"/>
+      <c r="N232" s="207"/>
+      <c r="R232" s="20"/>
+      <c r="S232" s="21">
+        <f t="shared" ref="S232:S240" si="141">S231+1</f>
+        <v>1</v>
+      </c>
+      <c r="T232" s="203"/>
+      <c r="U232" s="209"/>
+      <c r="V232" s="209"/>
+      <c r="W232" s="209"/>
+      <c r="X232" s="208"/>
+      <c r="Y232" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z232" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA232" s="206"/>
+      <c r="AB232" s="206"/>
+      <c r="AC232" s="207"/>
+      <c r="AD232" s="17"/>
+      <c r="AF232" s="20"/>
+      <c r="AG232" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH232" s="21"/>
+      <c r="AI232" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ232" s="21"/>
+      <c r="AK232" s="21"/>
+      <c r="AL232" s="21"/>
+      <c r="AM232" s="21"/>
+      <c r="AN232" s="215"/>
+      <c r="AO232" s="21"/>
+      <c r="AP232" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ232" s="21"/>
+      <c r="AR232" s="21"/>
+      <c r="AS232" s="21"/>
+      <c r="AT232" s="21"/>
+      <c r="AU232" s="21"/>
+      <c r="AV232" s="21"/>
+      <c r="AW232" s="21"/>
+      <c r="AX232" s="21"/>
+      <c r="AY232" s="21"/>
+      <c r="AZ232" s="21"/>
+      <c r="BA232" s="21"/>
+      <c r="BB232" s="21"/>
+      <c r="BC232" s="21"/>
+      <c r="BD232" s="21"/>
+      <c r="BE232" s="21"/>
+      <c r="BF232" s="21"/>
+      <c r="BG232" s="21"/>
+      <c r="BH232" s="17"/>
+    </row>
+    <row r="233" spans="3:60">
+      <c r="D233" s="21">
+        <f t="shared" si="140"/>
+        <v>2</v>
+      </c>
+      <c r="E233" s="203"/>
+      <c r="F233" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="J233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M233" s="208"/>
+      <c r="N233" s="89"/>
+      <c r="R233" s="20"/>
+      <c r="S233" s="21">
+        <f t="shared" si="141"/>
+        <v>2</v>
+      </c>
+      <c r="T233" s="203"/>
+      <c r="U233" s="209"/>
+      <c r="V233" s="209"/>
+      <c r="W233" s="209"/>
+      <c r="X233" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y233" s="209"/>
+      <c r="Z233" s="209"/>
+      <c r="AA233" s="209"/>
+      <c r="AB233" s="209"/>
+      <c r="AC233" s="89"/>
+      <c r="AD233" s="17"/>
+      <c r="AF233" s="20"/>
+      <c r="AG233" s="21"/>
+      <c r="AH233" s="21"/>
+      <c r="AI233" s="21"/>
+      <c r="AJ233" s="21"/>
+      <c r="AK233" s="21"/>
+      <c r="AL233" s="21"/>
+      <c r="AM233" s="21"/>
+      <c r="AN233" s="21"/>
+      <c r="AO233" s="21"/>
+      <c r="AP233" s="21"/>
+      <c r="AQ233" s="21"/>
+      <c r="AR233" s="21"/>
+      <c r="AS233" s="21"/>
+      <c r="AT233" s="21"/>
+      <c r="AU233" s="21"/>
+      <c r="AV233" s="21"/>
+      <c r="AW233" s="21"/>
+      <c r="AX233" s="21"/>
+      <c r="AY233" s="21"/>
+      <c r="AZ233" s="21"/>
+      <c r="BA233" s="21"/>
+      <c r="BB233" s="21"/>
+      <c r="BC233" s="21"/>
+      <c r="BD233" s="21"/>
+      <c r="BE233" s="21"/>
+      <c r="BF233" s="21"/>
+      <c r="BG233" s="21"/>
+      <c r="BH233" s="17"/>
+    </row>
+    <row r="234" spans="3:60">
+      <c r="D234" s="21">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+      <c r="E234" s="203"/>
+      <c r="F234" s="81"/>
+      <c r="I234" s="209"/>
+      <c r="J234" s="209"/>
+      <c r="K234" s="209"/>
+      <c r="L234" s="209"/>
+      <c r="M234" s="208"/>
+      <c r="N234" s="89"/>
+      <c r="R234" s="20"/>
+      <c r="S234" s="21">
+        <f t="shared" si="141"/>
+        <v>3</v>
+      </c>
+      <c r="T234" s="203"/>
+      <c r="U234" s="81"/>
+      <c r="V234" s="21"/>
+      <c r="W234" s="21"/>
+      <c r="X234" s="208"/>
+      <c r="Y234" s="208"/>
+      <c r="Z234" s="208"/>
+      <c r="AA234" s="208"/>
+      <c r="AB234" s="208"/>
+      <c r="AC234" s="89"/>
+      <c r="AD234" s="17"/>
+      <c r="AF234" s="20"/>
+      <c r="AG234" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH234" s="21"/>
+      <c r="AI234" s="21"/>
+      <c r="AJ234" s="21"/>
+      <c r="AK234" s="21"/>
+      <c r="AL234" s="21"/>
+      <c r="AM234" s="21"/>
+      <c r="AN234" s="21"/>
+      <c r="AO234" s="21"/>
+      <c r="AP234" s="21"/>
+      <c r="AQ234" s="21"/>
+      <c r="AR234" s="21"/>
+      <c r="AS234" s="21"/>
+      <c r="AT234" s="21"/>
+      <c r="AU234" s="21"/>
+      <c r="AV234" s="21"/>
+      <c r="AW234" s="21"/>
+      <c r="AX234" s="21"/>
+      <c r="AY234" s="21"/>
+      <c r="AZ234" s="21"/>
+      <c r="BA234" s="21"/>
+      <c r="BB234" s="21"/>
+      <c r="BC234" s="21"/>
+      <c r="BD234" s="21"/>
+      <c r="BE234" s="21"/>
+      <c r="BF234" s="21"/>
+      <c r="BG234" s="21"/>
+      <c r="BH234" s="17"/>
+    </row>
+    <row r="235" spans="3:60">
+      <c r="D235" s="21">
+        <f t="shared" si="140"/>
+        <v>4</v>
+      </c>
+      <c r="E235" s="203"/>
+      <c r="F235" s="81"/>
+      <c r="G235" s="209"/>
+      <c r="H235" s="209"/>
+      <c r="I235" s="209"/>
+      <c r="J235" s="209"/>
+      <c r="L235" s="209"/>
+      <c r="M235" s="208"/>
+      <c r="N235" s="89"/>
+      <c r="R235" s="20"/>
+      <c r="S235" s="21">
+        <f t="shared" si="141"/>
+        <v>4</v>
+      </c>
+      <c r="T235" s="203"/>
+      <c r="U235" s="81"/>
+      <c r="V235" s="209"/>
+      <c r="W235" s="209"/>
+      <c r="X235" s="209"/>
+      <c r="Y235" s="209"/>
+      <c r="Z235" s="21"/>
+      <c r="AA235" s="209"/>
+      <c r="AB235" s="208"/>
+      <c r="AC235" s="89"/>
+      <c r="AD235" s="17"/>
+      <c r="AF235" s="20"/>
+      <c r="AG235" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH235" s="21"/>
+      <c r="AI235" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ235" s="21"/>
+      <c r="AK235" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL235" s="21"/>
+      <c r="AM235" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN235" s="21"/>
+      <c r="AO235" s="21"/>
+      <c r="AP235" s="21"/>
+      <c r="AQ235" s="21"/>
+      <c r="AR235" s="21"/>
+      <c r="AS235" s="21"/>
+      <c r="AT235" s="21"/>
+      <c r="AU235" s="21"/>
+      <c r="AV235" s="21"/>
+      <c r="AW235" s="21"/>
+      <c r="AX235" s="21"/>
+      <c r="AY235" s="21"/>
+      <c r="AZ235" s="21"/>
+      <c r="BA235" s="21"/>
+      <c r="BB235" s="21"/>
+      <c r="BC235" s="21"/>
+      <c r="BD235" s="21"/>
+      <c r="BE235" s="21"/>
+      <c r="BF235" s="21"/>
+      <c r="BG235" s="21"/>
+      <c r="BH235" s="17"/>
+    </row>
+    <row r="236" spans="3:60">
+      <c r="D236" s="21">
+        <f t="shared" si="140"/>
+        <v>5</v>
+      </c>
+      <c r="E236" s="203"/>
+      <c r="F236" s="81"/>
+      <c r="G236" s="209"/>
+      <c r="H236" s="209"/>
+      <c r="I236" s="209"/>
+      <c r="J236" s="209"/>
+      <c r="L236" s="209"/>
+      <c r="M236" s="208"/>
+      <c r="N236" s="89"/>
+      <c r="R236" s="20"/>
+      <c r="S236" s="21">
+        <f t="shared" si="141"/>
+        <v>5</v>
+      </c>
+      <c r="T236" s="203"/>
+      <c r="U236" s="81"/>
+      <c r="V236" s="209"/>
+      <c r="W236" s="209"/>
+      <c r="X236" s="209"/>
+      <c r="Y236" s="209"/>
+      <c r="Z236" s="21"/>
+      <c r="AA236" s="209"/>
+      <c r="AB236" s="208"/>
+      <c r="AC236" s="89"/>
+      <c r="AD236" s="17"/>
+      <c r="AF236" s="20"/>
+      <c r="AG236" s="21"/>
+      <c r="AH236" s="21"/>
+      <c r="AI236" s="21"/>
+      <c r="AJ236" s="21"/>
+      <c r="AK236" s="21"/>
+      <c r="AL236" s="21"/>
+      <c r="AM236" s="21"/>
+      <c r="AN236" s="21"/>
+      <c r="AO236" s="21"/>
+      <c r="AP236" s="21"/>
+      <c r="AQ236" s="21"/>
+      <c r="AR236" s="21"/>
+      <c r="AS236" s="21"/>
+      <c r="AT236" s="21"/>
+      <c r="AU236" s="21"/>
+      <c r="AV236" s="21"/>
+      <c r="AW236" s="21"/>
+      <c r="AX236" s="21"/>
+      <c r="AY236" s="21"/>
+      <c r="AZ236" s="21"/>
+      <c r="BA236" s="21"/>
+      <c r="BB236" s="21"/>
+      <c r="BC236" s="21"/>
+      <c r="BD236" s="21"/>
+      <c r="BE236" s="21"/>
+      <c r="BF236" s="21"/>
+      <c r="BG236" s="21"/>
+      <c r="BH236" s="17"/>
+    </row>
+    <row r="237" spans="3:60">
+      <c r="D237" s="21">
+        <f t="shared" si="140"/>
+        <v>6</v>
+      </c>
+      <c r="E237" s="203"/>
+      <c r="F237" s="81"/>
+      <c r="G237" s="209"/>
+      <c r="H237" s="209"/>
+      <c r="I237" s="209"/>
+      <c r="J237" s="209"/>
+      <c r="L237" s="209"/>
+      <c r="M237" s="208"/>
+      <c r="N237" s="89"/>
+      <c r="R237" s="20"/>
+      <c r="S237" s="21">
+        <f t="shared" si="141"/>
+        <v>6</v>
+      </c>
+      <c r="T237" s="203"/>
+      <c r="U237" s="81"/>
+      <c r="V237" s="209"/>
+      <c r="W237" s="209"/>
+      <c r="X237" s="209"/>
+      <c r="Y237" s="209"/>
+      <c r="Z237" s="21"/>
+      <c r="AA237" s="209"/>
+      <c r="AB237" s="208"/>
+      <c r="AC237" s="89"/>
+      <c r="AD237" s="17"/>
+      <c r="AF237" s="20"/>
+      <c r="AG237" s="21"/>
+      <c r="AH237" s="21"/>
+      <c r="AI237" s="21"/>
+      <c r="AJ237" s="21"/>
+      <c r="AK237" s="21"/>
+      <c r="AL237" s="21"/>
+      <c r="AM237" s="21"/>
+      <c r="AN237" s="21"/>
+      <c r="AO237" s="21"/>
+      <c r="AP237" s="21"/>
+      <c r="AQ237" s="21"/>
+      <c r="AR237" s="21"/>
+      <c r="AS237" s="21"/>
+      <c r="AT237" s="21"/>
+      <c r="AU237" s="21"/>
+      <c r="AV237" s="21"/>
+      <c r="AW237" s="21"/>
+      <c r="AX237" s="21"/>
+      <c r="AY237" s="21"/>
+      <c r="AZ237" s="21"/>
+      <c r="BA237" s="21"/>
+      <c r="BB237" s="21"/>
+      <c r="BC237" s="21"/>
+      <c r="BD237" s="21"/>
+      <c r="BE237" s="21"/>
+      <c r="BF237" s="21"/>
+      <c r="BG237" s="21"/>
+      <c r="BH237" s="17"/>
+    </row>
+    <row r="238" spans="3:60">
+      <c r="D238" s="21">
+        <f t="shared" si="140"/>
+        <v>7</v>
+      </c>
+      <c r="E238" s="203"/>
+      <c r="F238" s="81"/>
+      <c r="G238" s="209"/>
+      <c r="H238" s="209"/>
+      <c r="I238" s="209"/>
+      <c r="J238" s="209"/>
+      <c r="L238" s="209"/>
+      <c r="M238" s="208"/>
+      <c r="N238" s="89"/>
+      <c r="R238" s="20"/>
+      <c r="S238" s="21">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="T238" s="203"/>
+      <c r="U238" s="81"/>
+      <c r="V238" s="209"/>
+      <c r="W238" s="209"/>
+      <c r="X238" s="209"/>
+      <c r="Y238" s="209"/>
+      <c r="Z238" s="21"/>
+      <c r="AA238" s="209"/>
+      <c r="AB238" s="208"/>
+      <c r="AC238" s="89"/>
+      <c r="AD238" s="17"/>
+      <c r="AF238" s="20"/>
+      <c r="AG238" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH238" s="21"/>
+      <c r="AI238" s="21"/>
+      <c r="AJ238" s="21"/>
+      <c r="AK238" s="21"/>
+      <c r="AL238" s="21"/>
+      <c r="AM238" s="21"/>
+      <c r="AN238" s="21"/>
+      <c r="AO238" s="21"/>
+      <c r="AP238" s="21"/>
+      <c r="AQ238" s="21"/>
+      <c r="AR238" s="21"/>
+      <c r="AS238" s="21"/>
+      <c r="AT238" s="21"/>
+      <c r="AU238" s="21"/>
+      <c r="AV238" s="21"/>
+      <c r="AW238" s="21"/>
+      <c r="AX238" s="21"/>
+      <c r="AY238" s="21"/>
+      <c r="AZ238" s="21"/>
+      <c r="BA238" s="21"/>
+      <c r="BB238" s="21"/>
+      <c r="BC238" s="21"/>
+      <c r="BD238" s="21"/>
+      <c r="BE238" s="21"/>
+      <c r="BF238" s="21"/>
+      <c r="BG238" s="21"/>
+      <c r="BH238" s="17"/>
+    </row>
+    <row r="239" spans="3:60">
+      <c r="D239" s="21">
+        <f t="shared" si="140"/>
+        <v>8</v>
+      </c>
+      <c r="E239" s="203"/>
+      <c r="F239" s="81"/>
+      <c r="G239" s="209"/>
+      <c r="H239" s="209"/>
+      <c r="I239" s="209"/>
+      <c r="J239" s="209"/>
+      <c r="L239" s="209"/>
+      <c r="M239" s="208"/>
+      <c r="N239" s="89"/>
+      <c r="R239" s="20"/>
+      <c r="S239" s="21">
+        <f t="shared" si="141"/>
+        <v>8</v>
+      </c>
+      <c r="T239" s="203"/>
+      <c r="U239" s="81"/>
+      <c r="V239" s="209"/>
+      <c r="W239" s="209"/>
+      <c r="X239" s="209"/>
+      <c r="Y239" s="209"/>
+      <c r="Z239" s="21"/>
+      <c r="AA239" s="209"/>
+      <c r="AB239" s="208"/>
+      <c r="AC239" s="89"/>
+      <c r="AD239" s="17"/>
+      <c r="AF239" s="20"/>
+      <c r="AG239" s="21"/>
+      <c r="AH239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI239" s="2">
+        <f t="shared" ref="AI239" si="142">AH239+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ239" s="2">
+        <f t="shared" ref="AJ239" si="143">AI239+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK239" s="2">
+        <f t="shared" ref="AK239" si="144">AJ239+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL239" s="2">
+        <f t="shared" ref="AL239" si="145">AK239+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM239" s="2">
+        <f t="shared" ref="AM239" si="146">AL239+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN239" s="2">
+        <f t="shared" ref="AN239" si="147">AM239+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO239" s="2">
+        <f t="shared" ref="AO239" si="148">AN239+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP239" s="2">
+        <f t="shared" ref="AP239" si="149">AO239+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ239" s="2">
+        <f t="shared" ref="AQ239" si="150">AP239+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR239" s="21"/>
+      <c r="AS239" s="21"/>
+      <c r="AT239" s="21"/>
+      <c r="AU239" s="21"/>
+      <c r="AV239" s="21"/>
+      <c r="AW239" s="21"/>
+      <c r="AX239" s="21"/>
+      <c r="AY239" s="21"/>
+      <c r="AZ239" s="21"/>
+      <c r="BA239" s="21"/>
+      <c r="BB239" s="21"/>
+      <c r="BC239" s="21"/>
+      <c r="BD239" s="21"/>
+      <c r="BE239" s="21"/>
+      <c r="BF239" s="21"/>
+      <c r="BG239" s="21"/>
+      <c r="BH239" s="17"/>
+    </row>
+    <row r="240" spans="3:60">
+      <c r="D240" s="21">
+        <f t="shared" si="140"/>
+        <v>9</v>
+      </c>
+      <c r="E240" s="200"/>
+      <c r="F240" s="220"/>
+      <c r="G240" s="201"/>
+      <c r="H240" s="201"/>
+      <c r="I240" s="201"/>
+      <c r="J240" s="201"/>
+      <c r="K240" s="201"/>
+      <c r="L240" s="201"/>
+      <c r="M240" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="N240" s="113"/>
+      <c r="R240" s="20"/>
+      <c r="S240" s="21">
+        <f t="shared" si="141"/>
+        <v>9</v>
+      </c>
+      <c r="T240" s="200"/>
+      <c r="U240" s="220"/>
+      <c r="V240" s="201"/>
+      <c r="W240" s="201"/>
+      <c r="X240" s="201"/>
+      <c r="Y240" s="201"/>
+      <c r="Z240" s="201"/>
+      <c r="AA240" s="201"/>
+      <c r="AB240" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC240" s="113"/>
+      <c r="AD240" s="17"/>
+      <c r="AF240" s="20"/>
+      <c r="AG240" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH240" s="202"/>
+      <c r="AI240" s="217"/>
+      <c r="AJ240" s="204"/>
+      <c r="AK240" s="204"/>
+      <c r="AL240" s="204"/>
+      <c r="AM240" s="204"/>
+      <c r="AN240" s="204"/>
+      <c r="AO240" s="204"/>
+      <c r="AP240" s="204"/>
+      <c r="AQ240" s="205"/>
+      <c r="AR240" s="21"/>
+      <c r="AS240" s="21"/>
+      <c r="AT240" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU240" s="21"/>
+      <c r="AV240" s="21"/>
+      <c r="AW240" s="21"/>
+      <c r="AX240" s="21"/>
+      <c r="AY240" s="21"/>
+      <c r="AZ240" s="21"/>
+      <c r="BA240" s="21"/>
+      <c r="BB240" s="21"/>
+      <c r="BC240" s="21"/>
+      <c r="BD240" s="21"/>
+      <c r="BE240" s="21"/>
+      <c r="BF240" s="21"/>
+      <c r="BG240" s="21"/>
+      <c r="BH240" s="17"/>
+    </row>
+    <row r="241" spans="4:60">
+      <c r="R241" s="20"/>
+      <c r="S241" s="21"/>
+      <c r="T241" s="21"/>
+      <c r="U241" s="21"/>
+      <c r="V241" s="21"/>
+      <c r="W241" s="21"/>
+      <c r="X241" s="21"/>
+      <c r="Y241" s="21"/>
+      <c r="Z241" s="21"/>
+      <c r="AA241" s="21"/>
+      <c r="AB241" s="21"/>
+      <c r="AC241" s="21"/>
+      <c r="AD241" s="17"/>
+      <c r="AF241" s="20"/>
+      <c r="AG241" s="21">
+        <f t="shared" ref="AG241:AG245" si="151">AG240+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH241" s="203"/>
+      <c r="AI241" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ241" s="206"/>
+      <c r="AK241" s="206"/>
+      <c r="AL241" s="208"/>
+      <c r="AM241" s="206"/>
+      <c r="AN241" s="206"/>
+      <c r="AO241" s="206"/>
+      <c r="AP241" s="206"/>
+      <c r="AQ241" s="207"/>
+      <c r="AR241" s="21"/>
+      <c r="AS241" s="21"/>
+      <c r="AT241" s="21"/>
+      <c r="AU241" s="21"/>
+      <c r="AV241" s="21"/>
+      <c r="AW241" s="21"/>
+      <c r="AX241" s="21"/>
+      <c r="AY241" s="21"/>
+      <c r="AZ241" s="21"/>
+      <c r="BA241" s="21"/>
+      <c r="BB241" s="21"/>
+      <c r="BC241" s="21"/>
+      <c r="BD241" s="21"/>
+      <c r="BE241" s="21"/>
+      <c r="BF241" s="21"/>
+      <c r="BG241" s="21"/>
+      <c r="BH241" s="17"/>
+    </row>
+    <row r="242" spans="4:60" ht="15" thickBot="1">
+      <c r="R242" s="22"/>
+      <c r="S242" s="23"/>
+      <c r="T242" s="23"/>
+      <c r="U242" s="23"/>
+      <c r="V242" s="23"/>
+      <c r="W242" s="23"/>
+      <c r="X242" s="23"/>
+      <c r="Y242" s="23"/>
+      <c r="Z242" s="23"/>
+      <c r="AA242" s="23"/>
+      <c r="AB242" s="23"/>
+      <c r="AC242" s="23"/>
+      <c r="AD242" s="24"/>
+      <c r="AF242" s="20"/>
+      <c r="AG242" s="21">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+      <c r="AH242" s="203"/>
+      <c r="AI242" s="81"/>
+      <c r="AJ242" s="21"/>
+      <c r="AK242" s="21"/>
+      <c r="AL242" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM242" s="209"/>
+      <c r="AN242" s="209"/>
+      <c r="AO242" s="209"/>
+      <c r="AP242" s="209"/>
+      <c r="AQ242" s="89"/>
+      <c r="AR242" s="21"/>
+      <c r="AS242" s="21"/>
+      <c r="AT242" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX242" s="21"/>
+      <c r="AY242" s="21"/>
+      <c r="AZ242" s="21"/>
+      <c r="BA242" s="21"/>
+      <c r="BB242" s="21"/>
+      <c r="BC242" s="21"/>
+      <c r="BD242" s="21"/>
+      <c r="BE242" s="21"/>
+      <c r="BF242" s="21"/>
+      <c r="BG242" s="21"/>
+      <c r="BH242" s="17"/>
+    </row>
+    <row r="243" spans="4:60">
+      <c r="D243" s="21"/>
+      <c r="E243" s="2">
+        <v>0</v>
+      </c>
+      <c r="F243" s="2">
+        <f t="shared" ref="F243" si="152">E243+1</f>
+        <v>1</v>
+      </c>
+      <c r="G243" s="2">
+        <f t="shared" ref="G243" si="153">F243+1</f>
+        <v>2</v>
+      </c>
+      <c r="H243" s="2">
+        <f t="shared" ref="H243" si="154">G243+1</f>
+        <v>3</v>
+      </c>
+      <c r="I243" s="2">
+        <f t="shared" ref="I243" si="155">H243+1</f>
+        <v>4</v>
+      </c>
+      <c r="J243" s="2">
+        <f t="shared" ref="J243" si="156">I243+1</f>
+        <v>5</v>
+      </c>
+      <c r="K243" s="2">
+        <f t="shared" ref="K243" si="157">J243+1</f>
+        <v>6</v>
+      </c>
+      <c r="L243" s="2">
+        <f t="shared" ref="L243" si="158">K243+1</f>
+        <v>7</v>
+      </c>
+      <c r="M243" s="2">
+        <f t="shared" ref="M243" si="159">L243+1</f>
+        <v>8</v>
+      </c>
+      <c r="N243" s="2">
+        <f t="shared" ref="N243" si="160">M243+1</f>
+        <v>9</v>
+      </c>
+      <c r="AF243" s="20"/>
+      <c r="AG243" s="21">
+        <f t="shared" si="151"/>
+        <v>3</v>
+      </c>
+      <c r="AH243" s="203"/>
+      <c r="AI243" s="21"/>
+      <c r="AJ243" s="21"/>
+      <c r="AK243" s="21"/>
+      <c r="AL243" s="208"/>
+      <c r="AM243" s="209"/>
+      <c r="AN243" s="209"/>
+      <c r="AO243" s="209"/>
+      <c r="AP243" s="209"/>
+      <c r="AQ243" s="226"/>
+      <c r="AR243" s="21"/>
+      <c r="AS243" s="21"/>
+      <c r="AT243" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX243" s="21"/>
+      <c r="AY243" s="21"/>
+      <c r="AZ243" s="21"/>
+      <c r="BA243" s="21"/>
+      <c r="BB243" s="21"/>
+      <c r="BC243" s="21"/>
+      <c r="BD243" s="21"/>
+      <c r="BE243" s="21"/>
+      <c r="BF243" s="21"/>
+      <c r="BG243" s="21"/>
+      <c r="BH243" s="17"/>
+    </row>
+    <row r="244" spans="4:60">
+      <c r="D244" s="21">
+        <v>0</v>
+      </c>
+      <c r="E244" s="202"/>
+      <c r="F244" s="217"/>
+      <c r="G244" s="204"/>
+      <c r="H244" s="204"/>
+      <c r="I244" s="204"/>
+      <c r="J244" s="204"/>
+      <c r="K244" s="204"/>
+      <c r="L244" s="204"/>
+      <c r="M244" s="204"/>
+      <c r="N244" s="205"/>
+      <c r="AF244" s="20"/>
+      <c r="AG244" s="21">
+        <f t="shared" si="151"/>
+        <v>4</v>
+      </c>
+      <c r="AH244" s="203"/>
+      <c r="AI244" s="21"/>
+      <c r="AJ244" s="21"/>
+      <c r="AK244" s="21"/>
+      <c r="AL244" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM244" s="206"/>
+      <c r="AN244" s="206"/>
+      <c r="AO244" s="206"/>
+      <c r="AP244" s="206"/>
+      <c r="AQ244" s="207"/>
+      <c r="AR244" s="21"/>
+      <c r="AS244" s="21"/>
+      <c r="AT244" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU244" s="21"/>
+      <c r="AV244" s="21"/>
+      <c r="AW244" s="21"/>
+      <c r="AX244" s="21"/>
+      <c r="AY244" s="21"/>
+      <c r="AZ244" s="21"/>
+      <c r="BA244" s="21"/>
+      <c r="BB244" s="21"/>
+      <c r="BC244" s="21"/>
+      <c r="BD244" s="21"/>
+      <c r="BE244" s="21"/>
+      <c r="BF244" s="21"/>
+      <c r="BG244" s="21"/>
+      <c r="BH244" s="17"/>
+    </row>
+    <row r="245" spans="4:60">
+      <c r="D245" s="21">
+        <f t="shared" ref="D245:D253" si="161">D244+1</f>
+        <v>1</v>
+      </c>
+      <c r="E245" s="203"/>
+      <c r="F245" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G245" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="H245" s="206"/>
+      <c r="I245" s="206"/>
+      <c r="J245" s="206"/>
+      <c r="K245" s="206"/>
+      <c r="L245" s="206"/>
+      <c r="M245" s="206"/>
+      <c r="N245" s="207"/>
+      <c r="AF245" s="20"/>
+      <c r="AG245" s="21">
+        <f t="shared" si="151"/>
+        <v>5</v>
+      </c>
+      <c r="AH245" s="200"/>
+      <c r="AI245" s="220"/>
+      <c r="AJ245" s="201"/>
+      <c r="AK245" s="201"/>
+      <c r="AL245" s="201"/>
+      <c r="AM245" s="201"/>
+      <c r="AN245" s="201"/>
+      <c r="AO245" s="201"/>
+      <c r="AP245" s="201"/>
+      <c r="AQ245" s="224"/>
+      <c r="AR245" s="21"/>
+      <c r="AS245" s="21"/>
+      <c r="AU245" s="21"/>
+      <c r="AV245" s="21"/>
+      <c r="AW245" s="21"/>
+      <c r="AX245" s="21"/>
+      <c r="AY245" s="21"/>
+      <c r="AZ245" s="21"/>
+      <c r="BA245" s="21"/>
+      <c r="BB245" s="21"/>
+      <c r="BC245" s="21"/>
+      <c r="BD245" s="21"/>
+      <c r="BE245" s="21"/>
+      <c r="BF245" s="21"/>
+      <c r="BG245" s="21"/>
+      <c r="BH245" s="17"/>
+    </row>
+    <row r="246" spans="4:60">
+      <c r="D246" s="21">
+        <f t="shared" si="161"/>
+        <v>2</v>
+      </c>
+      <c r="E246" s="203"/>
+      <c r="F246" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="J246" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K246" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L246" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M246" s="208"/>
+      <c r="N246" s="89"/>
+      <c r="AF246" s="20"/>
+      <c r="AG246" s="21"/>
+      <c r="AH246" s="21"/>
+      <c r="AI246" s="21"/>
+      <c r="AJ246" s="21"/>
+      <c r="AK246" s="21"/>
+      <c r="AL246" s="21"/>
+      <c r="AM246" s="21"/>
+      <c r="AN246" s="21"/>
+      <c r="AO246" s="21"/>
+      <c r="AP246" s="21"/>
+      <c r="AQ246" s="21"/>
+      <c r="AR246" s="21"/>
+      <c r="AS246" s="21"/>
+      <c r="AT246" s="21"/>
+      <c r="AU246" s="21"/>
+      <c r="AV246" s="21"/>
+      <c r="AW246" s="21"/>
+      <c r="AX246" s="21"/>
+      <c r="AY246" s="21"/>
+      <c r="AZ246" s="21"/>
+      <c r="BA246" s="21"/>
+      <c r="BB246" s="21"/>
+      <c r="BC246" s="21"/>
+      <c r="BD246" s="21"/>
+      <c r="BE246" s="21"/>
+      <c r="BF246" s="21"/>
+      <c r="BG246" s="21"/>
+      <c r="BH246" s="17"/>
+    </row>
+    <row r="247" spans="4:60">
+      <c r="D247" s="21">
+        <f t="shared" si="161"/>
+        <v>3</v>
+      </c>
+      <c r="E247" s="203"/>
+      <c r="F247" s="81"/>
+      <c r="I247" s="209"/>
+      <c r="J247" s="209"/>
+      <c r="K247" s="209"/>
+      <c r="L247" s="209"/>
+      <c r="M247" s="208"/>
+      <c r="N247" s="89"/>
+      <c r="AF247" s="20"/>
+      <c r="AG247" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH247" s="21"/>
+      <c r="AI247" s="21"/>
+      <c r="AJ247" s="21"/>
+      <c r="AK247" s="21"/>
+      <c r="AL247" s="21"/>
+      <c r="AM247" s="21"/>
+      <c r="AN247" s="21"/>
+      <c r="AO247" s="21"/>
+      <c r="AP247" s="21"/>
+      <c r="AQ247" s="21"/>
+      <c r="AR247" s="21"/>
+      <c r="AS247" s="21"/>
+      <c r="AT247" s="21"/>
+      <c r="AU247" s="21"/>
+      <c r="AV247" s="21"/>
+      <c r="AW247" s="21"/>
+      <c r="AX247" s="21"/>
+      <c r="AY247" s="21"/>
+      <c r="AZ247" s="21"/>
+      <c r="BA247" s="21"/>
+      <c r="BB247" s="21"/>
+      <c r="BC247" s="21"/>
+      <c r="BD247" s="21"/>
+      <c r="BE247" s="21"/>
+      <c r="BF247" s="21"/>
+      <c r="BG247" s="21"/>
+      <c r="BH247" s="17"/>
+    </row>
+    <row r="248" spans="4:60">
+      <c r="D248" s="21">
+        <f t="shared" si="161"/>
+        <v>4</v>
+      </c>
+      <c r="E248" s="203"/>
+      <c r="F248" s="81"/>
+      <c r="G248" s="209"/>
+      <c r="H248" s="209"/>
+      <c r="I248" s="209"/>
+      <c r="J248" s="209"/>
+      <c r="L248" s="209"/>
+      <c r="M248" s="208"/>
+      <c r="N248" s="89"/>
+      <c r="AF248" s="20"/>
+      <c r="AG248" s="21"/>
+      <c r="AH248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI248" s="2">
+        <f t="shared" ref="AI248" si="162">AH248+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ248" s="2">
+        <f t="shared" ref="AJ248" si="163">AI248+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK248" s="2">
+        <f t="shared" ref="AK248" si="164">AJ248+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL248" s="2">
+        <f t="shared" ref="AL248" si="165">AK248+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM248" s="2">
+        <f t="shared" ref="AM248" si="166">AL248+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN248" s="2">
+        <f t="shared" ref="AN248" si="167">AM248+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO248" s="2">
+        <f t="shared" ref="AO248" si="168">AN248+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP248" s="2">
+        <f t="shared" ref="AP248" si="169">AO248+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ248" s="2">
+        <f t="shared" ref="AQ248" si="170">AP248+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR248" s="21"/>
+      <c r="AS248" s="21"/>
+      <c r="AT248" s="21"/>
+      <c r="AU248" s="21"/>
+      <c r="AV248" s="21"/>
+      <c r="AW248" s="21"/>
+      <c r="AX248" s="21"/>
+      <c r="AY248" s="21"/>
+      <c r="AZ248" s="21"/>
+      <c r="BA248" s="21"/>
+      <c r="BB248" s="21"/>
+      <c r="BC248" s="21"/>
+      <c r="BD248" s="21"/>
+      <c r="BE248" s="21"/>
+      <c r="BF248" s="21"/>
+      <c r="BG248" s="21"/>
+      <c r="BH248" s="17"/>
+    </row>
+    <row r="249" spans="4:60">
+      <c r="D249" s="21">
+        <f t="shared" si="161"/>
+        <v>5</v>
+      </c>
+      <c r="E249" s="203"/>
+      <c r="F249" s="81"/>
+      <c r="G249" s="209"/>
+      <c r="H249" s="209"/>
+      <c r="I249" s="209"/>
+      <c r="J249" s="209"/>
+      <c r="L249" s="209"/>
+      <c r="M249" s="208"/>
+      <c r="N249" s="89"/>
+      <c r="AF249" s="20"/>
+      <c r="AG249" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH249" s="202"/>
+      <c r="AI249" s="217"/>
+      <c r="AJ249" s="204"/>
+      <c r="AK249" s="204"/>
+      <c r="AL249" s="204"/>
+      <c r="AM249" s="204"/>
+      <c r="AN249" s="204"/>
+      <c r="AO249" s="204"/>
+      <c r="AP249" s="204"/>
+      <c r="AQ249" s="205"/>
+      <c r="AR249" s="21"/>
+      <c r="AS249" s="21"/>
+      <c r="AT249" s="21"/>
+      <c r="AU249" s="21"/>
+      <c r="AV249" s="21"/>
+      <c r="AW249" s="21"/>
+      <c r="AX249" s="21"/>
+      <c r="AY249" s="21"/>
+      <c r="AZ249" s="21"/>
+      <c r="BA249" s="21"/>
+      <c r="BB249" s="21"/>
+      <c r="BC249" s="21"/>
+      <c r="BD249" s="21"/>
+      <c r="BE249" s="21"/>
+      <c r="BF249" s="21"/>
+      <c r="BG249" s="21"/>
+      <c r="BH249" s="17"/>
+    </row>
+    <row r="250" spans="4:60">
+      <c r="D250" s="21">
+        <f t="shared" si="161"/>
+        <v>6</v>
+      </c>
+      <c r="E250" s="203"/>
+      <c r="F250" s="81"/>
+      <c r="G250" s="209"/>
+      <c r="H250" s="209"/>
+      <c r="I250" s="209"/>
+      <c r="J250" s="209"/>
+      <c r="L250" s="209"/>
+      <c r="M250" s="208"/>
+      <c r="N250" s="89"/>
+      <c r="AF250" s="20"/>
+      <c r="AG250" s="21">
+        <f t="shared" ref="AG250:AG254" si="171">AG249+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH250" s="203"/>
+      <c r="AI250" s="218"/>
+      <c r="AJ250" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK250" s="206"/>
+      <c r="AL250" s="208"/>
+      <c r="AM250" s="206"/>
+      <c r="AN250" s="206"/>
+      <c r="AO250" s="206"/>
+      <c r="AP250" s="206"/>
+      <c r="AQ250" s="207"/>
+      <c r="AR250" s="21"/>
+      <c r="AS250" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT250" s="21"/>
+      <c r="AU250" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV250" s="21"/>
+      <c r="AW250" s="21"/>
+      <c r="AX250" s="21"/>
+      <c r="AY250" s="21"/>
+      <c r="AZ250" s="21"/>
+      <c r="BA250" s="21"/>
+      <c r="BB250" s="21"/>
+      <c r="BC250" s="21"/>
+      <c r="BD250" s="21"/>
+      <c r="BE250" s="21"/>
+      <c r="BF250" s="21"/>
+      <c r="BG250" s="21"/>
+      <c r="BH250" s="17"/>
+    </row>
+    <row r="251" spans="4:60">
+      <c r="D251" s="21">
+        <f t="shared" si="161"/>
+        <v>7</v>
+      </c>
+      <c r="E251" s="203"/>
+      <c r="F251" s="81"/>
+      <c r="G251" s="209"/>
+      <c r="H251" s="209"/>
+      <c r="I251" s="209"/>
+      <c r="J251" s="209"/>
+      <c r="L251" s="209"/>
+      <c r="M251" s="208"/>
+      <c r="N251" s="89"/>
+      <c r="AF251" s="20"/>
+      <c r="AG251" s="21">
+        <f t="shared" si="171"/>
+        <v>2</v>
+      </c>
+      <c r="AH251" s="203"/>
+      <c r="AI251" s="81"/>
+      <c r="AJ251" s="21"/>
+      <c r="AK251" s="21"/>
+      <c r="AL251" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM251" s="209"/>
+      <c r="AN251" s="209"/>
+      <c r="AO251" s="209"/>
+      <c r="AP251" s="209"/>
+      <c r="AQ251" s="89"/>
+      <c r="AR251" s="21"/>
+      <c r="AS251" s="21"/>
+      <c r="AT251" s="21"/>
+      <c r="AU251" s="21"/>
+      <c r="AV251" s="21"/>
+      <c r="AW251" s="21"/>
+      <c r="AX251" s="21"/>
+      <c r="AY251" s="21"/>
+      <c r="AZ251" s="21"/>
+      <c r="BA251" s="21"/>
+      <c r="BB251" s="21"/>
+      <c r="BC251" s="21"/>
+      <c r="BD251" s="21"/>
+      <c r="BE251" s="21"/>
+      <c r="BF251" s="21"/>
+      <c r="BG251" s="21"/>
+      <c r="BH251" s="17"/>
+    </row>
+    <row r="252" spans="4:60">
+      <c r="D252" s="21">
+        <f t="shared" si="161"/>
+        <v>8</v>
+      </c>
+      <c r="E252" s="203"/>
+      <c r="F252" s="81"/>
+      <c r="G252" s="209"/>
+      <c r="H252" s="209"/>
+      <c r="I252" s="209"/>
+      <c r="J252" s="209"/>
+      <c r="L252" s="209"/>
+      <c r="M252" s="208"/>
+      <c r="N252" s="89"/>
+      <c r="AF252" s="20"/>
+      <c r="AG252" s="21">
+        <f t="shared" si="171"/>
+        <v>3</v>
+      </c>
+      <c r="AH252" s="203"/>
+      <c r="AI252" s="209"/>
+      <c r="AJ252" s="209"/>
+      <c r="AK252" s="209"/>
+      <c r="AL252" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM252" s="209"/>
+      <c r="AN252" s="209"/>
+      <c r="AO252" s="209"/>
+      <c r="AP252" s="209"/>
+      <c r="AQ252" s="226"/>
+      <c r="AR252" s="21"/>
+      <c r="AS252" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT252" s="21"/>
+      <c r="AU252" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV252" s="21"/>
+      <c r="AW252" s="21"/>
+      <c r="AX252" s="21"/>
+      <c r="AY252" s="21"/>
+      <c r="AZ252" s="21"/>
+      <c r="BA252" s="21"/>
+      <c r="BB252" s="21"/>
+      <c r="BC252" s="21"/>
+      <c r="BD252" s="21"/>
+      <c r="BE252" s="21"/>
+      <c r="BF252" s="21"/>
+      <c r="BG252" s="21"/>
+      <c r="BH252" s="17"/>
+    </row>
+    <row r="253" spans="4:60">
+      <c r="D253" s="21">
+        <f t="shared" si="161"/>
+        <v>9</v>
+      </c>
+      <c r="E253" s="200"/>
+      <c r="F253" s="220"/>
+      <c r="G253" s="201"/>
+      <c r="H253" s="201"/>
+      <c r="I253" s="201"/>
+      <c r="J253" s="201"/>
+      <c r="K253" s="201"/>
+      <c r="L253" s="201"/>
+      <c r="M253" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="N253" s="113"/>
+      <c r="AF253" s="20"/>
+      <c r="AG253" s="21">
+        <f t="shared" si="171"/>
+        <v>4</v>
+      </c>
+      <c r="AH253" s="203"/>
+      <c r="AI253" s="209"/>
+      <c r="AJ253" s="209"/>
+      <c r="AK253" s="209"/>
+      <c r="AL253" s="206"/>
+      <c r="AM253" s="206"/>
+      <c r="AN253" s="206"/>
+      <c r="AO253" s="206"/>
+      <c r="AP253" s="206"/>
+      <c r="AQ253" s="207"/>
+      <c r="AR253" s="21"/>
+      <c r="AS253" s="21"/>
+      <c r="AT253" s="21"/>
+      <c r="AU253" s="21"/>
+      <c r="AV253" s="21"/>
+      <c r="AW253" s="21"/>
+      <c r="AX253" s="21"/>
+      <c r="AY253" s="21"/>
+      <c r="AZ253" s="21"/>
+      <c r="BA253" s="21"/>
+      <c r="BB253" s="21"/>
+      <c r="BC253" s="21"/>
+      <c r="BD253" s="21"/>
+      <c r="BE253" s="21"/>
+      <c r="BF253" s="21"/>
+      <c r="BG253" s="21"/>
+      <c r="BH253" s="17"/>
+    </row>
+    <row r="254" spans="4:60">
+      <c r="AF254" s="20"/>
+      <c r="AG254" s="21">
+        <f t="shared" si="171"/>
+        <v>5</v>
+      </c>
+      <c r="AH254" s="200"/>
+      <c r="AI254" s="220"/>
+      <c r="AJ254" s="201"/>
+      <c r="AK254" s="201"/>
+      <c r="AL254" s="201"/>
+      <c r="AM254" s="201"/>
+      <c r="AN254" s="201"/>
+      <c r="AO254" s="201"/>
+      <c r="AP254" s="201"/>
+      <c r="AQ254" s="224"/>
+      <c r="AR254" s="21"/>
+      <c r="AS254" s="21"/>
+      <c r="AT254" s="21"/>
+      <c r="AU254" s="21"/>
+      <c r="AV254" s="21"/>
+      <c r="AW254" s="21"/>
+      <c r="AX254" s="21"/>
+      <c r="AY254" s="21"/>
+      <c r="AZ254" s="21"/>
+      <c r="BA254" s="21"/>
+      <c r="BB254" s="21"/>
+      <c r="BC254" s="21"/>
+      <c r="BD254" s="21"/>
+      <c r="BE254" s="21"/>
+      <c r="BF254" s="21"/>
+      <c r="BG254" s="21"/>
+      <c r="BH254" s="17"/>
+    </row>
+    <row r="255" spans="4:60">
+      <c r="AF255" s="20"/>
+      <c r="AG255" s="21"/>
+      <c r="AH255" s="21"/>
+      <c r="AI255" s="21"/>
+      <c r="AJ255" s="21"/>
+      <c r="AK255" s="21"/>
+      <c r="AL255" s="21"/>
+      <c r="AM255" s="21"/>
+      <c r="AN255" s="21"/>
+      <c r="AO255" s="21"/>
+      <c r="AP255" s="21"/>
+      <c r="AQ255" s="21"/>
+      <c r="AR255" s="21"/>
+      <c r="AS255" s="21"/>
+      <c r="AT255" s="21"/>
+      <c r="AU255" s="21"/>
+      <c r="AV255" s="21"/>
+      <c r="AW255" s="21"/>
+      <c r="AX255" s="21"/>
+      <c r="AY255" s="21"/>
+      <c r="AZ255" s="21"/>
+      <c r="BA255" s="21"/>
+      <c r="BB255" s="21"/>
+      <c r="BC255" s="21"/>
+      <c r="BD255" s="21"/>
+      <c r="BE255" s="21"/>
+      <c r="BF255" s="21"/>
+      <c r="BG255" s="21"/>
+      <c r="BH255" s="17"/>
+    </row>
+    <row r="256" spans="4:60">
+      <c r="AF256" s="20"/>
+      <c r="AG256" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH256" s="21"/>
+      <c r="AI256" s="21"/>
+      <c r="AJ256" s="21"/>
+      <c r="AK256" s="21"/>
+      <c r="AL256" s="21"/>
+      <c r="AM256" s="21"/>
+      <c r="AN256" s="21"/>
+      <c r="AO256" s="21"/>
+      <c r="AP256" s="21"/>
+      <c r="AQ256" s="21"/>
+      <c r="AR256" s="21"/>
+      <c r="AS256" s="21"/>
+      <c r="AT256" s="21"/>
+      <c r="AU256" s="21"/>
+      <c r="AV256" s="21"/>
+      <c r="AW256" s="21"/>
+      <c r="AX256" s="21"/>
+      <c r="AY256" s="21"/>
+      <c r="AZ256" s="21"/>
+      <c r="BA256" s="21"/>
+      <c r="BB256" s="21"/>
+      <c r="BC256" s="21"/>
+      <c r="BD256" s="21"/>
+      <c r="BE256" s="21"/>
+      <c r="BF256" s="21"/>
+      <c r="BG256" s="21"/>
+      <c r="BH256" s="17"/>
+    </row>
+    <row r="257" spans="32:74">
+      <c r="AF257" s="20"/>
+      <c r="AG257" s="21"/>
+      <c r="AH257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI257" s="2">
+        <f t="shared" ref="AI257" si="172">AH257+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ257" s="2">
+        <f t="shared" ref="AJ257" si="173">AI257+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK257" s="2">
+        <f t="shared" ref="AK257" si="174">AJ257+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL257" s="2">
+        <f t="shared" ref="AL257" si="175">AK257+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM257" s="2">
+        <f t="shared" ref="AM257" si="176">AL257+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN257" s="2">
+        <f t="shared" ref="AN257" si="177">AM257+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO257" s="2">
+        <f t="shared" ref="AO257" si="178">AN257+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP257" s="2">
+        <f t="shared" ref="AP257" si="179">AO257+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ257" s="2">
+        <f t="shared" ref="AQ257" si="180">AP257+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR257" s="21"/>
+      <c r="AS257" s="21"/>
+      <c r="AT257" s="21"/>
+      <c r="AU257" s="21"/>
+      <c r="AV257" s="21"/>
+      <c r="AW257" s="21"/>
+      <c r="AX257" s="21"/>
+      <c r="AY257" s="21"/>
+      <c r="AZ257" s="21"/>
+      <c r="BA257" s="21"/>
+      <c r="BB257" s="21"/>
+      <c r="BC257" s="21"/>
+      <c r="BD257" s="21"/>
+      <c r="BE257" s="21"/>
+      <c r="BF257" s="21"/>
+      <c r="BG257" s="21"/>
+      <c r="BH257" s="17"/>
+    </row>
+    <row r="258" spans="32:74">
+      <c r="AF258" s="20"/>
+      <c r="AG258" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH258" s="202"/>
+      <c r="AI258" s="217"/>
+      <c r="AJ258" s="204"/>
+      <c r="AK258" s="204"/>
+      <c r="AL258" s="204"/>
+      <c r="AM258" s="204"/>
+      <c r="AN258" s="204"/>
+      <c r="AO258" s="204"/>
+      <c r="AP258" s="204"/>
+      <c r="AQ258" s="205"/>
+      <c r="AR258" s="21"/>
+      <c r="AS258" s="21"/>
+      <c r="AT258" s="21"/>
+      <c r="AU258" s="21"/>
+      <c r="AV258" s="21"/>
+      <c r="AW258" s="21"/>
+      <c r="AX258" s="21"/>
+      <c r="AY258" s="21"/>
+      <c r="AZ258" s="21"/>
+      <c r="BA258" s="21"/>
+      <c r="BB258" s="21"/>
+      <c r="BC258" s="21"/>
+      <c r="BD258" s="21"/>
+      <c r="BE258" s="21"/>
+      <c r="BF258" s="21"/>
+      <c r="BG258" s="21"/>
+      <c r="BH258" s="17"/>
+    </row>
+    <row r="259" spans="32:74">
+      <c r="AF259" s="20"/>
+      <c r="AG259" s="21">
+        <f>AG258+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH259" s="203"/>
+      <c r="AI259" s="218"/>
+      <c r="AJ259" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK259" s="206"/>
+      <c r="AL259" s="208"/>
+      <c r="AM259" s="206"/>
+      <c r="AN259" s="206"/>
+      <c r="AO259" s="206"/>
+      <c r="AP259" s="206"/>
+      <c r="AQ259" s="207"/>
+      <c r="AR259" s="21"/>
+      <c r="AS259" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT259" s="21"/>
+      <c r="AU259" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV259" s="21"/>
+      <c r="AW259" s="21"/>
+      <c r="AX259" s="21"/>
+      <c r="AY259" s="21"/>
+      <c r="AZ259" s="21"/>
+      <c r="BA259" s="21"/>
+      <c r="BB259" s="21"/>
+      <c r="BC259" s="21"/>
+      <c r="BD259" s="21"/>
+      <c r="BE259" s="21"/>
+      <c r="BF259" s="21"/>
+      <c r="BG259" s="21"/>
+      <c r="BH259" s="17"/>
+    </row>
+    <row r="260" spans="32:74">
+      <c r="AF260" s="20"/>
+      <c r="AG260" s="21">
+        <f>AG259+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH260" s="203"/>
+      <c r="AI260" s="81"/>
+      <c r="AJ260" s="21"/>
+      <c r="AK260" s="21"/>
+      <c r="AL260" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM260" s="209"/>
+      <c r="AN260" s="209"/>
+      <c r="AO260" s="209"/>
+      <c r="AP260" s="209"/>
+      <c r="AQ260" s="89"/>
+      <c r="AR260" s="21"/>
+      <c r="AS260" s="21"/>
+      <c r="AT260" s="21"/>
+      <c r="AU260" s="21"/>
+      <c r="AV260" s="21"/>
+      <c r="AW260" s="21"/>
+      <c r="AX260" s="21"/>
+      <c r="AY260" s="21"/>
+      <c r="AZ260" s="21"/>
+      <c r="BA260" s="21"/>
+      <c r="BB260" s="21"/>
+      <c r="BC260" s="21"/>
+      <c r="BD260" s="21"/>
+      <c r="BE260" s="21"/>
+      <c r="BF260" s="21"/>
+      <c r="BG260" s="21"/>
+      <c r="BH260" s="17"/>
+    </row>
+    <row r="261" spans="32:74">
+      <c r="AF261" s="20"/>
+      <c r="AG261" s="21">
+        <f>AG260+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH261" s="203"/>
+      <c r="AI261" s="209"/>
+      <c r="AJ261" s="209"/>
+      <c r="AK261" s="209"/>
+      <c r="AL261" s="206"/>
+      <c r="AM261" s="209"/>
+      <c r="AN261" s="209"/>
+      <c r="AO261" s="209"/>
+      <c r="AP261" s="209"/>
+      <c r="AQ261" s="226"/>
+      <c r="AR261" s="21"/>
+      <c r="AS261" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT261" s="21"/>
+      <c r="AU261" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV261" s="21"/>
+      <c r="AW261" s="21"/>
+      <c r="AX261" s="21"/>
+      <c r="AY261" s="21"/>
+      <c r="AZ261" s="21"/>
+      <c r="BA261" s="21"/>
+      <c r="BB261" s="21"/>
+      <c r="BC261" s="21"/>
+      <c r="BD261" s="21"/>
+      <c r="BE261" s="21"/>
+      <c r="BF261" s="21"/>
+      <c r="BG261" s="21"/>
+      <c r="BH261" s="17"/>
+    </row>
+    <row r="262" spans="32:74">
+      <c r="AF262" s="20"/>
+      <c r="AG262" s="21">
+        <f>AG261+1</f>
+        <v>4</v>
+      </c>
+      <c r="AH262" s="203"/>
+      <c r="AI262" s="209"/>
+      <c r="AJ262" s="209"/>
+      <c r="AK262" s="209"/>
+      <c r="AL262" s="206"/>
+      <c r="AM262" s="206"/>
+      <c r="AN262" s="206"/>
+      <c r="AO262" s="206"/>
+      <c r="AP262" s="206"/>
+      <c r="AQ262" s="207"/>
+      <c r="AR262" s="21"/>
+      <c r="AS262" s="21"/>
+      <c r="AT262" s="21"/>
+      <c r="AU262" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV262" s="21"/>
+      <c r="AW262" s="21"/>
+      <c r="AX262" s="21"/>
+      <c r="AY262" s="21"/>
+      <c r="AZ262" s="21"/>
+      <c r="BA262" s="21"/>
+      <c r="BB262" s="21"/>
+      <c r="BC262" s="21"/>
+      <c r="BD262" s="21"/>
+      <c r="BE262" s="21"/>
+      <c r="BF262" s="21"/>
+      <c r="BG262" s="21"/>
+      <c r="BH262" s="17"/>
+    </row>
+    <row r="263" spans="32:74">
+      <c r="AF263" s="20"/>
+      <c r="AG263" s="21">
+        <f>AG262+1</f>
+        <v>5</v>
+      </c>
+      <c r="AH263" s="200"/>
+      <c r="AI263" s="220"/>
+      <c r="AJ263" s="201"/>
+      <c r="AK263" s="201"/>
+      <c r="AL263" s="201"/>
+      <c r="AM263" s="201"/>
+      <c r="AN263" s="201"/>
+      <c r="AO263" s="201"/>
+      <c r="AP263" s="201"/>
+      <c r="AQ263" s="224"/>
+      <c r="AR263" s="21"/>
+      <c r="AS263" s="21"/>
+      <c r="AT263" s="21"/>
+      <c r="AU263" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV263" s="21"/>
+      <c r="AW263" s="21"/>
+      <c r="AX263" s="21"/>
+      <c r="AY263" s="21"/>
+      <c r="AZ263" s="21"/>
+      <c r="BA263" s="21"/>
+      <c r="BB263" s="21"/>
+      <c r="BC263" s="21"/>
+      <c r="BD263" s="21"/>
+      <c r="BE263" s="21"/>
+      <c r="BF263" s="21"/>
+      <c r="BG263" s="21"/>
+      <c r="BH263" s="17"/>
+    </row>
+    <row r="264" spans="32:74">
+      <c r="AF264" s="20"/>
+      <c r="AG264" s="21"/>
+      <c r="AH264" s="21"/>
+      <c r="AI264" s="21"/>
+      <c r="AJ264" s="21"/>
+      <c r="AK264" s="21"/>
+      <c r="AL264" s="21"/>
+      <c r="AM264" s="21"/>
+      <c r="AN264" s="21"/>
+      <c r="AO264" s="21"/>
+      <c r="AP264" s="21"/>
+      <c r="AQ264" s="21"/>
+      <c r="AR264" s="21"/>
+      <c r="AS264" s="21"/>
+      <c r="AT264" s="21"/>
+      <c r="AU264" s="21"/>
+      <c r="AV264" s="21"/>
+      <c r="AW264" s="21"/>
+      <c r="AX264" s="21"/>
+      <c r="AY264" s="21"/>
+      <c r="AZ264" s="21"/>
+      <c r="BA264" s="21"/>
+      <c r="BB264" s="21"/>
+      <c r="BC264" s="21"/>
+      <c r="BD264" s="21"/>
+      <c r="BE264" s="21"/>
+      <c r="BF264" s="21"/>
+      <c r="BG264" s="21"/>
+      <c r="BH264" s="17"/>
+    </row>
+    <row r="265" spans="32:74">
+      <c r="AF265" s="20"/>
+      <c r="AG265" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH265" s="21"/>
+      <c r="AI265" s="21"/>
+      <c r="AJ265" s="21"/>
+      <c r="AK265" s="21"/>
+      <c r="AL265" s="21"/>
+      <c r="AM265" s="21"/>
+      <c r="AN265" s="21"/>
+      <c r="AO265" s="21"/>
+      <c r="AP265" s="21"/>
+      <c r="AQ265" s="21"/>
+      <c r="AR265" s="21"/>
+      <c r="AS265" s="21"/>
+      <c r="AT265" s="21"/>
+      <c r="AU265" s="21"/>
+      <c r="AV265" s="21"/>
+      <c r="AW265" s="21"/>
+      <c r="AX265" s="21"/>
+      <c r="AY265" s="21"/>
+      <c r="AZ265" s="21"/>
+      <c r="BA265" s="21"/>
+      <c r="BB265" s="21"/>
+      <c r="BC265" s="21"/>
+      <c r="BD265" s="21"/>
+      <c r="BE265" s="21"/>
+      <c r="BF265" s="21"/>
+      <c r="BG265" s="21"/>
+      <c r="BH265" s="17"/>
+    </row>
+    <row r="266" spans="32:74">
+      <c r="AF266" s="20"/>
+      <c r="AG266" s="21"/>
+      <c r="AH266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI266" s="2">
+        <f t="shared" ref="AI266" si="181">AH266+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ266" s="2">
+        <f t="shared" ref="AJ266" si="182">AI266+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK266" s="2">
+        <f t="shared" ref="AK266" si="183">AJ266+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL266" s="2">
+        <f t="shared" ref="AL266" si="184">AK266+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM266" s="2">
+        <f t="shared" ref="AM266" si="185">AL266+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN266" s="2">
+        <f t="shared" ref="AN266" si="186">AM266+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO266" s="2">
+        <f t="shared" ref="AO266" si="187">AN266+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP266" s="2">
+        <f t="shared" ref="AP266" si="188">AO266+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ266" s="2">
+        <f t="shared" ref="AQ266" si="189">AP266+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR266" s="21"/>
+      <c r="AS266" s="21"/>
+      <c r="AT266" s="21"/>
+      <c r="AU266" s="21"/>
+      <c r="AV266" s="21"/>
+      <c r="AW266" s="21"/>
+      <c r="AX266" s="21"/>
+      <c r="AY266" s="21"/>
+      <c r="AZ266" s="21"/>
+      <c r="BA266" s="21"/>
+      <c r="BB266" s="21"/>
+      <c r="BC266" s="21"/>
+      <c r="BD266" s="21"/>
+      <c r="BE266" s="21"/>
+      <c r="BF266" s="21"/>
+      <c r="BG266" s="21"/>
+      <c r="BH266" s="17"/>
+      <c r="BV266" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="267" spans="32:74">
+      <c r="AF267" s="20"/>
+      <c r="AG267" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH267" s="202"/>
+      <c r="AI267" s="217"/>
+      <c r="AJ267" s="204"/>
+      <c r="AK267" s="204"/>
+      <c r="AL267" s="204"/>
+      <c r="AM267" s="204"/>
+      <c r="AN267" s="204"/>
+      <c r="AO267" s="204"/>
+      <c r="AP267" s="204"/>
+      <c r="AQ267" s="205"/>
+      <c r="AR267" s="21"/>
+      <c r="AS267" s="21"/>
+      <c r="AT267" s="21"/>
+      <c r="AU267" s="21"/>
+      <c r="AV267" s="21"/>
+      <c r="AW267" s="21"/>
+      <c r="AX267" s="21"/>
+      <c r="AY267" s="21"/>
+      <c r="AZ267" s="21"/>
+      <c r="BA267" s="21"/>
+      <c r="BB267" s="21"/>
+      <c r="BC267" s="21"/>
+      <c r="BD267" s="21"/>
+      <c r="BE267" s="21"/>
+      <c r="BF267" s="21"/>
+      <c r="BG267" s="21"/>
+      <c r="BH267" s="17"/>
+      <c r="BV267" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="268" spans="32:74">
+      <c r="AF268" s="20"/>
+      <c r="AG268" s="21">
+        <f>AG267+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH268" s="203"/>
+      <c r="AI268" s="218"/>
+      <c r="AJ268" s="21"/>
+      <c r="AK268" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL268" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM268" s="206"/>
+      <c r="AN268" s="206"/>
+      <c r="AO268" s="206"/>
+      <c r="AP268" s="206"/>
+      <c r="AQ268" s="207"/>
+      <c r="AR268" s="21"/>
+      <c r="AS268" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT268" s="21"/>
+      <c r="AU268" s="21"/>
+      <c r="AV268" s="21"/>
+      <c r="AW268" s="21"/>
+      <c r="AX268" s="21"/>
+      <c r="AY268" s="21"/>
+      <c r="AZ268" s="21"/>
+      <c r="BA268" s="21"/>
+      <c r="BB268" s="21"/>
+      <c r="BC268" s="21"/>
+      <c r="BD268" s="21"/>
+      <c r="BE268" s="21"/>
+      <c r="BF268" s="21"/>
+      <c r="BG268" s="21"/>
+      <c r="BH268" s="17"/>
+    </row>
+    <row r="269" spans="32:74">
+      <c r="AF269" s="20"/>
+      <c r="AG269" s="21">
+        <f>AG268+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH269" s="203"/>
+      <c r="AI269" s="81"/>
+      <c r="AJ269" s="21"/>
+      <c r="AK269" s="21"/>
+      <c r="AL269" s="206"/>
+      <c r="AM269" s="209"/>
+      <c r="AN269" s="209"/>
+      <c r="AO269" s="209"/>
+      <c r="AP269" s="209"/>
+      <c r="AQ269" s="89"/>
+      <c r="AR269" s="21"/>
+      <c r="AS269" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT269" s="21"/>
+      <c r="AU269" s="21"/>
+      <c r="AV269" s="21"/>
+      <c r="AW269" s="21"/>
+      <c r="AX269" s="21"/>
+      <c r="AY269" s="21"/>
+      <c r="AZ269" s="21"/>
+      <c r="BA269" s="21"/>
+      <c r="BB269" s="21"/>
+      <c r="BC269" s="21"/>
+      <c r="BD269" s="21"/>
+      <c r="BE269" s="21"/>
+      <c r="BF269" s="21"/>
+      <c r="BG269" s="21"/>
+      <c r="BH269" s="17"/>
+    </row>
+    <row r="270" spans="32:74">
+      <c r="AF270" s="20"/>
+      <c r="AG270" s="21">
+        <f>AG269+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH270" s="203"/>
+      <c r="AI270" s="209"/>
+      <c r="AJ270" s="209"/>
+      <c r="AK270" s="209"/>
+      <c r="AL270" s="206"/>
+      <c r="AM270" s="209"/>
+      <c r="AN270" s="209"/>
+      <c r="AO270" s="209"/>
+      <c r="AP270" s="209"/>
+      <c r="AQ270" s="226"/>
+      <c r="AR270" s="21"/>
+      <c r="AS270" s="21"/>
+      <c r="AT270" s="21"/>
+      <c r="AU270" s="21"/>
+      <c r="AV270" s="21"/>
+      <c r="AW270" s="21"/>
+      <c r="AX270" s="21"/>
+      <c r="AY270" s="21"/>
+      <c r="AZ270" s="21"/>
+      <c r="BA270" s="21"/>
+      <c r="BB270" s="21"/>
+      <c r="BC270" s="21"/>
+      <c r="BD270" s="21"/>
+      <c r="BE270" s="21"/>
+      <c r="BF270" s="21"/>
+      <c r="BG270" s="21"/>
+      <c r="BH270" s="17"/>
+    </row>
+    <row r="271" spans="32:74">
+      <c r="AF271" s="20"/>
+      <c r="AG271" s="21">
+        <f>AG270+1</f>
+        <v>4</v>
+      </c>
+      <c r="AH271" s="203"/>
+      <c r="AI271" s="209"/>
+      <c r="AJ271" s="209"/>
+      <c r="AK271" s="209"/>
+      <c r="AL271" s="206"/>
+      <c r="AM271" s="206"/>
+      <c r="AN271" s="206"/>
+      <c r="AO271" s="206"/>
+      <c r="AP271" s="206"/>
+      <c r="AQ271" s="207"/>
+      <c r="AR271" s="21"/>
+      <c r="AS271" s="21"/>
+      <c r="AT271" s="21"/>
+      <c r="AU271" s="21"/>
+      <c r="AV271" s="21"/>
+      <c r="AW271" s="21"/>
+      <c r="AX271" s="21"/>
+      <c r="AY271" s="21"/>
+      <c r="AZ271" s="21"/>
+      <c r="BA271" s="21"/>
+      <c r="BB271" s="21"/>
+      <c r="BC271" s="21"/>
+      <c r="BD271" s="21"/>
+      <c r="BE271" s="21"/>
+      <c r="BF271" s="21"/>
+      <c r="BG271" s="21"/>
+      <c r="BH271" s="17"/>
+    </row>
+    <row r="272" spans="32:74" ht="15" thickBot="1">
+      <c r="AF272" s="20"/>
+      <c r="AG272" s="21">
+        <f>AG271+1</f>
+        <v>5</v>
+      </c>
+      <c r="AH272" s="200"/>
+      <c r="AI272" s="220"/>
+      <c r="AJ272" s="201"/>
+      <c r="AK272" s="201"/>
+      <c r="AL272" s="201"/>
+      <c r="AM272" s="201"/>
+      <c r="AN272" s="201"/>
+      <c r="AO272" s="201"/>
+      <c r="AP272" s="201"/>
+      <c r="AQ272" s="224"/>
+      <c r="AR272" s="21"/>
+      <c r="AS272" s="21"/>
+      <c r="AT272" s="21"/>
+      <c r="AU272" s="21"/>
+      <c r="AV272" s="21"/>
+      <c r="AW272" s="21"/>
+      <c r="AX272" s="21"/>
+      <c r="AY272" s="21"/>
+      <c r="AZ272" s="21"/>
+      <c r="BA272" s="21"/>
+      <c r="BB272" s="21"/>
+      <c r="BC272" s="21"/>
+      <c r="BD272" s="21"/>
+      <c r="BE272" s="21"/>
+      <c r="BF272" s="21"/>
+      <c r="BG272" s="21"/>
+      <c r="BH272" s="17"/>
+    </row>
+    <row r="273" spans="4:60" ht="15" thickBot="1">
+      <c r="D273" s="121"/>
+      <c r="E273" s="122"/>
+      <c r="F273" s="122"/>
+      <c r="G273" s="122"/>
+      <c r="H273" s="122"/>
+      <c r="I273" s="122"/>
+      <c r="J273" s="122"/>
+      <c r="K273" s="122"/>
+      <c r="L273" s="122"/>
+      <c r="M273" s="122"/>
+      <c r="N273" s="122"/>
+      <c r="O273" s="122"/>
+      <c r="P273" s="122"/>
+      <c r="Q273" s="122"/>
+      <c r="R273" s="122"/>
+      <c r="S273" s="122"/>
+      <c r="T273" s="122"/>
+      <c r="U273" s="122"/>
+      <c r="V273" s="122"/>
+      <c r="W273" s="122"/>
+      <c r="X273" s="122"/>
+      <c r="Y273" s="122"/>
+      <c r="Z273" s="122"/>
+      <c r="AA273" s="122"/>
+      <c r="AB273" s="13"/>
+      <c r="AF273" s="22"/>
+      <c r="AG273" s="23"/>
+      <c r="AH273" s="23"/>
+      <c r="AI273" s="23"/>
+      <c r="AJ273" s="23"/>
+      <c r="AK273" s="23"/>
+      <c r="AL273" s="23"/>
+      <c r="AM273" s="23"/>
+      <c r="AN273" s="23"/>
+      <c r="AO273" s="23"/>
+      <c r="AP273" s="23"/>
+      <c r="AQ273" s="23"/>
+      <c r="AR273" s="23"/>
+      <c r="AS273" s="23"/>
+      <c r="AT273" s="23"/>
+      <c r="AU273" s="23"/>
+      <c r="AV273" s="23"/>
+      <c r="AW273" s="23"/>
+      <c r="AX273" s="23"/>
+      <c r="AY273" s="23"/>
+      <c r="AZ273" s="23"/>
+      <c r="BA273" s="23"/>
+      <c r="BB273" s="23"/>
+      <c r="BC273" s="23"/>
+      <c r="BD273" s="23"/>
+      <c r="BE273" s="23"/>
+      <c r="BF273" s="23"/>
+      <c r="BG273" s="23"/>
+      <c r="BH273" s="24"/>
+    </row>
+    <row r="274" spans="4:60">
+      <c r="D274" s="20"/>
+      <c r="E274" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="F274" s="21"/>
+      <c r="G274" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
+      <c r="J274" s="21"/>
+      <c r="K274" s="21"/>
+      <c r="L274" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="M274" s="21"/>
+      <c r="N274" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O274" s="21"/>
+      <c r="P274" s="21"/>
+      <c r="Q274" s="21"/>
+      <c r="R274" s="21"/>
+      <c r="S274" s="21"/>
+      <c r="T274" s="21"/>
+      <c r="U274" s="21"/>
+      <c r="V274" s="21"/>
+      <c r="W274" s="21"/>
+      <c r="X274" s="21"/>
+      <c r="Y274" s="21"/>
+      <c r="Z274" s="21"/>
+      <c r="AA274" s="21"/>
+      <c r="AB274" s="17"/>
+    </row>
+    <row r="275" spans="4:60">
+      <c r="D275" s="20"/>
+      <c r="E275" s="206"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="H275" s="21"/>
+      <c r="I275" s="21"/>
+      <c r="J275" s="21"/>
+      <c r="K275" s="21"/>
+      <c r="L275" s="21"/>
+      <c r="M275" s="21"/>
+      <c r="N275" s="21"/>
+      <c r="O275" s="21"/>
+      <c r="P275" s="21"/>
+      <c r="Q275" s="21"/>
+      <c r="R275" s="21"/>
+      <c r="S275" s="21"/>
+      <c r="T275" s="21"/>
+      <c r="U275" s="21"/>
+      <c r="V275" s="21"/>
+      <c r="W275" s="21"/>
+      <c r="X275" s="21"/>
+      <c r="Y275" s="21"/>
+      <c r="Z275" s="21"/>
+      <c r="AA275" s="21"/>
+      <c r="AB275" s="17"/>
+    </row>
+    <row r="276" spans="4:60">
+      <c r="D276" s="20"/>
+      <c r="E276" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H276" s="21"/>
+      <c r="I276" s="21"/>
+      <c r="J276" s="21"/>
+      <c r="K276" s="21"/>
+      <c r="L276" s="215"/>
+      <c r="M276" s="21"/>
+      <c r="N276" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O276" s="21"/>
+      <c r="P276" s="21"/>
+      <c r="Q276" s="21"/>
+      <c r="R276" s="21"/>
+      <c r="S276" s="21"/>
+      <c r="T276" s="21"/>
+      <c r="U276" s="21"/>
+      <c r="V276" s="21"/>
+      <c r="W276" s="21"/>
+      <c r="X276" s="21"/>
+      <c r="Y276" s="21"/>
+      <c r="Z276" s="21"/>
+      <c r="AA276" s="21"/>
+      <c r="AB276" s="17"/>
+    </row>
+    <row r="277" spans="4:60">
+      <c r="D277" s="20"/>
+      <c r="E277" s="21"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="21"/>
+      <c r="H277" s="21"/>
+      <c r="I277" s="21"/>
+      <c r="J277" s="21"/>
+      <c r="K277" s="21"/>
+      <c r="L277" s="21"/>
+      <c r="M277" s="21"/>
+      <c r="N277" s="21"/>
+      <c r="O277" s="21"/>
+      <c r="P277" s="21"/>
+      <c r="Q277" s="21"/>
+      <c r="R277" s="21"/>
+      <c r="S277" s="21"/>
+      <c r="T277" s="21"/>
+      <c r="U277" s="21"/>
+      <c r="V277" s="21"/>
+      <c r="W277" s="21"/>
+      <c r="X277" s="21"/>
+      <c r="Y277" s="21"/>
+      <c r="Z277" s="21"/>
+      <c r="AA277" s="21"/>
+      <c r="AB277" s="17"/>
+    </row>
+    <row r="278" spans="4:60">
+      <c r="D278" s="20"/>
+      <c r="E278" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
+      <c r="H278" s="21"/>
+      <c r="I278" s="21"/>
+      <c r="J278" s="21"/>
+      <c r="K278" s="21"/>
+      <c r="L278" s="21"/>
+      <c r="M278" s="21"/>
+      <c r="N278" s="21"/>
+      <c r="O278" s="21"/>
+      <c r="P278" s="21"/>
+      <c r="Q278" s="21"/>
+      <c r="R278" s="21"/>
+      <c r="S278" s="21"/>
+      <c r="T278" s="21"/>
+      <c r="U278" s="21"/>
+      <c r="V278" s="21"/>
+      <c r="W278" s="21"/>
+      <c r="X278" s="21"/>
+      <c r="Y278" s="21"/>
+      <c r="Z278" s="21"/>
+      <c r="AA278" s="21"/>
+      <c r="AB278" s="17"/>
+    </row>
+    <row r="279" spans="4:60">
+      <c r="D279" s="20"/>
+      <c r="E279" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" s="21"/>
+      <c r="G279" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H279" s="21"/>
+      <c r="I279" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J279" s="21"/>
+      <c r="K279" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L279" s="21"/>
+      <c r="M279" s="21"/>
+      <c r="N279" s="21"/>
+      <c r="O279" s="21"/>
+      <c r="P279" s="21"/>
+      <c r="Q279" s="21"/>
+      <c r="R279" s="21"/>
+      <c r="S279" s="21"/>
+      <c r="T279" s="21"/>
+      <c r="U279" s="21"/>
+      <c r="V279" s="21"/>
+      <c r="W279" s="21"/>
+      <c r="X279" s="21"/>
+      <c r="Y279" s="21"/>
+      <c r="Z279" s="21"/>
+      <c r="AA279" s="21"/>
+      <c r="AB279" s="17"/>
+    </row>
+    <row r="280" spans="4:60">
+      <c r="D280" s="20"/>
+      <c r="E280" s="21"/>
+      <c r="F280" s="21"/>
+      <c r="G280" s="21"/>
+      <c r="H280" s="21"/>
+      <c r="I280" s="21"/>
+      <c r="J280" s="21"/>
+      <c r="K280" s="21"/>
+      <c r="L280" s="21"/>
+      <c r="M280" s="21"/>
+      <c r="N280" s="21"/>
+      <c r="O280" s="21"/>
+      <c r="P280" s="21"/>
+      <c r="Q280" s="21"/>
+      <c r="R280" s="21"/>
+      <c r="S280" s="21"/>
+      <c r="T280" s="21"/>
+      <c r="U280" s="21"/>
+      <c r="V280" s="21"/>
+      <c r="W280" s="21"/>
+      <c r="X280" s="21"/>
+      <c r="Y280" s="21"/>
+      <c r="Z280" s="21"/>
+      <c r="AA280" s="21"/>
+      <c r="AB280" s="17"/>
+    </row>
+    <row r="281" spans="4:60">
+      <c r="D281" s="20"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="21"/>
+      <c r="J281" s="21"/>
+      <c r="K281" s="21"/>
+      <c r="L281" s="21"/>
+      <c r="M281" s="21"/>
+      <c r="N281" s="21"/>
+      <c r="O281" s="21"/>
+      <c r="P281" s="21"/>
+      <c r="Q281" s="21"/>
+      <c r="R281" s="21"/>
+      <c r="S281" s="21"/>
+      <c r="T281" s="21"/>
+      <c r="U281" s="21"/>
+      <c r="V281" s="21"/>
+      <c r="W281" s="21"/>
+      <c r="X281" s="21"/>
+      <c r="Y281" s="21"/>
+      <c r="Z281" s="21"/>
+      <c r="AA281" s="21"/>
+      <c r="AB281" s="17"/>
+      <c r="AH281" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="282" spans="4:60">
+      <c r="D282" s="20"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="2">
+        <v>0</v>
+      </c>
+      <c r="G282" s="2">
+        <f t="shared" ref="G282" si="190">F282+1</f>
+        <v>1</v>
+      </c>
+      <c r="H282" s="2">
+        <f t="shared" ref="H282" si="191">G282+1</f>
+        <v>2</v>
+      </c>
+      <c r="I282" s="2">
+        <f t="shared" ref="I282" si="192">H282+1</f>
+        <v>3</v>
+      </c>
+      <c r="J282" s="2">
+        <f t="shared" ref="J282" si="193">I282+1</f>
+        <v>4</v>
+      </c>
+      <c r="K282" s="2">
+        <f t="shared" ref="K282" si="194">J282+1</f>
+        <v>5</v>
+      </c>
+      <c r="L282" s="2">
+        <f t="shared" ref="L282" si="195">K282+1</f>
+        <v>6</v>
+      </c>
+      <c r="M282" s="2">
+        <f t="shared" ref="M282" si="196">L282+1</f>
+        <v>7</v>
+      </c>
+      <c r="N282" s="2">
+        <f t="shared" ref="N282" si="197">M282+1</f>
+        <v>8</v>
+      </c>
+      <c r="O282" s="2">
+        <f t="shared" ref="O282" si="198">N282+1</f>
+        <v>9</v>
+      </c>
+      <c r="P282" s="21"/>
+      <c r="Q282" s="21"/>
+      <c r="R282" s="21"/>
+      <c r="S282" s="21"/>
+      <c r="T282" s="21"/>
+      <c r="U282" s="21"/>
+      <c r="V282" s="21"/>
+      <c r="W282" s="21"/>
+      <c r="X282" s="21"/>
+      <c r="Y282" s="21"/>
+      <c r="Z282" s="21"/>
+      <c r="AA282" s="21"/>
+      <c r="AB282" s="17"/>
+      <c r="AG282" s="21"/>
+      <c r="AH282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI282" s="2">
+        <f t="shared" ref="AI282" si="199">AH282+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ282" s="2">
+        <f t="shared" ref="AJ282" si="200">AI282+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK282" s="2">
+        <f t="shared" ref="AK282" si="201">AJ282+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL282" s="2">
+        <f t="shared" ref="AL282" si="202">AK282+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM282" s="2">
+        <f t="shared" ref="AM282" si="203">AL282+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN282" s="2">
+        <f t="shared" ref="AN282" si="204">AM282+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO282" s="2">
+        <f t="shared" ref="AO282" si="205">AN282+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP282" s="2">
+        <f t="shared" ref="AP282" si="206">AO282+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ282" s="2">
+        <f t="shared" ref="AQ282" si="207">AP282+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR282" s="21"/>
+    </row>
+    <row r="283" spans="4:60">
+      <c r="D283" s="20"/>
+      <c r="E283" s="21">
+        <v>0</v>
+      </c>
+      <c r="F283" s="202"/>
+      <c r="G283" s="217"/>
+      <c r="H283" s="204"/>
+      <c r="I283" s="204"/>
+      <c r="J283" s="204"/>
+      <c r="K283" s="204"/>
+      <c r="L283" s="204"/>
+      <c r="M283" s="204"/>
+      <c r="N283" s="204"/>
+      <c r="O283" s="205"/>
+      <c r="P283" s="21"/>
+      <c r="Q283" s="21"/>
+      <c r="R283" s="21"/>
+      <c r="S283" s="21"/>
+      <c r="T283" s="21"/>
+      <c r="U283" s="21"/>
+      <c r="V283" s="21"/>
+      <c r="W283" s="21"/>
+      <c r="X283" s="21"/>
+      <c r="Y283" s="21"/>
+      <c r="Z283" s="21"/>
+      <c r="AA283" s="21"/>
+      <c r="AB283" s="17"/>
+      <c r="AG283" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH283" s="202"/>
+      <c r="AI283" s="217"/>
+      <c r="AJ283" s="204"/>
+      <c r="AK283" s="204"/>
+      <c r="AL283" s="204"/>
+      <c r="AM283" s="204"/>
+      <c r="AN283" s="204"/>
+      <c r="AO283" s="204"/>
+      <c r="AP283" s="204"/>
+      <c r="AQ283" s="205"/>
+      <c r="AR283" s="21"/>
+    </row>
+    <row r="284" spans="4:60">
+      <c r="D284" s="20"/>
+      <c r="E284" s="21">
+        <f t="shared" ref="E284:E288" si="208">E283+1</f>
+        <v>1</v>
+      </c>
+      <c r="F284" s="203"/>
+      <c r="G284" s="223"/>
+      <c r="H284" s="206"/>
+      <c r="I284" s="206"/>
+      <c r="J284" s="206"/>
+      <c r="K284" s="206"/>
+      <c r="L284" s="206"/>
+      <c r="M284" s="206"/>
+      <c r="N284" s="206"/>
+      <c r="O284" s="207"/>
+      <c r="P284" s="21"/>
+      <c r="Q284" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="R284" s="21"/>
+      <c r="S284" s="21"/>
+      <c r="T284" s="21"/>
+      <c r="U284" s="21"/>
+      <c r="V284" s="21"/>
+      <c r="W284" s="21"/>
+      <c r="X284" s="21"/>
+      <c r="Y284" s="21"/>
+      <c r="Z284" s="21"/>
+      <c r="AA284" s="21"/>
+      <c r="AB284" s="17"/>
+      <c r="AG284" s="21">
+        <f t="shared" ref="AG284:AG288" si="209">AG283+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH284" s="203"/>
+      <c r="AI284" s="223"/>
+      <c r="AJ284" s="206"/>
+      <c r="AK284" s="206"/>
+      <c r="AL284" s="206"/>
+      <c r="AM284" s="206"/>
+      <c r="AN284" s="206"/>
+      <c r="AO284" s="206"/>
+      <c r="AP284" s="206"/>
+      <c r="AQ284" s="207"/>
+      <c r="AR284" s="21"/>
+      <c r="AS284" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="285" spans="4:60">
+      <c r="D285" s="20"/>
+      <c r="E285" s="21">
+        <f t="shared" si="208"/>
+        <v>2</v>
+      </c>
+      <c r="F285" s="203"/>
+      <c r="G285" s="223"/>
+      <c r="H285" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I285" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="J285" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K285" s="21"/>
+      <c r="L285" s="21"/>
+      <c r="M285" s="21"/>
+      <c r="N285" s="21"/>
+      <c r="O285" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P285" s="21"/>
+      <c r="Q285" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="R285" s="21"/>
+      <c r="S285" s="21"/>
+      <c r="T285" s="21"/>
+      <c r="U285" s="21"/>
+      <c r="V285" s="21"/>
+      <c r="W285" s="21"/>
+      <c r="X285" s="21"/>
+      <c r="Y285" s="21"/>
+      <c r="Z285" s="21"/>
+      <c r="AA285" s="21"/>
+      <c r="AB285" s="17"/>
+      <c r="AG285" s="21">
+        <f t="shared" si="209"/>
+        <v>2</v>
+      </c>
+      <c r="AH285" s="203"/>
+      <c r="AI285" s="223"/>
+      <c r="AJ285" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK285" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL285" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM285" s="21"/>
+      <c r="AO285" s="21"/>
+      <c r="AP285" s="21"/>
+      <c r="AQ285" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR285" s="21"/>
+      <c r="AS285" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="286" spans="4:60">
+      <c r="D286" s="20"/>
+      <c r="E286" s="21">
+        <f t="shared" si="208"/>
+        <v>3</v>
+      </c>
+      <c r="F286" s="203"/>
+      <c r="G286" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="H286" s="21"/>
+      <c r="I286" s="21"/>
+      <c r="J286" s="21"/>
+      <c r="K286" s="21"/>
+      <c r="L286" s="21"/>
+      <c r="M286" s="21"/>
+      <c r="N286" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O286" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="P286" s="21"/>
+      <c r="Q286" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="R286" s="21"/>
+      <c r="S286" s="21"/>
+      <c r="T286" s="21"/>
+      <c r="U286" s="21"/>
+      <c r="V286" s="21"/>
+      <c r="W286" s="21"/>
+      <c r="X286" s="21"/>
+      <c r="Y286" s="21"/>
+      <c r="Z286" s="21"/>
+      <c r="AA286" s="21"/>
+      <c r="AB286" s="17"/>
+      <c r="AG286" s="21">
+        <f t="shared" si="209"/>
+        <v>3</v>
+      </c>
+      <c r="AH286" s="203"/>
+      <c r="AI286" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ286" s="21"/>
+      <c r="AK286" s="21"/>
+      <c r="AL286" s="21"/>
+      <c r="AM286" s="21"/>
+      <c r="AO286" s="21"/>
+      <c r="AP286" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ286" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR286" s="21"/>
+      <c r="AS286" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="287" spans="4:60">
+      <c r="D287" s="20"/>
+      <c r="E287" s="21">
+        <f t="shared" si="208"/>
+        <v>4</v>
+      </c>
+      <c r="F287" s="203"/>
+      <c r="G287" s="81"/>
+      <c r="H287" s="21"/>
+      <c r="I287" s="21"/>
+      <c r="J287" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K287" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="L287" s="206"/>
+      <c r="M287" s="206"/>
+      <c r="N287" s="206"/>
+      <c r="O287" s="207"/>
+      <c r="P287" s="21"/>
+      <c r="Q287" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="R287" s="21"/>
+      <c r="S287" s="21"/>
+      <c r="T287" s="21"/>
+      <c r="U287" s="21"/>
+      <c r="V287" s="21"/>
+      <c r="W287" s="21"/>
+      <c r="X287" s="21"/>
+      <c r="Y287" s="21"/>
+      <c r="Z287" s="21"/>
+      <c r="AA287" s="21"/>
+      <c r="AB287" s="17"/>
+      <c r="AG287" s="21">
+        <f t="shared" si="209"/>
+        <v>4</v>
+      </c>
+      <c r="AH287" s="203"/>
+      <c r="AI287" s="81"/>
+      <c r="AJ287" s="21"/>
+      <c r="AK287" s="21"/>
+      <c r="AL287" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM287" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN287" s="206"/>
+      <c r="AO287" s="206"/>
+      <c r="AP287" s="206"/>
+      <c r="AQ287" s="207"/>
+      <c r="AR287" s="21"/>
+      <c r="AS287" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="288" spans="4:60">
+      <c r="D288" s="20"/>
+      <c r="E288" s="21">
+        <f t="shared" si="208"/>
+        <v>5</v>
+      </c>
+      <c r="F288" s="200"/>
+      <c r="G288" s="220"/>
+      <c r="H288" s="201"/>
+      <c r="I288" s="201"/>
+      <c r="J288" s="201"/>
+      <c r="K288" s="201"/>
+      <c r="L288" s="201"/>
+      <c r="M288" s="201"/>
+      <c r="N288" s="201"/>
+      <c r="O288" s="224"/>
+      <c r="P288" s="21"/>
+      <c r="Q288" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="R288" s="21"/>
+      <c r="S288" s="21"/>
+      <c r="T288" s="21"/>
+      <c r="U288" s="21"/>
+      <c r="V288" s="21"/>
+      <c r="W288" s="21"/>
+      <c r="X288" s="21"/>
+      <c r="Y288" s="21"/>
+      <c r="Z288" s="21"/>
+      <c r="AA288" s="21"/>
+      <c r="AB288" s="17"/>
+      <c r="AG288" s="21">
+        <f t="shared" si="209"/>
+        <v>5</v>
+      </c>
+      <c r="AH288" s="200"/>
+      <c r="AI288" s="220"/>
+      <c r="AJ288" s="201"/>
+      <c r="AK288" s="201"/>
+      <c r="AL288" s="201"/>
+      <c r="AM288" s="201"/>
+      <c r="AN288" s="201"/>
+      <c r="AO288" s="201"/>
+      <c r="AP288" s="201"/>
+      <c r="AQ288" s="224"/>
+      <c r="AR288" s="21"/>
+    </row>
+    <row r="289" spans="4:45">
+      <c r="D289" s="20"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21"/>
+      <c r="I289" s="21"/>
+      <c r="J289" s="21"/>
+      <c r="K289" s="21"/>
+      <c r="L289" s="21"/>
+      <c r="M289" s="21"/>
+      <c r="N289" s="21"/>
+      <c r="O289" s="21"/>
+      <c r="P289" s="21"/>
+      <c r="Q289" s="21"/>
+      <c r="R289" s="21"/>
+      <c r="S289" s="21"/>
+      <c r="T289" s="21"/>
+      <c r="U289" s="21"/>
+      <c r="V289" s="21"/>
+      <c r="W289" s="21"/>
+      <c r="X289" s="21"/>
+      <c r="Y289" s="21"/>
+      <c r="Z289" s="21"/>
+      <c r="AA289" s="21"/>
+      <c r="AB289" s="17"/>
+    </row>
+    <row r="290" spans="4:45">
+      <c r="D290" s="20"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="21"/>
+      <c r="K290" s="21"/>
+      <c r="L290" s="21"/>
+      <c r="M290" s="21"/>
+      <c r="N290" s="21"/>
+      <c r="O290" s="21"/>
+      <c r="P290" s="21"/>
+      <c r="Q290" s="21"/>
+      <c r="R290" s="21"/>
+      <c r="S290" s="21"/>
+      <c r="T290" s="21"/>
+      <c r="U290" s="21"/>
+      <c r="V290" s="21"/>
+      <c r="W290" s="21"/>
+      <c r="X290" s="21"/>
+      <c r="Y290" s="21"/>
+      <c r="Z290" s="21"/>
+      <c r="AA290" s="21"/>
+      <c r="AB290" s="17"/>
+      <c r="AH290" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="291" spans="4:45">
+      <c r="D291" s="20"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="2">
+        <v>0</v>
+      </c>
+      <c r="G291" s="2">
+        <f t="shared" ref="G291" si="210">F291+1</f>
+        <v>1</v>
+      </c>
+      <c r="H291" s="2">
+        <f t="shared" ref="H291" si="211">G291+1</f>
+        <v>2</v>
+      </c>
+      <c r="I291" s="2">
+        <f t="shared" ref="I291" si="212">H291+1</f>
+        <v>3</v>
+      </c>
+      <c r="J291" s="2">
+        <f t="shared" ref="J291" si="213">I291+1</f>
+        <v>4</v>
+      </c>
+      <c r="K291" s="2">
+        <f t="shared" ref="K291" si="214">J291+1</f>
+        <v>5</v>
+      </c>
+      <c r="L291" s="2">
+        <f t="shared" ref="L291" si="215">K291+1</f>
+        <v>6</v>
+      </c>
+      <c r="M291" s="2">
+        <f t="shared" ref="M291" si="216">L291+1</f>
+        <v>7</v>
+      </c>
+      <c r="N291" s="2">
+        <f t="shared" ref="N291" si="217">M291+1</f>
+        <v>8</v>
+      </c>
+      <c r="O291" s="2">
+        <f t="shared" ref="O291" si="218">N291+1</f>
+        <v>9</v>
+      </c>
+      <c r="P291" s="21"/>
+      <c r="Q291" s="21"/>
+      <c r="R291" s="21"/>
+      <c r="S291" s="21"/>
+      <c r="T291" s="21"/>
+      <c r="U291" s="21"/>
+      <c r="V291" s="21"/>
+      <c r="W291" s="21"/>
+      <c r="X291" s="21"/>
+      <c r="Y291" s="21"/>
+      <c r="Z291" s="21"/>
+      <c r="AA291" s="21"/>
+      <c r="AB291" s="17"/>
+      <c r="AG291" s="21"/>
+      <c r="AH291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI291" s="2">
+        <f t="shared" ref="AI291" si="219">AH291+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ291" s="2">
+        <f t="shared" ref="AJ291" si="220">AI291+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK291" s="2">
+        <f t="shared" ref="AK291" si="221">AJ291+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL291" s="2">
+        <f t="shared" ref="AL291" si="222">AK291+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM291" s="2">
+        <f t="shared" ref="AM291" si="223">AL291+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN291" s="2">
+        <f t="shared" ref="AN291" si="224">AM291+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO291" s="2">
+        <f t="shared" ref="AO291" si="225">AN291+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP291" s="2">
+        <f t="shared" ref="AP291" si="226">AO291+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ291" s="2">
+        <f t="shared" ref="AQ291" si="227">AP291+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR291" s="21"/>
+    </row>
+    <row r="292" spans="4:45">
+      <c r="D292" s="20"/>
+      <c r="E292" s="21">
+        <v>0</v>
+      </c>
+      <c r="F292" s="202"/>
+      <c r="G292" s="217"/>
+      <c r="H292" s="204"/>
+      <c r="I292" s="204"/>
+      <c r="J292" s="204"/>
+      <c r="K292" s="204"/>
+      <c r="L292" s="204"/>
+      <c r="M292" s="204"/>
+      <c r="N292" s="204"/>
+      <c r="O292" s="205"/>
+      <c r="P292" s="21"/>
+      <c r="Q292" s="21"/>
+      <c r="R292" s="21"/>
+      <c r="S292" s="21"/>
+      <c r="T292" s="21"/>
+      <c r="U292" s="21"/>
+      <c r="V292" s="21"/>
+      <c r="W292" s="21"/>
+      <c r="X292" s="21"/>
+      <c r="Y292" s="21"/>
+      <c r="Z292" s="21"/>
+      <c r="AA292" s="21"/>
+      <c r="AB292" s="17"/>
+      <c r="AG292" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH292" s="202"/>
+      <c r="AI292" s="217"/>
+      <c r="AJ292" s="204"/>
+      <c r="AK292" s="204"/>
+      <c r="AL292" s="204"/>
+      <c r="AM292" s="204"/>
+      <c r="AN292" s="204"/>
+      <c r="AO292" s="204"/>
+      <c r="AP292" s="204"/>
+      <c r="AQ292" s="205"/>
+      <c r="AR292" s="21"/>
+    </row>
+    <row r="293" spans="4:45">
+      <c r="D293" s="20"/>
+      <c r="E293" s="21">
+        <f t="shared" ref="E293:E297" si="228">E292+1</f>
+        <v>1</v>
+      </c>
+      <c r="F293" s="203"/>
+      <c r="G293" s="223"/>
+      <c r="H293" s="206"/>
+      <c r="I293" s="206"/>
+      <c r="J293" s="206"/>
+      <c r="K293" s="206"/>
+      <c r="L293" s="206"/>
+      <c r="M293" s="206"/>
+      <c r="N293" s="206"/>
+      <c r="O293" s="207"/>
+      <c r="P293" s="21"/>
+      <c r="Q293" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="R293" s="21"/>
+      <c r="S293" s="21"/>
+      <c r="T293" s="21"/>
+      <c r="U293" s="21"/>
+      <c r="V293" s="21"/>
+      <c r="W293" s="21"/>
+      <c r="X293" s="21"/>
+      <c r="Y293" s="21"/>
+      <c r="Z293" s="21"/>
+      <c r="AA293" s="21"/>
+      <c r="AB293" s="17"/>
+      <c r="AG293" s="21">
+        <f t="shared" ref="AG293:AG297" si="229">AG292+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH293" s="203"/>
+      <c r="AI293" s="223"/>
+      <c r="AJ293" s="206"/>
+      <c r="AK293" s="206"/>
+      <c r="AL293" s="206"/>
+      <c r="AM293" s="206"/>
+      <c r="AN293" s="206"/>
+      <c r="AO293" s="206"/>
+      <c r="AP293" s="206"/>
+      <c r="AQ293" s="207"/>
+      <c r="AR293" s="21"/>
+      <c r="AS293" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="294" spans="4:45">
+      <c r="D294" s="20"/>
+      <c r="E294" s="21">
+        <f t="shared" si="228"/>
+        <v>2</v>
+      </c>
+      <c r="F294" s="203"/>
+      <c r="G294" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="H294" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I294" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="J294" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K294" s="21"/>
+      <c r="L294" s="21"/>
+      <c r="M294" s="21"/>
+      <c r="N294" s="21"/>
+      <c r="O294" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P294" s="21"/>
+      <c r="Q294" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="R294" s="21"/>
+      <c r="S294" s="21"/>
+      <c r="T294" s="21"/>
+      <c r="U294" s="21"/>
+      <c r="V294" s="21"/>
+      <c r="W294" s="21"/>
+      <c r="X294" s="21"/>
+      <c r="Y294" s="21"/>
+      <c r="Z294" s="21"/>
+      <c r="AA294" s="21"/>
+      <c r="AB294" s="17"/>
+      <c r="AG294" s="21">
+        <f t="shared" si="229"/>
+        <v>2</v>
+      </c>
+      <c r="AH294" s="203"/>
+      <c r="AI294" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ294" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK294" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL294" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN294" s="21"/>
+      <c r="AO294" s="21"/>
+      <c r="AP294" s="21"/>
+      <c r="AQ294" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR294" s="21"/>
+      <c r="AS294" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="295" spans="4:45">
+      <c r="D295" s="20"/>
+      <c r="E295" s="21">
+        <f t="shared" si="228"/>
+        <v>3</v>
+      </c>
+      <c r="F295" s="203"/>
+      <c r="G295" s="81"/>
+      <c r="H295" s="21"/>
+      <c r="I295" s="21"/>
+      <c r="J295" s="21"/>
+      <c r="K295" s="21"/>
+      <c r="L295" s="21"/>
+      <c r="M295" s="21"/>
+      <c r="N295" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O295" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="P295" s="21"/>
+      <c r="Q295" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="R295" s="21"/>
+      <c r="S295" s="21"/>
+      <c r="T295" s="21"/>
+      <c r="U295" s="21"/>
+      <c r="V295" s="21"/>
+      <c r="W295" s="21"/>
+      <c r="X295" s="21"/>
+      <c r="Y295" s="21"/>
+      <c r="Z295" s="21"/>
+      <c r="AA295" s="21"/>
+      <c r="AB295" s="17"/>
+      <c r="AG295" s="21">
+        <f t="shared" si="229"/>
+        <v>3</v>
+      </c>
+      <c r="AH295" s="203"/>
+      <c r="AI295" s="81"/>
+      <c r="AJ295" s="21"/>
+      <c r="AK295" s="21"/>
+      <c r="AL295" s="21"/>
+      <c r="AN295" s="21"/>
+      <c r="AO295" s="21"/>
+      <c r="AP295" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ295" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR295" s="21"/>
+    </row>
+    <row r="296" spans="4:45">
+      <c r="D296" s="20"/>
+      <c r="E296" s="21">
+        <f t="shared" si="228"/>
+        <v>4</v>
+      </c>
+      <c r="F296" s="203"/>
+      <c r="G296" s="81"/>
+      <c r="H296" s="21"/>
+      <c r="I296" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J296" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="K296" s="206"/>
+      <c r="L296" s="206"/>
+      <c r="M296" s="206"/>
+      <c r="N296" s="206"/>
+      <c r="O296" s="207"/>
+      <c r="P296" s="21"/>
+      <c r="Q296" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="R296" s="21"/>
+      <c r="S296" s="21"/>
+      <c r="T296" s="21"/>
+      <c r="U296" s="21"/>
+      <c r="V296" s="21"/>
+      <c r="W296" s="21"/>
+      <c r="X296" s="21"/>
+      <c r="Y296" s="21"/>
+      <c r="Z296" s="21"/>
+      <c r="AA296" s="21"/>
+      <c r="AB296" s="17"/>
+      <c r="AG296" s="21">
+        <f t="shared" si="229"/>
+        <v>4</v>
+      </c>
+      <c r="AH296" s="203"/>
+      <c r="AI296" s="81"/>
+      <c r="AJ296" s="21"/>
+      <c r="AK296" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL296" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM296" s="206"/>
+      <c r="AN296" s="206"/>
+      <c r="AO296" s="206"/>
+      <c r="AP296" s="206"/>
+      <c r="AQ296" s="207"/>
+      <c r="AR296" s="21"/>
+    </row>
+    <row r="297" spans="4:45">
+      <c r="D297" s="20"/>
+      <c r="E297" s="21">
+        <f t="shared" si="228"/>
+        <v>5</v>
+      </c>
+      <c r="F297" s="200"/>
+      <c r="G297" s="220"/>
+      <c r="H297" s="201"/>
+      <c r="I297" s="201"/>
+      <c r="J297" s="201"/>
+      <c r="K297" s="201"/>
+      <c r="L297" s="201"/>
+      <c r="M297" s="201"/>
+      <c r="N297" s="201"/>
+      <c r="O297" s="224"/>
+      <c r="P297" s="21"/>
+      <c r="Q297" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="R297" s="21"/>
+      <c r="S297" s="21"/>
+      <c r="T297" s="21"/>
+      <c r="U297" s="21"/>
+      <c r="V297" s="21"/>
+      <c r="W297" s="21"/>
+      <c r="X297" s="21"/>
+      <c r="Y297" s="21"/>
+      <c r="Z297" s="21"/>
+      <c r="AA297" s="21"/>
+      <c r="AB297" s="17"/>
+      <c r="AG297" s="21">
+        <f t="shared" si="229"/>
+        <v>5</v>
+      </c>
+      <c r="AH297" s="200"/>
+      <c r="AI297" s="220"/>
+      <c r="AJ297" s="201"/>
+      <c r="AK297" s="201"/>
+      <c r="AL297" s="201"/>
+      <c r="AM297" s="201"/>
+      <c r="AN297" s="201"/>
+      <c r="AO297" s="201"/>
+      <c r="AP297" s="201"/>
+      <c r="AQ297" s="224"/>
+      <c r="AR297" s="21"/>
+    </row>
+    <row r="298" spans="4:45">
+      <c r="D298" s="20"/>
+      <c r="E298" s="21"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="21"/>
+      <c r="H298" s="21"/>
+      <c r="I298" s="21"/>
+      <c r="J298" s="21"/>
+      <c r="K298" s="21"/>
+      <c r="L298" s="21"/>
+      <c r="M298" s="21"/>
+      <c r="N298" s="21"/>
+      <c r="O298" s="21"/>
+      <c r="P298" s="21"/>
+      <c r="Q298" s="21"/>
+      <c r="R298" s="21"/>
+      <c r="S298" s="21"/>
+      <c r="T298" s="21"/>
+      <c r="U298" s="21"/>
+      <c r="V298" s="21"/>
+      <c r="W298" s="21"/>
+      <c r="X298" s="21"/>
+      <c r="Y298" s="21"/>
+      <c r="Z298" s="21"/>
+      <c r="AA298" s="21"/>
+      <c r="AB298" s="17"/>
+    </row>
+    <row r="299" spans="4:45">
+      <c r="D299" s="20"/>
+      <c r="E299" s="21"/>
+      <c r="F299" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G299" s="21"/>
+      <c r="H299" s="21"/>
+      <c r="I299" s="21"/>
+      <c r="J299" s="21"/>
+      <c r="K299" s="21"/>
+      <c r="L299" s="21"/>
+      <c r="M299" s="21"/>
+      <c r="N299" s="21"/>
+      <c r="O299" s="21"/>
+      <c r="P299" s="21"/>
+      <c r="Q299" s="21"/>
+      <c r="R299" s="21"/>
+      <c r="S299" s="21"/>
+      <c r="T299" s="21"/>
+      <c r="U299" s="21"/>
+      <c r="V299" s="21"/>
+      <c r="W299" s="21"/>
+      <c r="X299" s="21"/>
+      <c r="Y299" s="21"/>
+      <c r="Z299" s="21"/>
+      <c r="AA299" s="21"/>
+      <c r="AB299" s="17"/>
+      <c r="AH299" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="300" spans="4:45">
+      <c r="D300" s="20"/>
+      <c r="E300" s="21"/>
+      <c r="F300" s="2">
+        <v>0</v>
+      </c>
+      <c r="G300" s="2">
+        <f t="shared" ref="G300" si="230">F300+1</f>
+        <v>1</v>
+      </c>
+      <c r="H300" s="2">
+        <f t="shared" ref="H300" si="231">G300+1</f>
+        <v>2</v>
+      </c>
+      <c r="I300" s="2">
+        <f t="shared" ref="I300" si="232">H300+1</f>
+        <v>3</v>
+      </c>
+      <c r="J300" s="2">
+        <f t="shared" ref="J300" si="233">I300+1</f>
+        <v>4</v>
+      </c>
+      <c r="K300" s="2">
+        <f t="shared" ref="K300" si="234">J300+1</f>
+        <v>5</v>
+      </c>
+      <c r="L300" s="2">
+        <f t="shared" ref="L300" si="235">K300+1</f>
+        <v>6</v>
+      </c>
+      <c r="M300" s="2">
+        <f t="shared" ref="M300" si="236">L300+1</f>
+        <v>7</v>
+      </c>
+      <c r="N300" s="2">
+        <f t="shared" ref="N300" si="237">M300+1</f>
+        <v>8</v>
+      </c>
+      <c r="O300" s="2">
+        <f t="shared" ref="O300" si="238">N300+1</f>
+        <v>9</v>
+      </c>
+      <c r="P300" s="21"/>
+      <c r="Q300" s="21"/>
+      <c r="R300" s="21"/>
+      <c r="S300" s="21"/>
+      <c r="T300" s="21"/>
+      <c r="U300" s="21"/>
+      <c r="V300" s="21"/>
+      <c r="W300" s="21"/>
+      <c r="X300" s="21"/>
+      <c r="Y300" s="21"/>
+      <c r="Z300" s="21"/>
+      <c r="AA300" s="21"/>
+      <c r="AB300" s="17"/>
+      <c r="AG300" s="21"/>
+      <c r="AH300" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI300" s="2">
+        <f t="shared" ref="AI300" si="239">AH300+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ300" s="2">
+        <f t="shared" ref="AJ300" si="240">AI300+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK300" s="2">
+        <f t="shared" ref="AK300" si="241">AJ300+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL300" s="2">
+        <f t="shared" ref="AL300" si="242">AK300+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM300" s="2">
+        <f t="shared" ref="AM300" si="243">AL300+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN300" s="2">
+        <f t="shared" ref="AN300" si="244">AM300+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO300" s="2">
+        <f t="shared" ref="AO300" si="245">AN300+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP300" s="2">
+        <f t="shared" ref="AP300" si="246">AO300+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ300" s="2">
+        <f t="shared" ref="AQ300" si="247">AP300+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR300" s="21"/>
+    </row>
+    <row r="301" spans="4:45">
+      <c r="D301" s="20"/>
+      <c r="E301" s="21">
+        <v>0</v>
+      </c>
+      <c r="F301" s="202"/>
+      <c r="G301" s="217"/>
+      <c r="H301" s="204"/>
+      <c r="I301" s="204"/>
+      <c r="J301" s="204"/>
+      <c r="K301" s="204"/>
+      <c r="L301" s="204"/>
+      <c r="M301" s="204"/>
+      <c r="N301" s="204"/>
+      <c r="O301" s="205"/>
+      <c r="P301" s="21"/>
+      <c r="Q301" s="21"/>
+      <c r="R301" s="21"/>
+      <c r="S301" s="21"/>
+      <c r="T301" s="21"/>
+      <c r="U301" s="21"/>
+      <c r="V301" s="21"/>
+      <c r="W301" s="21"/>
+      <c r="X301" s="21"/>
+      <c r="Y301" s="21"/>
+      <c r="Z301" s="21"/>
+      <c r="AA301" s="21"/>
+      <c r="AB301" s="17"/>
+      <c r="AG301" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH301" s="202"/>
+      <c r="AI301" s="217"/>
+      <c r="AJ301" s="204"/>
+      <c r="AK301" s="204"/>
+      <c r="AL301" s="204"/>
+      <c r="AM301" s="204"/>
+      <c r="AN301" s="204"/>
+      <c r="AO301" s="204"/>
+      <c r="AP301" s="204"/>
+      <c r="AQ301" s="205"/>
+      <c r="AR301" s="21"/>
+    </row>
+    <row r="302" spans="4:45">
+      <c r="D302" s="20"/>
+      <c r="E302" s="21">
+        <f t="shared" ref="E302:E306" si="248">E301+1</f>
+        <v>1</v>
+      </c>
+      <c r="F302" s="203"/>
+      <c r="G302" s="223"/>
+      <c r="H302" s="206"/>
+      <c r="I302" s="208"/>
+      <c r="J302" s="206"/>
+      <c r="K302" s="206"/>
+      <c r="L302" s="206"/>
+      <c r="M302" s="206"/>
+      <c r="N302" s="206"/>
+      <c r="O302" s="207"/>
+      <c r="P302" s="21"/>
+      <c r="Q302" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="R302" s="21"/>
+      <c r="S302" s="21"/>
+      <c r="T302" s="21"/>
+      <c r="U302" s="21"/>
+      <c r="V302" s="21"/>
+      <c r="W302" s="21"/>
+      <c r="X302" s="21"/>
+      <c r="Y302" s="21"/>
+      <c r="Z302" s="21"/>
+      <c r="AA302" s="21"/>
+      <c r="AB302" s="17"/>
+      <c r="AG302" s="21">
+        <f t="shared" ref="AG302:AG306" si="249">AG301+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH302" s="203"/>
+      <c r="AI302" s="223"/>
+      <c r="AJ302" s="206"/>
+      <c r="AK302" s="208"/>
+      <c r="AL302" s="206"/>
+      <c r="AM302" s="206"/>
+      <c r="AN302" s="206"/>
+      <c r="AO302" s="206"/>
+      <c r="AP302" s="206"/>
+      <c r="AQ302" s="207"/>
+      <c r="AR302" s="21"/>
+      <c r="AS302" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="303" spans="4:45">
+      <c r="D303" s="20"/>
+      <c r="E303" s="21">
+        <f t="shared" si="248"/>
+        <v>2</v>
+      </c>
+      <c r="F303" s="203"/>
+      <c r="G303" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="H303" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I303" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="J303" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K303" s="21"/>
+      <c r="L303" s="21"/>
+      <c r="M303" s="21"/>
+      <c r="N303" s="21"/>
+      <c r="O303" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P303" s="21"/>
+      <c r="Q303" s="21"/>
+      <c r="R303" s="21"/>
+      <c r="S303" s="21"/>
+      <c r="T303" s="21"/>
+      <c r="U303" s="21"/>
+      <c r="V303" s="21"/>
+      <c r="W303" s="21"/>
+      <c r="X303" s="21"/>
+      <c r="Y303" s="21"/>
+      <c r="Z303" s="21"/>
+      <c r="AA303" s="21"/>
+      <c r="AB303" s="17"/>
+      <c r="AG303" s="21">
+        <f t="shared" si="249"/>
+        <v>2</v>
+      </c>
+      <c r="AH303" s="203"/>
+      <c r="AI303" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ303" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK303" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL303" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN303" s="21"/>
+      <c r="AO303" s="21"/>
+      <c r="AP303" s="21"/>
+      <c r="AQ303" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR303" s="21"/>
+    </row>
+    <row r="304" spans="4:45">
+      <c r="D304" s="20"/>
+      <c r="E304" s="21">
+        <f t="shared" si="248"/>
+        <v>3</v>
+      </c>
+      <c r="F304" s="203"/>
+      <c r="G304" s="81"/>
+      <c r="H304" s="21"/>
+      <c r="I304" s="208"/>
+      <c r="J304" s="21"/>
+      <c r="K304" s="21"/>
+      <c r="L304" s="21"/>
+      <c r="M304" s="21"/>
+      <c r="N304" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O304" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="P304" s="21"/>
+      <c r="Q304" s="21"/>
+      <c r="R304" s="21"/>
+      <c r="S304" s="21"/>
+      <c r="T304" s="21"/>
+      <c r="U304" s="21"/>
+      <c r="V304" s="21"/>
+      <c r="W304" s="21"/>
+      <c r="X304" s="21"/>
+      <c r="Y304" s="21"/>
+      <c r="Z304" s="21"/>
+      <c r="AA304" s="21"/>
+      <c r="AB304" s="17"/>
+      <c r="AG304" s="21">
+        <f t="shared" si="249"/>
+        <v>3</v>
+      </c>
+      <c r="AH304" s="203"/>
+      <c r="AI304" s="81"/>
+      <c r="AJ304" s="21"/>
+      <c r="AK304" s="208"/>
+      <c r="AL304" s="21"/>
+      <c r="AN304" s="21"/>
+      <c r="AO304" s="21"/>
+      <c r="AP304" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ304" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR304" s="21"/>
+    </row>
+    <row r="305" spans="4:56">
+      <c r="D305" s="20"/>
+      <c r="E305" s="21">
+        <f t="shared" si="248"/>
+        <v>4</v>
+      </c>
+      <c r="F305" s="203"/>
+      <c r="G305" s="81"/>
+      <c r="H305" s="21"/>
+      <c r="I305" s="208"/>
+      <c r="J305" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="K305" s="206"/>
+      <c r="L305" s="206"/>
+      <c r="M305" s="206"/>
+      <c r="N305" s="206"/>
+      <c r="O305" s="207"/>
+      <c r="P305" s="21"/>
+      <c r="Q305" s="21"/>
+      <c r="R305" s="21"/>
+      <c r="S305" s="21"/>
+      <c r="T305" s="21"/>
+      <c r="U305" s="21"/>
+      <c r="V305" s="21"/>
+      <c r="W305" s="21"/>
+      <c r="X305" s="21"/>
+      <c r="Y305" s="21"/>
+      <c r="Z305" s="21"/>
+      <c r="AA305" s="21"/>
+      <c r="AB305" s="17"/>
+      <c r="AG305" s="21">
+        <f t="shared" si="249"/>
+        <v>4</v>
+      </c>
+      <c r="AH305" s="203"/>
+      <c r="AI305" s="81"/>
+      <c r="AJ305" s="21"/>
+      <c r="AK305" s="208"/>
+      <c r="AL305" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM305" s="206"/>
+      <c r="AN305" s="206"/>
+      <c r="AO305" s="206"/>
+      <c r="AP305" s="206"/>
+      <c r="AQ305" s="207"/>
+      <c r="AR305" s="21"/>
+    </row>
+    <row r="306" spans="4:56">
+      <c r="D306" s="20"/>
+      <c r="E306" s="21">
+        <f t="shared" si="248"/>
+        <v>5</v>
+      </c>
+      <c r="F306" s="200"/>
+      <c r="G306" s="220"/>
+      <c r="H306" s="201"/>
+      <c r="I306" s="201"/>
+      <c r="J306" s="201"/>
+      <c r="K306" s="201"/>
+      <c r="L306" s="201"/>
+      <c r="M306" s="201"/>
+      <c r="N306" s="201"/>
+      <c r="O306" s="224"/>
+      <c r="P306" s="21"/>
+      <c r="Q306" s="21"/>
+      <c r="R306" s="21"/>
+      <c r="S306" s="21"/>
+      <c r="T306" s="21"/>
+      <c r="U306" s="21"/>
+      <c r="V306" s="21"/>
+      <c r="W306" s="21"/>
+      <c r="X306" s="21"/>
+      <c r="Y306" s="21"/>
+      <c r="Z306" s="21"/>
+      <c r="AA306" s="21"/>
+      <c r="AB306" s="17"/>
+      <c r="AG306" s="21">
+        <f t="shared" si="249"/>
+        <v>5</v>
+      </c>
+      <c r="AH306" s="200"/>
+      <c r="AI306" s="220"/>
+      <c r="AJ306" s="201"/>
+      <c r="AK306" s="201"/>
+      <c r="AL306" s="201"/>
+      <c r="AM306" s="201"/>
+      <c r="AN306" s="201"/>
+      <c r="AO306" s="201"/>
+      <c r="AP306" s="201"/>
+      <c r="AQ306" s="224"/>
+      <c r="AR306" s="21"/>
+    </row>
+    <row r="307" spans="4:56">
+      <c r="D307" s="20"/>
+      <c r="E307" s="21"/>
+      <c r="F307" s="21"/>
+      <c r="G307" s="21"/>
+      <c r="H307" s="21"/>
+      <c r="I307" s="21"/>
+      <c r="J307" s="21"/>
+      <c r="K307" s="21"/>
+      <c r="L307" s="21"/>
+      <c r="M307" s="21"/>
+      <c r="N307" s="21"/>
+      <c r="O307" s="21"/>
+      <c r="P307" s="21"/>
+      <c r="Q307" s="21"/>
+      <c r="R307" s="21"/>
+      <c r="S307" s="21"/>
+      <c r="T307" s="21"/>
+      <c r="U307" s="21"/>
+      <c r="V307" s="21"/>
+      <c r="W307" s="21"/>
+      <c r="X307" s="21"/>
+      <c r="Y307" s="21"/>
+      <c r="Z307" s="21"/>
+      <c r="AA307" s="21"/>
+      <c r="AB307" s="17"/>
+    </row>
+    <row r="308" spans="4:56">
+      <c r="D308" s="20"/>
+      <c r="E308" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F308" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G308" s="21"/>
+      <c r="H308" s="21"/>
+      <c r="I308" s="21"/>
+      <c r="J308" s="21"/>
+      <c r="K308" s="21"/>
+      <c r="L308" s="21"/>
+      <c r="M308" s="21"/>
+      <c r="N308" s="21"/>
+      <c r="O308" s="21"/>
+      <c r="P308" s="21"/>
+      <c r="Q308" s="21"/>
+      <c r="R308" s="21"/>
+      <c r="S308" s="21"/>
+      <c r="T308" s="21"/>
+      <c r="U308" s="21"/>
+      <c r="V308" s="21"/>
+      <c r="W308" s="21"/>
+      <c r="X308" s="21"/>
+      <c r="Y308" s="21"/>
+      <c r="Z308" s="21"/>
+      <c r="AA308" s="21"/>
+      <c r="AB308" s="17"/>
+      <c r="AG308" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH308" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="309" spans="4:56">
+      <c r="D309" s="20"/>
+      <c r="E309" s="21"/>
+      <c r="F309" s="2">
+        <v>0</v>
+      </c>
+      <c r="G309" s="2">
+        <f t="shared" ref="G309" si="250">F309+1</f>
+        <v>1</v>
+      </c>
+      <c r="H309" s="2">
+        <f t="shared" ref="H309" si="251">G309+1</f>
+        <v>2</v>
+      </c>
+      <c r="I309" s="2">
+        <f t="shared" ref="I309" si="252">H309+1</f>
+        <v>3</v>
+      </c>
+      <c r="J309" s="2">
+        <f t="shared" ref="J309" si="253">I309+1</f>
+        <v>4</v>
+      </c>
+      <c r="K309" s="2">
+        <f t="shared" ref="K309" si="254">J309+1</f>
+        <v>5</v>
+      </c>
+      <c r="L309" s="2">
+        <f t="shared" ref="L309" si="255">K309+1</f>
+        <v>6</v>
+      </c>
+      <c r="M309" s="2">
+        <f t="shared" ref="M309" si="256">L309+1</f>
+        <v>7</v>
+      </c>
+      <c r="N309" s="2">
+        <f t="shared" ref="N309" si="257">M309+1</f>
+        <v>8</v>
+      </c>
+      <c r="O309" s="2">
+        <f t="shared" ref="O309" si="258">N309+1</f>
+        <v>9</v>
+      </c>
+      <c r="P309" s="21"/>
+      <c r="Q309" s="21"/>
+      <c r="R309" s="21"/>
+      <c r="S309" s="21"/>
+      <c r="T309" s="21"/>
+      <c r="U309" s="21"/>
+      <c r="V309" s="21"/>
+      <c r="W309" s="21"/>
+      <c r="X309" s="21"/>
+      <c r="Y309" s="21"/>
+      <c r="Z309" s="21"/>
+      <c r="AA309" s="21"/>
+      <c r="AB309" s="17"/>
+      <c r="AG309" s="21"/>
+      <c r="AH309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI309" s="2">
+        <f t="shared" ref="AI309" si="259">AH309+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ309" s="2">
+        <f t="shared" ref="AJ309" si="260">AI309+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK309" s="2">
+        <f t="shared" ref="AK309" si="261">AJ309+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL309" s="2">
+        <f t="shared" ref="AL309" si="262">AK309+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM309" s="2">
+        <f t="shared" ref="AM309" si="263">AL309+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN309" s="2">
+        <f t="shared" ref="AN309" si="264">AM309+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO309" s="2">
+        <f t="shared" ref="AO309" si="265">AN309+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP309" s="2">
+        <f t="shared" ref="AP309" si="266">AO309+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ309" s="2">
+        <f t="shared" ref="AQ309" si="267">AP309+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="4:56">
+      <c r="D310" s="20"/>
+      <c r="E310" s="21">
+        <v>0</v>
+      </c>
+      <c r="F310" s="202"/>
+      <c r="G310" s="217"/>
+      <c r="H310" s="204"/>
+      <c r="I310" s="204"/>
+      <c r="J310" s="204"/>
+      <c r="K310" s="204"/>
+      <c r="L310" s="204"/>
+      <c r="M310" s="204"/>
+      <c r="N310" s="204"/>
+      <c r="O310" s="205"/>
+      <c r="P310" s="21"/>
+      <c r="Q310" s="21"/>
+      <c r="R310" s="21"/>
+      <c r="S310" s="21"/>
+      <c r="T310" s="21"/>
+      <c r="U310" s="21"/>
+      <c r="V310" s="21"/>
+      <c r="W310" s="21"/>
+      <c r="X310" s="21"/>
+      <c r="Y310" s="21"/>
+      <c r="Z310" s="21"/>
+      <c r="AA310" s="21"/>
+      <c r="AB310" s="17"/>
+      <c r="AG310" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH310" s="202"/>
+      <c r="AI310" s="217"/>
+      <c r="AJ310" s="204"/>
+      <c r="AK310" s="204"/>
+      <c r="AL310" s="204"/>
+      <c r="AM310" s="204"/>
+      <c r="AN310" s="204"/>
+      <c r="AO310" s="204"/>
+      <c r="AP310" s="204"/>
+      <c r="AQ310" s="205"/>
+    </row>
+    <row r="311" spans="4:56">
+      <c r="D311" s="20"/>
+      <c r="E311" s="21">
+        <f t="shared" ref="E311:E315" si="268">E310+1</f>
+        <v>1</v>
+      </c>
+      <c r="F311" s="203"/>
+      <c r="G311" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="H311" s="206"/>
+      <c r="I311" s="208"/>
+      <c r="J311" s="206"/>
+      <c r="K311" s="206"/>
+      <c r="L311" s="206"/>
+      <c r="M311" s="206"/>
+      <c r="N311" s="206"/>
+      <c r="O311" s="207"/>
+      <c r="P311" s="21"/>
+      <c r="Q311" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="R311" s="21"/>
+      <c r="S311" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="T311" s="21"/>
+      <c r="U311" s="21"/>
+      <c r="V311" s="21"/>
+      <c r="W311" s="21"/>
+      <c r="X311" s="21"/>
+      <c r="Y311" s="21"/>
+      <c r="Z311" s="21"/>
+      <c r="AA311" s="21"/>
+      <c r="AB311" s="17"/>
+      <c r="AG311" s="21">
+        <f t="shared" ref="AG311:AG315" si="269">AG310+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH311" s="203"/>
+      <c r="AI311" s="225" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ311" s="206"/>
+      <c r="AK311" s="208"/>
+      <c r="AL311" s="206"/>
+      <c r="AM311" s="206"/>
+      <c r="AN311" s="206"/>
+      <c r="AO311" s="206"/>
+      <c r="AP311" s="206"/>
+      <c r="AQ311" s="207"/>
+      <c r="AS311" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT311" s="21"/>
+      <c r="AU311" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV311" s="21"/>
+      <c r="AW311" s="21"/>
+      <c r="AX311" s="21"/>
+      <c r="AY311" s="21"/>
+      <c r="AZ311" s="21"/>
+      <c r="BA311" s="21"/>
+      <c r="BB311" s="21"/>
+      <c r="BC311" s="21"/>
+      <c r="BD311" s="21"/>
+    </row>
+    <row r="312" spans="4:56">
+      <c r="D312" s="20"/>
+      <c r="E312" s="21">
+        <f t="shared" si="268"/>
+        <v>2</v>
+      </c>
+      <c r="F312" s="203"/>
+      <c r="G312" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="H312" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I312" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="J312" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K312" s="21"/>
+      <c r="L312" s="21"/>
+      <c r="M312" s="21"/>
+      <c r="N312" s="21"/>
+      <c r="O312" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P312" s="21"/>
+      <c r="Q312" s="21"/>
+      <c r="R312" s="21"/>
+      <c r="S312" s="21"/>
+      <c r="T312" s="21"/>
+      <c r="U312" s="21"/>
+      <c r="V312" s="21"/>
+      <c r="W312" s="21"/>
+      <c r="X312" s="21"/>
+      <c r="Y312" s="21"/>
+      <c r="Z312" s="21"/>
+      <c r="AA312" s="21"/>
+      <c r="AB312" s="17"/>
+      <c r="AG312" s="21">
+        <f t="shared" si="269"/>
+        <v>2</v>
+      </c>
+      <c r="AH312" s="203"/>
+      <c r="AI312" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ312" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK312" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL312" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN312" s="21"/>
+      <c r="AO312" s="21"/>
+      <c r="AP312" s="21"/>
+      <c r="AQ312" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS312" s="21"/>
+      <c r="AT312" s="21"/>
+      <c r="AU312" s="21"/>
+      <c r="AV312" s="21"/>
+      <c r="AW312" s="21"/>
+      <c r="AX312" s="21"/>
+      <c r="AY312" s="21"/>
+      <c r="AZ312" s="21"/>
+      <c r="BA312" s="21"/>
+      <c r="BB312" s="21"/>
+      <c r="BC312" s="21"/>
+      <c r="BD312" s="21"/>
+    </row>
+    <row r="313" spans="4:56">
+      <c r="D313" s="20"/>
+      <c r="E313" s="21">
+        <f t="shared" si="268"/>
+        <v>3</v>
+      </c>
+      <c r="F313" s="203"/>
+      <c r="G313" s="21"/>
+      <c r="H313" s="21"/>
+      <c r="I313" s="208"/>
+      <c r="J313" s="21"/>
+      <c r="K313" s="21"/>
+      <c r="L313" s="21"/>
+      <c r="M313" s="21"/>
+      <c r="N313" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O313" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="P313" s="21"/>
+      <c r="Q313" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="R313" s="21"/>
+      <c r="S313" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="T313" s="21"/>
+      <c r="U313" s="21"/>
+      <c r="V313" s="21"/>
+      <c r="W313" s="21"/>
+      <c r="X313" s="21"/>
+      <c r="Y313" s="21"/>
+      <c r="Z313" s="21"/>
+      <c r="AA313" s="21"/>
+      <c r="AB313" s="17"/>
+      <c r="AG313" s="21">
+        <f t="shared" si="269"/>
+        <v>3</v>
+      </c>
+      <c r="AH313" s="203"/>
+      <c r="AJ313" s="21"/>
+      <c r="AK313" s="208"/>
+      <c r="AL313" s="21"/>
+      <c r="AN313" s="21"/>
+      <c r="AO313" s="21"/>
+      <c r="AP313" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ313" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS313" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT313" s="21"/>
+      <c r="AU313" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV313" s="21"/>
+      <c r="AW313" s="21"/>
+      <c r="AX313" s="21"/>
+      <c r="AY313" s="21"/>
+      <c r="AZ313" s="21"/>
+      <c r="BA313" s="21"/>
+      <c r="BB313" s="21"/>
+      <c r="BC313" s="21"/>
+      <c r="BD313" s="21"/>
+    </row>
+    <row r="314" spans="4:56">
+      <c r="D314" s="20"/>
+      <c r="E314" s="21">
+        <f t="shared" si="268"/>
+        <v>4</v>
+      </c>
+      <c r="F314" s="203"/>
+      <c r="G314" s="81"/>
+      <c r="H314" s="21"/>
+      <c r="I314" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="J314" s="206"/>
+      <c r="K314" s="206"/>
+      <c r="L314" s="206"/>
+      <c r="M314" s="206"/>
+      <c r="N314" s="206"/>
+      <c r="O314" s="207"/>
+      <c r="P314" s="21"/>
+      <c r="Q314" s="21"/>
+      <c r="R314" s="21"/>
+      <c r="S314" s="21"/>
+      <c r="T314" s="21"/>
+      <c r="U314" s="21"/>
+      <c r="V314" s="21"/>
+      <c r="W314" s="21"/>
+      <c r="X314" s="21"/>
+      <c r="Y314" s="21"/>
+      <c r="Z314" s="21"/>
+      <c r="AA314" s="21"/>
+      <c r="AB314" s="17"/>
+      <c r="AG314" s="21">
+        <f t="shared" si="269"/>
+        <v>4</v>
+      </c>
+      <c r="AH314" s="203"/>
+      <c r="AI314" s="81"/>
+      <c r="AJ314" s="21"/>
+      <c r="AK314" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL314" s="206"/>
+      <c r="AM314" s="206"/>
+      <c r="AN314" s="206"/>
+      <c r="AO314" s="206"/>
+      <c r="AP314" s="206"/>
+      <c r="AQ314" s="207"/>
+    </row>
+    <row r="315" spans="4:56">
+      <c r="D315" s="20"/>
+      <c r="E315" s="21">
+        <f t="shared" si="268"/>
+        <v>5</v>
+      </c>
+      <c r="F315" s="200"/>
+      <c r="G315" s="220"/>
+      <c r="H315" s="201"/>
+      <c r="I315" s="201"/>
+      <c r="J315" s="201"/>
+      <c r="K315" s="201"/>
+      <c r="L315" s="201"/>
+      <c r="M315" s="201"/>
+      <c r="N315" s="201"/>
+      <c r="O315" s="224"/>
+      <c r="P315" s="21"/>
+      <c r="Q315" s="21"/>
+      <c r="R315" s="21"/>
+      <c r="S315" s="21"/>
+      <c r="T315" s="21"/>
+      <c r="U315" s="21"/>
+      <c r="V315" s="21"/>
+      <c r="W315" s="21"/>
+      <c r="X315" s="21"/>
+      <c r="Y315" s="21"/>
+      <c r="Z315" s="21"/>
+      <c r="AA315" s="21"/>
+      <c r="AB315" s="17"/>
+      <c r="AG315" s="21">
+        <f t="shared" si="269"/>
+        <v>5</v>
+      </c>
+      <c r="AH315" s="200"/>
+      <c r="AI315" s="220"/>
+      <c r="AJ315" s="201"/>
+      <c r="AK315" s="201"/>
+      <c r="AL315" s="201"/>
+      <c r="AM315" s="201"/>
+      <c r="AN315" s="201"/>
+      <c r="AO315" s="201"/>
+      <c r="AP315" s="201"/>
+      <c r="AQ315" s="224"/>
+    </row>
+    <row r="316" spans="4:56">
+      <c r="D316" s="20"/>
+      <c r="E316" s="21"/>
+      <c r="F316" s="21"/>
+      <c r="G316" s="21"/>
+      <c r="H316" s="21"/>
+      <c r="I316" s="21"/>
+      <c r="J316" s="21"/>
+      <c r="K316" s="21"/>
+      <c r="L316" s="21"/>
+      <c r="M316" s="21"/>
+      <c r="N316" s="21"/>
+      <c r="O316" s="21"/>
+      <c r="P316" s="21"/>
+      <c r="Q316" s="21"/>
+      <c r="R316" s="21"/>
+      <c r="S316" s="21"/>
+      <c r="T316" s="21"/>
+      <c r="U316" s="21"/>
+      <c r="V316" s="21"/>
+      <c r="W316" s="21"/>
+      <c r="X316" s="21"/>
+      <c r="Y316" s="21"/>
+      <c r="Z316" s="21"/>
+      <c r="AA316" s="21"/>
+      <c r="AB316" s="17"/>
+    </row>
+    <row r="317" spans="4:56">
+      <c r="D317" s="20"/>
+      <c r="E317" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F317" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G317" s="21"/>
+      <c r="H317" s="21"/>
+      <c r="I317" s="21"/>
+      <c r="J317" s="21"/>
+      <c r="K317" s="21"/>
+      <c r="L317" s="21"/>
+      <c r="M317" s="21"/>
+      <c r="N317" s="21"/>
+      <c r="O317" s="21"/>
+      <c r="P317" s="21"/>
+      <c r="Q317" s="21"/>
+      <c r="R317" s="21"/>
+      <c r="S317" s="21"/>
+      <c r="T317" s="21"/>
+      <c r="U317" s="21"/>
+      <c r="V317" s="21"/>
+      <c r="W317" s="21"/>
+      <c r="X317" s="21"/>
+      <c r="Y317" s="21"/>
+      <c r="Z317" s="21"/>
+      <c r="AA317" s="21"/>
+      <c r="AB317" s="17"/>
+      <c r="AG317" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH317" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="318" spans="4:56">
+      <c r="D318" s="20"/>
+      <c r="E318" s="21"/>
+      <c r="F318" s="2">
+        <v>0</v>
+      </c>
+      <c r="G318" s="2">
+        <f>F318+1</f>
+        <v>1</v>
+      </c>
+      <c r="H318" s="2">
+        <f>G318+1</f>
+        <v>2</v>
+      </c>
+      <c r="I318" s="2">
+        <f>H318+1</f>
+        <v>3</v>
+      </c>
+      <c r="J318" s="2">
+        <f>I318+1</f>
+        <v>4</v>
+      </c>
+      <c r="K318" s="2">
+        <f>J318+1</f>
+        <v>5</v>
+      </c>
+      <c r="L318" s="2">
+        <f>K318+1</f>
+        <v>6</v>
+      </c>
+      <c r="M318" s="2">
+        <f>L318+1</f>
+        <v>7</v>
+      </c>
+      <c r="N318" s="2">
+        <f>M318+1</f>
+        <v>8</v>
+      </c>
+      <c r="O318" s="2">
+        <f>N318+1</f>
+        <v>9</v>
+      </c>
+      <c r="P318" s="21"/>
+      <c r="Q318" s="21"/>
+      <c r="R318" s="21"/>
+      <c r="S318" s="21"/>
+      <c r="T318" s="21"/>
+      <c r="U318" s="21"/>
+      <c r="V318" s="21"/>
+      <c r="W318" s="21"/>
+      <c r="X318" s="21"/>
+      <c r="Y318" s="21"/>
+      <c r="Z318" s="21"/>
+      <c r="AA318" s="21"/>
+      <c r="AB318" s="17"/>
+      <c r="AG318" s="21"/>
+      <c r="AH318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI318" s="2">
+        <f>AH318+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ318" s="2">
+        <f>AI318+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK318" s="2">
+        <f>AJ318+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL318" s="2">
+        <f>AK318+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM318" s="2">
+        <f>AL318+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN318" s="2">
+        <f>AM318+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO318" s="2">
+        <f>AN318+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP318" s="2">
+        <f>AO318+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ318" s="2">
+        <f>AP318+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="4:56">
+      <c r="D319" s="20"/>
+      <c r="E319" s="21">
+        <v>0</v>
+      </c>
+      <c r="F319" s="202"/>
+      <c r="G319" s="217"/>
+      <c r="H319" s="204"/>
+      <c r="I319" s="204"/>
+      <c r="J319" s="204"/>
+      <c r="K319" s="204"/>
+      <c r="L319" s="204"/>
+      <c r="M319" s="204"/>
+      <c r="N319" s="204"/>
+      <c r="O319" s="205"/>
+      <c r="P319" s="21"/>
+      <c r="Q319" s="21"/>
+      <c r="R319" s="21"/>
+      <c r="S319" s="21"/>
+      <c r="T319" s="21"/>
+      <c r="U319" s="21"/>
+      <c r="V319" s="21"/>
+      <c r="W319" s="21"/>
+      <c r="X319" s="21"/>
+      <c r="Y319" s="21"/>
+      <c r="Z319" s="21"/>
+      <c r="AA319" s="21"/>
+      <c r="AB319" s="17"/>
+      <c r="AG319" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH319" s="202"/>
+      <c r="AI319" s="217"/>
+      <c r="AJ319" s="204"/>
+      <c r="AK319" s="204"/>
+      <c r="AL319" s="204"/>
+      <c r="AM319" s="204"/>
+      <c r="AN319" s="204"/>
+      <c r="AO319" s="204"/>
+      <c r="AP319" s="204"/>
+      <c r="AQ319" s="205"/>
+    </row>
+    <row r="320" spans="4:56">
+      <c r="D320" s="20"/>
+      <c r="E320" s="21">
+        <f>E319+1</f>
+        <v>1</v>
+      </c>
+      <c r="F320" s="203"/>
+      <c r="G320" s="81"/>
+      <c r="H320" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="I320" s="208"/>
+      <c r="J320" s="206"/>
+      <c r="K320" s="206"/>
+      <c r="L320" s="206"/>
+      <c r="M320" s="206"/>
+      <c r="N320" s="206"/>
+      <c r="O320" s="207"/>
+      <c r="P320" s="21"/>
+      <c r="Q320" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="R320" s="21"/>
+      <c r="S320" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="T320" s="21"/>
+      <c r="U320" s="21"/>
+      <c r="V320" s="21"/>
+      <c r="W320" s="21"/>
+      <c r="X320" s="21"/>
+      <c r="Y320" s="21"/>
+      <c r="Z320" s="21"/>
+      <c r="AA320" s="21"/>
+      <c r="AB320" s="17"/>
+      <c r="AG320" s="21">
+        <f>AG319+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH320" s="203"/>
+      <c r="AI320" s="81"/>
+      <c r="AJ320" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK320" s="208"/>
+      <c r="AL320" s="206"/>
+      <c r="AM320" s="206"/>
+      <c r="AN320" s="206"/>
+      <c r="AO320" s="206"/>
+      <c r="AP320" s="206"/>
+      <c r="AQ320" s="207"/>
+      <c r="AS320" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT320" s="21"/>
+      <c r="AU320" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV320" s="21"/>
+      <c r="AW320" s="21"/>
+    </row>
+    <row r="321" spans="4:55">
+      <c r="D321" s="20"/>
+      <c r="E321" s="21">
+        <f>E320+1</f>
+        <v>2</v>
+      </c>
+      <c r="F321" s="203"/>
+      <c r="G321" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H321" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I321" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="J321" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K321" s="21"/>
+      <c r="L321" s="21"/>
+      <c r="M321" s="21"/>
+      <c r="N321" s="21"/>
+      <c r="O321" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P321" s="21"/>
+      <c r="Q321" s="21"/>
+      <c r="R321" s="21"/>
+      <c r="S321" s="21"/>
+      <c r="T321" s="21"/>
+      <c r="U321" s="21"/>
+      <c r="V321" s="21"/>
+      <c r="W321" s="21"/>
+      <c r="X321" s="21"/>
+      <c r="Y321" s="21"/>
+      <c r="Z321" s="21"/>
+      <c r="AA321" s="21"/>
+      <c r="AB321" s="17"/>
+      <c r="AG321" s="21">
+        <f>AG320+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH321" s="203"/>
+      <c r="AI321" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ321" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK321" s="216" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL321" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM321" s="21"/>
+      <c r="AN321" s="21"/>
+      <c r="AO321" s="21"/>
+      <c r="AP321" s="21"/>
+      <c r="AQ321" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS321" s="21"/>
+      <c r="AT321" s="21"/>
+      <c r="AU321" s="21"/>
+      <c r="AV321" s="21"/>
+      <c r="AW321" s="21"/>
+    </row>
+    <row r="322" spans="4:55">
+      <c r="D322" s="20"/>
+      <c r="E322" s="21">
+        <f>E321+1</f>
+        <v>3</v>
+      </c>
+      <c r="F322" s="203"/>
+      <c r="G322" s="21"/>
+      <c r="H322" s="21"/>
+      <c r="I322" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="J322" s="21"/>
+      <c r="K322" s="21"/>
+      <c r="L322" s="21"/>
+      <c r="M322" s="21"/>
+      <c r="N322" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O322" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="P322" s="21"/>
+      <c r="Q322" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="R322" s="21"/>
+      <c r="S322" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="T322" s="21"/>
+      <c r="U322" s="21"/>
+      <c r="V322" s="21"/>
+      <c r="W322" s="21"/>
+      <c r="X322" s="21"/>
+      <c r="Y322" s="21"/>
+      <c r="Z322" s="21"/>
+      <c r="AA322" s="21"/>
+      <c r="AB322" s="17"/>
+      <c r="AG322" s="21">
+        <f>AG321+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH322" s="203"/>
+      <c r="AJ322" s="21"/>
+      <c r="AK322" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM322" s="21"/>
+      <c r="AN322" s="21"/>
+      <c r="AO322" s="21"/>
+      <c r="AP322" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ322" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS322" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT322" s="21"/>
+      <c r="AU322" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV322" s="21"/>
+      <c r="AW322" s="21"/>
+    </row>
+    <row r="323" spans="4:55">
+      <c r="D323" s="20"/>
+      <c r="E323" s="21">
+        <f>E322+1</f>
+        <v>4</v>
+      </c>
+      <c r="F323" s="203"/>
+      <c r="G323" s="81"/>
+      <c r="H323" s="21"/>
+      <c r="I323" s="206"/>
+      <c r="J323" s="206"/>
+      <c r="K323" s="206"/>
+      <c r="L323" s="206"/>
+      <c r="M323" s="206"/>
+      <c r="N323" s="206"/>
+      <c r="O323" s="207"/>
+      <c r="P323" s="21"/>
+      <c r="Q323" s="21"/>
+      <c r="R323" s="21"/>
+      <c r="S323" s="21"/>
+      <c r="T323" s="21"/>
+      <c r="U323" s="21"/>
+      <c r="V323" s="21"/>
+      <c r="W323" s="21"/>
+      <c r="X323" s="21"/>
+      <c r="Y323" s="21"/>
+      <c r="Z323" s="21"/>
+      <c r="AA323" s="21"/>
+      <c r="AB323" s="17"/>
+      <c r="AG323" s="21">
+        <f>AG322+1</f>
+        <v>4</v>
+      </c>
+      <c r="AH323" s="203"/>
+      <c r="AI323" s="81"/>
+      <c r="AJ323" s="21"/>
+      <c r="AK323" s="206"/>
+      <c r="AL323" s="206"/>
+      <c r="AM323" s="206"/>
+      <c r="AN323" s="206"/>
+      <c r="AO323" s="206"/>
+      <c r="AP323" s="206"/>
+      <c r="AQ323" s="207"/>
+    </row>
+    <row r="324" spans="4:55">
+      <c r="D324" s="20"/>
+      <c r="E324" s="21">
+        <f>E323+1</f>
+        <v>5</v>
+      </c>
+      <c r="F324" s="200"/>
+      <c r="G324" s="220"/>
+      <c r="H324" s="201"/>
+      <c r="I324" s="201"/>
+      <c r="J324" s="201"/>
+      <c r="K324" s="201"/>
+      <c r="L324" s="201"/>
+      <c r="M324" s="201"/>
+      <c r="N324" s="201"/>
+      <c r="O324" s="224"/>
+      <c r="P324" s="21"/>
+      <c r="Q324" s="21"/>
+      <c r="R324" s="21"/>
+      <c r="S324" s="21"/>
+      <c r="T324" s="21"/>
+      <c r="U324" s="21"/>
+      <c r="V324" s="21"/>
+      <c r="W324" s="21"/>
+      <c r="X324" s="21"/>
+      <c r="Y324" s="21"/>
+      <c r="Z324" s="21"/>
+      <c r="AA324" s="21"/>
+      <c r="AB324" s="17"/>
+      <c r="AG324" s="21">
+        <f>AG323+1</f>
+        <v>5</v>
+      </c>
+      <c r="AH324" s="200"/>
+      <c r="AI324" s="220"/>
+      <c r="AJ324" s="201"/>
+      <c r="AK324" s="201"/>
+      <c r="AL324" s="201"/>
+      <c r="AM324" s="201"/>
+      <c r="AN324" s="201"/>
+      <c r="AO324" s="201"/>
+      <c r="AP324" s="201"/>
+      <c r="AQ324" s="224"/>
+    </row>
+    <row r="325" spans="4:55">
+      <c r="D325" s="20"/>
+      <c r="E325" s="21"/>
+      <c r="F325" s="21"/>
+      <c r="G325" s="21"/>
+      <c r="H325" s="21"/>
+      <c r="I325" s="21"/>
+      <c r="J325" s="21"/>
+      <c r="K325" s="21"/>
+      <c r="L325" s="21"/>
+      <c r="M325" s="21"/>
+      <c r="N325" s="21"/>
+      <c r="O325" s="21"/>
+      <c r="P325" s="21"/>
+      <c r="Q325" s="21"/>
+      <c r="R325" s="21"/>
+      <c r="S325" s="21"/>
+      <c r="T325" s="21"/>
+      <c r="U325" s="21"/>
+      <c r="V325" s="21"/>
+      <c r="W325" s="21"/>
+      <c r="X325" s="21"/>
+      <c r="Y325" s="21"/>
+      <c r="Z325" s="21"/>
+      <c r="AA325" s="21"/>
+      <c r="AB325" s="17"/>
+    </row>
+    <row r="326" spans="4:55">
+      <c r="D326" s="20"/>
+      <c r="E326" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F326" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G326" s="21"/>
+      <c r="H326" s="21"/>
+      <c r="I326" s="21"/>
+      <c r="J326" s="21"/>
+      <c r="K326" s="21"/>
+      <c r="L326" s="21"/>
+      <c r="M326" s="21"/>
+      <c r="N326" s="21"/>
+      <c r="O326" s="21"/>
+      <c r="P326" s="21"/>
+      <c r="Q326" s="21"/>
+      <c r="R326" s="21"/>
+      <c r="S326" s="21"/>
+      <c r="T326" s="21"/>
+      <c r="U326" s="21"/>
+      <c r="V326" s="21"/>
+      <c r="W326" s="21"/>
+      <c r="X326" s="21"/>
+      <c r="Y326" s="21"/>
+      <c r="Z326" s="21"/>
+      <c r="AA326" s="21"/>
+      <c r="AB326" s="17"/>
+      <c r="AG326" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH326" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="327" spans="4:55">
+      <c r="D327" s="20"/>
+      <c r="E327" s="21"/>
+      <c r="F327" s="2">
+        <v>0</v>
+      </c>
+      <c r="G327" s="2">
+        <f>F327+1</f>
+        <v>1</v>
+      </c>
+      <c r="H327" s="2">
+        <f>G327+1</f>
+        <v>2</v>
+      </c>
+      <c r="I327" s="2">
+        <f>H327+1</f>
+        <v>3</v>
+      </c>
+      <c r="J327" s="2">
+        <f>I327+1</f>
+        <v>4</v>
+      </c>
+      <c r="K327" s="2">
+        <f>J327+1</f>
+        <v>5</v>
+      </c>
+      <c r="L327" s="2">
+        <f>K327+1</f>
+        <v>6</v>
+      </c>
+      <c r="M327" s="2">
+        <f>L327+1</f>
+        <v>7</v>
+      </c>
+      <c r="N327" s="2">
+        <f>M327+1</f>
+        <v>8</v>
+      </c>
+      <c r="O327" s="2">
+        <f>N327+1</f>
+        <v>9</v>
+      </c>
+      <c r="P327" s="21"/>
+      <c r="Q327" s="21"/>
+      <c r="R327" s="21"/>
+      <c r="S327" s="21"/>
+      <c r="T327" s="21"/>
+      <c r="U327" s="21"/>
+      <c r="V327" s="21"/>
+      <c r="W327" s="21"/>
+      <c r="X327" s="21"/>
+      <c r="Y327" s="21"/>
+      <c r="Z327" s="21"/>
+      <c r="AA327" s="21"/>
+      <c r="AB327" s="17"/>
+      <c r="AG327" s="21"/>
+      <c r="AH327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI327" s="2">
+        <f>AH327+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ327" s="2">
+        <f>AI327+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK327" s="2">
+        <f>AJ327+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL327" s="2">
+        <f>AK327+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM327" s="2">
+        <f>AL327+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN327" s="2">
+        <f>AM327+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO327" s="2">
+        <f>AN327+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP327" s="2">
+        <f>AO327+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ327" s="2">
+        <f>AP327+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="4:55">
+      <c r="D328" s="20"/>
+      <c r="E328" s="21">
+        <v>0</v>
+      </c>
+      <c r="F328" s="202"/>
+      <c r="G328" s="217"/>
+      <c r="H328" s="204"/>
+      <c r="I328" s="204"/>
+      <c r="J328" s="204"/>
+      <c r="K328" s="204"/>
+      <c r="L328" s="204"/>
+      <c r="M328" s="204"/>
+      <c r="N328" s="204"/>
+      <c r="O328" s="205"/>
+      <c r="P328" s="21"/>
+      <c r="Q328" s="21"/>
+      <c r="R328" s="21"/>
+      <c r="S328" s="21"/>
+      <c r="T328" s="21"/>
+      <c r="U328" s="21"/>
+      <c r="V328" s="21"/>
+      <c r="W328" s="21"/>
+      <c r="X328" s="21"/>
+      <c r="Y328" s="21"/>
+      <c r="Z328" s="21"/>
+      <c r="AA328" s="21"/>
+      <c r="AB328" s="17"/>
+      <c r="AG328" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH328" s="202"/>
+      <c r="AI328" s="217"/>
+      <c r="AJ328" s="204"/>
+      <c r="AK328" s="204"/>
+      <c r="AL328" s="204"/>
+      <c r="AM328" s="204"/>
+      <c r="AN328" s="204"/>
+      <c r="AO328" s="204"/>
+      <c r="AP328" s="204"/>
+      <c r="AQ328" s="205"/>
+    </row>
+    <row r="329" spans="4:55">
+      <c r="D329" s="20"/>
+      <c r="E329" s="21">
+        <f>E328+1</f>
+        <v>1</v>
+      </c>
+      <c r="F329" s="203"/>
+      <c r="G329" s="81"/>
+      <c r="H329" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="I329" s="208"/>
+      <c r="J329" s="206"/>
+      <c r="K329" s="206"/>
+      <c r="L329" s="206"/>
+      <c r="M329" s="206"/>
+      <c r="N329" s="206"/>
+      <c r="O329" s="207"/>
+      <c r="P329" s="21"/>
+      <c r="Q329" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="R329" s="21"/>
+      <c r="S329" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="T329" s="21"/>
+      <c r="U329" s="21"/>
+      <c r="V329" s="21"/>
+      <c r="W329" s="21"/>
+      <c r="X329" s="21"/>
+      <c r="Y329" s="21"/>
+      <c r="Z329" s="21"/>
+      <c r="AA329" s="21"/>
+      <c r="AB329" s="17"/>
+      <c r="AG329" s="21">
+        <f>AG328+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH329" s="203"/>
+      <c r="AI329" s="81"/>
+      <c r="AJ329" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK329" s="208"/>
+      <c r="AL329" s="206"/>
+      <c r="AM329" s="206"/>
+      <c r="AN329" s="206"/>
+      <c r="AO329" s="206"/>
+      <c r="AP329" s="206"/>
+      <c r="AQ329" s="207"/>
+      <c r="AS329" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT329" s="21"/>
+      <c r="AU329" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV329" s="21"/>
+      <c r="AW329" s="21"/>
+      <c r="AX329" s="21"/>
+      <c r="AY329" s="21"/>
+      <c r="AZ329" s="21"/>
+      <c r="BA329" s="21"/>
+      <c r="BB329" s="21"/>
+      <c r="BC329" s="21"/>
+    </row>
+    <row r="330" spans="4:55">
+      <c r="D330" s="20"/>
+      <c r="E330" s="21">
+        <f>E329+1</f>
+        <v>2</v>
+      </c>
+      <c r="F330" s="203"/>
+      <c r="G330" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H330" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I330" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="J330" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K330" s="21"/>
+      <c r="L330" s="21"/>
+      <c r="M330" s="21"/>
+      <c r="N330" s="21"/>
+      <c r="O330" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P330" s="21"/>
+      <c r="Q330" s="21"/>
+      <c r="R330" s="21"/>
+      <c r="S330" s="21"/>
+      <c r="T330" s="21"/>
+      <c r="U330" s="21"/>
+      <c r="V330" s="21"/>
+      <c r="W330" s="21"/>
+      <c r="X330" s="21"/>
+      <c r="Y330" s="21"/>
+      <c r="Z330" s="21"/>
+      <c r="AA330" s="21"/>
+      <c r="AB330" s="17"/>
+      <c r="AG330" s="21">
+        <f>AG329+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH330" s="203"/>
+      <c r="AI330" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ330" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK330" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL330" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN330" s="21"/>
+      <c r="AO330" s="21"/>
+      <c r="AP330" s="21"/>
+      <c r="AQ330" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS330" s="21"/>
+      <c r="AT330" s="21"/>
+      <c r="AU330" s="21"/>
+      <c r="AV330" s="21"/>
+      <c r="AW330" s="21"/>
+      <c r="AX330" s="21"/>
+      <c r="AY330" s="21"/>
+      <c r="AZ330" s="21"/>
+      <c r="BA330" s="21"/>
+      <c r="BB330" s="21"/>
+      <c r="BC330" s="21"/>
+    </row>
+    <row r="331" spans="4:55">
+      <c r="D331" s="20"/>
+      <c r="E331" s="21">
+        <f>E330+1</f>
+        <v>3</v>
+      </c>
+      <c r="F331" s="203"/>
+      <c r="G331" s="21"/>
+      <c r="H331" s="21"/>
+      <c r="I331" s="206"/>
+      <c r="J331" s="21"/>
+      <c r="K331" s="21"/>
+      <c r="L331" s="21"/>
+      <c r="M331" s="21"/>
+      <c r="N331" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O331" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="P331" s="21"/>
+      <c r="Q331" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="R331" s="21"/>
+      <c r="S331" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="T331" s="21"/>
+      <c r="U331" s="21"/>
+      <c r="V331" s="21"/>
+      <c r="W331" s="21"/>
+      <c r="X331" s="21"/>
+      <c r="Y331" s="21"/>
+      <c r="Z331" s="21"/>
+      <c r="AA331" s="21"/>
+      <c r="AB331" s="17"/>
+      <c r="AG331" s="21">
+        <f>AG330+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH331" s="203"/>
+      <c r="AJ331" s="21"/>
+      <c r="AK331" s="206"/>
+      <c r="AM331" s="21"/>
+      <c r="AN331" s="21"/>
+      <c r="AO331" s="21"/>
+      <c r="AP331" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ331" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS331" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT331" s="21"/>
+      <c r="AU331" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV331" s="21"/>
+      <c r="AW331" s="21"/>
+      <c r="AX331" s="21"/>
+      <c r="AY331" s="21"/>
+      <c r="AZ331" s="21"/>
+      <c r="BA331" s="21"/>
+      <c r="BB331" s="21"/>
+      <c r="BC331" s="21"/>
+    </row>
+    <row r="332" spans="4:55">
+      <c r="D332" s="20"/>
+      <c r="E332" s="21">
+        <f>E331+1</f>
+        <v>4</v>
+      </c>
+      <c r="F332" s="203"/>
+      <c r="G332" s="81"/>
+      <c r="H332" s="21"/>
+      <c r="I332" s="206"/>
+      <c r="J332" s="206"/>
+      <c r="K332" s="206"/>
+      <c r="L332" s="206"/>
+      <c r="M332" s="206"/>
+      <c r="N332" s="206"/>
+      <c r="O332" s="207"/>
+      <c r="P332" s="21"/>
+      <c r="Q332" s="21"/>
+      <c r="R332" s="21"/>
+      <c r="S332" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T332" s="21"/>
+      <c r="U332" s="21"/>
+      <c r="V332" s="21"/>
+      <c r="W332" s="21"/>
+      <c r="X332" s="21"/>
+      <c r="Y332" s="21"/>
+      <c r="Z332" s="21"/>
+      <c r="AA332" s="21"/>
+      <c r="AB332" s="17"/>
+      <c r="AG332" s="21">
+        <f>AG331+1</f>
+        <v>4</v>
+      </c>
+      <c r="AH332" s="203"/>
+      <c r="AI332" s="81"/>
+      <c r="AJ332" s="21"/>
+      <c r="AK332" s="206"/>
+      <c r="AL332" s="206"/>
+      <c r="AM332" s="206"/>
+      <c r="AN332" s="206"/>
+      <c r="AO332" s="206"/>
+      <c r="AP332" s="206"/>
+      <c r="AQ332" s="207"/>
+      <c r="AS332" s="21"/>
+      <c r="AT332" s="21"/>
+      <c r="AU332" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV332" s="21"/>
+      <c r="AW332" s="21"/>
+      <c r="AX332" s="21"/>
+      <c r="AY332" s="21"/>
+      <c r="AZ332" s="21"/>
+      <c r="BA332" s="21"/>
+      <c r="BB332" s="21"/>
+      <c r="BC332" s="21"/>
+    </row>
+    <row r="333" spans="4:55">
+      <c r="D333" s="20"/>
+      <c r="E333" s="21">
+        <f>E332+1</f>
+        <v>5</v>
+      </c>
+      <c r="F333" s="200"/>
+      <c r="G333" s="220"/>
+      <c r="H333" s="201"/>
+      <c r="I333" s="201"/>
+      <c r="J333" s="201"/>
+      <c r="K333" s="201"/>
+      <c r="L333" s="201"/>
+      <c r="M333" s="201"/>
+      <c r="N333" s="201"/>
+      <c r="O333" s="224"/>
+      <c r="P333" s="21"/>
+      <c r="Q333" s="21"/>
+      <c r="R333" s="21"/>
+      <c r="S333" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="T333" s="21"/>
+      <c r="U333" s="21"/>
+      <c r="V333" s="21"/>
+      <c r="W333" s="21"/>
+      <c r="X333" s="21"/>
+      <c r="Y333" s="21"/>
+      <c r="Z333" s="21"/>
+      <c r="AA333" s="21"/>
+      <c r="AB333" s="17"/>
+      <c r="AG333" s="21">
+        <f>AG332+1</f>
+        <v>5</v>
+      </c>
+      <c r="AH333" s="200"/>
+      <c r="AI333" s="220"/>
+      <c r="AJ333" s="201"/>
+      <c r="AK333" s="201"/>
+      <c r="AL333" s="201"/>
+      <c r="AM333" s="201"/>
+      <c r="AN333" s="201"/>
+      <c r="AO333" s="201"/>
+      <c r="AP333" s="201"/>
+      <c r="AQ333" s="224"/>
+      <c r="AS333" s="21"/>
+      <c r="AT333" s="21"/>
+      <c r="AU333" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV333" s="21"/>
+      <c r="AW333" s="21"/>
+      <c r="AX333" s="21"/>
+      <c r="AY333" s="21"/>
+      <c r="AZ333" s="21"/>
+      <c r="BA333" s="21"/>
+      <c r="BB333" s="21"/>
+      <c r="BC333" s="21"/>
+    </row>
+    <row r="334" spans="4:55">
+      <c r="D334" s="20"/>
+      <c r="E334" s="21"/>
+      <c r="F334" s="21"/>
+      <c r="G334" s="21"/>
+      <c r="H334" s="21"/>
+      <c r="I334" s="21"/>
+      <c r="J334" s="21"/>
+      <c r="K334" s="21"/>
+      <c r="L334" s="21"/>
+      <c r="M334" s="21"/>
+      <c r="N334" s="21"/>
+      <c r="O334" s="21"/>
+      <c r="P334" s="21"/>
+      <c r="Q334" s="21"/>
+      <c r="R334" s="21"/>
+      <c r="S334" s="21"/>
+      <c r="T334" s="21"/>
+      <c r="U334" s="21"/>
+      <c r="V334" s="21"/>
+      <c r="W334" s="21"/>
+      <c r="X334" s="21"/>
+      <c r="Y334" s="21"/>
+      <c r="Z334" s="21"/>
+      <c r="AA334" s="21"/>
+      <c r="AB334" s="17"/>
+    </row>
+    <row r="335" spans="4:55">
+      <c r="D335" s="20"/>
+      <c r="E335" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F335" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G335" s="21"/>
+      <c r="H335" s="21"/>
+      <c r="I335" s="21"/>
+      <c r="J335" s="21"/>
+      <c r="K335" s="21"/>
+      <c r="L335" s="21"/>
+      <c r="M335" s="21"/>
+      <c r="N335" s="21"/>
+      <c r="O335" s="21"/>
+      <c r="P335" s="21"/>
+      <c r="Q335" s="21"/>
+      <c r="R335" s="21"/>
+      <c r="S335" s="21"/>
+      <c r="T335" s="21"/>
+      <c r="U335" s="21"/>
+      <c r="V335" s="21"/>
+      <c r="W335" s="21"/>
+      <c r="X335" s="21"/>
+      <c r="Y335" s="21"/>
+      <c r="Z335" s="21"/>
+      <c r="AA335" s="21"/>
+      <c r="AB335" s="17"/>
+      <c r="AG335" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH335" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="336" spans="4:55">
+      <c r="D336" s="20"/>
+      <c r="E336" s="21"/>
+      <c r="F336" s="2">
+        <v>0</v>
+      </c>
+      <c r="G336" s="2">
+        <f>F336+1</f>
+        <v>1</v>
+      </c>
+      <c r="H336" s="2">
+        <f>G336+1</f>
+        <v>2</v>
+      </c>
+      <c r="I336" s="2">
+        <f>H336+1</f>
+        <v>3</v>
+      </c>
+      <c r="J336" s="2">
+        <f>I336+1</f>
+        <v>4</v>
+      </c>
+      <c r="K336" s="2">
+        <f>J336+1</f>
+        <v>5</v>
+      </c>
+      <c r="L336" s="2">
+        <f>K336+1</f>
+        <v>6</v>
+      </c>
+      <c r="M336" s="2">
+        <f>L336+1</f>
+        <v>7</v>
+      </c>
+      <c r="N336" s="2">
+        <f>M336+1</f>
+        <v>8</v>
+      </c>
+      <c r="O336" s="2">
+        <f>N336+1</f>
+        <v>9</v>
+      </c>
+      <c r="P336" s="21"/>
+      <c r="Q336" s="21"/>
+      <c r="R336" s="21"/>
+      <c r="S336" s="21"/>
+      <c r="T336" s="21"/>
+      <c r="U336" s="21"/>
+      <c r="V336" s="21"/>
+      <c r="W336" s="21"/>
+      <c r="X336" s="21"/>
+      <c r="Y336" s="21"/>
+      <c r="Z336" s="21"/>
+      <c r="AA336" s="21"/>
+      <c r="AB336" s="17"/>
+      <c r="AG336" s="21"/>
+      <c r="AH336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI336" s="2">
+        <f>AH336+1</f>
+        <v>1</v>
+      </c>
+      <c r="AJ336" s="2">
+        <f>AI336+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK336" s="2">
+        <f>AJ336+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL336" s="2">
+        <f>AK336+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM336" s="2">
+        <f>AL336+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN336" s="2">
+        <f>AM336+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO336" s="2">
+        <f>AN336+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP336" s="2">
+        <f>AO336+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ336" s="2">
+        <f>AP336+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="4:45">
+      <c r="D337" s="20"/>
+      <c r="E337" s="21">
+        <v>0</v>
+      </c>
+      <c r="F337" s="202"/>
+      <c r="G337" s="217"/>
+      <c r="H337" s="204"/>
+      <c r="I337" s="204"/>
+      <c r="J337" s="204"/>
+      <c r="K337" s="204"/>
+      <c r="L337" s="204"/>
+      <c r="M337" s="204"/>
+      <c r="N337" s="204"/>
+      <c r="O337" s="205"/>
+      <c r="P337" s="21"/>
+      <c r="Q337" s="21"/>
+      <c r="R337" s="21"/>
+      <c r="S337" s="21"/>
+      <c r="T337" s="21"/>
+      <c r="U337" s="21"/>
+      <c r="V337" s="21"/>
+      <c r="W337" s="21"/>
+      <c r="X337" s="21"/>
+      <c r="Y337" s="21"/>
+      <c r="Z337" s="21"/>
+      <c r="AA337" s="21"/>
+      <c r="AB337" s="17"/>
+      <c r="AG337" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH337" s="202"/>
+      <c r="AI337" s="217"/>
+      <c r="AJ337" s="204"/>
+      <c r="AK337" s="204"/>
+      <c r="AL337" s="204"/>
+      <c r="AM337" s="204"/>
+      <c r="AN337" s="204"/>
+      <c r="AO337" s="204"/>
+      <c r="AP337" s="204"/>
+      <c r="AQ337" s="205"/>
+    </row>
+    <row r="338" spans="4:45">
+      <c r="D338" s="20"/>
+      <c r="E338" s="21">
+        <f>E337+1</f>
+        <v>1</v>
+      </c>
+      <c r="F338" s="203"/>
+      <c r="G338" s="81"/>
+      <c r="H338" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="I338" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="J338" s="206"/>
+      <c r="K338" s="206"/>
+      <c r="L338" s="206"/>
+      <c r="M338" s="206"/>
+      <c r="N338" s="206"/>
+      <c r="O338" s="207"/>
+      <c r="P338" s="21"/>
+      <c r="Q338" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="R338" s="21"/>
+      <c r="S338" s="21"/>
+      <c r="T338" s="21"/>
+      <c r="U338" s="21"/>
+      <c r="V338" s="21"/>
+      <c r="W338" s="21"/>
+      <c r="X338" s="21"/>
+      <c r="Y338" s="21"/>
+      <c r="Z338" s="21"/>
+      <c r="AA338" s="21"/>
+      <c r="AB338" s="17"/>
+      <c r="AG338" s="21">
+        <f>AG337+1</f>
+        <v>1</v>
+      </c>
+      <c r="AH338" s="203"/>
+      <c r="AI338" s="81"/>
+      <c r="AJ338" s="213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK338" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL338" s="206"/>
+      <c r="AM338" s="206"/>
+      <c r="AN338" s="206"/>
+      <c r="AO338" s="206"/>
+      <c r="AP338" s="206"/>
+      <c r="AQ338" s="207"/>
+      <c r="AS338" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="339" spans="4:45">
+      <c r="D339" s="20"/>
+      <c r="E339" s="21">
+        <f>E338+1</f>
+        <v>2</v>
+      </c>
+      <c r="F339" s="203"/>
+      <c r="G339" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H339" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I339" s="206"/>
+      <c r="J339" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K339" s="21"/>
+      <c r="L339" s="21"/>
+      <c r="M339" s="21"/>
+      <c r="N339" s="21"/>
+      <c r="O339" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P339" s="21"/>
+      <c r="Q339" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="R339" s="21"/>
+      <c r="S339" s="21"/>
+      <c r="T339" s="21"/>
+      <c r="U339" s="21"/>
+      <c r="V339" s="21"/>
+      <c r="W339" s="21"/>
+      <c r="X339" s="21"/>
+      <c r="Y339" s="21"/>
+      <c r="Z339" s="21"/>
+      <c r="AA339" s="21"/>
+      <c r="AB339" s="17"/>
+      <c r="AG339" s="21">
+        <f>AG338+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH339" s="203"/>
+      <c r="AI339" s="219" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ339" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK339" s="206"/>
+      <c r="AL339" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN339" s="21"/>
+      <c r="AO339" s="21"/>
+      <c r="AP339" s="21"/>
+      <c r="AQ339" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS339" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="340" spans="4:45">
+      <c r="D340" s="20"/>
+      <c r="E340" s="21">
+        <f>E339+1</f>
+        <v>3</v>
+      </c>
+      <c r="F340" s="203"/>
+      <c r="G340" s="21"/>
+      <c r="H340" s="21"/>
+      <c r="I340" s="206"/>
+      <c r="J340" s="21"/>
+      <c r="K340" s="21"/>
+      <c r="L340" s="21"/>
+      <c r="M340" s="21"/>
+      <c r="N340" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O340" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="P340" s="21"/>
+      <c r="Q340" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="R340" s="21"/>
+      <c r="S340" s="21"/>
+      <c r="T340" s="21"/>
+      <c r="U340" s="21"/>
+      <c r="V340" s="21"/>
+      <c r="W340" s="21"/>
+      <c r="X340" s="21"/>
+      <c r="Y340" s="21"/>
+      <c r="Z340" s="21"/>
+      <c r="AA340" s="21"/>
+      <c r="AB340" s="17"/>
+      <c r="AG340" s="21">
+        <f>AG339+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH340" s="203"/>
+      <c r="AJ340" s="21"/>
+      <c r="AK340" s="206"/>
+      <c r="AM340" s="21"/>
+      <c r="AN340" s="21"/>
+      <c r="AO340" s="21"/>
+      <c r="AP340" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ340" s="141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="4:45">
+      <c r="D341" s="20"/>
+      <c r="E341" s="21">
+        <f>E340+1</f>
+        <v>4</v>
+      </c>
+      <c r="F341" s="203"/>
+      <c r="G341" s="81"/>
+      <c r="H341" s="21"/>
+      <c r="I341" s="206"/>
+      <c r="J341" s="206"/>
+      <c r="K341" s="206"/>
+      <c r="L341" s="206"/>
+      <c r="M341" s="206"/>
+      <c r="N341" s="206"/>
+      <c r="O341" s="207"/>
+      <c r="P341" s="21"/>
+      <c r="Q341" s="21"/>
+      <c r="R341" s="21"/>
+      <c r="S341" s="21"/>
+      <c r="T341" s="21"/>
+      <c r="U341" s="21"/>
+      <c r="V341" s="21"/>
+      <c r="W341" s="21"/>
+      <c r="X341" s="21"/>
+      <c r="Y341" s="21"/>
+      <c r="Z341" s="21"/>
+      <c r="AA341" s="21"/>
+      <c r="AB341" s="17"/>
+      <c r="AG341" s="21">
+        <f>AG340+1</f>
+        <v>4</v>
+      </c>
+      <c r="AH341" s="203"/>
+      <c r="AI341" s="81"/>
+      <c r="AJ341" s="21"/>
+      <c r="AK341" s="206"/>
+      <c r="AL341" s="206"/>
+      <c r="AM341" s="206"/>
+      <c r="AN341" s="206"/>
+      <c r="AO341" s="206"/>
+      <c r="AP341" s="206"/>
+      <c r="AQ341" s="207"/>
+      <c r="AS341" s="21"/>
+    </row>
+    <row r="342" spans="4:45">
+      <c r="D342" s="20"/>
+      <c r="E342" s="21">
+        <f>E341+1</f>
+        <v>5</v>
+      </c>
+      <c r="F342" s="200"/>
+      <c r="G342" s="220"/>
+      <c r="H342" s="201"/>
+      <c r="I342" s="201"/>
+      <c r="J342" s="201"/>
+      <c r="K342" s="201"/>
+      <c r="L342" s="201"/>
+      <c r="M342" s="201"/>
+      <c r="N342" s="201"/>
+      <c r="O342" s="224"/>
+      <c r="P342" s="21"/>
+      <c r="Q342" s="21"/>
+      <c r="R342" s="21"/>
+      <c r="S342" s="21"/>
+      <c r="T342" s="21"/>
+      <c r="U342" s="21"/>
+      <c r="V342" s="21"/>
+      <c r="W342" s="21"/>
+      <c r="X342" s="21"/>
+      <c r="Y342" s="21"/>
+      <c r="Z342" s="21"/>
+      <c r="AA342" s="21"/>
+      <c r="AB342" s="17"/>
+      <c r="AG342" s="21">
+        <f>AG341+1</f>
+        <v>5</v>
+      </c>
+      <c r="AH342" s="200"/>
+      <c r="AI342" s="220"/>
+      <c r="AJ342" s="201"/>
+      <c r="AK342" s="201"/>
+      <c r="AL342" s="201"/>
+      <c r="AM342" s="201"/>
+      <c r="AN342" s="201"/>
+      <c r="AO342" s="201"/>
+      <c r="AP342" s="201"/>
+      <c r="AQ342" s="224"/>
+      <c r="AS342" s="21"/>
+    </row>
+    <row r="343" spans="4:45" ht="15" thickBot="1">
+      <c r="D343" s="22"/>
+      <c r="E343" s="23"/>
+      <c r="F343" s="23"/>
+      <c r="G343" s="23"/>
+      <c r="H343" s="23"/>
+      <c r="I343" s="23"/>
+      <c r="J343" s="23"/>
+      <c r="K343" s="23"/>
+      <c r="L343" s="23"/>
+      <c r="M343" s="23"/>
+      <c r="N343" s="23"/>
+      <c r="O343" s="23"/>
+      <c r="P343" s="23"/>
+      <c r="Q343" s="23"/>
+      <c r="R343" s="23"/>
+      <c r="S343" s="23"/>
+      <c r="T343" s="23"/>
+      <c r="U343" s="23"/>
+      <c r="V343" s="23"/>
+      <c r="W343" s="23"/>
+      <c r="X343" s="23"/>
+      <c r="Y343" s="23"/>
+      <c r="Z343" s="23"/>
+      <c r="AA343" s="23"/>
+      <c r="AB343" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29085,25 +36799,25 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="222"/>
       <c r="V10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="185" t="s">
+      <c r="A11" s="221" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="26"/>
@@ -29151,7 +36865,7 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="185"/>
+      <c r="A12" s="221"/>
       <c r="B12" s="28">
         <v>0</v>
       </c>
@@ -29190,7 +36904,7 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="185"/>
+      <c r="A13" s="221"/>
       <c r="B13" s="28">
         <f t="shared" ref="B13:B18" si="2">B12+1</f>
         <v>1</v>
@@ -29227,7 +36941,7 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="185"/>
+      <c r="A14" s="221"/>
       <c r="B14" s="28">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -29267,7 +36981,7 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="185"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="28">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -29307,7 +37021,7 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="185"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="28">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -29347,7 +37061,7 @@
       </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="185"/>
+      <c r="A17" s="221"/>
       <c r="B17" s="28">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -29384,7 +37098,7 @@
       </c>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="185"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="28">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -29424,7 +37138,7 @@
       </c>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="185"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="28">
         <f t="shared" ref="B19:B21" si="3">B18+1</f>
         <v>7</v>
@@ -29464,7 +37178,7 @@
       </c>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="185"/>
+      <c r="A20" s="221"/>
       <c r="B20" s="28">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -29501,7 +37215,7 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="185"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="28">
         <f t="shared" si="3"/>
         <v>9</v>

--- a/Snake/Documents/Helper.xlsx
+++ b/Snake/Documents/Helper.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Visual Studio Projects\Visual Studio 2019\Projetcs\Snake\Snake\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33B5D3-3600-4496-9411-77584CEF86D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704D00A-C190-47D9-A05E-8B2410FA6A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{43A73AA5-ABFD-421F-BFC1-09D3FBCE3DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="3" r:id="rId1"/>
     <sheet name="B" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="151">
   <si>
     <t>¬</t>
   </si>
@@ -350,6 +351,192 @@
   <si>
     <t>im the correct order.</t>
   </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>4 bevorzugt, da dies direkt in den HC übergehen würde</t>
+  </si>
+  <si>
+    <t>Apple hat position (13;8)</t>
+  </si>
+  <si>
+    <t>Snake length = 4</t>
+  </si>
+  <si>
+    <t>Diese Position und nicht die des Apfels ist also die Ziel Position!</t>
+  </si>
+  <si>
+    <t>Gibt es einen Weg zu dieser Ziel Position (14; 9)?</t>
+  </si>
+  <si>
+    <t>probiere es mit dem weg zum apfel der dich in den HC einphast.</t>
+  </si>
+  <si>
+    <t>Es scheint egal zu sein,</t>
+  </si>
+  <si>
+    <t>ob diagonal oder "rechtwinklig" gegangen wird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">der werg hat stets die gleiche Schrittanzahl </t>
+  </si>
+  <si>
+    <t>Punkt in der HC Abfolge, der 4 (also = snake length) Positionen vor der Apfel-Position ist lautet: (14; 9)</t>
+  </si>
+  <si>
+    <t>Hier müßten</t>
+  </si>
+  <si>
+    <t>von Varianen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also das sich snake-head, -tail und -body exakt in der Reihenfolge befinden, </t>
+  </si>
+  <si>
+    <t>die durch den HC vorgegeben wird?</t>
+  </si>
+  <si>
+    <t>ALLE MÖGLICHEN</t>
+  </si>
+  <si>
+    <t>Also MILLIARDEN</t>
+  </si>
+  <si>
+    <t>Wege überprüft</t>
+  </si>
+  <si>
+    <t>werden.</t>
+  </si>
+  <si>
+    <t>gibt es dann zumindest noch noch einen Weg,</t>
+  </si>
+  <si>
+    <t>der dafür sorgt, dass die snake die maximale Länge erreichen kann,</t>
+  </si>
+  <si>
+    <t>die durch die Spielfeldgröße vorgegeben ist!</t>
+  </si>
+  <si>
+    <t>ja:</t>
+  </si>
+  <si>
+    <t>nein:</t>
+  </si>
+  <si>
+    <t>Ist die snake schon vollständig im HC eingephast</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>ist der Abstand zwischen snake head und Apfel kleiner oder gleich mit der snake-Länge?</t>
+  </si>
+  <si>
+    <t>Keinen shortcut berechnen, sondern HC path folgen, da ...</t>
+  </si>
+  <si>
+    <t>Frage 1:</t>
+  </si>
+  <si>
+    <t>Frage 3:</t>
+  </si>
+  <si>
+    <t>Frage 2:</t>
+  </si>
+  <si>
+    <t>um die snake komplett in den Hamiltonian Cycle (=HC) einzuphasen,</t>
+  </si>
+  <si>
+    <t>Gehe auf dem kürzesten Weg zum Apfel und verzehre ihn ...</t>
+  </si>
+  <si>
+    <t>VERMUTE, dass dieser Zusatz</t>
+  </si>
+  <si>
+    <t>ersatzlos entfernt werden muss:</t>
+  </si>
+  <si>
+    <t>Nach dem Apfelverkehr gibt es offensichtlich keinen Weg, um die snake wieder in den HC einzuphasen,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ALSON NICHT DEM HC path folgt! Der HC path muss also ausgeschjloeen werden!) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn die Schlange direkt zum Apfel geht, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">und den Apfel verzehrt, </t>
+  </si>
+  <si>
+    <t>dabei nicht dem Weg folgt, der durch den HC definiert ist</t>
+  </si>
+  <si>
+    <t>HC path folgen wäre keine Abkürzung daher die entsprechende Bedingung, dass der zu untersuchende Weg nicht der ist, der dem HC Weg entspricht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denn es ist sichergestellt, das nach dem Apfelverzehr, die snake in den HC gephast werden kann, </t>
+  </si>
+  <si>
+    <t>denn ansonsten wäre die Frage (1) mit nein beantwortet worden.</t>
+  </si>
+  <si>
+    <t>In der hier betrachteten Situation ist die snake aber bereits im HC eingephast.</t>
+  </si>
+  <si>
+    <t>Einen shortcut zu berechnen und zu folgen würde also bedeuten,</t>
+  </si>
+  <si>
+    <t>nach dem Apfelverzehr keine Chance mehr zu haben in den HC eingephast zu werden.</t>
+  </si>
+  <si>
+    <t>Dies ist aber wichtig, denn der HC ist die Grundlage dafür, dass die snake die maximale Länge erreichen kann,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - snake nicht eingephast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - direkt zu apfel gehen, geht nicht, da snake danach nicht eingephast werden kann</t>
+  </si>
+  <si>
+    <t>Ziel muss also sein die snake in den HC einzuphasen.</t>
+  </si>
+  <si>
+    <t>aber sie sofort einzuphasen kann bedeuten das moves gemacht werden die eingespart werden können.</t>
+  </si>
+  <si>
+    <t>die snake muss ja nur, bzw. spätestens eingephast sein, wenn sie den Apfel frisst.</t>
+  </si>
+  <si>
+    <t>Hier kommt also die Länge der snake ins Spiel.</t>
+  </si>
+  <si>
+    <t>daher:</t>
+  </si>
+  <si>
+    <t>Wenn die snake also die position vor dem apfel erreicht, die der snake länge entspricht,</t>
+  </si>
+  <si>
+    <t>wird sich die snake bei diesen "snake-länge-vielen" moves eingephast haben, wenn sie den Apfel</t>
+  </si>
+  <si>
+    <t>verzehrt hat.</t>
+  </si>
+  <si>
+    <t>Gehe auf kürzestem Weg zu dieser Position</t>
+  </si>
+  <si>
+    <t>berechne einen path, so dass die Schlange, nach Abarbeitung dieses path, komplett im HC eingephast ist.</t>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +659,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1041,6 +1246,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C1CA8-4445-4A42-837E-08649278B969}">
   <dimension ref="A1:AN61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14:W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4699,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C7CDE-FA09-4542-9DD9-60A1EEECAB2D}">
   <dimension ref="A2:BH343"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5408,18 +5624,18 @@
         <v>2</v>
       </c>
       <c r="H26" s="49"/>
-      <c r="K26" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="K26">
+        <f>K25+1</f>
+        <v>4</v>
       </c>
       <c r="L26" s="48"/>
       <c r="M26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="49"/>
-      <c r="S26" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+      <c r="S26">
+        <f>S25+1</f>
+        <v>4</v>
       </c>
       <c r="T26" s="48"/>
       <c r="U26" s="4" t="s">
@@ -5446,9 +5662,9 @@
       <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K27" t="e">
+      <c r="K27">
         <f>K26+1</f>
-        <v>#REF!</v>
+        <v>5</v>
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="7" t="s">
@@ -5461,9 +5677,9 @@
       <c r="P27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="S27" t="e">
+      <c r="S27">
         <f>S26+1</f>
-        <v>#REF!</v>
+        <v>5</v>
       </c>
       <c r="T27" s="48"/>
       <c r="U27" s="7" t="s">
@@ -5479,20 +5695,6 @@
       <c r="Y27" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="K29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="48"/>
-      <c r="S29" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29" s="48"/>
     </row>
     <row r="42" spans="35:47" x14ac:dyDescent="0.4">
       <c r="AJ42" s="1">
@@ -17929,11 +18131,1225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C072AF83-E84E-4397-AB0A-928AA0C0DC6D}">
+  <dimension ref="B2:AZ89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="P90" sqref="P90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="51" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:L2" si="0">C2+1</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R2" s="140"/>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="R3" s="141"/>
+      <c r="T3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <f t="shared" ref="B4:B12" si="1">B3+1</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="141"/>
+      <c r="L4" s="21"/>
+      <c r="R4" s="142"/>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="143">
+        <v>1</v>
+      </c>
+      <c r="H5" s="143">
+        <v>2</v>
+      </c>
+      <c r="I5" s="143">
+        <v>3</v>
+      </c>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="F6" s="143">
+        <v>1</v>
+      </c>
+      <c r="G6" s="143">
+        <v>2</v>
+      </c>
+      <c r="I6" s="143">
+        <v>4</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="R6" s="17"/>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="F7" s="143">
+        <v>2</v>
+      </c>
+      <c r="G7" s="143">
+        <v>3</v>
+      </c>
+      <c r="H7" s="143">
+        <v>4</v>
+      </c>
+      <c r="I7" s="143">
+        <v>5</v>
+      </c>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="F8" s="143">
+        <v>3</v>
+      </c>
+      <c r="H8" s="143">
+        <v>5</v>
+      </c>
+      <c r="I8" s="143">
+        <v>6</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="R8" s="143"/>
+      <c r="T8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="F9" s="143">
+        <v>4</v>
+      </c>
+      <c r="I9" s="143">
+        <v>7</v>
+      </c>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="F10" s="143">
+        <v>5</v>
+      </c>
+      <c r="I10" s="143">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="F11" s="143">
+        <v>6</v>
+      </c>
+      <c r="G11" s="143">
+        <v>7</v>
+      </c>
+      <c r="H11" s="143">
+        <v>8</v>
+      </c>
+      <c r="I11" s="143">
+        <v>9</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="AG13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="AL17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:R18" si="2">C18+1</f>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+      <c r="T19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA19" s="145"/>
+      <c r="AC19" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="146"/>
+    </row>
+    <row r="20" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <f t="shared" ref="B20:B28" si="3">B19+1</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="141"/>
+      <c r="R20" s="21"/>
+      <c r="T20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA20" s="145"/>
+      <c r="AC20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="143">
+        <v>1</v>
+      </c>
+      <c r="H21" s="143">
+        <v>2</v>
+      </c>
+      <c r="I21" s="143">
+        <v>3</v>
+      </c>
+      <c r="J21" s="143">
+        <v>4</v>
+      </c>
+      <c r="K21" s="143">
+        <v>5</v>
+      </c>
+      <c r="L21" s="143">
+        <v>6</v>
+      </c>
+      <c r="M21" s="143">
+        <v>7</v>
+      </c>
+      <c r="N21" s="143">
+        <v>8</v>
+      </c>
+      <c r="O21" s="143">
+        <v>9</v>
+      </c>
+      <c r="R21" s="21"/>
+      <c r="T21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA21" s="145"/>
+      <c r="AC21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="F22" s="143">
+        <v>1</v>
+      </c>
+      <c r="G22" s="143">
+        <v>2</v>
+      </c>
+      <c r="O22" s="143">
+        <v>10</v>
+      </c>
+      <c r="R22" s="21"/>
+      <c r="T22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA22" s="145"/>
+      <c r="AC22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="G23" s="143">
+        <v>3</v>
+      </c>
+      <c r="H23" s="143">
+        <v>4</v>
+      </c>
+      <c r="O23" s="143">
+        <v>11</v>
+      </c>
+      <c r="R23" s="21"/>
+      <c r="T23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA23" s="145"/>
+      <c r="AC23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="H24" s="143">
+        <v>5</v>
+      </c>
+      <c r="I24" s="143">
+        <v>6</v>
+      </c>
+      <c r="O24" s="143">
+        <v>12</v>
+      </c>
+      <c r="R24" s="21"/>
+      <c r="T24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA24" s="145"/>
+      <c r="AC24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="I25" s="143">
+        <v>7</v>
+      </c>
+      <c r="J25" s="143">
+        <v>8</v>
+      </c>
+      <c r="O25" s="143">
+        <v>13</v>
+      </c>
+      <c r="R25" s="21"/>
+      <c r="AC25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="J26" s="143">
+        <v>9</v>
+      </c>
+      <c r="K26" s="143">
+        <v>10</v>
+      </c>
+      <c r="O26" s="143">
+        <v>14</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="21"/>
+      <c r="AC26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="K27" s="143">
+        <v>11</v>
+      </c>
+      <c r="L27" s="143">
+        <v>12</v>
+      </c>
+      <c r="M27" s="143">
+        <v>13</v>
+      </c>
+      <c r="N27" s="143">
+        <v>14</v>
+      </c>
+      <c r="O27" s="143">
+        <v>15</v>
+      </c>
+      <c r="P27" s="17"/>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27" s="21"/>
+    </row>
+    <row r="28" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="31"/>
+      <c r="AC28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="AD29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="AE30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="AE31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="AE32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AC34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AD35" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE35" s="146"/>
+      <c r="AF35" s="146"/>
+    </row>
+    <row r="36" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AD36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF37" s="142" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG37" s="142"/>
+      <c r="AH37" s="142"/>
+      <c r="AI37" s="142"/>
+      <c r="AJ37" s="142"/>
+      <c r="AK37" s="142"/>
+      <c r="AL37" s="142"/>
+      <c r="AM37" s="142"/>
+      <c r="AN37" s="142"/>
+      <c r="AP37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF38" s="142" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG38" s="142"/>
+      <c r="AH38" s="142"/>
+      <c r="AI38" s="142"/>
+      <c r="AJ38" s="142"/>
+      <c r="AK38" s="142"/>
+      <c r="AL38" s="142"/>
+      <c r="AM38" s="142"/>
+      <c r="AN38" s="142"/>
+      <c r="AP38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AD40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AE41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="29:42" x14ac:dyDescent="0.4">
+      <c r="AF48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AD50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="AE60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:T61" si="4">E61+1</f>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="109"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="29"/>
+      <c r="AE62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D63">
+        <f t="shared" ref="D63:D71" si="5">D62+1</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="21"/>
+      <c r="AE63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="4:31" x14ac:dyDescent="0.4">
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="21"/>
+      <c r="AE64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="21"/>
+      <c r="AE65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="21"/>
+      <c r="AE66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="21"/>
+      <c r="AE67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="21"/>
+      <c r="AE68" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF68" s="146"/>
+      <c r="AG68" s="146"/>
+    </row>
+    <row r="69" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="21"/>
+      <c r="AE69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="21"/>
+      <c r="AE70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E71" s="30"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="31"/>
+      <c r="AF71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="AE73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="4:33" x14ac:dyDescent="0.4">
+      <c r="AF74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ref="F81:T81" si="6">E81+1</f>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="147"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="56"/>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D83">
+        <f t="shared" ref="D83:D91" si="7">D82+1</f>
+        <v>1</v>
+      </c>
+      <c r="E83" s="62"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="58"/>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E84" s="62"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="58"/>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E85" s="148"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="58"/>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E86" s="20"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="58"/>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E87" s="20"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="58"/>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D88">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="E88" s="20"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="58"/>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E89" s="149"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="150"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED405DBE-15DD-4130-B31E-6D15D7D4142D}">
   <dimension ref="C2:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -18374,7 +19790,7 @@
     </row>
     <row r="15" spans="3:26" x14ac:dyDescent="0.4">
       <c r="C15">
-        <f t="shared" ref="C15:C20" si="5">C14+1</f>
+        <f t="shared" ref="C15:C19" si="5">C14+1</f>
         <v>1</v>
       </c>
       <c r="D15" s="26" t="s">
@@ -18426,11 +19842,11 @@
       <c r="D16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E16" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="3" t="s">
         <v>1</v>
       </c>
@@ -18454,7 +19870,9 @@
       <c r="D17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="7" t="s">
         <v>2</v>
@@ -18485,7 +19903,9 @@
       <c r="D18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="7" t="s">
         <v>2</v>
@@ -18516,7 +19936,9 @@
       <c r="D19" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
         <v>2</v>
@@ -18548,11 +19970,9 @@
       <c r="D20" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
+      <c r="E20" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
